--- a/_Out/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Item.xlsx
@@ -854,6 +854,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -861,7 +868,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -885,6 +892,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -892,15 +921,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -914,54 +959,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -975,16 +975,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1036,19 +1036,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,13 +1084,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,37 +1156,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,79 +1192,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,6 +1283,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1303,15 +1318,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1328,30 +1334,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1362,6 +1344,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1385,7 +1385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1403,130 +1403,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1960,7 +1960,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E$1:E$1048576"/>
+      <selection pane="bottomRight" activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/_Out/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Item.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266">
   <si>
     <t>Id</t>
   </si>
@@ -81,6 +81,9 @@
     <t>Extend</t>
   </si>
   <si>
+    <t>SpriteFile</t>
+  </si>
+  <si>
     <t>Icon</t>
   </si>
   <si>
@@ -190,6 +193,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>UIResources/Sprites/Item</t>
   </si>
   <si>
     <t>1_Gold</t>
@@ -824,10 +830,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -861,16 +867,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -882,9 +889,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -899,7 +906,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -914,9 +951,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -930,6 +967,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -937,7 +982,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -951,47 +996,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1036,19 +1042,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,7 +1054,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,85 +1066,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,7 +1090,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,7 +1150,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,19 +1198,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,36 +1289,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1351,8 +1331,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1360,8 +1351,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1385,7 +1391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1403,130 +1409,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1953,14 +1959,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:U137"/>
+  <dimension ref="A1:V137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="M125" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A138" sqref="A138"/>
+      <selection pane="bottomRight" activeCell="S11" sqref="S11:S137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1983,11 +1989,12 @@
     <col min="17" max="17" width="14" customWidth="1"/>
     <col min="18" max="18" width="18.6637168141593" customWidth="1"/>
     <col min="19" max="19" width="23.3362831858407" customWidth="1"/>
-    <col min="20" max="20" width="21.5044247787611" customWidth="1"/>
-    <col min="21" max="21" width="8.66371681415929" customWidth="1"/>
+    <col min="20" max="20" width="23.3362831858407" customWidth="1"/>
+    <col min="21" max="21" width="21.5044247787611" customWidth="1"/>
+    <col min="22" max="22" width="8.66371681415929" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:21">
+    <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2051,75 +2058,81 @@
       <c r="U1" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:21">
+      <c r="V1" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:22">
       <c r="A2" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="G2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="L2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="P2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:21">
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:22">
       <c r="A3" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="10" t="b">
         <v>0</v>
@@ -2181,10 +2194,13 @@
       <c r="U3" s="10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:21">
+      <c r="V3" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:22">
       <c r="A4" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="10" t="b">
         <v>0</v>
@@ -2246,10 +2262,13 @@
       <c r="U4" s="10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:21">
+      <c r="V4" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:22">
       <c r="A5" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="10" t="b">
         <v>0</v>
@@ -2311,10 +2330,13 @@
       <c r="U5" s="10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:21">
+      <c r="V5" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:22">
       <c r="A6" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="10" t="b">
         <v>0</v>
@@ -2376,10 +2398,13 @@
       <c r="U6" s="10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="13.5" spans="1:21">
+      <c r="V6" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="13.5" spans="1:22">
       <c r="A7" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>0</v>
@@ -2436,15 +2461,18 @@
         <v>0</v>
       </c>
       <c r="T7" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="13.5" spans="1:21">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="13.5" spans="1:22">
       <c r="A8" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
@@ -2506,64 +2534,67 @@
       <c r="U8" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="92" customHeight="1" spans="1:21">
+      <c r="V8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="92" customHeight="1" spans="1:22">
       <c r="A9" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="T9" s="10" t="s">
         <v>50</v>
@@ -2571,10 +2602,13 @@
       <c r="U9" s="10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" s="4" customFormat="1" spans="1:21">
+      <c r="V9" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" spans="1:22">
       <c r="A10" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="13">
         <v>2</v>
@@ -2590,10 +2624,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -2618,18 +2652,21 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="U10" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" s="4" customFormat="1" spans="1:21">
+        <v>57</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="V10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="4" customFormat="1" spans="1:22">
       <c r="A11" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B11" s="14">
         <v>2</v>
@@ -2645,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -2673,18 +2710,21 @@
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
       <c r="S11" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="U11" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" s="4" customFormat="1" spans="1:21">
+        <v>61</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="V11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="4" customFormat="1" spans="1:22">
       <c r="A12" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B12" s="13">
         <v>2</v>
@@ -2700,10 +2740,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -2728,18 +2768,21 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="13"/>
       <c r="S12" s="12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="U12" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="4" customFormat="1" spans="1:21">
+        <v>64</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="V12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="4" customFormat="1" spans="1:22">
       <c r="A13" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" s="14">
         <v>2</v>
@@ -2755,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -2783,18 +2826,21 @@
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
       <c r="S13" s="12" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="U13" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" s="4" customFormat="1" spans="1:21">
+        <v>67</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="V13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="4" customFormat="1" spans="1:22">
       <c r="A14" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B14" s="14">
         <v>2</v>
@@ -2810,10 +2856,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -2838,18 +2884,21 @@
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
       <c r="S14" s="12" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="U14" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" s="4" customFormat="1" spans="1:21">
+        <v>70</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="V14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="4" customFormat="1" spans="1:22">
       <c r="A15" s="15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B15" s="14">
         <v>2</v>
@@ -2865,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="14"/>
@@ -2891,18 +2940,21 @@
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="12" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="U15" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" s="4" customFormat="1" spans="1:21">
+        <v>72</v>
+      </c>
+      <c r="U15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="V15" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="4" customFormat="1" spans="1:22">
       <c r="A16" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="13">
         <v>2</v>
@@ -2918,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="14"/>
@@ -2943,19 +2995,22 @@
       </c>
       <c r="Q16" s="14"/>
       <c r="R16" s="13"/>
-      <c r="S16" s="15" t="s">
-        <v>73</v>
+      <c r="S16" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T16" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="U16" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" s="4" customFormat="1" spans="1:21">
+        <v>75</v>
+      </c>
+      <c r="U16" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="V16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="4" customFormat="1" spans="1:22">
       <c r="A17" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B17" s="14">
         <v>2</v>
@@ -2971,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="14"/>
@@ -2996,19 +3051,22 @@
       </c>
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
-      <c r="S17" s="15" t="s">
+      <c r="S17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T17" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="U17" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="T17" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="U17" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" s="4" customFormat="1" spans="1:21">
+      <c r="V17" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="4" customFormat="1" spans="1:22">
       <c r="A18" s="15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B18" s="13">
         <v>2</v>
@@ -3024,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="14"/>
@@ -3049,19 +3107,22 @@
       </c>
       <c r="Q18" s="14"/>
       <c r="R18" s="13"/>
-      <c r="S18" s="15" t="s">
-        <v>78</v>
+      <c r="S18" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T18" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="U18" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" s="4" customFormat="1" spans="1:21">
+        <v>80</v>
+      </c>
+      <c r="U18" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="V18" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="4" customFormat="1" spans="1:22">
       <c r="A19" s="15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B19" s="14">
         <v>2</v>
@@ -3077,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="14"/>
@@ -3102,19 +3163,22 @@
       </c>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
-      <c r="S19" s="15" t="s">
-        <v>80</v>
+      <c r="S19" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T19" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="U19" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" s="4" customFormat="1" spans="1:21">
+        <v>82</v>
+      </c>
+      <c r="U19" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="V19" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="4" customFormat="1" spans="1:22">
       <c r="A20" s="15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B20" s="14">
         <v>2</v>
@@ -3130,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="14"/>
@@ -3155,19 +3219,22 @@
       </c>
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
-      <c r="S20" s="15" t="s">
-        <v>82</v>
+      <c r="S20" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T20" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="U20" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" s="4" customFormat="1" spans="1:21">
+        <v>84</v>
+      </c>
+      <c r="U20" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="V20" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="4" customFormat="1" spans="1:22">
       <c r="A21" s="15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B21" s="14">
         <v>2</v>
@@ -3183,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="14"/>
@@ -3208,19 +3275,22 @@
       </c>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
-      <c r="S21" s="15" t="s">
-        <v>84</v>
+      <c r="S21" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T21" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="U21" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" s="4" customFormat="1" spans="1:21">
+        <v>86</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="V21" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="4" customFormat="1" spans="1:22">
       <c r="A22" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B22" s="13">
         <v>2</v>
@@ -3236,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="14"/>
@@ -3261,19 +3331,22 @@
       </c>
       <c r="Q22" s="14"/>
       <c r="R22" s="13"/>
-      <c r="S22" s="15" t="s">
-        <v>87</v>
+      <c r="S22" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T22" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="U22" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" s="4" customFormat="1" spans="1:21">
+        <v>89</v>
+      </c>
+      <c r="U22" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="V22" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="4" customFormat="1" spans="1:22">
       <c r="A23" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B23" s="14">
         <v>2</v>
@@ -3289,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="14"/>
@@ -3314,19 +3387,22 @@
       </c>
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
-      <c r="S23" s="15" t="s">
+      <c r="S23" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T23" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="U23" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="T23" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="U23" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" s="4" customFormat="1" spans="1:21">
+      <c r="V23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="4" customFormat="1" spans="1:22">
       <c r="A24" s="15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="13">
         <v>2</v>
@@ -3342,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="14"/>
@@ -3367,19 +3443,22 @@
       </c>
       <c r="Q24" s="14"/>
       <c r="R24" s="13"/>
-      <c r="S24" s="15" t="s">
-        <v>92</v>
+      <c r="S24" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T24" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="U24" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" s="4" customFormat="1" spans="1:21">
+        <v>94</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="V24" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="4" customFormat="1" spans="1:22">
       <c r="A25" s="15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B25" s="14">
         <v>2</v>
@@ -3395,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="14"/>
@@ -3420,19 +3499,22 @@
       </c>
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
-      <c r="S25" s="15" t="s">
-        <v>94</v>
+      <c r="S25" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="U25" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" s="4" customFormat="1" spans="1:21">
+        <v>96</v>
+      </c>
+      <c r="U25" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="V25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" s="4" customFormat="1" spans="1:22">
       <c r="A26" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B26" s="14">
         <v>2</v>
@@ -3448,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="14"/>
@@ -3473,19 +3555,22 @@
       </c>
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
-      <c r="S26" s="15" t="s">
-        <v>96</v>
+      <c r="S26" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T26" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="U26" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" s="4" customFormat="1" spans="1:21">
+        <v>98</v>
+      </c>
+      <c r="U26" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="V26" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" s="4" customFormat="1" spans="1:22">
       <c r="A27" s="15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B27" s="14">
         <v>2</v>
@@ -3501,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="14"/>
@@ -3526,19 +3611,22 @@
       </c>
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
-      <c r="S27" s="15" t="s">
-        <v>98</v>
+      <c r="S27" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T27" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="U27" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" s="4" customFormat="1" spans="1:21">
+        <v>100</v>
+      </c>
+      <c r="U27" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="V27" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" s="4" customFormat="1" spans="1:22">
       <c r="A28" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B28" s="13">
         <v>2</v>
@@ -3554,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="14"/>
@@ -3579,19 +3667,22 @@
       </c>
       <c r="Q28" s="14"/>
       <c r="R28" s="13"/>
-      <c r="S28" s="15" t="s">
-        <v>101</v>
+      <c r="S28" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T28" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="U28" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" s="4" customFormat="1" spans="1:21">
+        <v>103</v>
+      </c>
+      <c r="U28" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="V28" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="4" customFormat="1" spans="1:22">
       <c r="A29" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B29" s="14">
         <v>2</v>
@@ -3607,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="14"/>
@@ -3632,19 +3723,22 @@
       </c>
       <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
-      <c r="S29" s="15" t="s">
+      <c r="S29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T29" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="U29" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="T29" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="U29" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" s="4" customFormat="1" spans="1:21">
+      <c r="V29" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="4" customFormat="1" spans="1:22">
       <c r="A30" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B30" s="13">
         <v>2</v>
@@ -3660,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="14"/>
@@ -3685,19 +3779,22 @@
       </c>
       <c r="Q30" s="14"/>
       <c r="R30" s="13"/>
-      <c r="S30" s="15" t="s">
-        <v>106</v>
+      <c r="S30" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T30" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="U30" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" s="4" customFormat="1" spans="1:21">
+        <v>108</v>
+      </c>
+      <c r="U30" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="V30" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="4" customFormat="1" spans="1:22">
       <c r="A31" s="15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B31" s="14">
         <v>2</v>
@@ -3713,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="14"/>
@@ -3738,19 +3835,22 @@
       </c>
       <c r="Q31" s="14"/>
       <c r="R31" s="14"/>
-      <c r="S31" s="15" t="s">
-        <v>108</v>
+      <c r="S31" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T31" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="U31" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" s="4" customFormat="1" spans="1:21">
+        <v>110</v>
+      </c>
+      <c r="U31" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="V31" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" s="4" customFormat="1" spans="1:22">
       <c r="A32" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B32" s="13">
         <v>2</v>
@@ -3766,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="14"/>
@@ -3791,19 +3891,22 @@
       </c>
       <c r="Q32" s="14"/>
       <c r="R32" s="13"/>
-      <c r="S32" s="15" t="s">
-        <v>110</v>
+      <c r="S32" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T32" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="U32" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" s="4" customFormat="1" spans="1:21">
+        <v>112</v>
+      </c>
+      <c r="U32" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="V32" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" s="4" customFormat="1" spans="1:22">
       <c r="A33" s="15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B33" s="14">
         <v>2</v>
@@ -3819,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="14"/>
@@ -3844,19 +3947,22 @@
       </c>
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
-      <c r="S33" s="15" t="s">
-        <v>112</v>
+      <c r="S33" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T33" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="U33" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" s="4" customFormat="1" spans="1:21">
+        <v>114</v>
+      </c>
+      <c r="U33" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="V33" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" s="4" customFormat="1" spans="1:22">
       <c r="A34" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B34" s="13">
         <v>2</v>
@@ -3872,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="14"/>
@@ -3897,19 +4003,22 @@
       </c>
       <c r="Q34" s="14"/>
       <c r="R34" s="13"/>
-      <c r="S34" s="14" t="s">
-        <v>115</v>
+      <c r="S34" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T34" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="U34" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" s="4" customFormat="1" spans="1:21">
+        <v>117</v>
+      </c>
+      <c r="U34" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="V34" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" s="4" customFormat="1" spans="1:22">
       <c r="A35" s="14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B35" s="14">
         <v>2</v>
@@ -3925,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="14"/>
@@ -3950,19 +4059,22 @@
       </c>
       <c r="Q35" s="14"/>
       <c r="R35" s="14"/>
-      <c r="S35" s="14" t="s">
-        <v>115</v>
+      <c r="S35" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T35" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="U35" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" s="4" customFormat="1" spans="1:21">
+        <v>117</v>
+      </c>
+      <c r="U35" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="V35" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" s="4" customFormat="1" spans="1:22">
       <c r="A36" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B36" s="13">
         <v>2</v>
@@ -3978,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="14"/>
@@ -4003,19 +4115,22 @@
       </c>
       <c r="Q36" s="14"/>
       <c r="R36" s="13"/>
-      <c r="S36" s="14" t="s">
-        <v>115</v>
+      <c r="S36" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T36" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="U36" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" s="4" customFormat="1" spans="1:21">
+        <v>117</v>
+      </c>
+      <c r="U36" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="V36" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" s="4" customFormat="1" spans="1:22">
       <c r="A37" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B37" s="14">
         <v>2</v>
@@ -4031,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="14"/>
@@ -4056,19 +4171,22 @@
       </c>
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
-      <c r="S37" s="14" t="s">
-        <v>115</v>
+      <c r="S37" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T37" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="U37" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" s="4" customFormat="1" spans="1:21">
+        <v>117</v>
+      </c>
+      <c r="U37" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="V37" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" s="4" customFormat="1" spans="1:22">
       <c r="A38" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B38" s="13">
         <v>2</v>
@@ -4084,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="14"/>
@@ -4109,19 +4227,22 @@
       </c>
       <c r="Q38" s="14"/>
       <c r="R38" s="13"/>
-      <c r="S38" s="14" t="s">
-        <v>115</v>
+      <c r="S38" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T38" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="U38" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" s="4" customFormat="1" spans="1:21">
+        <v>117</v>
+      </c>
+      <c r="U38" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="V38" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" s="4" customFormat="1" spans="1:22">
       <c r="A39" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B39" s="14">
         <v>2</v>
@@ -4137,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="14"/>
@@ -4162,19 +4283,22 @@
       </c>
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
-      <c r="S39" s="14" t="s">
-        <v>115</v>
+      <c r="S39" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T39" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="U39" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" s="4" customFormat="1" spans="1:21">
+        <v>117</v>
+      </c>
+      <c r="U39" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="V39" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" s="4" customFormat="1" spans="1:22">
       <c r="A40" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B40" s="14">
         <v>2</v>
@@ -4190,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="14"/>
@@ -4215,19 +4339,22 @@
       </c>
       <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
-      <c r="S40" s="15" t="s">
-        <v>124</v>
+      <c r="S40" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T40" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="U40" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" s="4" customFormat="1" spans="1:21">
+        <v>126</v>
+      </c>
+      <c r="U40" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="V40" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" s="4" customFormat="1" spans="1:22">
       <c r="A41" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B41" s="13">
         <v>2</v>
@@ -4243,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="14"/>
@@ -4268,19 +4395,22 @@
       </c>
       <c r="Q41" s="14"/>
       <c r="R41" s="13"/>
-      <c r="S41" s="15" t="s">
+      <c r="S41" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T41" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="U41" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="T41" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="U41" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" s="4" customFormat="1" spans="1:21">
+      <c r="V41" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="4" customFormat="1" spans="1:22">
       <c r="A42" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B42" s="14">
         <v>2</v>
@@ -4296,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="14"/>
@@ -4321,19 +4451,22 @@
       </c>
       <c r="Q42" s="14"/>
       <c r="R42" s="14"/>
-      <c r="S42" s="15" t="s">
-        <v>129</v>
+      <c r="S42" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T42" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="U42" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" s="4" customFormat="1" spans="1:21">
+        <v>131</v>
+      </c>
+      <c r="U42" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="V42" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" s="4" customFormat="1" spans="1:22">
       <c r="A43" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B43" s="13">
         <v>2</v>
@@ -4349,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H43" s="15"/>
       <c r="I43" s="14"/>
@@ -4374,19 +4507,22 @@
       </c>
       <c r="Q43" s="14"/>
       <c r="R43" s="13"/>
-      <c r="S43" s="15" t="s">
-        <v>131</v>
+      <c r="S43" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T43" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="U43" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" s="4" customFormat="1" spans="1:21">
+        <v>133</v>
+      </c>
+      <c r="U43" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="V43" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" s="4" customFormat="1" spans="1:22">
       <c r="A44" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B44" s="14">
         <v>2</v>
@@ -4402,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="14"/>
@@ -4427,19 +4563,22 @@
       </c>
       <c r="Q44" s="14"/>
       <c r="R44" s="14"/>
-      <c r="S44" s="15" t="s">
-        <v>133</v>
+      <c r="S44" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T44" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="U44" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" s="4" customFormat="1" spans="1:21">
+        <v>135</v>
+      </c>
+      <c r="U44" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="V44" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" s="4" customFormat="1" spans="1:22">
       <c r="A45" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B45" s="13">
         <v>2</v>
@@ -4455,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H45" s="15"/>
       <c r="I45" s="14"/>
@@ -4480,19 +4619,22 @@
       </c>
       <c r="Q45" s="14"/>
       <c r="R45" s="13"/>
-      <c r="S45" s="15" t="s">
-        <v>135</v>
+      <c r="S45" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T45" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="U45" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" s="5" customFormat="1" spans="1:21">
+        <v>137</v>
+      </c>
+      <c r="U45" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="V45" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" s="5" customFormat="1" spans="1:22">
       <c r="A46" s="16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B46" s="17">
         <v>5</v>
@@ -4508,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
@@ -4533,19 +4675,22 @@
       </c>
       <c r="Q46" s="17"/>
       <c r="R46" s="17"/>
-      <c r="S46" s="16" t="s">
-        <v>136</v>
+      <c r="S46" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T46" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="U46" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" s="5" customFormat="1" spans="1:21">
+      <c r="U46" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="V46" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" s="5" customFormat="1" spans="1:22">
       <c r="A47" s="16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B47" s="18">
         <v>5</v>
@@ -4561,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
@@ -4586,19 +4731,22 @@
       </c>
       <c r="Q47" s="17"/>
       <c r="R47" s="18"/>
-      <c r="S47" s="16" t="s">
-        <v>139</v>
+      <c r="S47" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T47" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="U47" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" s="5" customFormat="1" spans="1:21">
+        <v>141</v>
+      </c>
+      <c r="U47" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="V47" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" s="5" customFormat="1" spans="1:22">
       <c r="A48" s="16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B48" s="17">
         <v>5</v>
@@ -4614,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
@@ -4639,19 +4787,22 @@
       </c>
       <c r="Q48" s="17"/>
       <c r="R48" s="17"/>
-      <c r="S48" s="16" t="s">
+      <c r="S48" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T48" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="U48" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="T48" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="U48" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" s="5" customFormat="1" spans="1:21">
+      <c r="V48" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" s="5" customFormat="1" spans="1:22">
       <c r="A49" s="16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B49" s="18">
         <v>5</v>
@@ -4667,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
@@ -4692,19 +4843,22 @@
       </c>
       <c r="Q49" s="17"/>
       <c r="R49" s="18"/>
-      <c r="S49" s="16" t="s">
-        <v>141</v>
+      <c r="S49" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T49" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="U49" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" s="5" customFormat="1" spans="1:21">
+        <v>143</v>
+      </c>
+      <c r="U49" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="V49" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" s="5" customFormat="1" spans="1:22">
       <c r="A50" s="16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B50" s="17">
         <v>5</v>
@@ -4720,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
@@ -4745,19 +4899,22 @@
       </c>
       <c r="Q50" s="17"/>
       <c r="R50" s="17"/>
-      <c r="S50" s="16" t="s">
-        <v>142</v>
+      <c r="S50" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T50" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="U50" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" s="5" customFormat="1" spans="1:21">
+        <v>144</v>
+      </c>
+      <c r="U50" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="V50" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" s="5" customFormat="1" spans="1:22">
       <c r="A51" s="16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B51" s="18">
         <v>5</v>
@@ -4773,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
@@ -4798,19 +4955,22 @@
       </c>
       <c r="Q51" s="17"/>
       <c r="R51" s="18"/>
-      <c r="S51" s="16" t="s">
-        <v>143</v>
+      <c r="S51" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T51" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="U51" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" s="5" customFormat="1" spans="1:21">
+        <v>145</v>
+      </c>
+      <c r="U51" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="V51" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" s="5" customFormat="1" spans="1:22">
       <c r="A52" s="16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B52" s="17">
         <v>5</v>
@@ -4826,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
@@ -4851,19 +5011,22 @@
       </c>
       <c r="Q52" s="17"/>
       <c r="R52" s="17"/>
-      <c r="S52" s="16" t="s">
-        <v>144</v>
+      <c r="S52" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T52" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="U52" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" s="5" customFormat="1" spans="1:21">
+        <v>146</v>
+      </c>
+      <c r="U52" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="V52" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" s="5" customFormat="1" spans="1:22">
       <c r="A53" s="16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B53" s="18">
         <v>5</v>
@@ -4879,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
@@ -4904,19 +5067,22 @@
       </c>
       <c r="Q53" s="17"/>
       <c r="R53" s="18"/>
-      <c r="S53" s="16" t="s">
-        <v>145</v>
+      <c r="S53" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T53" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="U53" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" s="5" customFormat="1" spans="1:21">
+        <v>147</v>
+      </c>
+      <c r="U53" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="V53" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" s="5" customFormat="1" spans="1:22">
       <c r="A54" s="16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B54" s="17">
         <v>5</v>
@@ -4932,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
@@ -4957,19 +5123,22 @@
       </c>
       <c r="Q54" s="17"/>
       <c r="R54" s="17"/>
-      <c r="S54" s="16" t="s">
-        <v>146</v>
+      <c r="S54" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T54" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="U54" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" s="5" customFormat="1" spans="1:21">
+        <v>148</v>
+      </c>
+      <c r="U54" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="V54" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" s="5" customFormat="1" spans="1:22">
       <c r="A55" s="16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B55" s="18">
         <v>5</v>
@@ -4985,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
@@ -5010,19 +5179,22 @@
       </c>
       <c r="Q55" s="17"/>
       <c r="R55" s="18"/>
-      <c r="S55" s="16" t="s">
-        <v>147</v>
+      <c r="S55" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T55" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="U55" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" s="5" customFormat="1" spans="1:21">
+        <v>149</v>
+      </c>
+      <c r="U55" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="V55" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" s="5" customFormat="1" spans="1:22">
       <c r="A56" s="16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B56" s="17">
         <v>5</v>
@@ -5038,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
@@ -5063,19 +5235,22 @@
       </c>
       <c r="Q56" s="17"/>
       <c r="R56" s="17"/>
-      <c r="S56" s="16" t="s">
-        <v>148</v>
+      <c r="S56" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T56" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="U56" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" s="5" customFormat="1" spans="1:21">
+      <c r="U56" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="V56" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" s="5" customFormat="1" spans="1:22">
       <c r="A57" s="16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B57" s="18">
         <v>5</v>
@@ -5091,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
@@ -5116,19 +5291,22 @@
       </c>
       <c r="Q57" s="17"/>
       <c r="R57" s="18"/>
-      <c r="S57" s="16" t="s">
-        <v>151</v>
+      <c r="S57" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T57" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="U57" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" s="5" customFormat="1" spans="1:21">
+        <v>153</v>
+      </c>
+      <c r="U57" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="V57" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" s="5" customFormat="1" spans="1:22">
       <c r="A58" s="16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B58" s="17">
         <v>5</v>
@@ -5144,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
@@ -5169,19 +5347,22 @@
       </c>
       <c r="Q58" s="17"/>
       <c r="R58" s="17"/>
-      <c r="S58" s="16" t="s">
+      <c r="S58" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T58" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="U58" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="T58" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="U58" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" s="5" customFormat="1" spans="1:21">
+      <c r="V58" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" s="5" customFormat="1" spans="1:22">
       <c r="A59" s="16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B59" s="18">
         <v>5</v>
@@ -5197,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
@@ -5222,19 +5403,22 @@
       </c>
       <c r="Q59" s="17"/>
       <c r="R59" s="18"/>
-      <c r="S59" s="16" t="s">
-        <v>153</v>
+      <c r="S59" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T59" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="U59" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" s="5" customFormat="1" spans="1:21">
+        <v>155</v>
+      </c>
+      <c r="U59" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="V59" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" s="5" customFormat="1" spans="1:22">
       <c r="A60" s="19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B60" s="17">
         <v>5</v>
@@ -5250,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
@@ -5275,19 +5459,22 @@
       </c>
       <c r="Q60" s="20"/>
       <c r="R60" s="20"/>
-      <c r="S60" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="T60" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="U60" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" s="5" customFormat="1" spans="1:21">
+      <c r="S60" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T60" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="U60" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="V60" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" s="5" customFormat="1" spans="1:22">
       <c r="A61" s="19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B61" s="17">
         <v>5</v>
@@ -5303,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
@@ -5328,19 +5515,22 @@
       </c>
       <c r="Q61" s="20"/>
       <c r="R61" s="20"/>
-      <c r="S61" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="T61" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="U61" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" s="6" customFormat="1" spans="1:21">
+      <c r="S61" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T61" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="U61" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="V61" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" s="6" customFormat="1" spans="1:22">
       <c r="A62" s="22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B62" s="22">
         <v>1</v>
@@ -5356,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
@@ -5381,19 +5571,22 @@
       </c>
       <c r="Q62" s="22"/>
       <c r="R62" s="22"/>
-      <c r="S62" s="22" t="s">
-        <v>156</v>
+      <c r="S62" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T62" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="U62" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" s="6" customFormat="1" spans="1:21">
+      <c r="U62" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="V62" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" s="6" customFormat="1" spans="1:22">
       <c r="A63" s="22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B63" s="22">
         <v>1</v>
@@ -5409,7 +5602,7 @@
         <v>2</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
@@ -5434,19 +5627,22 @@
       </c>
       <c r="Q63" s="22"/>
       <c r="R63" s="22"/>
-      <c r="S63" s="22" t="s">
-        <v>159</v>
+      <c r="S63" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T63" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="U63" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" s="6" customFormat="1" spans="1:21">
+        <v>161</v>
+      </c>
+      <c r="U63" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="V63" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" s="6" customFormat="1" spans="1:22">
       <c r="A64" s="22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B64" s="22">
         <v>1</v>
@@ -5462,7 +5658,7 @@
         <v>3</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H64" s="22"/>
       <c r="I64" s="22"/>
@@ -5487,19 +5683,22 @@
       </c>
       <c r="Q64" s="22"/>
       <c r="R64" s="22"/>
-      <c r="S64" s="22" t="s">
+      <c r="S64" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T64" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="U64" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="T64" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="U64" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" s="6" customFormat="1" spans="1:21">
+      <c r="V64" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" s="6" customFormat="1" spans="1:22">
       <c r="A65" s="22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B65" s="22">
         <v>1</v>
@@ -5515,7 +5714,7 @@
         <v>4</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H65" s="22"/>
       <c r="I65" s="22"/>
@@ -5540,19 +5739,22 @@
       </c>
       <c r="Q65" s="22"/>
       <c r="R65" s="22"/>
-      <c r="S65" s="22" t="s">
-        <v>161</v>
+      <c r="S65" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T65" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="U65" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" s="6" customFormat="1" spans="1:21">
+        <v>163</v>
+      </c>
+      <c r="U65" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="V65" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" s="6" customFormat="1" spans="1:22">
       <c r="A66" s="22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B66" s="22">
         <v>1</v>
@@ -5568,7 +5770,7 @@
         <v>5</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
@@ -5593,19 +5795,22 @@
       </c>
       <c r="Q66" s="22"/>
       <c r="R66" s="22"/>
-      <c r="S66" s="22" t="s">
-        <v>162</v>
+      <c r="S66" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T66" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="U66" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" s="6" customFormat="1" spans="1:21">
+        <v>164</v>
+      </c>
+      <c r="U66" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="V66" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" s="6" customFormat="1" spans="1:22">
       <c r="A67" s="22" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B67" s="22">
         <v>1</v>
@@ -5621,7 +5826,7 @@
         <v>6</v>
       </c>
       <c r="G67" s="22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
@@ -5646,19 +5851,22 @@
       </c>
       <c r="Q67" s="22"/>
       <c r="R67" s="22"/>
-      <c r="S67" s="22" t="s">
-        <v>163</v>
+      <c r="S67" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T67" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="U67" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" s="6" customFormat="1" spans="1:21">
+        <v>165</v>
+      </c>
+      <c r="U67" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="V67" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" s="6" customFormat="1" spans="1:22">
       <c r="A68" s="22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B68" s="22">
         <v>1</v>
@@ -5674,7 +5882,7 @@
         <v>7</v>
       </c>
       <c r="G68" s="22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H68" s="22"/>
       <c r="I68" s="22"/>
@@ -5699,19 +5907,22 @@
       </c>
       <c r="Q68" s="22"/>
       <c r="R68" s="22"/>
-      <c r="S68" s="22" t="s">
-        <v>164</v>
+      <c r="S68" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T68" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="U68" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" s="6" customFormat="1" spans="1:21">
+        <v>166</v>
+      </c>
+      <c r="U68" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="V68" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" s="6" customFormat="1" spans="1:22">
       <c r="A69" s="22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B69" s="22">
         <v>1</v>
@@ -5727,7 +5938,7 @@
         <v>8</v>
       </c>
       <c r="G69" s="22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
@@ -5752,19 +5963,22 @@
       </c>
       <c r="Q69" s="22"/>
       <c r="R69" s="22"/>
-      <c r="S69" s="22" t="s">
-        <v>165</v>
+      <c r="S69" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T69" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="U69" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" s="6" customFormat="1" spans="1:21">
+        <v>167</v>
+      </c>
+      <c r="U69" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="V69" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" s="6" customFormat="1" spans="1:22">
       <c r="A70" s="22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B70" s="22">
         <v>1</v>
@@ -5780,7 +5994,7 @@
         <v>9</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
@@ -5805,19 +6019,22 @@
       </c>
       <c r="Q70" s="22"/>
       <c r="R70" s="22"/>
-      <c r="S70" s="22" t="s">
-        <v>166</v>
+      <c r="S70" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T70" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="U70" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" s="6" customFormat="1" spans="1:21">
+        <v>168</v>
+      </c>
+      <c r="U70" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="V70" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" s="6" customFormat="1" spans="1:22">
       <c r="A71" s="22" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B71" s="22">
         <v>1</v>
@@ -5833,7 +6050,7 @@
         <v>10</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H71" s="22"/>
       <c r="I71" s="22"/>
@@ -5858,19 +6075,22 @@
       </c>
       <c r="Q71" s="22"/>
       <c r="R71" s="22"/>
-      <c r="S71" s="22" t="s">
-        <v>167</v>
+      <c r="S71" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T71" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="U71" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" s="6" customFormat="1" spans="1:21">
+        <v>169</v>
+      </c>
+      <c r="U71" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="V71" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" s="6" customFormat="1" spans="1:22">
       <c r="A72" s="22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B72" s="22">
         <v>1</v>
@@ -5886,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H72" s="22"/>
       <c r="I72" s="22"/>
@@ -5911,19 +6131,22 @@
       </c>
       <c r="Q72" s="22"/>
       <c r="R72" s="22"/>
-      <c r="S72" s="22" t="s">
-        <v>168</v>
+      <c r="S72" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T72" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="U72" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" s="6" customFormat="1" spans="1:21">
+      <c r="U72" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="V72" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" s="6" customFormat="1" spans="1:22">
       <c r="A73" s="22" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B73" s="22">
         <v>1</v>
@@ -5939,7 +6162,7 @@
         <v>2</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
@@ -5964,19 +6187,22 @@
       </c>
       <c r="Q73" s="22"/>
       <c r="R73" s="22"/>
-      <c r="S73" s="22" t="s">
-        <v>171</v>
+      <c r="S73" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T73" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="U73" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" s="6" customFormat="1" spans="1:21">
+        <v>173</v>
+      </c>
+      <c r="U73" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="V73" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" s="6" customFormat="1" spans="1:22">
       <c r="A74" s="22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B74" s="22">
         <v>1</v>
@@ -5992,7 +6218,7 @@
         <v>3</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
@@ -6017,19 +6243,22 @@
       </c>
       <c r="Q74" s="22"/>
       <c r="R74" s="22"/>
-      <c r="S74" s="22" t="s">
+      <c r="S74" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T74" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="U74" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="T74" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="U74" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" s="6" customFormat="1" spans="1:21">
+      <c r="V74" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" s="6" customFormat="1" spans="1:22">
       <c r="A75" s="22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B75" s="22">
         <v>1</v>
@@ -6045,7 +6274,7 @@
         <v>4</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
@@ -6070,19 +6299,22 @@
       </c>
       <c r="Q75" s="22"/>
       <c r="R75" s="22"/>
-      <c r="S75" s="22" t="s">
-        <v>173</v>
+      <c r="S75" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T75" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="U75" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" s="6" customFormat="1" spans="1:21">
+        <v>175</v>
+      </c>
+      <c r="U75" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="V75" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" s="6" customFormat="1" spans="1:22">
       <c r="A76" s="22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B76" s="22">
         <v>1</v>
@@ -6098,7 +6330,7 @@
         <v>5</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
@@ -6123,19 +6355,22 @@
       </c>
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
-      <c r="S76" s="22" t="s">
-        <v>174</v>
+      <c r="S76" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T76" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="U76" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" s="6" customFormat="1" spans="1:21">
+        <v>176</v>
+      </c>
+      <c r="U76" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="V76" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" s="6" customFormat="1" spans="1:22">
       <c r="A77" s="22" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B77" s="22">
         <v>1</v>
@@ -6151,7 +6386,7 @@
         <v>6</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
@@ -6176,19 +6411,22 @@
       </c>
       <c r="Q77" s="22"/>
       <c r="R77" s="22"/>
-      <c r="S77" s="22" t="s">
-        <v>175</v>
+      <c r="S77" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T77" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="U77" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" s="6" customFormat="1" spans="1:21">
+        <v>177</v>
+      </c>
+      <c r="U77" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="V77" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" s="6" customFormat="1" spans="1:22">
       <c r="A78" s="22" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B78" s="22">
         <v>1</v>
@@ -6204,7 +6442,7 @@
         <v>7</v>
       </c>
       <c r="G78" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H78" s="22"/>
       <c r="I78" s="22"/>
@@ -6229,19 +6467,22 @@
       </c>
       <c r="Q78" s="22"/>
       <c r="R78" s="22"/>
-      <c r="S78" s="22" t="s">
-        <v>176</v>
+      <c r="S78" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T78" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="U78" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" s="6" customFormat="1" spans="1:21">
+        <v>178</v>
+      </c>
+      <c r="U78" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="V78" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" s="6" customFormat="1" spans="1:22">
       <c r="A79" s="22" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B79" s="22">
         <v>1</v>
@@ -6257,7 +6498,7 @@
         <v>8</v>
       </c>
       <c r="G79" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
@@ -6282,19 +6523,22 @@
       </c>
       <c r="Q79" s="22"/>
       <c r="R79" s="22"/>
-      <c r="S79" s="22" t="s">
-        <v>177</v>
+      <c r="S79" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T79" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="U79" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" s="6" customFormat="1" spans="1:21">
+        <v>179</v>
+      </c>
+      <c r="U79" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="V79" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" s="6" customFormat="1" spans="1:22">
       <c r="A80" s="22" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B80" s="22">
         <v>1</v>
@@ -6310,7 +6554,7 @@
         <v>9</v>
       </c>
       <c r="G80" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H80" s="22"/>
       <c r="I80" s="22"/>
@@ -6335,19 +6579,22 @@
       </c>
       <c r="Q80" s="22"/>
       <c r="R80" s="22"/>
-      <c r="S80" s="22" t="s">
-        <v>178</v>
+      <c r="S80" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T80" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="U80" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" s="6" customFormat="1" spans="1:21">
+        <v>180</v>
+      </c>
+      <c r="U80" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="V80" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" s="6" customFormat="1" spans="1:22">
       <c r="A81" s="22" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B81" s="22">
         <v>1</v>
@@ -6363,7 +6610,7 @@
         <v>10</v>
       </c>
       <c r="G81" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
@@ -6388,19 +6635,22 @@
       </c>
       <c r="Q81" s="22"/>
       <c r="R81" s="22"/>
-      <c r="S81" s="22" t="s">
-        <v>179</v>
+      <c r="S81" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T81" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="U81" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" s="6" customFormat="1" spans="1:21">
+        <v>181</v>
+      </c>
+      <c r="U81" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="V81" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" s="6" customFormat="1" spans="1:22">
       <c r="A82" s="22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B82" s="22">
         <v>1</v>
@@ -6416,7 +6666,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H82" s="22"/>
       <c r="I82" s="22"/>
@@ -6441,19 +6691,22 @@
       </c>
       <c r="Q82" s="22"/>
       <c r="R82" s="22"/>
-      <c r="S82" s="22" t="s">
-        <v>180</v>
+      <c r="S82" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T82" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="U82" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" s="6" customFormat="1" spans="1:21">
+      <c r="U82" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="V82" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" s="6" customFormat="1" spans="1:22">
       <c r="A83" s="22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B83" s="22">
         <v>1</v>
@@ -6469,7 +6722,7 @@
         <v>2</v>
       </c>
       <c r="G83" s="22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H83" s="22"/>
       <c r="I83" s="22"/>
@@ -6494,19 +6747,22 @@
       </c>
       <c r="Q83" s="22"/>
       <c r="R83" s="22"/>
-      <c r="S83" s="22" t="s">
-        <v>183</v>
+      <c r="S83" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T83" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="U83" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" s="6" customFormat="1" spans="1:21">
+        <v>185</v>
+      </c>
+      <c r="U83" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="V83" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" s="6" customFormat="1" spans="1:22">
       <c r="A84" s="22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B84" s="22">
         <v>1</v>
@@ -6522,7 +6778,7 @@
         <v>3</v>
       </c>
       <c r="G84" s="22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
@@ -6547,19 +6803,22 @@
       </c>
       <c r="Q84" s="22"/>
       <c r="R84" s="22"/>
-      <c r="S84" s="22" t="s">
+      <c r="S84" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T84" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="U84" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="T84" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="U84" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" s="6" customFormat="1" spans="1:21">
+      <c r="V84" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" s="6" customFormat="1" spans="1:22">
       <c r="A85" s="22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B85" s="22">
         <v>1</v>
@@ -6575,7 +6834,7 @@
         <v>4</v>
       </c>
       <c r="G85" s="22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H85" s="22"/>
       <c r="I85" s="22"/>
@@ -6600,19 +6859,22 @@
       </c>
       <c r="Q85" s="22"/>
       <c r="R85" s="22"/>
-      <c r="S85" s="22" t="s">
-        <v>185</v>
+      <c r="S85" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T85" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="U85" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" s="6" customFormat="1" spans="1:21">
+        <v>187</v>
+      </c>
+      <c r="U85" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="V85" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" s="6" customFormat="1" spans="1:22">
       <c r="A86" s="22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B86" s="22">
         <v>1</v>
@@ -6628,7 +6890,7 @@
         <v>5</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H86" s="22"/>
       <c r="I86" s="22"/>
@@ -6653,19 +6915,22 @@
       </c>
       <c r="Q86" s="22"/>
       <c r="R86" s="22"/>
-      <c r="S86" s="22" t="s">
-        <v>186</v>
+      <c r="S86" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T86" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="U86" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" s="6" customFormat="1" spans="1:21">
+        <v>188</v>
+      </c>
+      <c r="U86" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="V86" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" s="6" customFormat="1" spans="1:22">
       <c r="A87" s="22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B87" s="22">
         <v>1</v>
@@ -6681,7 +6946,7 @@
         <v>6</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H87" s="22"/>
       <c r="I87" s="22"/>
@@ -6706,19 +6971,22 @@
       </c>
       <c r="Q87" s="22"/>
       <c r="R87" s="22"/>
-      <c r="S87" s="22" t="s">
-        <v>187</v>
+      <c r="S87" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T87" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="U87" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" s="6" customFormat="1" spans="1:21">
+        <v>189</v>
+      </c>
+      <c r="U87" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="V87" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" s="6" customFormat="1" spans="1:22">
       <c r="A88" s="22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B88" s="22">
         <v>1</v>
@@ -6734,7 +7002,7 @@
         <v>7</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
@@ -6759,19 +7027,22 @@
       </c>
       <c r="Q88" s="22"/>
       <c r="R88" s="22"/>
-      <c r="S88" s="22" t="s">
-        <v>188</v>
+      <c r="S88" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T88" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="U88" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" s="6" customFormat="1" spans="1:21">
+        <v>190</v>
+      </c>
+      <c r="U88" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="V88" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" s="6" customFormat="1" spans="1:22">
       <c r="A89" s="22" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B89" s="22">
         <v>1</v>
@@ -6787,7 +7058,7 @@
         <v>8</v>
       </c>
       <c r="G89" s="22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H89" s="22"/>
       <c r="I89" s="22"/>
@@ -6812,19 +7083,22 @@
       </c>
       <c r="Q89" s="22"/>
       <c r="R89" s="22"/>
-      <c r="S89" s="22" t="s">
-        <v>189</v>
+      <c r="S89" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T89" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="U89" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" s="6" customFormat="1" spans="1:21">
+        <v>191</v>
+      </c>
+      <c r="U89" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="V89" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" s="6" customFormat="1" spans="1:22">
       <c r="A90" s="22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B90" s="22">
         <v>1</v>
@@ -6840,7 +7114,7 @@
         <v>9</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H90" s="22"/>
       <c r="I90" s="22"/>
@@ -6865,19 +7139,22 @@
       </c>
       <c r="Q90" s="22"/>
       <c r="R90" s="22"/>
-      <c r="S90" s="22" t="s">
-        <v>190</v>
+      <c r="S90" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T90" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="U90" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" s="6" customFormat="1" spans="1:21">
+        <v>192</v>
+      </c>
+      <c r="U90" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="V90" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" s="6" customFormat="1" spans="1:22">
       <c r="A91" s="22" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B91" s="22">
         <v>1</v>
@@ -6893,7 +7170,7 @@
         <v>10</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H91" s="22"/>
       <c r="I91" s="22"/>
@@ -6918,19 +7195,22 @@
       </c>
       <c r="Q91" s="22"/>
       <c r="R91" s="22"/>
-      <c r="S91" s="22" t="s">
-        <v>191</v>
+      <c r="S91" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T91" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="U91" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" s="6" customFormat="1" spans="1:21">
+        <v>193</v>
+      </c>
+      <c r="U91" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="V91" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" s="6" customFormat="1" spans="1:22">
       <c r="A92" s="22" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B92" s="22">
         <v>1</v>
@@ -6946,7 +7226,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H92" s="22"/>
       <c r="I92" s="22"/>
@@ -6971,19 +7251,22 @@
       </c>
       <c r="Q92" s="22"/>
       <c r="R92" s="22"/>
-      <c r="S92" s="22" t="s">
-        <v>192</v>
+      <c r="S92" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T92" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="U92" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" s="6" customFormat="1" spans="1:21">
+      <c r="U92" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="V92" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" s="6" customFormat="1" spans="1:22">
       <c r="A93" s="22" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B93" s="22">
         <v>1</v>
@@ -6999,7 +7282,7 @@
         <v>2</v>
       </c>
       <c r="G93" s="22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H93" s="22"/>
       <c r="I93" s="22"/>
@@ -7024,19 +7307,22 @@
       </c>
       <c r="Q93" s="22"/>
       <c r="R93" s="22"/>
-      <c r="S93" s="22" t="s">
-        <v>195</v>
+      <c r="S93" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T93" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="U93" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" s="6" customFormat="1" spans="1:21">
+        <v>197</v>
+      </c>
+      <c r="U93" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="V93" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" s="6" customFormat="1" spans="1:22">
       <c r="A94" s="22" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B94" s="22">
         <v>1</v>
@@ -7052,7 +7338,7 @@
         <v>3</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H94" s="22"/>
       <c r="I94" s="22"/>
@@ -7077,19 +7363,22 @@
       </c>
       <c r="Q94" s="22"/>
       <c r="R94" s="22"/>
-      <c r="S94" s="22" t="s">
+      <c r="S94" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T94" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="U94" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="T94" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="U94" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" s="6" customFormat="1" spans="1:21">
+      <c r="V94" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" s="6" customFormat="1" spans="1:22">
       <c r="A95" s="22" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B95" s="22">
         <v>1</v>
@@ -7105,7 +7394,7 @@
         <v>4</v>
       </c>
       <c r="G95" s="22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H95" s="22"/>
       <c r="I95" s="22"/>
@@ -7130,19 +7419,22 @@
       </c>
       <c r="Q95" s="22"/>
       <c r="R95" s="22"/>
-      <c r="S95" s="22" t="s">
-        <v>197</v>
+      <c r="S95" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T95" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="U95" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" s="6" customFormat="1" spans="1:21">
+        <v>199</v>
+      </c>
+      <c r="U95" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="V95" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" s="6" customFormat="1" spans="1:22">
       <c r="A96" s="22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B96" s="22">
         <v>1</v>
@@ -7158,7 +7450,7 @@
         <v>5</v>
       </c>
       <c r="G96" s="22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
@@ -7183,19 +7475,22 @@
       </c>
       <c r="Q96" s="22"/>
       <c r="R96" s="22"/>
-      <c r="S96" s="22" t="s">
-        <v>198</v>
+      <c r="S96" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T96" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="U96" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" s="6" customFormat="1" spans="1:21">
+        <v>200</v>
+      </c>
+      <c r="U96" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="V96" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" s="6" customFormat="1" spans="1:22">
       <c r="A97" s="22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B97" s="22">
         <v>1</v>
@@ -7211,7 +7506,7 @@
         <v>6</v>
       </c>
       <c r="G97" s="22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H97" s="22"/>
       <c r="I97" s="22"/>
@@ -7236,19 +7531,22 @@
       </c>
       <c r="Q97" s="22"/>
       <c r="R97" s="22"/>
-      <c r="S97" s="22" t="s">
-        <v>199</v>
+      <c r="S97" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T97" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="U97" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" s="6" customFormat="1" spans="1:21">
+        <v>201</v>
+      </c>
+      <c r="U97" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="V97" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" s="6" customFormat="1" spans="1:22">
       <c r="A98" s="22" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B98" s="22">
         <v>1</v>
@@ -7264,7 +7562,7 @@
         <v>7</v>
       </c>
       <c r="G98" s="22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H98" s="22"/>
       <c r="I98" s="22"/>
@@ -7289,19 +7587,22 @@
       </c>
       <c r="Q98" s="22"/>
       <c r="R98" s="22"/>
-      <c r="S98" s="22" t="s">
-        <v>200</v>
+      <c r="S98" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T98" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="U98" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" s="6" customFormat="1" spans="1:21">
+        <v>202</v>
+      </c>
+      <c r="U98" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="V98" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" s="6" customFormat="1" spans="1:22">
       <c r="A99" s="22" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B99" s="22">
         <v>1</v>
@@ -7317,7 +7618,7 @@
         <v>8</v>
       </c>
       <c r="G99" s="22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H99" s="22"/>
       <c r="I99" s="22"/>
@@ -7342,19 +7643,22 @@
       </c>
       <c r="Q99" s="22"/>
       <c r="R99" s="22"/>
-      <c r="S99" s="22" t="s">
-        <v>201</v>
+      <c r="S99" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T99" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="U99" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" s="6" customFormat="1" spans="1:21">
+        <v>203</v>
+      </c>
+      <c r="U99" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="V99" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" s="6" customFormat="1" spans="1:22">
       <c r="A100" s="22" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B100" s="22">
         <v>1</v>
@@ -7370,7 +7674,7 @@
         <v>9</v>
       </c>
       <c r="G100" s="22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H100" s="22"/>
       <c r="I100" s="22"/>
@@ -7395,19 +7699,22 @@
       </c>
       <c r="Q100" s="22"/>
       <c r="R100" s="22"/>
-      <c r="S100" s="22" t="s">
-        <v>202</v>
+      <c r="S100" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T100" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="U100" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" s="6" customFormat="1" spans="1:21">
+        <v>204</v>
+      </c>
+      <c r="U100" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="V100" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" s="6" customFormat="1" spans="1:22">
       <c r="A101" s="22" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B101" s="22">
         <v>1</v>
@@ -7423,7 +7730,7 @@
         <v>10</v>
       </c>
       <c r="G101" s="22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H101" s="22"/>
       <c r="I101" s="22"/>
@@ -7448,19 +7755,22 @@
       </c>
       <c r="Q101" s="22"/>
       <c r="R101" s="22"/>
-      <c r="S101" s="22" t="s">
-        <v>203</v>
+      <c r="S101" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T101" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="U101" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" s="7" customFormat="1" spans="1:21">
+        <v>205</v>
+      </c>
+      <c r="U101" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="V101" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" s="7" customFormat="1" spans="1:22">
       <c r="A102" s="23" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B102" s="23">
         <v>1</v>
@@ -7476,7 +7786,7 @@
         <v>1</v>
       </c>
       <c r="G102" s="23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H102" s="23"/>
       <c r="I102" s="23"/>
@@ -7501,19 +7811,22 @@
       </c>
       <c r="Q102" s="23"/>
       <c r="R102" s="22"/>
-      <c r="S102" s="23" t="s">
-        <v>204</v>
+      <c r="S102" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T102" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="U102" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" s="7" customFormat="1" spans="1:21">
+      <c r="U102" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="V102" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" s="7" customFormat="1" spans="1:22">
       <c r="A103" s="23" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B103" s="23">
         <v>1</v>
@@ -7529,7 +7842,7 @@
         <v>2</v>
       </c>
       <c r="G103" s="23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H103" s="23"/>
       <c r="I103" s="23"/>
@@ -7554,19 +7867,22 @@
       </c>
       <c r="Q103" s="23"/>
       <c r="R103" s="22"/>
-      <c r="S103" s="23" t="s">
-        <v>207</v>
+      <c r="S103" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T103" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="U103" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" s="7" customFormat="1" spans="1:21">
+        <v>209</v>
+      </c>
+      <c r="U103" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="V103" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" s="7" customFormat="1" spans="1:22">
       <c r="A104" s="23" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B104" s="23">
         <v>1</v>
@@ -7582,7 +7898,7 @@
         <v>3</v>
       </c>
       <c r="G104" s="23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H104" s="23"/>
       <c r="I104" s="23"/>
@@ -7607,19 +7923,22 @@
       </c>
       <c r="Q104" s="23"/>
       <c r="R104" s="22"/>
-      <c r="S104" s="23" t="s">
+      <c r="S104" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T104" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="U104" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="T104" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="U104" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" s="7" customFormat="1" spans="1:21">
+      <c r="V104" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" s="7" customFormat="1" spans="1:22">
       <c r="A105" s="23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B105" s="23">
         <v>1</v>
@@ -7635,7 +7954,7 @@
         <v>4</v>
       </c>
       <c r="G105" s="23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H105" s="23"/>
       <c r="I105" s="23"/>
@@ -7660,19 +7979,22 @@
       </c>
       <c r="Q105" s="23"/>
       <c r="R105" s="22"/>
-      <c r="S105" s="23" t="s">
-        <v>209</v>
+      <c r="S105" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T105" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="U105" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" s="7" customFormat="1" spans="1:21">
+        <v>211</v>
+      </c>
+      <c r="U105" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="V105" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" s="7" customFormat="1" spans="1:22">
       <c r="A106" s="23" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B106" s="23">
         <v>1</v>
@@ -7688,7 +8010,7 @@
         <v>5</v>
       </c>
       <c r="G106" s="23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H106" s="23"/>
       <c r="I106" s="23"/>
@@ -7713,19 +8035,22 @@
       </c>
       <c r="Q106" s="23"/>
       <c r="R106" s="22"/>
-      <c r="S106" s="23" t="s">
-        <v>210</v>
+      <c r="S106" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T106" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="U106" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" s="7" customFormat="1" spans="1:21">
+        <v>212</v>
+      </c>
+      <c r="U106" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="V106" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" s="7" customFormat="1" spans="1:22">
       <c r="A107" s="23" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B107" s="23">
         <v>1</v>
@@ -7741,7 +8066,7 @@
         <v>6</v>
       </c>
       <c r="G107" s="23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H107" s="23"/>
       <c r="I107" s="23"/>
@@ -7766,19 +8091,22 @@
       </c>
       <c r="Q107" s="23"/>
       <c r="R107" s="22"/>
-      <c r="S107" s="23" t="s">
-        <v>211</v>
+      <c r="S107" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T107" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="U107" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" s="7" customFormat="1" spans="1:21">
+        <v>213</v>
+      </c>
+      <c r="U107" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="V107" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" s="7" customFormat="1" spans="1:22">
       <c r="A108" s="23" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B108" s="23">
         <v>1</v>
@@ -7794,7 +8122,7 @@
         <v>7</v>
       </c>
       <c r="G108" s="23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H108" s="23"/>
       <c r="I108" s="23"/>
@@ -7819,19 +8147,22 @@
       </c>
       <c r="Q108" s="23"/>
       <c r="R108" s="22"/>
-      <c r="S108" s="23" t="s">
-        <v>212</v>
+      <c r="S108" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T108" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="U108" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" s="7" customFormat="1" spans="1:21">
+        <v>214</v>
+      </c>
+      <c r="U108" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="V108" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" s="7" customFormat="1" spans="1:22">
       <c r="A109" s="23" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B109" s="23">
         <v>1</v>
@@ -7847,7 +8178,7 @@
         <v>8</v>
       </c>
       <c r="G109" s="23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H109" s="23"/>
       <c r="I109" s="23"/>
@@ -7872,19 +8203,22 @@
       </c>
       <c r="Q109" s="23"/>
       <c r="R109" s="22"/>
-      <c r="S109" s="23" t="s">
-        <v>213</v>
+      <c r="S109" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T109" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="U109" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" s="7" customFormat="1" spans="1:21">
+        <v>215</v>
+      </c>
+      <c r="U109" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="V109" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" s="7" customFormat="1" spans="1:22">
       <c r="A110" s="23" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B110" s="23">
         <v>1</v>
@@ -7900,7 +8234,7 @@
         <v>9</v>
       </c>
       <c r="G110" s="23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H110" s="23"/>
       <c r="I110" s="23"/>
@@ -7925,19 +8259,22 @@
       </c>
       <c r="Q110" s="23"/>
       <c r="R110" s="22"/>
-      <c r="S110" s="23" t="s">
-        <v>214</v>
+      <c r="S110" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T110" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="U110" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" s="7" customFormat="1" spans="1:21">
+        <v>216</v>
+      </c>
+      <c r="U110" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="V110" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" s="7" customFormat="1" spans="1:22">
       <c r="A111" s="23" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B111" s="23">
         <v>1</v>
@@ -7953,7 +8290,7 @@
         <v>10</v>
       </c>
       <c r="G111" s="23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H111" s="23"/>
       <c r="I111" s="23"/>
@@ -7978,19 +8315,22 @@
       </c>
       <c r="Q111" s="23"/>
       <c r="R111" s="22"/>
-      <c r="S111" s="23" t="s">
-        <v>215</v>
+      <c r="S111" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T111" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="U111" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" s="6" customFormat="1" spans="1:21">
+        <v>217</v>
+      </c>
+      <c r="U111" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="V111" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" s="6" customFormat="1" spans="1:22">
       <c r="A112" s="22" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B112" s="22">
         <v>1</v>
@@ -8006,7 +8346,7 @@
         <v>1</v>
       </c>
       <c r="G112" s="22" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H112" s="22"/>
       <c r="I112" s="22"/>
@@ -8031,19 +8371,22 @@
       </c>
       <c r="Q112" s="22"/>
       <c r="R112" s="22"/>
-      <c r="S112" s="22" t="s">
-        <v>216</v>
+      <c r="S112" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T112" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="U112" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" s="6" customFormat="1" spans="1:21">
+      <c r="U112" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="V112" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" s="6" customFormat="1" spans="1:22">
       <c r="A113" s="22" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B113" s="22">
         <v>1</v>
@@ -8059,7 +8402,7 @@
         <v>2</v>
       </c>
       <c r="G113" s="22" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H113" s="22"/>
       <c r="I113" s="22"/>
@@ -8084,19 +8427,22 @@
       </c>
       <c r="Q113" s="22"/>
       <c r="R113" s="22"/>
-      <c r="S113" s="22" t="s">
-        <v>219</v>
+      <c r="S113" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T113" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="U113" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" s="6" customFormat="1" spans="1:21">
+        <v>221</v>
+      </c>
+      <c r="U113" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="V113" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" s="6" customFormat="1" spans="1:22">
       <c r="A114" s="22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B114" s="22">
         <v>1</v>
@@ -8112,7 +8458,7 @@
         <v>3</v>
       </c>
       <c r="G114" s="22" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H114" s="22"/>
       <c r="I114" s="22"/>
@@ -8137,19 +8483,22 @@
       </c>
       <c r="Q114" s="22"/>
       <c r="R114" s="22"/>
-      <c r="S114" s="22" t="s">
+      <c r="S114" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T114" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="U114" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="T114" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="U114" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" s="6" customFormat="1" spans="1:21">
+      <c r="V114" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" s="6" customFormat="1" spans="1:22">
       <c r="A115" s="22" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B115" s="22">
         <v>1</v>
@@ -8165,7 +8514,7 @@
         <v>4</v>
       </c>
       <c r="G115" s="22" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H115" s="22"/>
       <c r="I115" s="22"/>
@@ -8190,19 +8539,22 @@
       </c>
       <c r="Q115" s="22"/>
       <c r="R115" s="22"/>
-      <c r="S115" s="22" t="s">
-        <v>221</v>
+      <c r="S115" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T115" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="U115" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" s="6" customFormat="1" spans="1:21">
+        <v>223</v>
+      </c>
+      <c r="U115" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="V115" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" s="6" customFormat="1" spans="1:22">
       <c r="A116" s="22" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B116" s="22">
         <v>1</v>
@@ -8218,7 +8570,7 @@
         <v>5</v>
       </c>
       <c r="G116" s="22" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H116" s="22"/>
       <c r="I116" s="22"/>
@@ -8243,19 +8595,22 @@
       </c>
       <c r="Q116" s="22"/>
       <c r="R116" s="22"/>
-      <c r="S116" s="22" t="s">
-        <v>222</v>
+      <c r="S116" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T116" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="U116" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" s="6" customFormat="1" spans="1:21">
+        <v>224</v>
+      </c>
+      <c r="U116" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="V116" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" s="6" customFormat="1" spans="1:22">
       <c r="A117" s="22" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B117" s="22">
         <v>1</v>
@@ -8271,7 +8626,7 @@
         <v>6</v>
       </c>
       <c r="G117" s="22" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H117" s="22"/>
       <c r="I117" s="22"/>
@@ -8296,19 +8651,22 @@
       </c>
       <c r="Q117" s="22"/>
       <c r="R117" s="22"/>
-      <c r="S117" s="22" t="s">
-        <v>223</v>
+      <c r="S117" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T117" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="U117" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" s="6" customFormat="1" spans="1:21">
+        <v>225</v>
+      </c>
+      <c r="U117" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="V117" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" s="6" customFormat="1" spans="1:22">
       <c r="A118" s="22" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B118" s="22">
         <v>1</v>
@@ -8324,7 +8682,7 @@
         <v>7</v>
       </c>
       <c r="G118" s="22" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H118" s="22"/>
       <c r="I118" s="22"/>
@@ -8349,19 +8707,22 @@
       </c>
       <c r="Q118" s="22"/>
       <c r="R118" s="22"/>
-      <c r="S118" s="22" t="s">
-        <v>224</v>
+      <c r="S118" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T118" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="U118" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" s="6" customFormat="1" spans="1:21">
+        <v>226</v>
+      </c>
+      <c r="U118" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="V118" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" s="6" customFormat="1" spans="1:22">
       <c r="A119" s="22" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B119" s="22">
         <v>1</v>
@@ -8377,7 +8738,7 @@
         <v>8</v>
       </c>
       <c r="G119" s="22" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H119" s="22"/>
       <c r="I119" s="22"/>
@@ -8402,19 +8763,22 @@
       </c>
       <c r="Q119" s="22"/>
       <c r="R119" s="22"/>
-      <c r="S119" s="22" t="s">
-        <v>225</v>
+      <c r="S119" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T119" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="U119" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" s="6" customFormat="1" spans="1:21">
+        <v>227</v>
+      </c>
+      <c r="U119" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="V119" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" s="6" customFormat="1" spans="1:22">
       <c r="A120" s="22" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B120" s="22">
         <v>1</v>
@@ -8430,7 +8794,7 @@
         <v>9</v>
       </c>
       <c r="G120" s="22" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H120" s="22"/>
       <c r="I120" s="22"/>
@@ -8455,19 +8819,22 @@
       </c>
       <c r="Q120" s="22"/>
       <c r="R120" s="22"/>
-      <c r="S120" s="22" t="s">
-        <v>226</v>
+      <c r="S120" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T120" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="U120" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" s="6" customFormat="1" spans="1:21">
+        <v>228</v>
+      </c>
+      <c r="U120" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="V120" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" s="6" customFormat="1" spans="1:22">
       <c r="A121" s="22" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B121" s="22">
         <v>1</v>
@@ -8483,7 +8850,7 @@
         <v>10</v>
       </c>
       <c r="G121" s="22" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H121" s="22"/>
       <c r="I121" s="22"/>
@@ -8508,19 +8875,22 @@
       </c>
       <c r="Q121" s="22"/>
       <c r="R121" s="22"/>
-      <c r="S121" s="22" t="s">
-        <v>227</v>
+      <c r="S121" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T121" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="U121" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" s="6" customFormat="1" spans="1:21">
+        <v>229</v>
+      </c>
+      <c r="U121" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="V121" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" s="6" customFormat="1" spans="1:22">
       <c r="A122" s="22" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B122" s="22">
         <v>1</v>
@@ -8536,7 +8906,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H122" s="22"/>
       <c r="I122" s="22"/>
@@ -8561,19 +8931,22 @@
       </c>
       <c r="Q122" s="22"/>
       <c r="R122" s="22"/>
-      <c r="S122" s="22" t="s">
-        <v>228</v>
+      <c r="S122" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T122" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="U122" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" s="6" customFormat="1" spans="1:21">
+      <c r="U122" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="V122" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" s="6" customFormat="1" spans="1:22">
       <c r="A123" s="22" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B123" s="22">
         <v>1</v>
@@ -8589,7 +8962,7 @@
         <v>2</v>
       </c>
       <c r="G123" s="22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H123" s="22"/>
       <c r="I123" s="22"/>
@@ -8614,19 +8987,22 @@
       </c>
       <c r="Q123" s="22"/>
       <c r="R123" s="22"/>
-      <c r="S123" s="22" t="s">
-        <v>231</v>
+      <c r="S123" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T123" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="U123" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" s="6" customFormat="1" spans="1:21">
+        <v>233</v>
+      </c>
+      <c r="U123" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="V123" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" s="6" customFormat="1" spans="1:22">
       <c r="A124" s="22" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B124" s="22">
         <v>1</v>
@@ -8642,7 +9018,7 @@
         <v>3</v>
       </c>
       <c r="G124" s="22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H124" s="22"/>
       <c r="I124" s="22"/>
@@ -8667,19 +9043,22 @@
       </c>
       <c r="Q124" s="22"/>
       <c r="R124" s="22"/>
-      <c r="S124" s="22" t="s">
+      <c r="S124" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T124" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="U124" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="T124" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="U124" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" s="6" customFormat="1" spans="1:21">
+      <c r="V124" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" s="6" customFormat="1" spans="1:22">
       <c r="A125" s="22" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B125" s="22">
         <v>1</v>
@@ -8695,7 +9074,7 @@
         <v>4</v>
       </c>
       <c r="G125" s="22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H125" s="22"/>
       <c r="I125" s="22"/>
@@ -8720,19 +9099,22 @@
       </c>
       <c r="Q125" s="22"/>
       <c r="R125" s="22"/>
-      <c r="S125" s="22" t="s">
-        <v>233</v>
+      <c r="S125" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T125" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="U125" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" s="6" customFormat="1" spans="1:21">
+        <v>235</v>
+      </c>
+      <c r="U125" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="V125" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" s="6" customFormat="1" spans="1:22">
       <c r="A126" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B126" s="22">
         <v>1</v>
@@ -8748,7 +9130,7 @@
         <v>5</v>
       </c>
       <c r="G126" s="22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H126" s="22"/>
       <c r="I126" s="22"/>
@@ -8773,19 +9155,22 @@
       </c>
       <c r="Q126" s="22"/>
       <c r="R126" s="22"/>
-      <c r="S126" s="22" t="s">
-        <v>234</v>
+      <c r="S126" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T126" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="U126" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" s="6" customFormat="1" spans="1:21">
+        <v>236</v>
+      </c>
+      <c r="U126" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="V126" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" s="6" customFormat="1" spans="1:22">
       <c r="A127" s="22" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B127" s="22">
         <v>1</v>
@@ -8801,7 +9186,7 @@
         <v>6</v>
       </c>
       <c r="G127" s="22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H127" s="22"/>
       <c r="I127" s="22"/>
@@ -8826,19 +9211,22 @@
       </c>
       <c r="Q127" s="22"/>
       <c r="R127" s="22"/>
-      <c r="S127" s="22" t="s">
-        <v>235</v>
+      <c r="S127" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T127" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="U127" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" s="6" customFormat="1" spans="1:21">
+        <v>237</v>
+      </c>
+      <c r="U127" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="V127" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" s="6" customFormat="1" spans="1:22">
       <c r="A128" s="22" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B128" s="22">
         <v>1</v>
@@ -8854,7 +9242,7 @@
         <v>7</v>
       </c>
       <c r="G128" s="22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H128" s="22"/>
       <c r="I128" s="22"/>
@@ -8879,19 +9267,22 @@
       </c>
       <c r="Q128" s="22"/>
       <c r="R128" s="22"/>
-      <c r="S128" s="22" t="s">
-        <v>236</v>
+      <c r="S128" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T128" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="U128" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" s="6" customFormat="1" spans="1:21">
+        <v>238</v>
+      </c>
+      <c r="U128" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="V128" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" s="6" customFormat="1" spans="1:22">
       <c r="A129" s="22" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B129" s="22">
         <v>1</v>
@@ -8907,7 +9298,7 @@
         <v>8</v>
       </c>
       <c r="G129" s="22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H129" s="22"/>
       <c r="I129" s="22"/>
@@ -8932,19 +9323,22 @@
       </c>
       <c r="Q129" s="22"/>
       <c r="R129" s="22"/>
-      <c r="S129" s="22" t="s">
-        <v>237</v>
+      <c r="S129" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T129" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="U129" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" s="6" customFormat="1" spans="1:21">
+        <v>239</v>
+      </c>
+      <c r="U129" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="V129" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" s="6" customFormat="1" spans="1:22">
       <c r="A130" s="22" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B130" s="22">
         <v>1</v>
@@ -8960,7 +9354,7 @@
         <v>9</v>
       </c>
       <c r="G130" s="22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H130" s="22"/>
       <c r="I130" s="22"/>
@@ -8985,19 +9379,22 @@
       </c>
       <c r="Q130" s="22"/>
       <c r="R130" s="22"/>
-      <c r="S130" s="22" t="s">
-        <v>238</v>
+      <c r="S130" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T130" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="U130" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" s="6" customFormat="1" spans="1:21">
+        <v>240</v>
+      </c>
+      <c r="U130" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="V130" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" s="6" customFormat="1" spans="1:22">
       <c r="A131" s="22" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B131" s="22">
         <v>1</v>
@@ -9013,7 +9410,7 @@
         <v>10</v>
       </c>
       <c r="G131" s="22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H131" s="22"/>
       <c r="I131" s="22"/>
@@ -9038,19 +9435,22 @@
       </c>
       <c r="Q131" s="22"/>
       <c r="R131" s="22"/>
-      <c r="S131" s="22" t="s">
-        <v>239</v>
+      <c r="S131" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="T131" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="U131" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" s="8" customFormat="1" spans="1:21">
+        <v>241</v>
+      </c>
+      <c r="U131" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="V131" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" s="8" customFormat="1" spans="1:22">
       <c r="A132" s="24" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B132" s="25">
         <v>3</v>
@@ -9066,7 +9466,7 @@
         <v>0</v>
       </c>
       <c r="G132" s="24" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H132" s="25"/>
       <c r="I132" s="25"/>
@@ -9091,21 +9491,24 @@
       </c>
       <c r="Q132" s="25"/>
       <c r="R132" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="S132" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T132" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="S132" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="T132" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="U132" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" s="8" customFormat="1" spans="1:21">
+      <c r="U132" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="V132" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" s="8" customFormat="1" spans="1:22">
       <c r="A133" s="26" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B133" s="27">
         <v>3</v>
@@ -9121,7 +9524,7 @@
         <v>0</v>
       </c>
       <c r="G133" s="26" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
@@ -9146,21 +9549,24 @@
       </c>
       <c r="Q133" s="27"/>
       <c r="R133" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="S133" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T133" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="S133" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="T133" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="U133" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" s="8" customFormat="1" spans="1:21">
+      <c r="U133" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="V133" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" s="8" customFormat="1" spans="1:22">
       <c r="A134" s="26" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B134" s="25">
         <v>3</v>
@@ -9176,7 +9582,7 @@
         <v>0</v>
       </c>
       <c r="G134" s="26" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
@@ -9201,21 +9607,24 @@
       </c>
       <c r="Q134" s="27"/>
       <c r="R134" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="S134" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T134" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="S134" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="T134" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="U134" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" s="8" customFormat="1" spans="1:21">
+      <c r="U134" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="V134" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" s="8" customFormat="1" spans="1:22">
       <c r="A135" s="26" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B135" s="27">
         <v>3</v>
@@ -9231,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="26" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
@@ -9256,21 +9665,24 @@
       </c>
       <c r="Q135" s="27"/>
       <c r="R135" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="S135" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T135" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="S135" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="T135" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="U135" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" s="8" customFormat="1" spans="1:21">
+      <c r="U135" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="V135" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" s="8" customFormat="1" spans="1:22">
       <c r="A136" s="26" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B136" s="25">
         <v>3</v>
@@ -9286,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="G136" s="26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
@@ -9311,21 +9723,24 @@
       </c>
       <c r="Q136" s="27"/>
       <c r="R136" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="S136" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T136" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="S136" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="T136" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="U136" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" s="8" customFormat="1" spans="1:21">
+      <c r="U136" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="V136" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" s="8" customFormat="1" spans="1:22">
       <c r="A137" s="26" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B137" s="27">
         <v>3</v>
@@ -9341,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="26" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
@@ -9366,22 +9781,25 @@
       </c>
       <c r="Q137" s="27"/>
       <c r="R137" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="S137" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T137" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="S137" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="T137" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="U137" s="27">
+      <c r="U137" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="V137" s="27">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:D8 E7:U8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S7:S8 B7:D8 T7:V8 E7:R8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Item.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286">
   <si>
     <t>Id</t>
   </si>
@@ -447,6 +447,9 @@
     <t>Desc_NoobPack</t>
   </si>
   <si>
+    <t>Item_HOLY_WATER_1,11;Item_HOLY_WATER_2,22;Item_HOLY_WATER_3,33;Item_HOLY_WATER_4,44;Item_HOLY_WATER_5,55;Item_MP1,11;Item_MP2,22;Item_MP3,33;Item_MP4,44;Item_MP5,55;Item_GEM_ATK_1,11;Item_GEM_ATK_2,22;Item_GEM_ATK_3,33;Item_GEM_ATK_4,44;Item_GEM_DEF_1,11;Item_GEM_DEF_2,22;Item_GEM_DEF_3,33;Item_GEM_DEF_4,44;Item_GEM_DEF_5,55;Item_GEM_FIRE_1,11;Item_GEM_FIRE_2,22;Item_GEM_FIRE_3,33;Item_GEM_WIND_1,11;Item_GEM_WIND_2,22;Item_GEM_WIND_3,33;Item_HeroCard_Abaddon,88;Item_HeroCard_Beastmaster,99;Item_HeroCard_BountyHunter,66;Item_HeroCard_Bristleback,33;Item_HeroCard_Clinkz,66;Item_HeroCard_CrystalMaiden,99;Item_HeroCard_Ezalor,99;Item_HeroCard_Lifestealer,99;Item_HeroCard_TeaantProtector,99</t>
+  </si>
+  <si>
     <t>NameID_NoobPack</t>
   </si>
   <si>
@@ -753,76 +756,133 @@
     <t>Item_GEM_POISON_10</t>
   </si>
   <si>
-    <t>Item_HeroCard_1</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_1</t>
+    <t>Item_HeroCard_Abaddon</t>
+  </si>
+  <si>
+    <t>Desc_HeroCard_Abaddon</t>
   </si>
   <si>
     <t>Hero_1</t>
   </si>
   <si>
-    <t>NameID_HeroCard_1</t>
-  </si>
-  <si>
-    <t>Item_HeroCard_2</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_2</t>
+    <t>UIResources/Sprites/Hero</t>
+  </si>
+  <si>
+    <t>Hero_Abaddon</t>
+  </si>
+  <si>
+    <t>NameID_Abaddon</t>
+  </si>
+  <si>
+    <t>Item_HeroCard_Beastmaster</t>
+  </si>
+  <si>
+    <t>Desc_HeroCard_Beastmaster</t>
   </si>
   <si>
     <t>Hero_2</t>
   </si>
   <si>
-    <t>NameID_HeroCard_2</t>
-  </si>
-  <si>
-    <t>Item_HeroCard_3</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_3</t>
+    <t>Hero_Beastmaster</t>
+  </si>
+  <si>
+    <t>NameID_Beastmaster</t>
+  </si>
+  <si>
+    <t>Item_HeroCard_BountyHunter</t>
+  </si>
+  <si>
+    <t>Desc_HeroCard_BountyHunter</t>
   </si>
   <si>
     <t>Hero_3</t>
   </si>
   <si>
-    <t>NameID_HeroCard_3</t>
-  </si>
-  <si>
-    <t>Item_HeroCard_4</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_4</t>
+    <t>Hero_BountyHunter</t>
+  </si>
+  <si>
+    <t>NameID_BountyHunter</t>
+  </si>
+  <si>
+    <t>Item_HeroCard_Bristleback</t>
+  </si>
+  <si>
+    <t>Desc_HeroCard_Bristleback</t>
   </si>
   <si>
     <t>Hero_4</t>
   </si>
   <si>
-    <t>NameID_HeroCard_4</t>
-  </si>
-  <si>
-    <t>Item_HeroCard_5</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_5</t>
+    <t>Hero_Bristleback</t>
+  </si>
+  <si>
+    <t>NameID_Bristleback</t>
+  </si>
+  <si>
+    <t>Item_HeroCard_Clinkz</t>
+  </si>
+  <si>
+    <t>Desc_HeroCard_Clinkz</t>
   </si>
   <si>
     <t>Hero_5</t>
   </si>
   <si>
-    <t>NameID_HeroCard_5</t>
-  </si>
-  <si>
-    <t>Item_HeroCard_6</t>
-  </si>
-  <si>
-    <t>Desc_HeroCard_6</t>
+    <t>Hero_Clinkz</t>
+  </si>
+  <si>
+    <t>NameID_Clinkz</t>
+  </si>
+  <si>
+    <t>Item_HeroCard_CrystalMaiden</t>
+  </si>
+  <si>
+    <t>Desc_HeroCard_CrystalMaiden</t>
   </si>
   <si>
     <t>Hero_6</t>
   </si>
   <si>
-    <t>NameID_HeroCard_6</t>
+    <t>Hero_CrystalMaiden</t>
+  </si>
+  <si>
+    <t>NameID_CrystalMaiden</t>
+  </si>
+  <si>
+    <t>Item_HeroCard_Ezalor</t>
+  </si>
+  <si>
+    <t>Desc_HeroCard_Ezalor</t>
+  </si>
+  <si>
+    <t>Hero_Ezalor</t>
+  </si>
+  <si>
+    <t>NameID_Ezalor</t>
+  </si>
+  <si>
+    <t>Item_HeroCard_Lifestealer</t>
+  </si>
+  <si>
+    <t>Desc_HeroCard_Lifestealer</t>
+  </si>
+  <si>
+    <t>Hero_Lifestealer</t>
+  </si>
+  <si>
+    <t>NameID_Lifestealer</t>
+  </si>
+  <si>
+    <t>Item_HeroCard_TeaantProtector</t>
+  </si>
+  <si>
+    <t>Desc_HeroCard_TeaantProtector</t>
+  </si>
+  <si>
+    <t>Hero_TeaantProtector</t>
+  </si>
+  <si>
+    <t>NameID_TeaantProtector</t>
   </si>
 </sst>
 </file>
@@ -830,9 +890,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -860,16 +920,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -889,9 +950,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,14 +966,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -927,16 +980,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,14 +996,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -965,9 +1003,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -990,7 +1050,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1003,7 +1063,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1030,7 +1090,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,7 +1102,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,7 +1150,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,25 +1192,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,7 +1228,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,7 +1246,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,79 +1258,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,7 +1270,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,6 +1359,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1328,6 +1403,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1347,51 +1452,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1409,130 +1475,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1679,7 +1745,7 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
         <b val="1"/>
@@ -1690,11 +1756,9 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf/>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
+    <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1959,14 +2023,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:V137"/>
+  <dimension ref="A1:V140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="M125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G40" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S11" sqref="S11:S137"/>
+      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1988,8 +2052,7 @@
     <col min="16" max="16" width="12.6637168141593" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
     <col min="18" max="18" width="18.6637168141593" customWidth="1"/>
-    <col min="19" max="19" width="23.3362831858407" customWidth="1"/>
-    <col min="20" max="20" width="23.3362831858407" customWidth="1"/>
+    <col min="19" max="20" width="23.3362831858407" customWidth="1"/>
     <col min="21" max="21" width="21.5044247787611" customWidth="1"/>
     <col min="22" max="22" width="8.66371681415929" customWidth="1"/>
   </cols>
@@ -4643,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="17">
@@ -4654,7 +4717,9 @@
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
+      <c r="J46" s="17" t="s">
+        <v>140</v>
+      </c>
       <c r="K46" s="17">
         <v>0</v>
       </c>
@@ -4682,7 +4747,7 @@
         <v>138</v>
       </c>
       <c r="U46" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V46" s="17">
         <v>0</v>
@@ -4690,7 +4755,7 @@
     </row>
     <row r="47" s="5" customFormat="1" spans="1:22">
       <c r="A47" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B47" s="18">
         <v>5</v>
@@ -4735,10 +4800,10 @@
         <v>56</v>
       </c>
       <c r="T47" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="U47" s="16" t="s">
         <v>141</v>
-      </c>
-      <c r="U47" s="16" t="s">
-        <v>140</v>
       </c>
       <c r="V47" s="17">
         <v>0</v>
@@ -4746,7 +4811,7 @@
     </row>
     <row r="48" s="5" customFormat="1" spans="1:22">
       <c r="A48" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B48" s="17">
         <v>5</v>
@@ -4791,10 +4856,10 @@
         <v>56</v>
       </c>
       <c r="T48" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="U48" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V48" s="17">
         <v>0</v>
@@ -4802,7 +4867,7 @@
     </row>
     <row r="49" s="5" customFormat="1" spans="1:22">
       <c r="A49" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B49" s="18">
         <v>5</v>
@@ -4847,10 +4912,10 @@
         <v>56</v>
       </c>
       <c r="T49" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U49" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V49" s="17">
         <v>0</v>
@@ -4858,7 +4923,7 @@
     </row>
     <row r="50" s="5" customFormat="1" spans="1:22">
       <c r="A50" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B50" s="17">
         <v>5</v>
@@ -4903,10 +4968,10 @@
         <v>56</v>
       </c>
       <c r="T50" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="U50" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V50" s="17">
         <v>0</v>
@@ -4914,7 +4979,7 @@
     </row>
     <row r="51" s="5" customFormat="1" spans="1:22">
       <c r="A51" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B51" s="18">
         <v>5</v>
@@ -4959,10 +5024,10 @@
         <v>56</v>
       </c>
       <c r="T51" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="U51" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V51" s="17">
         <v>0</v>
@@ -4970,7 +5035,7 @@
     </row>
     <row r="52" s="5" customFormat="1" spans="1:22">
       <c r="A52" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B52" s="17">
         <v>5</v>
@@ -5015,10 +5080,10 @@
         <v>56</v>
       </c>
       <c r="T52" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U52" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V52" s="17">
         <v>0</v>
@@ -5026,7 +5091,7 @@
     </row>
     <row r="53" s="5" customFormat="1" spans="1:22">
       <c r="A53" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B53" s="18">
         <v>5</v>
@@ -5071,10 +5136,10 @@
         <v>56</v>
       </c>
       <c r="T53" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U53" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V53" s="17">
         <v>0</v>
@@ -5082,7 +5147,7 @@
     </row>
     <row r="54" s="5" customFormat="1" spans="1:22">
       <c r="A54" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B54" s="17">
         <v>5</v>
@@ -5127,10 +5192,10 @@
         <v>56</v>
       </c>
       <c r="T54" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="U54" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V54" s="17">
         <v>0</v>
@@ -5138,7 +5203,7 @@
     </row>
     <row r="55" s="5" customFormat="1" spans="1:22">
       <c r="A55" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B55" s="18">
         <v>5</v>
@@ -5183,10 +5248,10 @@
         <v>56</v>
       </c>
       <c r="T55" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="U55" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V55" s="17">
         <v>0</v>
@@ -5194,7 +5259,7 @@
     </row>
     <row r="56" s="5" customFormat="1" spans="1:22">
       <c r="A56" s="16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B56" s="17">
         <v>5</v>
@@ -5210,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
@@ -5239,10 +5304,10 @@
         <v>56</v>
       </c>
       <c r="T56" s="16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="U56" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V56" s="17">
         <v>0</v>
@@ -5250,7 +5315,7 @@
     </row>
     <row r="57" s="5" customFormat="1" spans="1:22">
       <c r="A57" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B57" s="18">
         <v>5</v>
@@ -5266,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
@@ -5295,10 +5360,10 @@
         <v>56</v>
       </c>
       <c r="T57" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="U57" s="16" t="s">
         <v>153</v>
-      </c>
-      <c r="U57" s="16" t="s">
-        <v>152</v>
       </c>
       <c r="V57" s="17">
         <v>0</v>
@@ -5306,7 +5371,7 @@
     </row>
     <row r="58" s="5" customFormat="1" spans="1:22">
       <c r="A58" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B58" s="17">
         <v>5</v>
@@ -5322,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
@@ -5351,10 +5416,10 @@
         <v>56</v>
       </c>
       <c r="T58" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="U58" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V58" s="17">
         <v>0</v>
@@ -5362,7 +5427,7 @@
     </row>
     <row r="59" s="5" customFormat="1" spans="1:22">
       <c r="A59" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B59" s="18">
         <v>5</v>
@@ -5378,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
@@ -5407,10 +5472,10 @@
         <v>56</v>
       </c>
       <c r="T59" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="U59" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V59" s="17">
         <v>0</v>
@@ -5418,7 +5483,7 @@
     </row>
     <row r="60" s="5" customFormat="1" spans="1:22">
       <c r="A60" s="19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B60" s="17">
         <v>5</v>
@@ -5434,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
@@ -5463,10 +5528,10 @@
         <v>56</v>
       </c>
       <c r="T60" s="19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U60" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V60" s="20">
         <v>0</v>
@@ -5474,7 +5539,7 @@
     </row>
     <row r="61" s="5" customFormat="1" spans="1:22">
       <c r="A61" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B61" s="17">
         <v>5</v>
@@ -5490,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
@@ -5519,10 +5584,10 @@
         <v>56</v>
       </c>
       <c r="T61" s="19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U61" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V61" s="20">
         <v>0</v>
@@ -5530,7 +5595,7 @@
     </row>
     <row r="62" s="6" customFormat="1" spans="1:22">
       <c r="A62" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B62" s="22">
         <v>1</v>
@@ -5546,7 +5611,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
@@ -5575,10 +5640,10 @@
         <v>56</v>
       </c>
       <c r="T62" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U62" s="22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V62" s="22">
         <v>0</v>
@@ -5586,7 +5651,7 @@
     </row>
     <row r="63" s="6" customFormat="1" spans="1:22">
       <c r="A63" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B63" s="22">
         <v>1</v>
@@ -5602,7 +5667,7 @@
         <v>2</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
@@ -5631,10 +5696,10 @@
         <v>56</v>
       </c>
       <c r="T63" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="U63" s="22" t="s">
         <v>161</v>
-      </c>
-      <c r="U63" s="22" t="s">
-        <v>160</v>
       </c>
       <c r="V63" s="22">
         <v>0</v>
@@ -5642,7 +5707,7 @@
     </row>
     <row r="64" s="6" customFormat="1" spans="1:22">
       <c r="A64" s="22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B64" s="22">
         <v>1</v>
@@ -5658,7 +5723,7 @@
         <v>3</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H64" s="22"/>
       <c r="I64" s="22"/>
@@ -5687,10 +5752,10 @@
         <v>56</v>
       </c>
       <c r="T64" s="22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U64" s="22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V64" s="22">
         <v>0</v>
@@ -5698,7 +5763,7 @@
     </row>
     <row r="65" s="6" customFormat="1" spans="1:22">
       <c r="A65" s="22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B65" s="22">
         <v>1</v>
@@ -5714,7 +5779,7 @@
         <v>4</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H65" s="22"/>
       <c r="I65" s="22"/>
@@ -5743,10 +5808,10 @@
         <v>56</v>
       </c>
       <c r="T65" s="22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="U65" s="22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V65" s="22">
         <v>0</v>
@@ -5754,7 +5819,7 @@
     </row>
     <row r="66" s="6" customFormat="1" spans="1:22">
       <c r="A66" s="22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B66" s="22">
         <v>1</v>
@@ -5770,7 +5835,7 @@
         <v>5</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
@@ -5799,10 +5864,10 @@
         <v>56</v>
       </c>
       <c r="T66" s="22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U66" s="22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V66" s="22">
         <v>0</v>
@@ -5810,7 +5875,7 @@
     </row>
     <row r="67" s="6" customFormat="1" spans="1:22">
       <c r="A67" s="22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B67" s="22">
         <v>1</v>
@@ -5826,7 +5891,7 @@
         <v>6</v>
       </c>
       <c r="G67" s="22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
@@ -5855,10 +5920,10 @@
         <v>56</v>
       </c>
       <c r="T67" s="22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U67" s="22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V67" s="22">
         <v>0</v>
@@ -5866,7 +5931,7 @@
     </row>
     <row r="68" s="6" customFormat="1" spans="1:22">
       <c r="A68" s="22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B68" s="22">
         <v>1</v>
@@ -5882,7 +5947,7 @@
         <v>7</v>
       </c>
       <c r="G68" s="22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H68" s="22"/>
       <c r="I68" s="22"/>
@@ -5911,10 +5976,10 @@
         <v>56</v>
       </c>
       <c r="T68" s="22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U68" s="22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V68" s="22">
         <v>0</v>
@@ -5922,7 +5987,7 @@
     </row>
     <row r="69" s="6" customFormat="1" spans="1:22">
       <c r="A69" s="22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B69" s="22">
         <v>1</v>
@@ -5938,7 +6003,7 @@
         <v>8</v>
       </c>
       <c r="G69" s="22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
@@ -5967,10 +6032,10 @@
         <v>56</v>
       </c>
       <c r="T69" s="22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="U69" s="22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V69" s="22">
         <v>0</v>
@@ -5978,7 +6043,7 @@
     </row>
     <row r="70" s="6" customFormat="1" spans="1:22">
       <c r="A70" s="22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B70" s="22">
         <v>1</v>
@@ -5994,7 +6059,7 @@
         <v>9</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
@@ -6023,10 +6088,10 @@
         <v>56</v>
       </c>
       <c r="T70" s="22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="U70" s="22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V70" s="22">
         <v>0</v>
@@ -6034,7 +6099,7 @@
     </row>
     <row r="71" s="6" customFormat="1" spans="1:22">
       <c r="A71" s="22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B71" s="22">
         <v>1</v>
@@ -6050,7 +6115,7 @@
         <v>10</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H71" s="22"/>
       <c r="I71" s="22"/>
@@ -6079,10 +6144,10 @@
         <v>56</v>
       </c>
       <c r="T71" s="22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="U71" s="22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V71" s="22">
         <v>0</v>
@@ -6090,7 +6155,7 @@
     </row>
     <row r="72" s="6" customFormat="1" spans="1:22">
       <c r="A72" s="22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B72" s="22">
         <v>1</v>
@@ -6106,7 +6171,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H72" s="22"/>
       <c r="I72" s="22"/>
@@ -6135,10 +6200,10 @@
         <v>56</v>
       </c>
       <c r="T72" s="22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U72" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="V72" s="22">
         <v>0</v>
@@ -6146,7 +6211,7 @@
     </row>
     <row r="73" s="6" customFormat="1" spans="1:22">
       <c r="A73" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B73" s="22">
         <v>1</v>
@@ -6162,7 +6227,7 @@
         <v>2</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
@@ -6191,10 +6256,10 @@
         <v>56</v>
       </c>
       <c r="T73" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="U73" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="U73" s="22" t="s">
-        <v>172</v>
       </c>
       <c r="V73" s="22">
         <v>0</v>
@@ -6202,7 +6267,7 @@
     </row>
     <row r="74" s="6" customFormat="1" spans="1:22">
       <c r="A74" s="22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B74" s="22">
         <v>1</v>
@@ -6218,7 +6283,7 @@
         <v>3</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
@@ -6247,10 +6312,10 @@
         <v>56</v>
       </c>
       <c r="T74" s="22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U74" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="V74" s="22">
         <v>0</v>
@@ -6258,7 +6323,7 @@
     </row>
     <row r="75" s="6" customFormat="1" spans="1:22">
       <c r="A75" s="22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B75" s="22">
         <v>1</v>
@@ -6274,7 +6339,7 @@
         <v>4</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
@@ -6303,10 +6368,10 @@
         <v>56</v>
       </c>
       <c r="T75" s="22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="U75" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="V75" s="22">
         <v>0</v>
@@ -6314,7 +6379,7 @@
     </row>
     <row r="76" s="6" customFormat="1" spans="1:22">
       <c r="A76" s="22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B76" s="22">
         <v>1</v>
@@ -6330,7 +6395,7 @@
         <v>5</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
@@ -6359,10 +6424,10 @@
         <v>56</v>
       </c>
       <c r="T76" s="22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="U76" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="V76" s="22">
         <v>0</v>
@@ -6370,7 +6435,7 @@
     </row>
     <row r="77" s="6" customFormat="1" spans="1:22">
       <c r="A77" s="22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B77" s="22">
         <v>1</v>
@@ -6386,7 +6451,7 @@
         <v>6</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
@@ -6415,10 +6480,10 @@
         <v>56</v>
       </c>
       <c r="T77" s="22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="U77" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="V77" s="22">
         <v>0</v>
@@ -6426,7 +6491,7 @@
     </row>
     <row r="78" s="6" customFormat="1" spans="1:22">
       <c r="A78" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B78" s="22">
         <v>1</v>
@@ -6442,7 +6507,7 @@
         <v>7</v>
       </c>
       <c r="G78" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H78" s="22"/>
       <c r="I78" s="22"/>
@@ -6471,10 +6536,10 @@
         <v>56</v>
       </c>
       <c r="T78" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="U78" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="V78" s="22">
         <v>0</v>
@@ -6482,7 +6547,7 @@
     </row>
     <row r="79" s="6" customFormat="1" spans="1:22">
       <c r="A79" s="22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B79" s="22">
         <v>1</v>
@@ -6498,7 +6563,7 @@
         <v>8</v>
       </c>
       <c r="G79" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
@@ -6527,10 +6592,10 @@
         <v>56</v>
       </c>
       <c r="T79" s="22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U79" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="V79" s="22">
         <v>0</v>
@@ -6538,7 +6603,7 @@
     </row>
     <row r="80" s="6" customFormat="1" spans="1:22">
       <c r="A80" s="22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B80" s="22">
         <v>1</v>
@@ -6554,7 +6619,7 @@
         <v>9</v>
       </c>
       <c r="G80" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H80" s="22"/>
       <c r="I80" s="22"/>
@@ -6583,10 +6648,10 @@
         <v>56</v>
       </c>
       <c r="T80" s="22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U80" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="V80" s="22">
         <v>0</v>
@@ -6594,7 +6659,7 @@
     </row>
     <row r="81" s="6" customFormat="1" spans="1:22">
       <c r="A81" s="22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B81" s="22">
         <v>1</v>
@@ -6610,7 +6675,7 @@
         <v>10</v>
       </c>
       <c r="G81" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
@@ -6639,10 +6704,10 @@
         <v>56</v>
       </c>
       <c r="T81" s="22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="U81" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="V81" s="22">
         <v>0</v>
@@ -6650,7 +6715,7 @@
     </row>
     <row r="82" s="6" customFormat="1" spans="1:22">
       <c r="A82" s="22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B82" s="22">
         <v>1</v>
@@ -6666,7 +6731,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H82" s="22"/>
       <c r="I82" s="22"/>
@@ -6695,10 +6760,10 @@
         <v>56</v>
       </c>
       <c r="T82" s="22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U82" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="V82" s="22">
         <v>0</v>
@@ -6706,7 +6771,7 @@
     </row>
     <row r="83" s="6" customFormat="1" spans="1:22">
       <c r="A83" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B83" s="22">
         <v>1</v>
@@ -6722,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="G83" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H83" s="22"/>
       <c r="I83" s="22"/>
@@ -6751,10 +6816,10 @@
         <v>56</v>
       </c>
       <c r="T83" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="U83" s="22" t="s">
         <v>185</v>
-      </c>
-      <c r="U83" s="22" t="s">
-        <v>184</v>
       </c>
       <c r="V83" s="22">
         <v>0</v>
@@ -6762,7 +6827,7 @@
     </row>
     <row r="84" s="6" customFormat="1" spans="1:22">
       <c r="A84" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B84" s="22">
         <v>1</v>
@@ -6778,7 +6843,7 @@
         <v>3</v>
       </c>
       <c r="G84" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
@@ -6807,10 +6872,10 @@
         <v>56</v>
       </c>
       <c r="T84" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="U84" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="V84" s="22">
         <v>0</v>
@@ -6818,7 +6883,7 @@
     </row>
     <row r="85" s="6" customFormat="1" spans="1:22">
       <c r="A85" s="22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B85" s="22">
         <v>1</v>
@@ -6834,7 +6899,7 @@
         <v>4</v>
       </c>
       <c r="G85" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H85" s="22"/>
       <c r="I85" s="22"/>
@@ -6863,10 +6928,10 @@
         <v>56</v>
       </c>
       <c r="T85" s="22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="U85" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="V85" s="22">
         <v>0</v>
@@ -6874,7 +6939,7 @@
     </row>
     <row r="86" s="6" customFormat="1" spans="1:22">
       <c r="A86" s="22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B86" s="22">
         <v>1</v>
@@ -6890,7 +6955,7 @@
         <v>5</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H86" s="22"/>
       <c r="I86" s="22"/>
@@ -6919,10 +6984,10 @@
         <v>56</v>
       </c>
       <c r="T86" s="22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U86" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="V86" s="22">
         <v>0</v>
@@ -6930,7 +6995,7 @@
     </row>
     <row r="87" s="6" customFormat="1" spans="1:22">
       <c r="A87" s="22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B87" s="22">
         <v>1</v>
@@ -6946,7 +7011,7 @@
         <v>6</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H87" s="22"/>
       <c r="I87" s="22"/>
@@ -6975,10 +7040,10 @@
         <v>56</v>
       </c>
       <c r="T87" s="22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U87" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="V87" s="22">
         <v>0</v>
@@ -6986,7 +7051,7 @@
     </row>
     <row r="88" s="6" customFormat="1" spans="1:22">
       <c r="A88" s="22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B88" s="22">
         <v>1</v>
@@ -7002,7 +7067,7 @@
         <v>7</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
@@ -7031,10 +7096,10 @@
         <v>56</v>
       </c>
       <c r="T88" s="22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="U88" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="V88" s="22">
         <v>0</v>
@@ -7042,7 +7107,7 @@
     </row>
     <row r="89" s="6" customFormat="1" spans="1:22">
       <c r="A89" s="22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B89" s="22">
         <v>1</v>
@@ -7058,7 +7123,7 @@
         <v>8</v>
       </c>
       <c r="G89" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H89" s="22"/>
       <c r="I89" s="22"/>
@@ -7087,10 +7152,10 @@
         <v>56</v>
       </c>
       <c r="T89" s="22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="U89" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="V89" s="22">
         <v>0</v>
@@ -7098,7 +7163,7 @@
     </row>
     <row r="90" s="6" customFormat="1" spans="1:22">
       <c r="A90" s="22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B90" s="22">
         <v>1</v>
@@ -7114,7 +7179,7 @@
         <v>9</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H90" s="22"/>
       <c r="I90" s="22"/>
@@ -7143,10 +7208,10 @@
         <v>56</v>
       </c>
       <c r="T90" s="22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="U90" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="V90" s="22">
         <v>0</v>
@@ -7154,7 +7219,7 @@
     </row>
     <row r="91" s="6" customFormat="1" spans="1:22">
       <c r="A91" s="22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B91" s="22">
         <v>1</v>
@@ -7170,7 +7235,7 @@
         <v>10</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H91" s="22"/>
       <c r="I91" s="22"/>
@@ -7199,10 +7264,10 @@
         <v>56</v>
       </c>
       <c r="T91" s="22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U91" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="V91" s="22">
         <v>0</v>
@@ -7210,7 +7275,7 @@
     </row>
     <row r="92" s="6" customFormat="1" spans="1:22">
       <c r="A92" s="22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B92" s="22">
         <v>1</v>
@@ -7226,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H92" s="22"/>
       <c r="I92" s="22"/>
@@ -7255,10 +7320,10 @@
         <v>56</v>
       </c>
       <c r="T92" s="22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U92" s="22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V92" s="22">
         <v>0</v>
@@ -7266,7 +7331,7 @@
     </row>
     <row r="93" s="6" customFormat="1" spans="1:22">
       <c r="A93" s="22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B93" s="22">
         <v>1</v>
@@ -7282,7 +7347,7 @@
         <v>2</v>
       </c>
       <c r="G93" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H93" s="22"/>
       <c r="I93" s="22"/>
@@ -7311,10 +7376,10 @@
         <v>56</v>
       </c>
       <c r="T93" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="U93" s="22" t="s">
         <v>197</v>
-      </c>
-      <c r="U93" s="22" t="s">
-        <v>196</v>
       </c>
       <c r="V93" s="22">
         <v>0</v>
@@ -7322,7 +7387,7 @@
     </row>
     <row r="94" s="6" customFormat="1" spans="1:22">
       <c r="A94" s="22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B94" s="22">
         <v>1</v>
@@ -7338,7 +7403,7 @@
         <v>3</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H94" s="22"/>
       <c r="I94" s="22"/>
@@ -7367,10 +7432,10 @@
         <v>56</v>
       </c>
       <c r="T94" s="22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U94" s="22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V94" s="22">
         <v>0</v>
@@ -7378,7 +7443,7 @@
     </row>
     <row r="95" s="6" customFormat="1" spans="1:22">
       <c r="A95" s="22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B95" s="22">
         <v>1</v>
@@ -7394,7 +7459,7 @@
         <v>4</v>
       </c>
       <c r="G95" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H95" s="22"/>
       <c r="I95" s="22"/>
@@ -7423,10 +7488,10 @@
         <v>56</v>
       </c>
       <c r="T95" s="22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U95" s="22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V95" s="22">
         <v>0</v>
@@ -7434,7 +7499,7 @@
     </row>
     <row r="96" s="6" customFormat="1" spans="1:22">
       <c r="A96" s="22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B96" s="22">
         <v>1</v>
@@ -7450,7 +7515,7 @@
         <v>5</v>
       </c>
       <c r="G96" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
@@ -7479,10 +7544,10 @@
         <v>56</v>
       </c>
       <c r="T96" s="22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U96" s="22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V96" s="22">
         <v>0</v>
@@ -7490,7 +7555,7 @@
     </row>
     <row r="97" s="6" customFormat="1" spans="1:22">
       <c r="A97" s="22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B97" s="22">
         <v>1</v>
@@ -7506,7 +7571,7 @@
         <v>6</v>
       </c>
       <c r="G97" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H97" s="22"/>
       <c r="I97" s="22"/>
@@ -7535,10 +7600,10 @@
         <v>56</v>
       </c>
       <c r="T97" s="22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U97" s="22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V97" s="22">
         <v>0</v>
@@ -7546,7 +7611,7 @@
     </row>
     <row r="98" s="6" customFormat="1" spans="1:22">
       <c r="A98" s="22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B98" s="22">
         <v>1</v>
@@ -7562,7 +7627,7 @@
         <v>7</v>
       </c>
       <c r="G98" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H98" s="22"/>
       <c r="I98" s="22"/>
@@ -7591,10 +7656,10 @@
         <v>56</v>
       </c>
       <c r="T98" s="22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="U98" s="22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V98" s="22">
         <v>0</v>
@@ -7602,7 +7667,7 @@
     </row>
     <row r="99" s="6" customFormat="1" spans="1:22">
       <c r="A99" s="22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B99" s="22">
         <v>1</v>
@@ -7618,7 +7683,7 @@
         <v>8</v>
       </c>
       <c r="G99" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H99" s="22"/>
       <c r="I99" s="22"/>
@@ -7647,10 +7712,10 @@
         <v>56</v>
       </c>
       <c r="T99" s="22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="U99" s="22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V99" s="22">
         <v>0</v>
@@ -7658,7 +7723,7 @@
     </row>
     <row r="100" s="6" customFormat="1" spans="1:22">
       <c r="A100" s="22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B100" s="22">
         <v>1</v>
@@ -7674,7 +7739,7 @@
         <v>9</v>
       </c>
       <c r="G100" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H100" s="22"/>
       <c r="I100" s="22"/>
@@ -7703,10 +7768,10 @@
         <v>56</v>
       </c>
       <c r="T100" s="22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U100" s="22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V100" s="22">
         <v>0</v>
@@ -7714,7 +7779,7 @@
     </row>
     <row r="101" s="6" customFormat="1" spans="1:22">
       <c r="A101" s="22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B101" s="22">
         <v>1</v>
@@ -7730,7 +7795,7 @@
         <v>10</v>
       </c>
       <c r="G101" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H101" s="22"/>
       <c r="I101" s="22"/>
@@ -7759,10 +7824,10 @@
         <v>56</v>
       </c>
       <c r="T101" s="22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="U101" s="22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V101" s="22">
         <v>0</v>
@@ -7770,7 +7835,7 @@
     </row>
     <row r="102" s="7" customFormat="1" spans="1:22">
       <c r="A102" s="23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B102" s="23">
         <v>1</v>
@@ -7786,7 +7851,7 @@
         <v>1</v>
       </c>
       <c r="G102" s="23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H102" s="23"/>
       <c r="I102" s="23"/>
@@ -7815,10 +7880,10 @@
         <v>56</v>
       </c>
       <c r="T102" s="23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="U102" s="23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="V102" s="23">
         <v>0</v>
@@ -7826,7 +7891,7 @@
     </row>
     <row r="103" s="7" customFormat="1" spans="1:22">
       <c r="A103" s="23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B103" s="23">
         <v>1</v>
@@ -7842,7 +7907,7 @@
         <v>2</v>
       </c>
       <c r="G103" s="23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H103" s="23"/>
       <c r="I103" s="23"/>
@@ -7871,10 +7936,10 @@
         <v>56</v>
       </c>
       <c r="T103" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="U103" s="23" t="s">
         <v>209</v>
-      </c>
-      <c r="U103" s="23" t="s">
-        <v>208</v>
       </c>
       <c r="V103" s="23">
         <v>0</v>
@@ -7882,7 +7947,7 @@
     </row>
     <row r="104" s="7" customFormat="1" spans="1:22">
       <c r="A104" s="23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B104" s="23">
         <v>1</v>
@@ -7898,7 +7963,7 @@
         <v>3</v>
       </c>
       <c r="G104" s="23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H104" s="23"/>
       <c r="I104" s="23"/>
@@ -7927,10 +7992,10 @@
         <v>56</v>
       </c>
       <c r="T104" s="23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="U104" s="23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="V104" s="23">
         <v>0</v>
@@ -7938,7 +8003,7 @@
     </row>
     <row r="105" s="7" customFormat="1" spans="1:22">
       <c r="A105" s="23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B105" s="23">
         <v>1</v>
@@ -7954,7 +8019,7 @@
         <v>4</v>
       </c>
       <c r="G105" s="23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H105" s="23"/>
       <c r="I105" s="23"/>
@@ -7983,10 +8048,10 @@
         <v>56</v>
       </c>
       <c r="T105" s="23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U105" s="23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="V105" s="23">
         <v>0</v>
@@ -7994,7 +8059,7 @@
     </row>
     <row r="106" s="7" customFormat="1" spans="1:22">
       <c r="A106" s="23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B106" s="23">
         <v>1</v>
@@ -8010,7 +8075,7 @@
         <v>5</v>
       </c>
       <c r="G106" s="23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H106" s="23"/>
       <c r="I106" s="23"/>
@@ -8039,10 +8104,10 @@
         <v>56</v>
       </c>
       <c r="T106" s="23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="U106" s="23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="V106" s="23">
         <v>0</v>
@@ -8050,7 +8115,7 @@
     </row>
     <row r="107" s="7" customFormat="1" spans="1:22">
       <c r="A107" s="23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B107" s="23">
         <v>1</v>
@@ -8066,7 +8131,7 @@
         <v>6</v>
       </c>
       <c r="G107" s="23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H107" s="23"/>
       <c r="I107" s="23"/>
@@ -8095,10 +8160,10 @@
         <v>56</v>
       </c>
       <c r="T107" s="23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="U107" s="23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="V107" s="23">
         <v>0</v>
@@ -8106,7 +8171,7 @@
     </row>
     <row r="108" s="7" customFormat="1" spans="1:22">
       <c r="A108" s="23" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B108" s="23">
         <v>1</v>
@@ -8122,7 +8187,7 @@
         <v>7</v>
       </c>
       <c r="G108" s="23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H108" s="23"/>
       <c r="I108" s="23"/>
@@ -8151,10 +8216,10 @@
         <v>56</v>
       </c>
       <c r="T108" s="23" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U108" s="23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="V108" s="23">
         <v>0</v>
@@ -8162,7 +8227,7 @@
     </row>
     <row r="109" s="7" customFormat="1" spans="1:22">
       <c r="A109" s="23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B109" s="23">
         <v>1</v>
@@ -8178,7 +8243,7 @@
         <v>8</v>
       </c>
       <c r="G109" s="23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H109" s="23"/>
       <c r="I109" s="23"/>
@@ -8207,10 +8272,10 @@
         <v>56</v>
       </c>
       <c r="T109" s="23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="U109" s="23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="V109" s="23">
         <v>0</v>
@@ -8218,7 +8283,7 @@
     </row>
     <row r="110" s="7" customFormat="1" spans="1:22">
       <c r="A110" s="23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B110" s="23">
         <v>1</v>
@@ -8234,7 +8299,7 @@
         <v>9</v>
       </c>
       <c r="G110" s="23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H110" s="23"/>
       <c r="I110" s="23"/>
@@ -8263,10 +8328,10 @@
         <v>56</v>
       </c>
       <c r="T110" s="23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="U110" s="23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="V110" s="23">
         <v>0</v>
@@ -8274,7 +8339,7 @@
     </row>
     <row r="111" s="7" customFormat="1" spans="1:22">
       <c r="A111" s="23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B111" s="23">
         <v>1</v>
@@ -8290,7 +8355,7 @@
         <v>10</v>
       </c>
       <c r="G111" s="23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H111" s="23"/>
       <c r="I111" s="23"/>
@@ -8319,10 +8384,10 @@
         <v>56</v>
       </c>
       <c r="T111" s="23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="U111" s="23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="V111" s="23">
         <v>0</v>
@@ -8330,7 +8395,7 @@
     </row>
     <row r="112" s="6" customFormat="1" spans="1:22">
       <c r="A112" s="22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B112" s="22">
         <v>1</v>
@@ -8346,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="G112" s="22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H112" s="22"/>
       <c r="I112" s="22"/>
@@ -8375,10 +8440,10 @@
         <v>56</v>
       </c>
       <c r="T112" s="22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="U112" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V112" s="22">
         <v>0</v>
@@ -8386,7 +8451,7 @@
     </row>
     <row r="113" s="6" customFormat="1" spans="1:22">
       <c r="A113" s="22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B113" s="22">
         <v>1</v>
@@ -8402,7 +8467,7 @@
         <v>2</v>
       </c>
       <c r="G113" s="22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H113" s="22"/>
       <c r="I113" s="22"/>
@@ -8431,10 +8496,10 @@
         <v>56</v>
       </c>
       <c r="T113" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="U113" s="22" t="s">
         <v>221</v>
-      </c>
-      <c r="U113" s="22" t="s">
-        <v>220</v>
       </c>
       <c r="V113" s="22">
         <v>0</v>
@@ -8442,7 +8507,7 @@
     </row>
     <row r="114" s="6" customFormat="1" spans="1:22">
       <c r="A114" s="22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B114" s="22">
         <v>1</v>
@@ -8458,7 +8523,7 @@
         <v>3</v>
       </c>
       <c r="G114" s="22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H114" s="22"/>
       <c r="I114" s="22"/>
@@ -8487,10 +8552,10 @@
         <v>56</v>
       </c>
       <c r="T114" s="22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U114" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V114" s="22">
         <v>0</v>
@@ -8498,7 +8563,7 @@
     </row>
     <row r="115" s="6" customFormat="1" spans="1:22">
       <c r="A115" s="22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B115" s="22">
         <v>1</v>
@@ -8514,7 +8579,7 @@
         <v>4</v>
       </c>
       <c r="G115" s="22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H115" s="22"/>
       <c r="I115" s="22"/>
@@ -8543,10 +8608,10 @@
         <v>56</v>
       </c>
       <c r="T115" s="22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="U115" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V115" s="22">
         <v>0</v>
@@ -8554,7 +8619,7 @@
     </row>
     <row r="116" s="6" customFormat="1" spans="1:22">
       <c r="A116" s="22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B116" s="22">
         <v>1</v>
@@ -8570,7 +8635,7 @@
         <v>5</v>
       </c>
       <c r="G116" s="22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H116" s="22"/>
       <c r="I116" s="22"/>
@@ -8599,10 +8664,10 @@
         <v>56</v>
       </c>
       <c r="T116" s="22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="U116" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V116" s="22">
         <v>0</v>
@@ -8610,7 +8675,7 @@
     </row>
     <row r="117" s="6" customFormat="1" spans="1:22">
       <c r="A117" s="22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B117" s="22">
         <v>1</v>
@@ -8626,7 +8691,7 @@
         <v>6</v>
       </c>
       <c r="G117" s="22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H117" s="22"/>
       <c r="I117" s="22"/>
@@ -8655,10 +8720,10 @@
         <v>56</v>
       </c>
       <c r="T117" s="22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U117" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V117" s="22">
         <v>0</v>
@@ -8666,7 +8731,7 @@
     </row>
     <row r="118" s="6" customFormat="1" spans="1:22">
       <c r="A118" s="22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B118" s="22">
         <v>1</v>
@@ -8682,7 +8747,7 @@
         <v>7</v>
       </c>
       <c r="G118" s="22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H118" s="22"/>
       <c r="I118" s="22"/>
@@ -8711,10 +8776,10 @@
         <v>56</v>
       </c>
       <c r="T118" s="22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U118" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V118" s="22">
         <v>0</v>
@@ -8722,7 +8787,7 @@
     </row>
     <row r="119" s="6" customFormat="1" spans="1:22">
       <c r="A119" s="22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B119" s="22">
         <v>1</v>
@@ -8738,7 +8803,7 @@
         <v>8</v>
       </c>
       <c r="G119" s="22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H119" s="22"/>
       <c r="I119" s="22"/>
@@ -8767,10 +8832,10 @@
         <v>56</v>
       </c>
       <c r="T119" s="22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="U119" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V119" s="22">
         <v>0</v>
@@ -8778,7 +8843,7 @@
     </row>
     <row r="120" s="6" customFormat="1" spans="1:22">
       <c r="A120" s="22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B120" s="22">
         <v>1</v>
@@ -8794,7 +8859,7 @@
         <v>9</v>
       </c>
       <c r="G120" s="22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H120" s="22"/>
       <c r="I120" s="22"/>
@@ -8823,10 +8888,10 @@
         <v>56</v>
       </c>
       <c r="T120" s="22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="U120" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V120" s="22">
         <v>0</v>
@@ -8834,7 +8899,7 @@
     </row>
     <row r="121" s="6" customFormat="1" spans="1:22">
       <c r="A121" s="22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B121" s="22">
         <v>1</v>
@@ -8850,7 +8915,7 @@
         <v>10</v>
       </c>
       <c r="G121" s="22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H121" s="22"/>
       <c r="I121" s="22"/>
@@ -8879,10 +8944,10 @@
         <v>56</v>
       </c>
       <c r="T121" s="22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="U121" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V121" s="22">
         <v>0</v>
@@ -8890,7 +8955,7 @@
     </row>
     <row r="122" s="6" customFormat="1" spans="1:22">
       <c r="A122" s="22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B122" s="22">
         <v>1</v>
@@ -8906,7 +8971,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H122" s="22"/>
       <c r="I122" s="22"/>
@@ -8935,10 +9000,10 @@
         <v>56</v>
       </c>
       <c r="T122" s="22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U122" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="V122" s="22">
         <v>0</v>
@@ -8946,7 +9011,7 @@
     </row>
     <row r="123" s="6" customFormat="1" spans="1:22">
       <c r="A123" s="22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B123" s="22">
         <v>1</v>
@@ -8962,7 +9027,7 @@
         <v>2</v>
       </c>
       <c r="G123" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H123" s="22"/>
       <c r="I123" s="22"/>
@@ -8991,10 +9056,10 @@
         <v>56</v>
       </c>
       <c r="T123" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="U123" s="22" t="s">
         <v>233</v>
-      </c>
-      <c r="U123" s="22" t="s">
-        <v>232</v>
       </c>
       <c r="V123" s="22">
         <v>0</v>
@@ -9002,7 +9067,7 @@
     </row>
     <row r="124" s="6" customFormat="1" spans="1:22">
       <c r="A124" s="22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B124" s="22">
         <v>1</v>
@@ -9018,7 +9083,7 @@
         <v>3</v>
       </c>
       <c r="G124" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H124" s="22"/>
       <c r="I124" s="22"/>
@@ -9047,10 +9112,10 @@
         <v>56</v>
       </c>
       <c r="T124" s="22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="U124" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="V124" s="22">
         <v>0</v>
@@ -9058,7 +9123,7 @@
     </row>
     <row r="125" s="6" customFormat="1" spans="1:22">
       <c r="A125" s="22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B125" s="22">
         <v>1</v>
@@ -9074,7 +9139,7 @@
         <v>4</v>
       </c>
       <c r="G125" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H125" s="22"/>
       <c r="I125" s="22"/>
@@ -9103,10 +9168,10 @@
         <v>56</v>
       </c>
       <c r="T125" s="22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="U125" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="V125" s="22">
         <v>0</v>
@@ -9114,7 +9179,7 @@
     </row>
     <row r="126" s="6" customFormat="1" spans="1:22">
       <c r="A126" s="22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B126" s="22">
         <v>1</v>
@@ -9130,7 +9195,7 @@
         <v>5</v>
       </c>
       <c r="G126" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H126" s="22"/>
       <c r="I126" s="22"/>
@@ -9159,10 +9224,10 @@
         <v>56</v>
       </c>
       <c r="T126" s="22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U126" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="V126" s="22">
         <v>0</v>
@@ -9170,7 +9235,7 @@
     </row>
     <row r="127" s="6" customFormat="1" spans="1:22">
       <c r="A127" s="22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B127" s="22">
         <v>1</v>
@@ -9186,7 +9251,7 @@
         <v>6</v>
       </c>
       <c r="G127" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H127" s="22"/>
       <c r="I127" s="22"/>
@@ -9215,10 +9280,10 @@
         <v>56</v>
       </c>
       <c r="T127" s="22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="U127" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="V127" s="22">
         <v>0</v>
@@ -9226,7 +9291,7 @@
     </row>
     <row r="128" s="6" customFormat="1" spans="1:22">
       <c r="A128" s="22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B128" s="22">
         <v>1</v>
@@ -9242,7 +9307,7 @@
         <v>7</v>
       </c>
       <c r="G128" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H128" s="22"/>
       <c r="I128" s="22"/>
@@ -9271,10 +9336,10 @@
         <v>56</v>
       </c>
       <c r="T128" s="22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="U128" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="V128" s="22">
         <v>0</v>
@@ -9282,7 +9347,7 @@
     </row>
     <row r="129" s="6" customFormat="1" spans="1:22">
       <c r="A129" s="22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B129" s="22">
         <v>1</v>
@@ -9298,7 +9363,7 @@
         <v>8</v>
       </c>
       <c r="G129" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H129" s="22"/>
       <c r="I129" s="22"/>
@@ -9327,10 +9392,10 @@
         <v>56</v>
       </c>
       <c r="T129" s="22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U129" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="V129" s="22">
         <v>0</v>
@@ -9338,7 +9403,7 @@
     </row>
     <row r="130" s="6" customFormat="1" spans="1:22">
       <c r="A130" s="22" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B130" s="22">
         <v>1</v>
@@ -9354,7 +9419,7 @@
         <v>9</v>
       </c>
       <c r="G130" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H130" s="22"/>
       <c r="I130" s="22"/>
@@ -9383,10 +9448,10 @@
         <v>56</v>
       </c>
       <c r="T130" s="22" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="U130" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="V130" s="22">
         <v>0</v>
@@ -9394,7 +9459,7 @@
     </row>
     <row r="131" s="6" customFormat="1" spans="1:22">
       <c r="A131" s="22" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B131" s="22">
         <v>1</v>
@@ -9410,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="G131" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H131" s="22"/>
       <c r="I131" s="22"/>
@@ -9439,10 +9504,10 @@
         <v>56</v>
       </c>
       <c r="T131" s="22" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="U131" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="V131" s="22">
         <v>0</v>
@@ -9450,7 +9515,7 @@
     </row>
     <row r="132" s="8" customFormat="1" spans="1:22">
       <c r="A132" s="24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B132" s="25">
         <v>3</v>
@@ -9466,7 +9531,7 @@
         <v>0</v>
       </c>
       <c r="G132" s="24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H132" s="25"/>
       <c r="I132" s="25"/>
@@ -9491,16 +9556,16 @@
       </c>
       <c r="Q132" s="25"/>
       <c r="R132" s="24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="S132" s="12" t="s">
-        <v>56</v>
+        <v>246</v>
       </c>
       <c r="T132" s="24" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="U132" s="25" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="V132" s="25">
         <v>0</v>
@@ -9508,7 +9573,7 @@
     </row>
     <row r="133" s="8" customFormat="1" spans="1:22">
       <c r="A133" s="26" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B133" s="27">
         <v>3</v>
@@ -9524,7 +9589,7 @@
         <v>0</v>
       </c>
       <c r="G133" s="26" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
@@ -9549,16 +9614,16 @@
       </c>
       <c r="Q133" s="27"/>
       <c r="R133" s="26" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="S133" s="12" t="s">
-        <v>56</v>
+        <v>246</v>
       </c>
       <c r="T133" s="26" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="U133" s="27" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="V133" s="27">
         <v>0</v>
@@ -9566,7 +9631,7 @@
     </row>
     <row r="134" s="8" customFormat="1" spans="1:22">
       <c r="A134" s="26" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B134" s="25">
         <v>3</v>
@@ -9582,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="G134" s="26" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
@@ -9607,16 +9672,16 @@
       </c>
       <c r="Q134" s="27"/>
       <c r="R134" s="26" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="S134" s="12" t="s">
-        <v>56</v>
+        <v>246</v>
       </c>
       <c r="T134" s="26" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="U134" s="27" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="V134" s="27">
         <v>0</v>
@@ -9624,7 +9689,7 @@
     </row>
     <row r="135" s="8" customFormat="1" spans="1:22">
       <c r="A135" s="26" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B135" s="27">
         <v>3</v>
@@ -9640,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="26" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
@@ -9665,16 +9730,16 @@
       </c>
       <c r="Q135" s="27"/>
       <c r="R135" s="26" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="S135" s="12" t="s">
-        <v>56</v>
+        <v>246</v>
       </c>
       <c r="T135" s="26" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="U135" s="27" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="V135" s="27">
         <v>0</v>
@@ -9682,7 +9747,7 @@
     </row>
     <row r="136" s="8" customFormat="1" spans="1:22">
       <c r="A136" s="26" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B136" s="25">
         <v>3</v>
@@ -9698,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="G136" s="26" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
@@ -9723,16 +9788,16 @@
       </c>
       <c r="Q136" s="27"/>
       <c r="R136" s="26" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="S136" s="12" t="s">
-        <v>56</v>
+        <v>246</v>
       </c>
       <c r="T136" s="26" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="U136" s="27" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="V136" s="27">
         <v>0</v>
@@ -9740,7 +9805,7 @@
     </row>
     <row r="137" s="8" customFormat="1" spans="1:22">
       <c r="A137" s="26" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B137" s="27">
         <v>3</v>
@@ -9756,7 +9821,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="26" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
@@ -9781,25 +9846,199 @@
       </c>
       <c r="Q137" s="27"/>
       <c r="R137" s="26" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="S137" s="12" t="s">
-        <v>56</v>
+        <v>246</v>
       </c>
       <c r="T137" s="26" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="U137" s="27" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="V137" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" s="8" customFormat="1" spans="1:22">
+      <c r="A138" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" s="27">
+        <v>3</v>
+      </c>
+      <c r="C138" s="27">
+        <v>1</v>
+      </c>
+      <c r="D138" s="27">
+        <v>1</v>
+      </c>
+      <c r="E138" s="27"/>
+      <c r="F138" s="27">
+        <v>0</v>
+      </c>
+      <c r="G138" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="H138" s="27"/>
+      <c r="I138" s="27"/>
+      <c r="J138" s="29"/>
+      <c r="K138" s="27">
+        <v>0</v>
+      </c>
+      <c r="L138" s="27">
+        <v>0</v>
+      </c>
+      <c r="M138" s="27">
+        <v>1</v>
+      </c>
+      <c r="N138" s="27">
+        <v>0</v>
+      </c>
+      <c r="O138" s="25">
+        <v>1000</v>
+      </c>
+      <c r="P138" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q138" s="27"/>
+      <c r="R138" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="S138" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="T138" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="U138" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="V138" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" s="8" customFormat="1" spans="1:22">
+      <c r="A139" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="B139" s="27">
+        <v>3</v>
+      </c>
+      <c r="C139" s="27">
+        <v>1</v>
+      </c>
+      <c r="D139" s="27">
+        <v>1</v>
+      </c>
+      <c r="E139" s="27"/>
+      <c r="F139" s="27">
+        <v>0</v>
+      </c>
+      <c r="G139" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="H139" s="27"/>
+      <c r="I139" s="27"/>
+      <c r="J139" s="29"/>
+      <c r="K139" s="27">
+        <v>0</v>
+      </c>
+      <c r="L139" s="27">
+        <v>0</v>
+      </c>
+      <c r="M139" s="27">
+        <v>1</v>
+      </c>
+      <c r="N139" s="27">
+        <v>0</v>
+      </c>
+      <c r="O139" s="25">
+        <v>1000</v>
+      </c>
+      <c r="P139" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q139" s="27"/>
+      <c r="R139" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="S139" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="T139" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="U139" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="V139" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" s="8" customFormat="1" spans="1:22">
+      <c r="A140" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="B140" s="27">
+        <v>3</v>
+      </c>
+      <c r="C140" s="27">
+        <v>1</v>
+      </c>
+      <c r="D140" s="27">
+        <v>1</v>
+      </c>
+      <c r="E140" s="27"/>
+      <c r="F140" s="27">
+        <v>0</v>
+      </c>
+      <c r="G140" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="H140" s="27"/>
+      <c r="I140" s="27"/>
+      <c r="J140" s="29"/>
+      <c r="K140" s="27">
+        <v>0</v>
+      </c>
+      <c r="L140" s="27">
+        <v>0</v>
+      </c>
+      <c r="M140" s="27">
+        <v>1</v>
+      </c>
+      <c r="N140" s="27">
+        <v>0</v>
+      </c>
+      <c r="O140" s="25">
+        <v>1000</v>
+      </c>
+      <c r="P140" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q140" s="27"/>
+      <c r="R140" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="S140" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="T140" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="U140" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="V140" s="27">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S7:S8 B7:D8 T7:V8 E7:R8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:V8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Item.xlsx
@@ -890,9 +890,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -926,19 +926,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -957,9 +948,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -972,9 +977,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -988,36 +992,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1026,10 +1000,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1050,14 +1025,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1102,31 +1102,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,7 +1144,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,7 +1156,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,31 +1198,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1198,55 +1210,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,19 +1228,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1359,7 +1359,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1367,8 +1367,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1404,21 +1404,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1436,8 +1421,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1457,13 +1457,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1475,130 +1475,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2026,11 +2026,11 @@
   <dimension ref="A1:V140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
+      <selection pane="bottomRight" activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2851,7 +2851,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D13" s="14">
         <v>0</v>
@@ -2909,7 +2909,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D14" s="14">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D15" s="14">
         <v>0</v>
@@ -3023,7 +3023,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D16" s="14">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D17" s="14">
         <v>0</v>
@@ -3135,7 +3135,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D18" s="14">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D19" s="14">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D20" s="14">
         <v>0</v>
@@ -3303,7 +3303,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D21" s="14">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D22" s="14">
         <v>0</v>
@@ -3415,7 +3415,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D23" s="14">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D24" s="14">
         <v>0</v>
@@ -3527,7 +3527,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D25" s="14">
         <v>0</v>
@@ -3583,7 +3583,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D26" s="14">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D27" s="14">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D28" s="14">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D29" s="14">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D30" s="14">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D31" s="14">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D32" s="14">
         <v>0</v>
@@ -3975,7 +3975,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D33" s="14">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D34" s="14">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D35" s="14">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36" s="14">
         <v>0</v>
@@ -4199,7 +4199,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D37" s="14">
         <v>0</v>
@@ -4255,7 +4255,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D38" s="14">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D39" s="14">
         <v>0</v>
@@ -4367,7 +4367,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="14">
         <v>0</v>
@@ -4423,7 +4423,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="14">
         <v>0</v>
@@ -4479,7 +4479,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="14">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="14">
         <v>0</v>
@@ -4591,7 +4591,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="14">
         <v>0</v>
@@ -4647,7 +4647,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="14">
         <v>0</v>
@@ -4700,10 +4700,10 @@
         <v>138</v>
       </c>
       <c r="B46" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C46" s="17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D46" s="17">
         <v>1</v>
@@ -4758,10 +4758,10 @@
         <v>142</v>
       </c>
       <c r="B47" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C47" s="17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D47" s="17">
         <v>10</v>
@@ -4814,10 +4814,10 @@
         <v>143</v>
       </c>
       <c r="B48" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C48" s="17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D48" s="17">
         <v>20</v>
@@ -4870,10 +4870,10 @@
         <v>144</v>
       </c>
       <c r="B49" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C49" s="17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D49" s="17">
         <v>30</v>
@@ -4926,10 +4926,10 @@
         <v>145</v>
       </c>
       <c r="B50" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C50" s="17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D50" s="17">
         <v>35</v>
@@ -4982,10 +4982,10 @@
         <v>146</v>
       </c>
       <c r="B51" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C51" s="17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D51" s="17">
         <v>40</v>
@@ -5038,10 +5038,10 @@
         <v>147</v>
       </c>
       <c r="B52" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C52" s="17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D52" s="17">
         <v>45</v>
@@ -5094,10 +5094,10 @@
         <v>148</v>
       </c>
       <c r="B53" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C53" s="17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D53" s="17">
         <v>50</v>
@@ -5150,10 +5150,10 @@
         <v>149</v>
       </c>
       <c r="B54" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C54" s="17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D54" s="17">
         <v>55</v>
@@ -5206,10 +5206,10 @@
         <v>150</v>
       </c>
       <c r="B55" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C55" s="17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D55" s="17">
         <v>60</v>
@@ -5262,10 +5262,10 @@
         <v>151</v>
       </c>
       <c r="B56" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C56" s="17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D56" s="17">
         <v>10</v>
@@ -5318,10 +5318,10 @@
         <v>154</v>
       </c>
       <c r="B57" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C57" s="17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D57" s="17">
         <v>20</v>
@@ -5374,10 +5374,10 @@
         <v>155</v>
       </c>
       <c r="B58" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C58" s="17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D58" s="17">
         <v>30</v>
@@ -5430,10 +5430,10 @@
         <v>156</v>
       </c>
       <c r="B59" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C59" s="17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D59" s="17">
         <v>40</v>
@@ -5486,10 +5486,10 @@
         <v>157</v>
       </c>
       <c r="B60" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C60" s="17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D60" s="20">
         <v>50</v>
@@ -5541,11 +5541,11 @@
       <c r="A61" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B61" s="17">
-        <v>5</v>
+      <c r="B61" s="18">
+        <v>2</v>
       </c>
       <c r="C61" s="17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D61" s="20">
         <v>60</v>
@@ -9521,7 +9521,7 @@
         <v>3</v>
       </c>
       <c r="C132" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132" s="25">
         <v>1</v>
@@ -9579,7 +9579,7 @@
         <v>3</v>
       </c>
       <c r="C133" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D133" s="27">
         <v>1</v>
@@ -9636,8 +9636,8 @@
       <c r="B134" s="25">
         <v>3</v>
       </c>
-      <c r="C134" s="27">
-        <v>1</v>
+      <c r="C134" s="25">
+        <v>0</v>
       </c>
       <c r="D134" s="27">
         <v>1</v>
@@ -9695,7 +9695,7 @@
         <v>3</v>
       </c>
       <c r="C135" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135" s="27">
         <v>1</v>
@@ -9752,8 +9752,8 @@
       <c r="B136" s="25">
         <v>3</v>
       </c>
-      <c r="C136" s="27">
-        <v>1</v>
+      <c r="C136" s="25">
+        <v>0</v>
       </c>
       <c r="D136" s="27">
         <v>1</v>
@@ -9811,7 +9811,7 @@
         <v>3</v>
       </c>
       <c r="C137" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137" s="27">
         <v>1</v>
@@ -9868,8 +9868,8 @@
       <c r="B138" s="27">
         <v>3</v>
       </c>
-      <c r="C138" s="27">
-        <v>1</v>
+      <c r="C138" s="25">
+        <v>0</v>
       </c>
       <c r="D138" s="27">
         <v>1</v>
@@ -9927,7 +9927,7 @@
         <v>3</v>
       </c>
       <c r="C139" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D139" s="27">
         <v>1</v>
@@ -9984,8 +9984,8 @@
       <c r="B140" s="27">
         <v>3</v>
       </c>
-      <c r="C140" s="27">
-        <v>1</v>
+      <c r="C140" s="25">
+        <v>0</v>
       </c>
       <c r="D140" s="27">
         <v>1</v>

--- a/_Out/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Item.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295">
   <si>
     <t>Id</t>
   </si>
@@ -450,6 +450,9 @@
     <t>Item_HOLY_WATER_1,11;Item_HOLY_WATER_2,22;Item_HOLY_WATER_3,33;Item_HOLY_WATER_4,44;Item_HOLY_WATER_5,55;Item_MP1,11;Item_MP2,22;Item_MP3,33;Item_MP4,44;Item_MP5,55;Item_GEM_ATK_1,11;Item_GEM_ATK_2,22;Item_GEM_ATK_3,33;Item_GEM_ATK_4,44;Item_GEM_DEF_1,11;Item_GEM_DEF_2,22;Item_GEM_DEF_3,33;Item_GEM_DEF_4,44;Item_GEM_DEF_5,55;Item_GEM_FIRE_1,11;Item_GEM_FIRE_2,22;Item_GEM_FIRE_3,33;Item_GEM_WIND_1,11;Item_GEM_WIND_2,22;Item_GEM_WIND_3,33;Item_HeroCard_Abaddon,88;Item_HeroCard_Beastmaster,99;Item_HeroCard_BountyHunter,66;Item_HeroCard_Bristleback,33;Item_HeroCard_Clinkz,66;Item_HeroCard_CrystalMaiden,99;Item_HeroCard_Ezalor,99;Item_HeroCard_Lifestealer,99;Item_HeroCard_TeaantProtector,99</t>
   </si>
   <si>
+    <t>Item_NoobPack</t>
+  </si>
+  <si>
     <t>NameID_NoobPack</t>
   </si>
   <si>
@@ -486,6 +489,9 @@
     <t>Desc_WarPack</t>
   </si>
   <si>
+    <t>Item_WarPack</t>
+  </si>
+  <si>
     <t>NameID_WarPack</t>
   </si>
   <si>
@@ -510,6 +516,9 @@
     <t>Desc_GEM_ATK</t>
   </si>
   <si>
+    <t>Item_GEM_ATK</t>
+  </si>
+  <si>
     <t>NameID_GEM_ATK</t>
   </si>
   <si>
@@ -546,6 +555,9 @@
     <t>Desc_GEM_DEF</t>
   </si>
   <si>
+    <t>Item_GEM_DEF</t>
+  </si>
+  <si>
     <t>NameID_GEM_DEF</t>
   </si>
   <si>
@@ -582,6 +594,9 @@
     <t>Desc_GEM_FIRE</t>
   </si>
   <si>
+    <t>Fire_Element</t>
+  </si>
+  <si>
     <t>NameID_GEM_FIRE</t>
   </si>
   <si>
@@ -618,6 +633,9 @@
     <t>Desc_GEM_LIGHT</t>
   </si>
   <si>
+    <t>Light_Element</t>
+  </si>
+  <si>
     <t>NameID_GEM_LIGHT</t>
   </si>
   <si>
@@ -654,6 +672,9 @@
     <t>Desc_GEM_WIND</t>
   </si>
   <si>
+    <t>Wind_Element</t>
+  </si>
+  <si>
     <t>NameID_GEM_WIND</t>
   </si>
   <si>
@@ -690,6 +711,9 @@
     <t>Desc_GEM_ICE</t>
   </si>
   <si>
+    <t>Ice_Element</t>
+  </si>
+  <si>
     <t>NameID_GEM_ICE</t>
   </si>
   <si>
@@ -724,6 +748,9 @@
   </si>
   <si>
     <t>Desc_GEM_POISON</t>
+  </si>
+  <si>
+    <t>Poison_Element</t>
   </si>
   <si>
     <t>NameID_GEM_POISON</t>
@@ -890,10 +917,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -920,6 +947,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -927,7 +969,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -941,15 +990,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -963,17 +1006,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -992,56 +1045,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1055,9 +1061,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1102,13 +1129,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,55 +1243,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,97 +1303,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,9 +1393,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1384,21 +1413,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1428,6 +1442,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1441,29 +1479,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1475,130 +1502,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2026,11 +2053,11 @@
   <dimension ref="A1:V140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="O121" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D131" sqref="D131"/>
+      <selection pane="bottomRight" activeCell="T122" sqref="T122:T131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4744,10 +4771,10 @@
         <v>56</v>
       </c>
       <c r="T46" s="16" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="U46" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="V46" s="17">
         <v>0</v>
@@ -4755,7 +4782,7 @@
     </row>
     <row r="47" s="5" customFormat="1" spans="1:22">
       <c r="A47" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B47" s="18">
         <v>2</v>
@@ -4800,10 +4827,10 @@
         <v>56</v>
       </c>
       <c r="T47" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="U47" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="U47" s="16" t="s">
-        <v>141</v>
       </c>
       <c r="V47" s="17">
         <v>0</v>
@@ -4811,7 +4838,7 @@
     </row>
     <row r="48" s="5" customFormat="1" spans="1:22">
       <c r="A48" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B48" s="17">
         <v>2</v>
@@ -4856,10 +4883,10 @@
         <v>56</v>
       </c>
       <c r="T48" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U48" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="V48" s="17">
         <v>0</v>
@@ -4867,7 +4894,7 @@
     </row>
     <row r="49" s="5" customFormat="1" spans="1:22">
       <c r="A49" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B49" s="18">
         <v>2</v>
@@ -4912,10 +4939,10 @@
         <v>56</v>
       </c>
       <c r="T49" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="U49" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="V49" s="17">
         <v>0</v>
@@ -4923,7 +4950,7 @@
     </row>
     <row r="50" s="5" customFormat="1" spans="1:22">
       <c r="A50" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B50" s="17">
         <v>2</v>
@@ -4968,10 +4995,10 @@
         <v>56</v>
       </c>
       <c r="T50" s="16" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="U50" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="V50" s="17">
         <v>0</v>
@@ -4979,7 +5006,7 @@
     </row>
     <row r="51" s="5" customFormat="1" spans="1:22">
       <c r="A51" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B51" s="18">
         <v>2</v>
@@ -5024,10 +5051,10 @@
         <v>56</v>
       </c>
       <c r="T51" s="16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="U51" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="V51" s="17">
         <v>0</v>
@@ -5035,7 +5062,7 @@
     </row>
     <row r="52" s="5" customFormat="1" spans="1:22">
       <c r="A52" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B52" s="17">
         <v>2</v>
@@ -5080,10 +5107,10 @@
         <v>56</v>
       </c>
       <c r="T52" s="16" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="U52" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="V52" s="17">
         <v>0</v>
@@ -5091,7 +5118,7 @@
     </row>
     <row r="53" s="5" customFormat="1" spans="1:22">
       <c r="A53" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B53" s="18">
         <v>2</v>
@@ -5136,10 +5163,10 @@
         <v>56</v>
       </c>
       <c r="T53" s="16" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="U53" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="V53" s="17">
         <v>0</v>
@@ -5147,7 +5174,7 @@
     </row>
     <row r="54" s="5" customFormat="1" spans="1:22">
       <c r="A54" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B54" s="17">
         <v>2</v>
@@ -5192,10 +5219,10 @@
         <v>56</v>
       </c>
       <c r="T54" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="U54" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="V54" s="17">
         <v>0</v>
@@ -5203,7 +5230,7 @@
     </row>
     <row r="55" s="5" customFormat="1" spans="1:22">
       <c r="A55" s="16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B55" s="18">
         <v>2</v>
@@ -5248,10 +5275,10 @@
         <v>56</v>
       </c>
       <c r="T55" s="16" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="U55" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="V55" s="17">
         <v>0</v>
@@ -5259,7 +5286,7 @@
     </row>
     <row r="56" s="5" customFormat="1" spans="1:22">
       <c r="A56" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B56" s="17">
         <v>2</v>
@@ -5275,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
@@ -5304,10 +5331,10 @@
         <v>56</v>
       </c>
       <c r="T56" s="16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="U56" s="16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="V56" s="17">
         <v>0</v>
@@ -5315,7 +5342,7 @@
     </row>
     <row r="57" s="5" customFormat="1" spans="1:22">
       <c r="A57" s="16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B57" s="18">
         <v>2</v>
@@ -5331,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
@@ -5363,7 +5390,7 @@
         <v>154</v>
       </c>
       <c r="U57" s="16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="V57" s="17">
         <v>0</v>
@@ -5371,7 +5398,7 @@
     </row>
     <row r="58" s="5" customFormat="1" spans="1:22">
       <c r="A58" s="16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B58" s="17">
         <v>2</v>
@@ -5387,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
@@ -5416,10 +5443,10 @@
         <v>56</v>
       </c>
       <c r="T58" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="U58" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="U58" s="16" t="s">
-        <v>153</v>
       </c>
       <c r="V58" s="17">
         <v>0</v>
@@ -5427,7 +5454,7 @@
     </row>
     <row r="59" s="5" customFormat="1" spans="1:22">
       <c r="A59" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B59" s="18">
         <v>2</v>
@@ -5443,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
@@ -5472,10 +5499,10 @@
         <v>56</v>
       </c>
       <c r="T59" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U59" s="16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="V59" s="17">
         <v>0</v>
@@ -5483,7 +5510,7 @@
     </row>
     <row r="60" s="5" customFormat="1" spans="1:22">
       <c r="A60" s="19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B60" s="17">
         <v>2</v>
@@ -5499,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
@@ -5527,11 +5554,11 @@
       <c r="S60" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="T60" s="19" t="s">
-        <v>157</v>
+      <c r="T60" s="16" t="s">
+        <v>154</v>
       </c>
       <c r="U60" s="16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="V60" s="20">
         <v>0</v>
@@ -5539,7 +5566,7 @@
     </row>
     <row r="61" s="5" customFormat="1" spans="1:22">
       <c r="A61" s="19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B61" s="18">
         <v>2</v>
@@ -5555,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
@@ -5583,11 +5610,11 @@
       <c r="S61" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="T61" s="19" t="s">
-        <v>157</v>
+      <c r="T61" s="16" t="s">
+        <v>154</v>
       </c>
       <c r="U61" s="16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="V61" s="20">
         <v>0</v>
@@ -5595,7 +5622,7 @@
     </row>
     <row r="62" s="6" customFormat="1" spans="1:22">
       <c r="A62" s="22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B62" s="22">
         <v>1</v>
@@ -5611,7 +5638,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
@@ -5640,10 +5667,10 @@
         <v>56</v>
       </c>
       <c r="T62" s="22" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="U62" s="22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="V62" s="22">
         <v>0</v>
@@ -5651,7 +5678,7 @@
     </row>
     <row r="63" s="6" customFormat="1" spans="1:22">
       <c r="A63" s="22" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B63" s="22">
         <v>1</v>
@@ -5667,7 +5694,7 @@
         <v>2</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
@@ -5696,10 +5723,10 @@
         <v>56</v>
       </c>
       <c r="T63" s="22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U63" s="22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="V63" s="22">
         <v>0</v>
@@ -5707,7 +5734,7 @@
     </row>
     <row r="64" s="6" customFormat="1" spans="1:22">
       <c r="A64" s="22" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B64" s="22">
         <v>1</v>
@@ -5723,7 +5750,7 @@
         <v>3</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H64" s="22"/>
       <c r="I64" s="22"/>
@@ -5755,7 +5782,7 @@
         <v>163</v>
       </c>
       <c r="U64" s="22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="V64" s="22">
         <v>0</v>
@@ -5763,7 +5790,7 @@
     </row>
     <row r="65" s="6" customFormat="1" spans="1:22">
       <c r="A65" s="22" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B65" s="22">
         <v>1</v>
@@ -5779,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H65" s="22"/>
       <c r="I65" s="22"/>
@@ -5808,10 +5835,10 @@
         <v>56</v>
       </c>
       <c r="T65" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="U65" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="U65" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="V65" s="22">
         <v>0</v>
@@ -5819,7 +5846,7 @@
     </row>
     <row r="66" s="6" customFormat="1" spans="1:22">
       <c r="A66" s="22" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B66" s="22">
         <v>1</v>
@@ -5835,7 +5862,7 @@
         <v>5</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
@@ -5864,10 +5891,10 @@
         <v>56</v>
       </c>
       <c r="T66" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="U66" s="22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="V66" s="22">
         <v>0</v>
@@ -5875,7 +5902,7 @@
     </row>
     <row r="67" s="6" customFormat="1" spans="1:22">
       <c r="A67" s="22" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B67" s="22">
         <v>1</v>
@@ -5891,7 +5918,7 @@
         <v>6</v>
       </c>
       <c r="G67" s="22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
@@ -5920,10 +5947,10 @@
         <v>56</v>
       </c>
       <c r="T67" s="22" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="U67" s="22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="V67" s="22">
         <v>0</v>
@@ -5931,7 +5958,7 @@
     </row>
     <row r="68" s="6" customFormat="1" spans="1:22">
       <c r="A68" s="22" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B68" s="22">
         <v>1</v>
@@ -5947,7 +5974,7 @@
         <v>7</v>
       </c>
       <c r="G68" s="22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H68" s="22"/>
       <c r="I68" s="22"/>
@@ -5976,10 +6003,10 @@
         <v>56</v>
       </c>
       <c r="T68" s="22" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="U68" s="22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="V68" s="22">
         <v>0</v>
@@ -5987,7 +6014,7 @@
     </row>
     <row r="69" s="6" customFormat="1" spans="1:22">
       <c r="A69" s="22" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B69" s="22">
         <v>1</v>
@@ -6003,7 +6030,7 @@
         <v>8</v>
       </c>
       <c r="G69" s="22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
@@ -6032,10 +6059,10 @@
         <v>56</v>
       </c>
       <c r="T69" s="22" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="U69" s="22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="V69" s="22">
         <v>0</v>
@@ -6043,7 +6070,7 @@
     </row>
     <row r="70" s="6" customFormat="1" spans="1:22">
       <c r="A70" s="22" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B70" s="22">
         <v>1</v>
@@ -6059,7 +6086,7 @@
         <v>9</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
@@ -6088,10 +6115,10 @@
         <v>56</v>
       </c>
       <c r="T70" s="22" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="U70" s="22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="V70" s="22">
         <v>0</v>
@@ -6099,7 +6126,7 @@
     </row>
     <row r="71" s="6" customFormat="1" spans="1:22">
       <c r="A71" s="22" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B71" s="22">
         <v>1</v>
@@ -6115,7 +6142,7 @@
         <v>10</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H71" s="22"/>
       <c r="I71" s="22"/>
@@ -6144,10 +6171,10 @@
         <v>56</v>
       </c>
       <c r="T71" s="22" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="U71" s="22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="V71" s="22">
         <v>0</v>
@@ -6155,7 +6182,7 @@
     </row>
     <row r="72" s="6" customFormat="1" spans="1:22">
       <c r="A72" s="22" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B72" s="22">
         <v>1</v>
@@ -6171,7 +6198,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H72" s="22"/>
       <c r="I72" s="22"/>
@@ -6200,10 +6227,10 @@
         <v>56</v>
       </c>
       <c r="T72" s="22" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="U72" s="22" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="V72" s="22">
         <v>0</v>
@@ -6211,7 +6238,7 @@
     </row>
     <row r="73" s="6" customFormat="1" spans="1:22">
       <c r="A73" s="22" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B73" s="22">
         <v>1</v>
@@ -6227,7 +6254,7 @@
         <v>2</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
@@ -6256,10 +6283,10 @@
         <v>56</v>
       </c>
       <c r="T73" s="22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="U73" s="22" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="V73" s="22">
         <v>0</v>
@@ -6267,7 +6294,7 @@
     </row>
     <row r="74" s="6" customFormat="1" spans="1:22">
       <c r="A74" s="22" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B74" s="22">
         <v>1</v>
@@ -6283,7 +6310,7 @@
         <v>3</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
@@ -6312,10 +6339,10 @@
         <v>56</v>
       </c>
       <c r="T74" s="22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="U74" s="22" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="V74" s="22">
         <v>0</v>
@@ -6323,7 +6350,7 @@
     </row>
     <row r="75" s="6" customFormat="1" spans="1:22">
       <c r="A75" s="22" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B75" s="22">
         <v>1</v>
@@ -6339,7 +6366,7 @@
         <v>4</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
@@ -6371,7 +6398,7 @@
         <v>176</v>
       </c>
       <c r="U75" s="22" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="V75" s="22">
         <v>0</v>
@@ -6379,7 +6406,7 @@
     </row>
     <row r="76" s="6" customFormat="1" spans="1:22">
       <c r="A76" s="22" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B76" s="22">
         <v>1</v>
@@ -6395,7 +6422,7 @@
         <v>5</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
@@ -6424,10 +6451,10 @@
         <v>56</v>
       </c>
       <c r="T76" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="U76" s="22" t="s">
         <v>177</v>
-      </c>
-      <c r="U76" s="22" t="s">
-        <v>173</v>
       </c>
       <c r="V76" s="22">
         <v>0</v>
@@ -6435,7 +6462,7 @@
     </row>
     <row r="77" s="6" customFormat="1" spans="1:22">
       <c r="A77" s="22" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B77" s="22">
         <v>1</v>
@@ -6451,7 +6478,7 @@
         <v>6</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
@@ -6480,10 +6507,10 @@
         <v>56</v>
       </c>
       <c r="T77" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="U77" s="22" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="V77" s="22">
         <v>0</v>
@@ -6491,7 +6518,7 @@
     </row>
     <row r="78" s="6" customFormat="1" spans="1:22">
       <c r="A78" s="22" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B78" s="22">
         <v>1</v>
@@ -6507,7 +6534,7 @@
         <v>7</v>
       </c>
       <c r="G78" s="22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H78" s="22"/>
       <c r="I78" s="22"/>
@@ -6536,10 +6563,10 @@
         <v>56</v>
       </c>
       <c r="T78" s="22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U78" s="22" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="V78" s="22">
         <v>0</v>
@@ -6547,7 +6574,7 @@
     </row>
     <row r="79" s="6" customFormat="1" spans="1:22">
       <c r="A79" s="22" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B79" s="22">
         <v>1</v>
@@ -6563,7 +6590,7 @@
         <v>8</v>
       </c>
       <c r="G79" s="22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
@@ -6592,10 +6619,10 @@
         <v>56</v>
       </c>
       <c r="T79" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="U79" s="22" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="V79" s="22">
         <v>0</v>
@@ -6603,7 +6630,7 @@
     </row>
     <row r="80" s="6" customFormat="1" spans="1:22">
       <c r="A80" s="22" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B80" s="22">
         <v>1</v>
@@ -6619,7 +6646,7 @@
         <v>9</v>
       </c>
       <c r="G80" s="22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H80" s="22"/>
       <c r="I80" s="22"/>
@@ -6648,10 +6675,10 @@
         <v>56</v>
       </c>
       <c r="T80" s="22" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="U80" s="22" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="V80" s="22">
         <v>0</v>
@@ -6659,7 +6686,7 @@
     </row>
     <row r="81" s="6" customFormat="1" spans="1:22">
       <c r="A81" s="22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B81" s="22">
         <v>1</v>
@@ -6675,7 +6702,7 @@
         <v>10</v>
       </c>
       <c r="G81" s="22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
@@ -6704,10 +6731,10 @@
         <v>56</v>
       </c>
       <c r="T81" s="22" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="U81" s="22" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="V81" s="22">
         <v>0</v>
@@ -6715,7 +6742,7 @@
     </row>
     <row r="82" s="6" customFormat="1" spans="1:22">
       <c r="A82" s="22" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B82" s="22">
         <v>1</v>
@@ -6731,7 +6758,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="22" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H82" s="22"/>
       <c r="I82" s="22"/>
@@ -6760,10 +6787,10 @@
         <v>56</v>
       </c>
       <c r="T82" s="22" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="U82" s="22" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="V82" s="22">
         <v>0</v>
@@ -6771,7 +6798,7 @@
     </row>
     <row r="83" s="6" customFormat="1" spans="1:22">
       <c r="A83" s="22" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B83" s="22">
         <v>1</v>
@@ -6787,7 +6814,7 @@
         <v>2</v>
       </c>
       <c r="G83" s="22" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H83" s="22"/>
       <c r="I83" s="22"/>
@@ -6816,10 +6843,10 @@
         <v>56</v>
       </c>
       <c r="T83" s="22" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="U83" s="22" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="V83" s="22">
         <v>0</v>
@@ -6827,7 +6854,7 @@
     </row>
     <row r="84" s="6" customFormat="1" spans="1:22">
       <c r="A84" s="22" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B84" s="22">
         <v>1</v>
@@ -6843,7 +6870,7 @@
         <v>3</v>
       </c>
       <c r="G84" s="22" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
@@ -6872,10 +6899,10 @@
         <v>56</v>
       </c>
       <c r="T84" s="22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="U84" s="22" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="V84" s="22">
         <v>0</v>
@@ -6883,7 +6910,7 @@
     </row>
     <row r="85" s="6" customFormat="1" spans="1:22">
       <c r="A85" s="22" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B85" s="22">
         <v>1</v>
@@ -6899,7 +6926,7 @@
         <v>4</v>
       </c>
       <c r="G85" s="22" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H85" s="22"/>
       <c r="I85" s="22"/>
@@ -6928,10 +6955,10 @@
         <v>56</v>
       </c>
       <c r="T85" s="22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U85" s="22" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="V85" s="22">
         <v>0</v>
@@ -6939,7 +6966,7 @@
     </row>
     <row r="86" s="6" customFormat="1" spans="1:22">
       <c r="A86" s="22" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B86" s="22">
         <v>1</v>
@@ -6955,7 +6982,7 @@
         <v>5</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H86" s="22"/>
       <c r="I86" s="22"/>
@@ -6987,7 +7014,7 @@
         <v>189</v>
       </c>
       <c r="U86" s="22" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="V86" s="22">
         <v>0</v>
@@ -6995,7 +7022,7 @@
     </row>
     <row r="87" s="6" customFormat="1" spans="1:22">
       <c r="A87" s="22" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B87" s="22">
         <v>1</v>
@@ -7011,7 +7038,7 @@
         <v>6</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H87" s="22"/>
       <c r="I87" s="22"/>
@@ -7040,10 +7067,10 @@
         <v>56</v>
       </c>
       <c r="T87" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="U87" s="22" t="s">
         <v>190</v>
-      </c>
-      <c r="U87" s="22" t="s">
-        <v>185</v>
       </c>
       <c r="V87" s="22">
         <v>0</v>
@@ -7051,7 +7078,7 @@
     </row>
     <row r="88" s="6" customFormat="1" spans="1:22">
       <c r="A88" s="22" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B88" s="22">
         <v>1</v>
@@ -7067,7 +7094,7 @@
         <v>7</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
@@ -7096,10 +7123,10 @@
         <v>56</v>
       </c>
       <c r="T88" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="U88" s="22" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="V88" s="22">
         <v>0</v>
@@ -7107,7 +7134,7 @@
     </row>
     <row r="89" s="6" customFormat="1" spans="1:22">
       <c r="A89" s="22" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B89" s="22">
         <v>1</v>
@@ -7123,7 +7150,7 @@
         <v>8</v>
       </c>
       <c r="G89" s="22" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H89" s="22"/>
       <c r="I89" s="22"/>
@@ -7152,10 +7179,10 @@
         <v>56</v>
       </c>
       <c r="T89" s="22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="U89" s="22" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="V89" s="22">
         <v>0</v>
@@ -7163,7 +7190,7 @@
     </row>
     <row r="90" s="6" customFormat="1" spans="1:22">
       <c r="A90" s="22" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B90" s="22">
         <v>1</v>
@@ -7179,7 +7206,7 @@
         <v>9</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H90" s="22"/>
       <c r="I90" s="22"/>
@@ -7208,10 +7235,10 @@
         <v>56</v>
       </c>
       <c r="T90" s="22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="U90" s="22" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="V90" s="22">
         <v>0</v>
@@ -7219,7 +7246,7 @@
     </row>
     <row r="91" s="6" customFormat="1" spans="1:22">
       <c r="A91" s="22" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B91" s="22">
         <v>1</v>
@@ -7235,7 +7262,7 @@
         <v>10</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H91" s="22"/>
       <c r="I91" s="22"/>
@@ -7264,10 +7291,10 @@
         <v>56</v>
       </c>
       <c r="T91" s="22" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="U91" s="22" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="V91" s="22">
         <v>0</v>
@@ -7275,7 +7302,7 @@
     </row>
     <row r="92" s="6" customFormat="1" spans="1:22">
       <c r="A92" s="22" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B92" s="22">
         <v>1</v>
@@ -7291,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H92" s="22"/>
       <c r="I92" s="22"/>
@@ -7320,10 +7347,10 @@
         <v>56</v>
       </c>
       <c r="T92" s="22" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="U92" s="22" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="V92" s="22">
         <v>0</v>
@@ -7331,7 +7358,7 @@
     </row>
     <row r="93" s="6" customFormat="1" spans="1:22">
       <c r="A93" s="22" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B93" s="22">
         <v>1</v>
@@ -7347,7 +7374,7 @@
         <v>2</v>
       </c>
       <c r="G93" s="22" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H93" s="22"/>
       <c r="I93" s="22"/>
@@ -7376,10 +7403,10 @@
         <v>56</v>
       </c>
       <c r="T93" s="22" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="U93" s="22" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="V93" s="22">
         <v>0</v>
@@ -7387,7 +7414,7 @@
     </row>
     <row r="94" s="6" customFormat="1" spans="1:22">
       <c r="A94" s="22" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B94" s="22">
         <v>1</v>
@@ -7403,7 +7430,7 @@
         <v>3</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H94" s="22"/>
       <c r="I94" s="22"/>
@@ -7432,10 +7459,10 @@
         <v>56</v>
       </c>
       <c r="T94" s="22" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="U94" s="22" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="V94" s="22">
         <v>0</v>
@@ -7443,7 +7470,7 @@
     </row>
     <row r="95" s="6" customFormat="1" spans="1:22">
       <c r="A95" s="22" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B95" s="22">
         <v>1</v>
@@ -7459,7 +7486,7 @@
         <v>4</v>
       </c>
       <c r="G95" s="22" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H95" s="22"/>
       <c r="I95" s="22"/>
@@ -7488,10 +7515,10 @@
         <v>56</v>
       </c>
       <c r="T95" s="22" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="U95" s="22" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="V95" s="22">
         <v>0</v>
@@ -7499,7 +7526,7 @@
     </row>
     <row r="96" s="6" customFormat="1" spans="1:22">
       <c r="A96" s="22" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B96" s="22">
         <v>1</v>
@@ -7515,7 +7542,7 @@
         <v>5</v>
       </c>
       <c r="G96" s="22" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
@@ -7544,10 +7571,10 @@
         <v>56</v>
       </c>
       <c r="T96" s="22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U96" s="22" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="V96" s="22">
         <v>0</v>
@@ -7555,7 +7582,7 @@
     </row>
     <row r="97" s="6" customFormat="1" spans="1:22">
       <c r="A97" s="22" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B97" s="22">
         <v>1</v>
@@ -7571,7 +7598,7 @@
         <v>6</v>
       </c>
       <c r="G97" s="22" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H97" s="22"/>
       <c r="I97" s="22"/>
@@ -7603,7 +7630,7 @@
         <v>202</v>
       </c>
       <c r="U97" s="22" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="V97" s="22">
         <v>0</v>
@@ -7611,7 +7638,7 @@
     </row>
     <row r="98" s="6" customFormat="1" spans="1:22">
       <c r="A98" s="22" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B98" s="22">
         <v>1</v>
@@ -7627,7 +7654,7 @@
         <v>7</v>
       </c>
       <c r="G98" s="22" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H98" s="22"/>
       <c r="I98" s="22"/>
@@ -7656,10 +7683,10 @@
         <v>56</v>
       </c>
       <c r="T98" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="U98" s="22" t="s">
         <v>203</v>
-      </c>
-      <c r="U98" s="22" t="s">
-        <v>197</v>
       </c>
       <c r="V98" s="22">
         <v>0</v>
@@ -7667,7 +7694,7 @@
     </row>
     <row r="99" s="6" customFormat="1" spans="1:22">
       <c r="A99" s="22" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B99" s="22">
         <v>1</v>
@@ -7683,7 +7710,7 @@
         <v>8</v>
       </c>
       <c r="G99" s="22" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H99" s="22"/>
       <c r="I99" s="22"/>
@@ -7712,10 +7739,10 @@
         <v>56</v>
       </c>
       <c r="T99" s="22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="U99" s="22" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="V99" s="22">
         <v>0</v>
@@ -7723,7 +7750,7 @@
     </row>
     <row r="100" s="6" customFormat="1" spans="1:22">
       <c r="A100" s="22" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B100" s="22">
         <v>1</v>
@@ -7739,7 +7766,7 @@
         <v>9</v>
       </c>
       <c r="G100" s="22" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H100" s="22"/>
       <c r="I100" s="22"/>
@@ -7768,10 +7795,10 @@
         <v>56</v>
       </c>
       <c r="T100" s="22" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="U100" s="22" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="V100" s="22">
         <v>0</v>
@@ -7779,7 +7806,7 @@
     </row>
     <row r="101" s="6" customFormat="1" spans="1:22">
       <c r="A101" s="22" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B101" s="22">
         <v>1</v>
@@ -7795,7 +7822,7 @@
         <v>10</v>
       </c>
       <c r="G101" s="22" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H101" s="22"/>
       <c r="I101" s="22"/>
@@ -7824,10 +7851,10 @@
         <v>56</v>
       </c>
       <c r="T101" s="22" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="U101" s="22" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="V101" s="22">
         <v>0</v>
@@ -7835,7 +7862,7 @@
     </row>
     <row r="102" s="7" customFormat="1" spans="1:22">
       <c r="A102" s="23" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B102" s="23">
         <v>1</v>
@@ -7851,7 +7878,7 @@
         <v>1</v>
       </c>
       <c r="G102" s="23" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H102" s="23"/>
       <c r="I102" s="23"/>
@@ -7880,10 +7907,10 @@
         <v>56</v>
       </c>
       <c r="T102" s="23" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="U102" s="23" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="V102" s="23">
         <v>0</v>
@@ -7891,7 +7918,7 @@
     </row>
     <row r="103" s="7" customFormat="1" spans="1:22">
       <c r="A103" s="23" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B103" s="23">
         <v>1</v>
@@ -7907,7 +7934,7 @@
         <v>2</v>
       </c>
       <c r="G103" s="23" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H103" s="23"/>
       <c r="I103" s="23"/>
@@ -7936,10 +7963,10 @@
         <v>56</v>
       </c>
       <c r="T103" s="23" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="U103" s="23" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="V103" s="23">
         <v>0</v>
@@ -7947,7 +7974,7 @@
     </row>
     <row r="104" s="7" customFormat="1" spans="1:22">
       <c r="A104" s="23" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B104" s="23">
         <v>1</v>
@@ -7963,7 +7990,7 @@
         <v>3</v>
       </c>
       <c r="G104" s="23" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H104" s="23"/>
       <c r="I104" s="23"/>
@@ -7992,10 +8019,10 @@
         <v>56</v>
       </c>
       <c r="T104" s="23" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="U104" s="23" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="V104" s="23">
         <v>0</v>
@@ -8003,7 +8030,7 @@
     </row>
     <row r="105" s="7" customFormat="1" spans="1:22">
       <c r="A105" s="23" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B105" s="23">
         <v>1</v>
@@ -8019,7 +8046,7 @@
         <v>4</v>
       </c>
       <c r="G105" s="23" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H105" s="23"/>
       <c r="I105" s="23"/>
@@ -8048,10 +8075,10 @@
         <v>56</v>
       </c>
       <c r="T105" s="23" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="U105" s="23" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="V105" s="23">
         <v>0</v>
@@ -8059,7 +8086,7 @@
     </row>
     <row r="106" s="7" customFormat="1" spans="1:22">
       <c r="A106" s="23" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B106" s="23">
         <v>1</v>
@@ -8075,7 +8102,7 @@
         <v>5</v>
       </c>
       <c r="G106" s="23" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H106" s="23"/>
       <c r="I106" s="23"/>
@@ -8104,10 +8131,10 @@
         <v>56</v>
       </c>
       <c r="T106" s="23" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="U106" s="23" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="V106" s="23">
         <v>0</v>
@@ -8115,7 +8142,7 @@
     </row>
     <row r="107" s="7" customFormat="1" spans="1:22">
       <c r="A107" s="23" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B107" s="23">
         <v>1</v>
@@ -8131,7 +8158,7 @@
         <v>6</v>
       </c>
       <c r="G107" s="23" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H107" s="23"/>
       <c r="I107" s="23"/>
@@ -8160,10 +8187,10 @@
         <v>56</v>
       </c>
       <c r="T107" s="23" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U107" s="23" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="V107" s="23">
         <v>0</v>
@@ -8171,7 +8198,7 @@
     </row>
     <row r="108" s="7" customFormat="1" spans="1:22">
       <c r="A108" s="23" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B108" s="23">
         <v>1</v>
@@ -8187,7 +8214,7 @@
         <v>7</v>
       </c>
       <c r="G108" s="23" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H108" s="23"/>
       <c r="I108" s="23"/>
@@ -8219,7 +8246,7 @@
         <v>215</v>
       </c>
       <c r="U108" s="23" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="V108" s="23">
         <v>0</v>
@@ -8227,7 +8254,7 @@
     </row>
     <row r="109" s="7" customFormat="1" spans="1:22">
       <c r="A109" s="23" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B109" s="23">
         <v>1</v>
@@ -8243,7 +8270,7 @@
         <v>8</v>
       </c>
       <c r="G109" s="23" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H109" s="23"/>
       <c r="I109" s="23"/>
@@ -8272,10 +8299,10 @@
         <v>56</v>
       </c>
       <c r="T109" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="U109" s="23" t="s">
         <v>216</v>
-      </c>
-      <c r="U109" s="23" t="s">
-        <v>209</v>
       </c>
       <c r="V109" s="23">
         <v>0</v>
@@ -8283,7 +8310,7 @@
     </row>
     <row r="110" s="7" customFormat="1" spans="1:22">
       <c r="A110" s="23" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B110" s="23">
         <v>1</v>
@@ -8299,7 +8326,7 @@
         <v>9</v>
       </c>
       <c r="G110" s="23" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H110" s="23"/>
       <c r="I110" s="23"/>
@@ -8328,10 +8355,10 @@
         <v>56</v>
       </c>
       <c r="T110" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="U110" s="23" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="V110" s="23">
         <v>0</v>
@@ -8339,7 +8366,7 @@
     </row>
     <row r="111" s="7" customFormat="1" spans="1:22">
       <c r="A111" s="23" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B111" s="23">
         <v>1</v>
@@ -8355,7 +8382,7 @@
         <v>10</v>
       </c>
       <c r="G111" s="23" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H111" s="23"/>
       <c r="I111" s="23"/>
@@ -8384,10 +8411,10 @@
         <v>56</v>
       </c>
       <c r="T111" s="23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="U111" s="23" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="V111" s="23">
         <v>0</v>
@@ -8395,7 +8422,7 @@
     </row>
     <row r="112" s="6" customFormat="1" spans="1:22">
       <c r="A112" s="22" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B112" s="22">
         <v>1</v>
@@ -8411,7 +8438,7 @@
         <v>1</v>
       </c>
       <c r="G112" s="22" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H112" s="22"/>
       <c r="I112" s="22"/>
@@ -8440,10 +8467,10 @@
         <v>56</v>
       </c>
       <c r="T112" s="22" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="U112" s="22" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="V112" s="22">
         <v>0</v>
@@ -8451,7 +8478,7 @@
     </row>
     <row r="113" s="6" customFormat="1" spans="1:22">
       <c r="A113" s="22" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B113" s="22">
         <v>1</v>
@@ -8467,7 +8494,7 @@
         <v>2</v>
       </c>
       <c r="G113" s="22" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H113" s="22"/>
       <c r="I113" s="22"/>
@@ -8496,10 +8523,10 @@
         <v>56</v>
       </c>
       <c r="T113" s="22" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="U113" s="22" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="V113" s="22">
         <v>0</v>
@@ -8507,7 +8534,7 @@
     </row>
     <row r="114" s="6" customFormat="1" spans="1:22">
       <c r="A114" s="22" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B114" s="22">
         <v>1</v>
@@ -8523,7 +8550,7 @@
         <v>3</v>
       </c>
       <c r="G114" s="22" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H114" s="22"/>
       <c r="I114" s="22"/>
@@ -8552,10 +8579,10 @@
         <v>56</v>
       </c>
       <c r="T114" s="22" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="U114" s="22" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="V114" s="22">
         <v>0</v>
@@ -8563,7 +8590,7 @@
     </row>
     <row r="115" s="6" customFormat="1" spans="1:22">
       <c r="A115" s="22" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B115" s="22">
         <v>1</v>
@@ -8579,7 +8606,7 @@
         <v>4</v>
       </c>
       <c r="G115" s="22" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H115" s="22"/>
       <c r="I115" s="22"/>
@@ -8608,10 +8635,10 @@
         <v>56</v>
       </c>
       <c r="T115" s="22" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="U115" s="22" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="V115" s="22">
         <v>0</v>
@@ -8619,7 +8646,7 @@
     </row>
     <row r="116" s="6" customFormat="1" spans="1:22">
       <c r="A116" s="22" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B116" s="22">
         <v>1</v>
@@ -8635,7 +8662,7 @@
         <v>5</v>
       </c>
       <c r="G116" s="22" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H116" s="22"/>
       <c r="I116" s="22"/>
@@ -8664,10 +8691,10 @@
         <v>56</v>
       </c>
       <c r="T116" s="22" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="U116" s="22" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="V116" s="22">
         <v>0</v>
@@ -8675,7 +8702,7 @@
     </row>
     <row r="117" s="6" customFormat="1" spans="1:22">
       <c r="A117" s="22" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B117" s="22">
         <v>1</v>
@@ -8691,7 +8718,7 @@
         <v>6</v>
       </c>
       <c r="G117" s="22" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H117" s="22"/>
       <c r="I117" s="22"/>
@@ -8720,10 +8747,10 @@
         <v>56</v>
       </c>
       <c r="T117" s="22" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="U117" s="22" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="V117" s="22">
         <v>0</v>
@@ -8731,7 +8758,7 @@
     </row>
     <row r="118" s="6" customFormat="1" spans="1:22">
       <c r="A118" s="22" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B118" s="22">
         <v>1</v>
@@ -8747,7 +8774,7 @@
         <v>7</v>
       </c>
       <c r="G118" s="22" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H118" s="22"/>
       <c r="I118" s="22"/>
@@ -8776,10 +8803,10 @@
         <v>56</v>
       </c>
       <c r="T118" s="22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="U118" s="22" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="V118" s="22">
         <v>0</v>
@@ -8787,7 +8814,7 @@
     </row>
     <row r="119" s="6" customFormat="1" spans="1:22">
       <c r="A119" s="22" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B119" s="22">
         <v>1</v>
@@ -8803,7 +8830,7 @@
         <v>8</v>
       </c>
       <c r="G119" s="22" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H119" s="22"/>
       <c r="I119" s="22"/>
@@ -8835,7 +8862,7 @@
         <v>228</v>
       </c>
       <c r="U119" s="22" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="V119" s="22">
         <v>0</v>
@@ -8843,7 +8870,7 @@
     </row>
     <row r="120" s="6" customFormat="1" spans="1:22">
       <c r="A120" s="22" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B120" s="22">
         <v>1</v>
@@ -8859,7 +8886,7 @@
         <v>9</v>
       </c>
       <c r="G120" s="22" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H120" s="22"/>
       <c r="I120" s="22"/>
@@ -8888,10 +8915,10 @@
         <v>56</v>
       </c>
       <c r="T120" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="U120" s="22" t="s">
         <v>229</v>
-      </c>
-      <c r="U120" s="22" t="s">
-        <v>221</v>
       </c>
       <c r="V120" s="22">
         <v>0</v>
@@ -8899,7 +8926,7 @@
     </row>
     <row r="121" s="6" customFormat="1" spans="1:22">
       <c r="A121" s="22" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B121" s="22">
         <v>1</v>
@@ -8915,7 +8942,7 @@
         <v>10</v>
       </c>
       <c r="G121" s="22" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H121" s="22"/>
       <c r="I121" s="22"/>
@@ -8944,10 +8971,10 @@
         <v>56</v>
       </c>
       <c r="T121" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U121" s="22" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="V121" s="22">
         <v>0</v>
@@ -8955,7 +8982,7 @@
     </row>
     <row r="122" s="6" customFormat="1" spans="1:22">
       <c r="A122" s="22" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B122" s="22">
         <v>1</v>
@@ -8971,7 +8998,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="22" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="H122" s="22"/>
       <c r="I122" s="22"/>
@@ -9000,10 +9027,10 @@
         <v>56</v>
       </c>
       <c r="T122" s="22" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="U122" s="22" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="V122" s="22">
         <v>0</v>
@@ -9011,7 +9038,7 @@
     </row>
     <row r="123" s="6" customFormat="1" spans="1:22">
       <c r="A123" s="22" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B123" s="22">
         <v>1</v>
@@ -9027,7 +9054,7 @@
         <v>2</v>
       </c>
       <c r="G123" s="22" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="H123" s="22"/>
       <c r="I123" s="22"/>
@@ -9056,10 +9083,10 @@
         <v>56</v>
       </c>
       <c r="T123" s="22" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="U123" s="22" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="V123" s="22">
         <v>0</v>
@@ -9067,7 +9094,7 @@
     </row>
     <row r="124" s="6" customFormat="1" spans="1:22">
       <c r="A124" s="22" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B124" s="22">
         <v>1</v>
@@ -9083,7 +9110,7 @@
         <v>3</v>
       </c>
       <c r="G124" s="22" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="H124" s="22"/>
       <c r="I124" s="22"/>
@@ -9112,10 +9139,10 @@
         <v>56</v>
       </c>
       <c r="T124" s="22" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="U124" s="22" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="V124" s="22">
         <v>0</v>
@@ -9123,7 +9150,7 @@
     </row>
     <row r="125" s="6" customFormat="1" spans="1:22">
       <c r="A125" s="22" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B125" s="22">
         <v>1</v>
@@ -9139,7 +9166,7 @@
         <v>4</v>
       </c>
       <c r="G125" s="22" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="H125" s="22"/>
       <c r="I125" s="22"/>
@@ -9168,10 +9195,10 @@
         <v>56</v>
       </c>
       <c r="T125" s="22" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="U125" s="22" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="V125" s="22">
         <v>0</v>
@@ -9179,7 +9206,7 @@
     </row>
     <row r="126" s="6" customFormat="1" spans="1:22">
       <c r="A126" s="22" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B126" s="22">
         <v>1</v>
@@ -9195,7 +9222,7 @@
         <v>5</v>
       </c>
       <c r="G126" s="22" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="H126" s="22"/>
       <c r="I126" s="22"/>
@@ -9224,10 +9251,10 @@
         <v>56</v>
       </c>
       <c r="T126" s="22" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="U126" s="22" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="V126" s="22">
         <v>0</v>
@@ -9235,7 +9262,7 @@
     </row>
     <row r="127" s="6" customFormat="1" spans="1:22">
       <c r="A127" s="22" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B127" s="22">
         <v>1</v>
@@ -9251,7 +9278,7 @@
         <v>6</v>
       </c>
       <c r="G127" s="22" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="H127" s="22"/>
       <c r="I127" s="22"/>
@@ -9280,10 +9307,10 @@
         <v>56</v>
       </c>
       <c r="T127" s="22" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="U127" s="22" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="V127" s="22">
         <v>0</v>
@@ -9291,7 +9318,7 @@
     </row>
     <row r="128" s="6" customFormat="1" spans="1:22">
       <c r="A128" s="22" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B128" s="22">
         <v>1</v>
@@ -9307,7 +9334,7 @@
         <v>7</v>
       </c>
       <c r="G128" s="22" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="H128" s="22"/>
       <c r="I128" s="22"/>
@@ -9336,10 +9363,10 @@
         <v>56</v>
       </c>
       <c r="T128" s="22" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="U128" s="22" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="V128" s="22">
         <v>0</v>
@@ -9347,7 +9374,7 @@
     </row>
     <row r="129" s="6" customFormat="1" spans="1:22">
       <c r="A129" s="22" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B129" s="22">
         <v>1</v>
@@ -9363,7 +9390,7 @@
         <v>8</v>
       </c>
       <c r="G129" s="22" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="H129" s="22"/>
       <c r="I129" s="22"/>
@@ -9392,10 +9419,10 @@
         <v>56</v>
       </c>
       <c r="T129" s="22" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="U129" s="22" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="V129" s="22">
         <v>0</v>
@@ -9403,7 +9430,7 @@
     </row>
     <row r="130" s="6" customFormat="1" spans="1:22">
       <c r="A130" s="22" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B130" s="22">
         <v>1</v>
@@ -9419,7 +9446,7 @@
         <v>9</v>
       </c>
       <c r="G130" s="22" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="H130" s="22"/>
       <c r="I130" s="22"/>
@@ -9451,7 +9478,7 @@
         <v>241</v>
       </c>
       <c r="U130" s="22" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="V130" s="22">
         <v>0</v>
@@ -9459,7 +9486,7 @@
     </row>
     <row r="131" s="6" customFormat="1" spans="1:22">
       <c r="A131" s="22" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B131" s="22">
         <v>1</v>
@@ -9475,7 +9502,7 @@
         <v>10</v>
       </c>
       <c r="G131" s="22" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="H131" s="22"/>
       <c r="I131" s="22"/>
@@ -9504,10 +9531,10 @@
         <v>56</v>
       </c>
       <c r="T131" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="U131" s="22" t="s">
         <v>242</v>
-      </c>
-      <c r="U131" s="22" t="s">
-        <v>233</v>
       </c>
       <c r="V131" s="22">
         <v>0</v>
@@ -9515,7 +9542,7 @@
     </row>
     <row r="132" s="8" customFormat="1" spans="1:22">
       <c r="A132" s="24" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B132" s="25">
         <v>3</v>
@@ -9531,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="G132" s="24" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="H132" s="25"/>
       <c r="I132" s="25"/>
@@ -9556,16 +9583,16 @@
       </c>
       <c r="Q132" s="25"/>
       <c r="R132" s="24" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="S132" s="12" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="T132" s="24" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="U132" s="25" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="V132" s="25">
         <v>0</v>
@@ -9573,7 +9600,7 @@
     </row>
     <row r="133" s="8" customFormat="1" spans="1:22">
       <c r="A133" s="26" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B133" s="27">
         <v>3</v>
@@ -9589,7 +9616,7 @@
         <v>0</v>
       </c>
       <c r="G133" s="26" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
@@ -9614,16 +9641,16 @@
       </c>
       <c r="Q133" s="27"/>
       <c r="R133" s="26" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="S133" s="12" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="T133" s="26" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="U133" s="27" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="V133" s="27">
         <v>0</v>
@@ -9631,7 +9658,7 @@
     </row>
     <row r="134" s="8" customFormat="1" spans="1:22">
       <c r="A134" s="26" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B134" s="25">
         <v>3</v>
@@ -9647,7 +9674,7 @@
         <v>0</v>
       </c>
       <c r="G134" s="26" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
@@ -9672,16 +9699,16 @@
       </c>
       <c r="Q134" s="27"/>
       <c r="R134" s="26" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="S134" s="12" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="T134" s="26" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="U134" s="27" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="V134" s="27">
         <v>0</v>
@@ -9689,7 +9716,7 @@
     </row>
     <row r="135" s="8" customFormat="1" spans="1:22">
       <c r="A135" s="26" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="B135" s="27">
         <v>3</v>
@@ -9705,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="26" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
@@ -9730,16 +9757,16 @@
       </c>
       <c r="Q135" s="27"/>
       <c r="R135" s="26" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="S135" s="12" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="T135" s="26" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="U135" s="27" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="V135" s="27">
         <v>0</v>
@@ -9747,7 +9774,7 @@
     </row>
     <row r="136" s="8" customFormat="1" spans="1:22">
       <c r="A136" s="26" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B136" s="25">
         <v>3</v>
@@ -9763,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="G136" s="26" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
@@ -9788,16 +9815,16 @@
       </c>
       <c r="Q136" s="27"/>
       <c r="R136" s="26" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="S136" s="12" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="T136" s="26" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="U136" s="27" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="V136" s="27">
         <v>0</v>
@@ -9805,7 +9832,7 @@
     </row>
     <row r="137" s="8" customFormat="1" spans="1:22">
       <c r="A137" s="26" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B137" s="27">
         <v>3</v>
@@ -9821,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="26" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
@@ -9846,16 +9873,16 @@
       </c>
       <c r="Q137" s="27"/>
       <c r="R137" s="26" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="S137" s="12" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="T137" s="26" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="U137" s="27" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="V137" s="27">
         <v>0</v>
@@ -9863,7 +9890,7 @@
     </row>
     <row r="138" s="8" customFormat="1" spans="1:22">
       <c r="A138" s="26" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B138" s="27">
         <v>3</v>
@@ -9879,7 +9906,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="26" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
@@ -9904,16 +9931,16 @@
       </c>
       <c r="Q138" s="27"/>
       <c r="R138" s="26" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="S138" s="12" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="T138" s="26" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="U138" s="27" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="V138" s="27">
         <v>0</v>
@@ -9921,7 +9948,7 @@
     </row>
     <row r="139" s="8" customFormat="1" spans="1:22">
       <c r="A139" s="26" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B139" s="27">
         <v>3</v>
@@ -9937,7 +9964,7 @@
         <v>0</v>
       </c>
       <c r="G139" s="26" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
@@ -9962,16 +9989,16 @@
       </c>
       <c r="Q139" s="27"/>
       <c r="R139" s="26" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="S139" s="12" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="T139" s="26" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="U139" s="27" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="V139" s="27">
         <v>0</v>
@@ -9979,7 +10006,7 @@
     </row>
     <row r="140" s="8" customFormat="1" spans="1:22">
       <c r="A140" s="26" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B140" s="27">
         <v>3</v>
@@ -9995,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="G140" s="26" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
@@ -10020,16 +10047,16 @@
       </c>
       <c r="Q140" s="27"/>
       <c r="R140" s="26" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="S140" s="12" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="T140" s="26" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="U140" s="27" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="V140" s="27">
         <v>0</v>

--- a/_Out/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Item.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10342"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -18,14 +23,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Item" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="294">
   <si>
     <t>Id</t>
   </si>
@@ -195,9 +200,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>UIResources/Sprites/Item</t>
-  </si>
-  <si>
     <t>1_Gold</t>
   </si>
   <si>
@@ -792,9 +794,6 @@
     <t>Hero_1</t>
   </si>
   <si>
-    <t>UIResources/Sprites/Hero</t>
-  </si>
-  <si>
     <t>Hero_Abaddon</t>
   </si>
   <si>
@@ -910,19 +909,16 @@
   </si>
   <si>
     <t>NameID_TeaantProtector</t>
+  </si>
+  <si>
+    <t>UIResources/ItemSprite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -945,152 +941,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1117,7 +969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
+        <fgColor theme="6" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,188 +979,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1381,251 +1053,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1721,61 +1151,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1789,6 +1171,14 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2044,47 +1434,46 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="O121" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="9" topLeftCell="N131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T122" sqref="T122:T131"/>
+      <selection pane="bottomRight" activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="12.6637168141593" customWidth="1"/>
-    <col min="3" max="3" width="20.1681415929204" customWidth="1"/>
-    <col min="4" max="4" width="9.33628318584071" customWidth="1"/>
-    <col min="5" max="5" width="12.6637168141593" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1328125" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="22.6637168141593" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="18.6637168141593" customWidth="1"/>
-    <col min="10" max="10" width="22.6637168141593" customWidth="1"/>
-    <col min="11" max="11" width="31.5044247787611" customWidth="1"/>
-    <col min="12" max="13" width="14.1681415929204" customWidth="1"/>
-    <col min="14" max="14" width="17.6637168141593" customWidth="1"/>
-    <col min="15" max="15" width="16.5044247787611" customWidth="1"/>
-    <col min="16" max="16" width="12.6637168141593" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" customWidth="1"/>
+    <col min="11" max="11" width="31.53125" customWidth="1"/>
+    <col min="12" max="13" width="14.1328125" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="15" width="16.53125" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="18.6637168141593" customWidth="1"/>
-    <col min="19" max="20" width="23.3362831858407" customWidth="1"/>
-    <col min="21" max="21" width="21.5044247787611" customWidth="1"/>
-    <col min="22" max="22" width="8.66371681415929" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" customWidth="1"/>
+    <col min="19" max="20" width="23.33203125" customWidth="1"/>
+    <col min="21" max="21" width="21.53125" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:22">
+    <row r="1" spans="1:22" s="1" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2152,7 +1541,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:22">
+    <row r="2" spans="1:22" s="2" customFormat="1">
       <c r="A2" s="10" t="s">
         <v>22</v>
       </c>
@@ -2220,7 +1609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:22">
+    <row r="3" spans="1:22" s="2" customFormat="1">
       <c r="A3" s="10" t="s">
         <v>26</v>
       </c>
@@ -2288,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:22">
+    <row r="4" spans="1:22" s="2" customFormat="1">
       <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
@@ -2356,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:22">
+    <row r="5" spans="1:22" s="2" customFormat="1">
       <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
@@ -2424,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:22">
+    <row r="6" spans="1:22" s="2" customFormat="1">
       <c r="A6" s="10" t="s">
         <v>29</v>
       </c>
@@ -2492,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="13.5" spans="1:22">
+    <row r="7" spans="1:22" s="3" customFormat="1" ht="13.5">
       <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
@@ -2560,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="13.5" spans="1:22">
+    <row r="8" spans="1:22" s="3" customFormat="1" ht="13.5">
       <c r="A8" s="11" t="s">
         <v>31</v>
       </c>
@@ -2628,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="92" customHeight="1" spans="1:22">
+    <row r="9" spans="1:22" s="2" customFormat="1" ht="92" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>32</v>
       </c>
@@ -2696,7 +2085,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" spans="1:22">
+    <row r="10" spans="1:22" s="4" customFormat="1">
       <c r="A10" s="12" t="s">
         <v>53</v>
       </c>
@@ -2742,21 +2131,21 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="T10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="T10" s="12" t="s">
+      <c r="U10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="U10" s="12" t="s">
+      <c r="V10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="4" customFormat="1">
+      <c r="A11" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="V10" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" s="4" customFormat="1" spans="1:22">
-      <c r="A11" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="B11" s="14">
         <v>2</v>
@@ -2775,7 +2164,7 @@
         <v>54</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -2800,21 +2189,21 @@
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
       <c r="S11" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="V11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="4" customFormat="1">
+      <c r="A12" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="U11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="V11" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" s="4" customFormat="1" spans="1:22">
-      <c r="A12" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="B12" s="13">
         <v>2</v>
@@ -2833,7 +2222,7 @@
         <v>54</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -2858,21 +2247,21 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="13"/>
       <c r="S12" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="V12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="4" customFormat="1">
+      <c r="A13" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="U12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="V12" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="4" customFormat="1" spans="1:22">
-      <c r="A13" s="15" t="s">
-        <v>65</v>
       </c>
       <c r="B13" s="14">
         <v>2</v>
@@ -2891,7 +2280,7 @@
         <v>54</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -2916,21 +2305,21 @@
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
       <c r="S13" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="V13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="4" customFormat="1">
+      <c r="A14" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="V13" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" s="4" customFormat="1" spans="1:22">
-      <c r="A14" s="15" t="s">
-        <v>68</v>
       </c>
       <c r="B14" s="14">
         <v>2</v>
@@ -2949,7 +2338,7 @@
         <v>54</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -2974,21 +2363,21 @@
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
       <c r="S14" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="V14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="4" customFormat="1">
+      <c r="A15" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="U14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="V14" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" s="4" customFormat="1" spans="1:22">
-      <c r="A15" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="B15" s="14">
         <v>2</v>
@@ -3030,21 +2419,21 @@
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="U15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="V15" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="4" customFormat="1">
+      <c r="A16" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="U15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="V15" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" s="4" customFormat="1" spans="1:22">
-      <c r="A16" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="B16" s="13">
         <v>2</v>
@@ -3060,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="14"/>
@@ -3086,21 +2475,21 @@
       <c r="Q16" s="14"/>
       <c r="R16" s="13"/>
       <c r="S16" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T16" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="U16" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U16" s="15" t="s">
+      <c r="V16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="4" customFormat="1">
+      <c r="A17" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="V16" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" s="4" customFormat="1" spans="1:22">
-      <c r="A17" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="B17" s="14">
         <v>2</v>
@@ -3116,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="14"/>
@@ -3142,21 +2531,21 @@
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
       <c r="S17" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T17" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V17" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="4" customFormat="1">
+      <c r="A18" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="U17" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="V17" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" s="4" customFormat="1" spans="1:22">
-      <c r="A18" s="15" t="s">
-        <v>79</v>
       </c>
       <c r="B18" s="13">
         <v>2</v>
@@ -3172,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="14"/>
@@ -3198,21 +2587,21 @@
       <c r="Q18" s="14"/>
       <c r="R18" s="13"/>
       <c r="S18" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T18" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="U18" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V18" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="4" customFormat="1">
+      <c r="A19" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="U18" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="V18" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" s="4" customFormat="1" spans="1:22">
-      <c r="A19" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="B19" s="14">
         <v>2</v>
@@ -3228,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="14"/>
@@ -3254,21 +2643,21 @@
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T19" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="U19" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V19" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="4" customFormat="1">
+      <c r="A20" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="U19" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="V19" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" s="4" customFormat="1" spans="1:22">
-      <c r="A20" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="B20" s="14">
         <v>2</v>
@@ -3284,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="14"/>
@@ -3310,21 +2699,21 @@
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
       <c r="S20" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T20" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="U20" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V20" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="4" customFormat="1">
+      <c r="A21" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="U20" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="V20" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" s="4" customFormat="1" spans="1:22">
-      <c r="A21" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="B21" s="14">
         <v>2</v>
@@ -3340,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="14"/>
@@ -3366,21 +2755,21 @@
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T21" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V21" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" s="4" customFormat="1">
+      <c r="A22" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="U21" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="V21" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" s="4" customFormat="1" spans="1:22">
-      <c r="A22" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="B22" s="13">
         <v>2</v>
@@ -3396,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="14"/>
@@ -3422,21 +2811,21 @@
       <c r="Q22" s="14"/>
       <c r="R22" s="13"/>
       <c r="S22" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T22" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="U22" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="U22" s="15" t="s">
+      <c r="V22" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" s="4" customFormat="1">
+      <c r="A23" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="V22" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" s="4" customFormat="1" spans="1:22">
-      <c r="A23" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="B23" s="14">
         <v>2</v>
@@ -3452,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="14"/>
@@ -3478,21 +2867,21 @@
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
       <c r="S23" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T23" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="U23" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="V23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" s="4" customFormat="1">
+      <c r="A24" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="U23" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="V23" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" s="4" customFormat="1" spans="1:22">
-      <c r="A24" s="15" t="s">
-        <v>93</v>
       </c>
       <c r="B24" s="13">
         <v>2</v>
@@ -3508,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="14"/>
@@ -3534,21 +2923,21 @@
       <c r="Q24" s="14"/>
       <c r="R24" s="13"/>
       <c r="S24" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T24" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="V24" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" s="4" customFormat="1">
+      <c r="A25" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="U24" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="V24" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" s="4" customFormat="1" spans="1:22">
-      <c r="A25" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="B25" s="14">
         <v>2</v>
@@ -3564,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="14"/>
@@ -3590,21 +2979,21 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T25" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="U25" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="V25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="4" customFormat="1">
+      <c r="A26" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="U25" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="V25" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" s="4" customFormat="1" spans="1:22">
-      <c r="A26" s="15" t="s">
-        <v>97</v>
       </c>
       <c r="B26" s="14">
         <v>2</v>
@@ -3620,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="14"/>
@@ -3646,21 +3035,21 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T26" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="U26" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="V26" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" s="4" customFormat="1">
+      <c r="A27" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="U26" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="V26" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" s="4" customFormat="1" spans="1:22">
-      <c r="A27" s="15" t="s">
-        <v>99</v>
       </c>
       <c r="B27" s="14">
         <v>2</v>
@@ -3676,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="14"/>
@@ -3702,21 +3091,21 @@
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
       <c r="S27" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T27" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="U27" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="V27" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="4" customFormat="1">
+      <c r="A28" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="U27" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="V27" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" s="4" customFormat="1" spans="1:22">
-      <c r="A28" s="15" t="s">
-        <v>101</v>
       </c>
       <c r="B28" s="13">
         <v>2</v>
@@ -3732,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="14"/>
@@ -3758,21 +3147,21 @@
       <c r="Q28" s="14"/>
       <c r="R28" s="13"/>
       <c r="S28" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T28" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="U28" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="U28" s="15" t="s">
+      <c r="V28" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" s="4" customFormat="1">
+      <c r="A29" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="V28" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" s="4" customFormat="1" spans="1:22">
-      <c r="A29" s="15" t="s">
-        <v>105</v>
       </c>
       <c r="B29" s="14">
         <v>2</v>
@@ -3788,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="14"/>
@@ -3814,21 +3203,21 @@
       <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
       <c r="S29" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T29" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="U29" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="V29" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" s="4" customFormat="1">
+      <c r="A30" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="U29" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="V29" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" s="4" customFormat="1" spans="1:22">
-      <c r="A30" s="15" t="s">
-        <v>107</v>
       </c>
       <c r="B30" s="13">
         <v>2</v>
@@ -3844,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="14"/>
@@ -3870,21 +3259,21 @@
       <c r="Q30" s="14"/>
       <c r="R30" s="13"/>
       <c r="S30" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T30" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="U30" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="V30" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" s="4" customFormat="1">
+      <c r="A31" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="U30" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="V30" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" s="4" customFormat="1" spans="1:22">
-      <c r="A31" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="B31" s="14">
         <v>2</v>
@@ -3900,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="14"/>
@@ -3926,21 +3315,21 @@
       <c r="Q31" s="14"/>
       <c r="R31" s="14"/>
       <c r="S31" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T31" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="U31" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="V31" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" s="4" customFormat="1">
+      <c r="A32" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="U31" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="V31" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" s="4" customFormat="1" spans="1:22">
-      <c r="A32" s="15" t="s">
-        <v>111</v>
       </c>
       <c r="B32" s="13">
         <v>2</v>
@@ -3956,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="14"/>
@@ -3982,21 +3371,21 @@
       <c r="Q32" s="14"/>
       <c r="R32" s="13"/>
       <c r="S32" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T32" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="U32" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="V32" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" s="4" customFormat="1">
+      <c r="A33" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="U32" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="V32" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" s="4" customFormat="1" spans="1:22">
-      <c r="A33" s="15" t="s">
-        <v>113</v>
       </c>
       <c r="B33" s="14">
         <v>2</v>
@@ -4012,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="14"/>
@@ -4038,21 +3427,21 @@
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
       <c r="S33" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T33" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="U33" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="V33" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" s="4" customFormat="1">
+      <c r="A34" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="U33" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="V33" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" s="4" customFormat="1" spans="1:22">
-      <c r="A34" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="B34" s="13">
         <v>2</v>
@@ -4068,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="14"/>
@@ -4094,21 +3483,21 @@
       <c r="Q34" s="14"/>
       <c r="R34" s="13"/>
       <c r="S34" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T34" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="U34" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="U34" s="14" t="s">
+      <c r="V34" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" s="4" customFormat="1">
+      <c r="A35" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="V34" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" s="4" customFormat="1" spans="1:22">
-      <c r="A35" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="B35" s="14">
         <v>2</v>
@@ -4124,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="14"/>
@@ -4150,21 +3539,21 @@
       <c r="Q35" s="14"/>
       <c r="R35" s="14"/>
       <c r="S35" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T35" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="U35" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="U35" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="V35" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="36" s="4" customFormat="1" spans="1:22">
+    <row r="36" spans="1:22" s="4" customFormat="1">
       <c r="A36" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B36" s="13">
         <v>2</v>
@@ -4180,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="14"/>
@@ -4206,21 +3595,21 @@
       <c r="Q36" s="14"/>
       <c r="R36" s="13"/>
       <c r="S36" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T36" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="U36" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="U36" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="V36" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="37" s="4" customFormat="1" spans="1:22">
+    <row r="37" spans="1:22" s="4" customFormat="1">
       <c r="A37" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B37" s="14">
         <v>2</v>
@@ -4236,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="14"/>
@@ -4262,21 +3651,21 @@
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
       <c r="S37" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T37" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="U37" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="U37" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="V37" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="38" s="4" customFormat="1" spans="1:22">
+    <row r="38" spans="1:22" s="4" customFormat="1">
       <c r="A38" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B38" s="13">
         <v>2</v>
@@ -4292,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="14"/>
@@ -4318,21 +3707,21 @@
       <c r="Q38" s="14"/>
       <c r="R38" s="13"/>
       <c r="S38" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T38" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="U38" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="U38" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="V38" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="39" s="4" customFormat="1" spans="1:22">
+    <row r="39" spans="1:22" s="4" customFormat="1">
       <c r="A39" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B39" s="14">
         <v>2</v>
@@ -4348,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="14"/>
@@ -4374,21 +3763,21 @@
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
       <c r="S39" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T39" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="U39" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="U39" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="V39" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="40" s="4" customFormat="1" spans="1:22">
+    <row r="40" spans="1:22" s="4" customFormat="1">
       <c r="A40" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B40" s="14">
         <v>2</v>
@@ -4404,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="14"/>
@@ -4430,21 +3819,21 @@
       <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
       <c r="S40" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T40" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="U40" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="U40" s="15" t="s">
+      <c r="V40" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" s="4" customFormat="1">
+      <c r="A41" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="V40" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" s="4" customFormat="1" spans="1:22">
-      <c r="A41" s="15" t="s">
-        <v>128</v>
       </c>
       <c r="B41" s="13">
         <v>2</v>
@@ -4460,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="14"/>
@@ -4486,21 +3875,21 @@
       <c r="Q41" s="14"/>
       <c r="R41" s="13"/>
       <c r="S41" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T41" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="U41" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="V41" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" s="4" customFormat="1">
+      <c r="A42" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="U41" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="V41" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" s="4" customFormat="1" spans="1:22">
-      <c r="A42" s="15" t="s">
-        <v>130</v>
       </c>
       <c r="B42" s="14">
         <v>2</v>
@@ -4516,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="14"/>
@@ -4542,21 +3931,21 @@
       <c r="Q42" s="14"/>
       <c r="R42" s="14"/>
       <c r="S42" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T42" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="U42" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="V42" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" s="4" customFormat="1">
+      <c r="A43" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="U42" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="V42" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" s="4" customFormat="1" spans="1:22">
-      <c r="A43" s="15" t="s">
-        <v>132</v>
       </c>
       <c r="B43" s="13">
         <v>2</v>
@@ -4572,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H43" s="15"/>
       <c r="I43" s="14"/>
@@ -4598,21 +3987,21 @@
       <c r="Q43" s="14"/>
       <c r="R43" s="13"/>
       <c r="S43" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T43" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U43" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="V43" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" s="4" customFormat="1">
+      <c r="A44" s="15" t="s">
         <v>133</v>
-      </c>
-      <c r="U43" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="V43" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" s="4" customFormat="1" spans="1:22">
-      <c r="A44" s="15" t="s">
-        <v>134</v>
       </c>
       <c r="B44" s="14">
         <v>2</v>
@@ -4628,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="14"/>
@@ -4654,21 +4043,21 @@
       <c r="Q44" s="14"/>
       <c r="R44" s="14"/>
       <c r="S44" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T44" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="U44" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="V44" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" s="4" customFormat="1">
+      <c r="A45" s="15" t="s">
         <v>135</v>
-      </c>
-      <c r="U44" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="V44" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" s="4" customFormat="1" spans="1:22">
-      <c r="A45" s="15" t="s">
-        <v>136</v>
       </c>
       <c r="B45" s="13">
         <v>2</v>
@@ -4684,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H45" s="15"/>
       <c r="I45" s="14"/>
@@ -4710,21 +4099,21 @@
       <c r="Q45" s="14"/>
       <c r="R45" s="13"/>
       <c r="S45" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T45" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="U45" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="V45" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" s="5" customFormat="1">
+      <c r="A46" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="U45" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="V45" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" s="5" customFormat="1" spans="1:22">
-      <c r="A46" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="B46" s="17">
         <v>2</v>
@@ -4740,12 +4129,12 @@
         <v>0</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
       <c r="J46" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K46" s="17">
         <v>0</v>
@@ -4768,21 +4157,21 @@
       <c r="Q46" s="17"/>
       <c r="R46" s="17"/>
       <c r="S46" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T46" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="U46" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="U46" s="16" t="s">
+      <c r="V46" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" s="5" customFormat="1">
+      <c r="A47" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="V46" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" s="5" customFormat="1" spans="1:22">
-      <c r="A47" s="16" t="s">
-        <v>143</v>
       </c>
       <c r="B47" s="18">
         <v>2</v>
@@ -4798,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
@@ -4824,21 +4213,21 @@
       <c r="Q47" s="17"/>
       <c r="R47" s="18"/>
       <c r="S47" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T47" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="U47" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="U47" s="16" t="s">
-        <v>142</v>
-      </c>
       <c r="V47" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="48" s="5" customFormat="1" spans="1:22">
+    <row r="48" spans="1:22" s="5" customFormat="1">
       <c r="A48" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B48" s="17">
         <v>2</v>
@@ -4854,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
@@ -4880,21 +4269,21 @@
       <c r="Q48" s="17"/>
       <c r="R48" s="17"/>
       <c r="S48" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T48" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="U48" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="U48" s="16" t="s">
-        <v>142</v>
-      </c>
       <c r="V48" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="49" s="5" customFormat="1" spans="1:22">
+    <row r="49" spans="1:22" s="5" customFormat="1">
       <c r="A49" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B49" s="18">
         <v>2</v>
@@ -4910,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
@@ -4936,21 +4325,21 @@
       <c r="Q49" s="17"/>
       <c r="R49" s="18"/>
       <c r="S49" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T49" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="U49" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="U49" s="16" t="s">
-        <v>142</v>
-      </c>
       <c r="V49" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="50" s="5" customFormat="1" spans="1:22">
+    <row r="50" spans="1:22" s="5" customFormat="1">
       <c r="A50" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B50" s="17">
         <v>2</v>
@@ -4966,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
@@ -4992,21 +4381,21 @@
       <c r="Q50" s="17"/>
       <c r="R50" s="17"/>
       <c r="S50" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T50" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="U50" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="U50" s="16" t="s">
-        <v>142</v>
-      </c>
       <c r="V50" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="51" s="5" customFormat="1" spans="1:22">
+    <row r="51" spans="1:22" s="5" customFormat="1">
       <c r="A51" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B51" s="18">
         <v>2</v>
@@ -5022,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
@@ -5048,21 +4437,21 @@
       <c r="Q51" s="17"/>
       <c r="R51" s="18"/>
       <c r="S51" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T51" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="U51" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="U51" s="16" t="s">
-        <v>142</v>
-      </c>
       <c r="V51" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="52" s="5" customFormat="1" spans="1:22">
+    <row r="52" spans="1:22" s="5" customFormat="1">
       <c r="A52" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B52" s="17">
         <v>2</v>
@@ -5078,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
@@ -5104,21 +4493,21 @@
       <c r="Q52" s="17"/>
       <c r="R52" s="17"/>
       <c r="S52" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T52" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="U52" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="U52" s="16" t="s">
-        <v>142</v>
-      </c>
       <c r="V52" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="53" s="5" customFormat="1" spans="1:22">
+    <row r="53" spans="1:22" s="5" customFormat="1">
       <c r="A53" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B53" s="18">
         <v>2</v>
@@ -5134,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
@@ -5160,21 +4549,21 @@
       <c r="Q53" s="17"/>
       <c r="R53" s="18"/>
       <c r="S53" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T53" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="U53" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="U53" s="16" t="s">
-        <v>142</v>
-      </c>
       <c r="V53" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="54" s="5" customFormat="1" spans="1:22">
+    <row r="54" spans="1:22" s="5" customFormat="1">
       <c r="A54" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B54" s="17">
         <v>2</v>
@@ -5190,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
@@ -5216,21 +4605,21 @@
       <c r="Q54" s="17"/>
       <c r="R54" s="17"/>
       <c r="S54" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T54" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="U54" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="U54" s="16" t="s">
-        <v>142</v>
-      </c>
       <c r="V54" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="55" s="5" customFormat="1" spans="1:22">
+    <row r="55" spans="1:22" s="5" customFormat="1">
       <c r="A55" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B55" s="18">
         <v>2</v>
@@ -5246,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
@@ -5272,21 +4661,21 @@
       <c r="Q55" s="17"/>
       <c r="R55" s="18"/>
       <c r="S55" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T55" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="U55" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="U55" s="16" t="s">
-        <v>142</v>
-      </c>
       <c r="V55" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="56" s="5" customFormat="1" spans="1:22">
+    <row r="56" spans="1:22" s="5" customFormat="1">
       <c r="A56" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B56" s="17">
         <v>2</v>
@@ -5302,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
@@ -5328,21 +4717,21 @@
       <c r="Q56" s="17"/>
       <c r="R56" s="17"/>
       <c r="S56" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T56" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="U56" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="U56" s="16" t="s">
+      <c r="V56" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" s="5" customFormat="1">
+      <c r="A57" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="V56" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" s="5" customFormat="1" spans="1:22">
-      <c r="A57" s="16" t="s">
-        <v>156</v>
       </c>
       <c r="B57" s="18">
         <v>2</v>
@@ -5358,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
@@ -5384,21 +4773,21 @@
       <c r="Q57" s="17"/>
       <c r="R57" s="18"/>
       <c r="S57" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T57" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="U57" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="U57" s="16" t="s">
-        <v>155</v>
-      </c>
       <c r="V57" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="58" s="5" customFormat="1" spans="1:22">
+    <row r="58" spans="1:22" s="5" customFormat="1">
       <c r="A58" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B58" s="17">
         <v>2</v>
@@ -5414,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
@@ -5440,21 +4829,21 @@
       <c r="Q58" s="17"/>
       <c r="R58" s="17"/>
       <c r="S58" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T58" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="U58" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="U58" s="16" t="s">
-        <v>155</v>
-      </c>
       <c r="V58" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="59" s="5" customFormat="1" spans="1:22">
+    <row r="59" spans="1:22" s="5" customFormat="1">
       <c r="A59" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B59" s="18">
         <v>2</v>
@@ -5470,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
@@ -5496,21 +4885,21 @@
       <c r="Q59" s="17"/>
       <c r="R59" s="18"/>
       <c r="S59" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T59" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="U59" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="U59" s="16" t="s">
-        <v>155</v>
-      </c>
       <c r="V59" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="60" s="5" customFormat="1" spans="1:22">
+    <row r="60" spans="1:22" s="5" customFormat="1">
       <c r="A60" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B60" s="17">
         <v>2</v>
@@ -5526,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
@@ -5552,21 +4941,21 @@
       <c r="Q60" s="20"/>
       <c r="R60" s="20"/>
       <c r="S60" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T60" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="U60" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="U60" s="16" t="s">
-        <v>155</v>
-      </c>
       <c r="V60" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="61" s="5" customFormat="1" spans="1:22">
+    <row r="61" spans="1:22" s="5" customFormat="1">
       <c r="A61" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B61" s="18">
         <v>2</v>
@@ -5582,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
@@ -5608,21 +4997,21 @@
       <c r="Q61" s="20"/>
       <c r="R61" s="20"/>
       <c r="S61" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T61" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="U61" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="U61" s="16" t="s">
-        <v>155</v>
-      </c>
       <c r="V61" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="62" s="6" customFormat="1" spans="1:22">
+    <row r="62" spans="1:22" s="6" customFormat="1">
       <c r="A62" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B62" s="22">
         <v>1</v>
@@ -5638,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
@@ -5664,21 +5053,21 @@
       <c r="Q62" s="22"/>
       <c r="R62" s="22"/>
       <c r="S62" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T62" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="U62" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="U62" s="22" t="s">
+      <c r="V62" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" s="6" customFormat="1">
+      <c r="A63" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="V62" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" s="6" customFormat="1" spans="1:22">
-      <c r="A63" s="22" t="s">
-        <v>165</v>
       </c>
       <c r="B63" s="22">
         <v>1</v>
@@ -5694,7 +5083,7 @@
         <v>2</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
@@ -5720,21 +5109,21 @@
       <c r="Q63" s="22"/>
       <c r="R63" s="22"/>
       <c r="S63" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T63" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="U63" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="U63" s="22" t="s">
-        <v>164</v>
-      </c>
       <c r="V63" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="64" s="6" customFormat="1" spans="1:22">
+    <row r="64" spans="1:22" s="6" customFormat="1">
       <c r="A64" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B64" s="22">
         <v>1</v>
@@ -5750,7 +5139,7 @@
         <v>3</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H64" s="22"/>
       <c r="I64" s="22"/>
@@ -5776,21 +5165,21 @@
       <c r="Q64" s="22"/>
       <c r="R64" s="22"/>
       <c r="S64" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T64" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="U64" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="U64" s="22" t="s">
-        <v>164</v>
-      </c>
       <c r="V64" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="65" s="6" customFormat="1" spans="1:22">
+    <row r="65" spans="1:22" s="6" customFormat="1">
       <c r="A65" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B65" s="22">
         <v>1</v>
@@ -5806,7 +5195,7 @@
         <v>4</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H65" s="22"/>
       <c r="I65" s="22"/>
@@ -5832,21 +5221,21 @@
       <c r="Q65" s="22"/>
       <c r="R65" s="22"/>
       <c r="S65" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T65" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="U65" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="U65" s="22" t="s">
-        <v>164</v>
-      </c>
       <c r="V65" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="66" s="6" customFormat="1" spans="1:22">
+    <row r="66" spans="1:22" s="6" customFormat="1">
       <c r="A66" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B66" s="22">
         <v>1</v>
@@ -5862,7 +5251,7 @@
         <v>5</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
@@ -5888,21 +5277,21 @@
       <c r="Q66" s="22"/>
       <c r="R66" s="22"/>
       <c r="S66" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T66" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="U66" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="U66" s="22" t="s">
-        <v>164</v>
-      </c>
       <c r="V66" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="67" s="6" customFormat="1" spans="1:22">
+    <row r="67" spans="1:22" s="6" customFormat="1">
       <c r="A67" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B67" s="22">
         <v>1</v>
@@ -5918,7 +5307,7 @@
         <v>6</v>
       </c>
       <c r="G67" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
@@ -5944,21 +5333,21 @@
       <c r="Q67" s="22"/>
       <c r="R67" s="22"/>
       <c r="S67" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T67" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="U67" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="U67" s="22" t="s">
-        <v>164</v>
-      </c>
       <c r="V67" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="68" s="6" customFormat="1" spans="1:22">
+    <row r="68" spans="1:22" s="6" customFormat="1">
       <c r="A68" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B68" s="22">
         <v>1</v>
@@ -5974,7 +5363,7 @@
         <v>7</v>
       </c>
       <c r="G68" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H68" s="22"/>
       <c r="I68" s="22"/>
@@ -6000,21 +5389,21 @@
       <c r="Q68" s="22"/>
       <c r="R68" s="22"/>
       <c r="S68" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T68" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="U68" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="U68" s="22" t="s">
-        <v>164</v>
-      </c>
       <c r="V68" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="69" s="6" customFormat="1" spans="1:22">
+    <row r="69" spans="1:22" s="6" customFormat="1">
       <c r="A69" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B69" s="22">
         <v>1</v>
@@ -6030,7 +5419,7 @@
         <v>8</v>
       </c>
       <c r="G69" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
@@ -6056,21 +5445,21 @@
       <c r="Q69" s="22"/>
       <c r="R69" s="22"/>
       <c r="S69" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T69" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="U69" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="U69" s="22" t="s">
-        <v>164</v>
-      </c>
       <c r="V69" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="70" s="6" customFormat="1" spans="1:22">
+    <row r="70" spans="1:22" s="6" customFormat="1">
       <c r="A70" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B70" s="22">
         <v>1</v>
@@ -6086,7 +5475,7 @@
         <v>9</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
@@ -6112,21 +5501,21 @@
       <c r="Q70" s="22"/>
       <c r="R70" s="22"/>
       <c r="S70" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T70" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="U70" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="U70" s="22" t="s">
-        <v>164</v>
-      </c>
       <c r="V70" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="71" s="6" customFormat="1" spans="1:22">
+    <row r="71" spans="1:22" s="6" customFormat="1">
       <c r="A71" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B71" s="22">
         <v>1</v>
@@ -6142,7 +5531,7 @@
         <v>10</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H71" s="22"/>
       <c r="I71" s="22"/>
@@ -6168,21 +5557,21 @@
       <c r="Q71" s="22"/>
       <c r="R71" s="22"/>
       <c r="S71" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T71" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="U71" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="U71" s="22" t="s">
-        <v>164</v>
-      </c>
       <c r="V71" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="72" s="6" customFormat="1" spans="1:22">
+    <row r="72" spans="1:22" s="6" customFormat="1">
       <c r="A72" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B72" s="22">
         <v>1</v>
@@ -6198,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H72" s="22"/>
       <c r="I72" s="22"/>
@@ -6224,21 +5613,21 @@
       <c r="Q72" s="22"/>
       <c r="R72" s="22"/>
       <c r="S72" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T72" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="U72" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="U72" s="22" t="s">
+      <c r="V72" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" s="6" customFormat="1">
+      <c r="A73" s="22" t="s">
         <v>177</v>
-      </c>
-      <c r="V72" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" s="6" customFormat="1" spans="1:22">
-      <c r="A73" s="22" t="s">
-        <v>178</v>
       </c>
       <c r="B73" s="22">
         <v>1</v>
@@ -6254,7 +5643,7 @@
         <v>2</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
@@ -6280,21 +5669,21 @@
       <c r="Q73" s="22"/>
       <c r="R73" s="22"/>
       <c r="S73" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T73" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="U73" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="U73" s="22" t="s">
-        <v>177</v>
-      </c>
       <c r="V73" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="74" s="6" customFormat="1" spans="1:22">
+    <row r="74" spans="1:22" s="6" customFormat="1">
       <c r="A74" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B74" s="22">
         <v>1</v>
@@ -6310,7 +5699,7 @@
         <v>3</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
@@ -6336,21 +5725,21 @@
       <c r="Q74" s="22"/>
       <c r="R74" s="22"/>
       <c r="S74" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T74" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="U74" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="U74" s="22" t="s">
-        <v>177</v>
-      </c>
       <c r="V74" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="75" s="6" customFormat="1" spans="1:22">
+    <row r="75" spans="1:22" s="6" customFormat="1">
       <c r="A75" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B75" s="22">
         <v>1</v>
@@ -6366,7 +5755,7 @@
         <v>4</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
@@ -6392,21 +5781,21 @@
       <c r="Q75" s="22"/>
       <c r="R75" s="22"/>
       <c r="S75" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T75" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="U75" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="U75" s="22" t="s">
-        <v>177</v>
-      </c>
       <c r="V75" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="76" s="6" customFormat="1" spans="1:22">
+    <row r="76" spans="1:22" s="6" customFormat="1">
       <c r="A76" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B76" s="22">
         <v>1</v>
@@ -6422,7 +5811,7 @@
         <v>5</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
@@ -6448,21 +5837,21 @@
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
       <c r="S76" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T76" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="U76" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="U76" s="22" t="s">
-        <v>177</v>
-      </c>
       <c r="V76" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="77" s="6" customFormat="1" spans="1:22">
+    <row r="77" spans="1:22" s="6" customFormat="1">
       <c r="A77" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B77" s="22">
         <v>1</v>
@@ -6478,7 +5867,7 @@
         <v>6</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
@@ -6504,21 +5893,21 @@
       <c r="Q77" s="22"/>
       <c r="R77" s="22"/>
       <c r="S77" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T77" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="U77" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="U77" s="22" t="s">
-        <v>177</v>
-      </c>
       <c r="V77" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="78" s="6" customFormat="1" spans="1:22">
+    <row r="78" spans="1:22" s="6" customFormat="1">
       <c r="A78" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B78" s="22">
         <v>1</v>
@@ -6534,7 +5923,7 @@
         <v>7</v>
       </c>
       <c r="G78" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H78" s="22"/>
       <c r="I78" s="22"/>
@@ -6560,21 +5949,21 @@
       <c r="Q78" s="22"/>
       <c r="R78" s="22"/>
       <c r="S78" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T78" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="U78" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="U78" s="22" t="s">
-        <v>177</v>
-      </c>
       <c r="V78" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="79" s="6" customFormat="1" spans="1:22">
+    <row r="79" spans="1:22" s="6" customFormat="1">
       <c r="A79" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B79" s="22">
         <v>1</v>
@@ -6590,7 +5979,7 @@
         <v>8</v>
       </c>
       <c r="G79" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
@@ -6616,21 +6005,21 @@
       <c r="Q79" s="22"/>
       <c r="R79" s="22"/>
       <c r="S79" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T79" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="U79" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="U79" s="22" t="s">
-        <v>177</v>
-      </c>
       <c r="V79" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="80" s="6" customFormat="1" spans="1:22">
+    <row r="80" spans="1:22" s="6" customFormat="1">
       <c r="A80" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B80" s="22">
         <v>1</v>
@@ -6646,7 +6035,7 @@
         <v>9</v>
       </c>
       <c r="G80" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H80" s="22"/>
       <c r="I80" s="22"/>
@@ -6672,21 +6061,21 @@
       <c r="Q80" s="22"/>
       <c r="R80" s="22"/>
       <c r="S80" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T80" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="U80" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="U80" s="22" t="s">
-        <v>177</v>
-      </c>
       <c r="V80" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="81" s="6" customFormat="1" spans="1:22">
+    <row r="81" spans="1:22" s="6" customFormat="1">
       <c r="A81" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B81" s="22">
         <v>1</v>
@@ -6702,7 +6091,7 @@
         <v>10</v>
       </c>
       <c r="G81" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
@@ -6728,21 +6117,21 @@
       <c r="Q81" s="22"/>
       <c r="R81" s="22"/>
       <c r="S81" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T81" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="U81" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="U81" s="22" t="s">
-        <v>177</v>
-      </c>
       <c r="V81" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="82" s="6" customFormat="1" spans="1:22">
+    <row r="82" spans="1:22" s="6" customFormat="1">
       <c r="A82" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B82" s="22">
         <v>1</v>
@@ -6758,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H82" s="22"/>
       <c r="I82" s="22"/>
@@ -6784,21 +6173,21 @@
       <c r="Q82" s="22"/>
       <c r="R82" s="22"/>
       <c r="S82" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T82" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="U82" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="U82" s="22" t="s">
+      <c r="V82" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" s="6" customFormat="1">
+      <c r="A83" s="22" t="s">
         <v>190</v>
-      </c>
-      <c r="V82" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" s="6" customFormat="1" spans="1:22">
-      <c r="A83" s="22" t="s">
-        <v>191</v>
       </c>
       <c r="B83" s="22">
         <v>1</v>
@@ -6814,7 +6203,7 @@
         <v>2</v>
       </c>
       <c r="G83" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H83" s="22"/>
       <c r="I83" s="22"/>
@@ -6840,21 +6229,21 @@
       <c r="Q83" s="22"/>
       <c r="R83" s="22"/>
       <c r="S83" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T83" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="U83" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="U83" s="22" t="s">
-        <v>190</v>
-      </c>
       <c r="V83" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="84" s="6" customFormat="1" spans="1:22">
+    <row r="84" spans="1:22" s="6" customFormat="1">
       <c r="A84" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B84" s="22">
         <v>1</v>
@@ -6870,7 +6259,7 @@
         <v>3</v>
       </c>
       <c r="G84" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
@@ -6896,21 +6285,21 @@
       <c r="Q84" s="22"/>
       <c r="R84" s="22"/>
       <c r="S84" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T84" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="U84" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="U84" s="22" t="s">
-        <v>190</v>
-      </c>
       <c r="V84" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="85" s="6" customFormat="1" spans="1:22">
+    <row r="85" spans="1:22" s="6" customFormat="1">
       <c r="A85" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B85" s="22">
         <v>1</v>
@@ -6926,7 +6315,7 @@
         <v>4</v>
       </c>
       <c r="G85" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H85" s="22"/>
       <c r="I85" s="22"/>
@@ -6952,21 +6341,21 @@
       <c r="Q85" s="22"/>
       <c r="R85" s="22"/>
       <c r="S85" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T85" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="U85" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="U85" s="22" t="s">
-        <v>190</v>
-      </c>
       <c r="V85" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="86" s="6" customFormat="1" spans="1:22">
+    <row r="86" spans="1:22" s="6" customFormat="1">
       <c r="A86" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B86" s="22">
         <v>1</v>
@@ -6982,7 +6371,7 @@
         <v>5</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H86" s="22"/>
       <c r="I86" s="22"/>
@@ -7008,21 +6397,21 @@
       <c r="Q86" s="22"/>
       <c r="R86" s="22"/>
       <c r="S86" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T86" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="U86" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="U86" s="22" t="s">
-        <v>190</v>
-      </c>
       <c r="V86" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="87" s="6" customFormat="1" spans="1:22">
+    <row r="87" spans="1:22" s="6" customFormat="1">
       <c r="A87" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B87" s="22">
         <v>1</v>
@@ -7038,7 +6427,7 @@
         <v>6</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H87" s="22"/>
       <c r="I87" s="22"/>
@@ -7064,21 +6453,21 @@
       <c r="Q87" s="22"/>
       <c r="R87" s="22"/>
       <c r="S87" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T87" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="U87" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="U87" s="22" t="s">
-        <v>190</v>
-      </c>
       <c r="V87" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="88" s="6" customFormat="1" spans="1:22">
+    <row r="88" spans="1:22" s="6" customFormat="1">
       <c r="A88" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B88" s="22">
         <v>1</v>
@@ -7094,7 +6483,7 @@
         <v>7</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
@@ -7120,21 +6509,21 @@
       <c r="Q88" s="22"/>
       <c r="R88" s="22"/>
       <c r="S88" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T88" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="U88" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="U88" s="22" t="s">
-        <v>190</v>
-      </c>
       <c r="V88" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="89" s="6" customFormat="1" spans="1:22">
+    <row r="89" spans="1:22" s="6" customFormat="1">
       <c r="A89" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B89" s="22">
         <v>1</v>
@@ -7150,7 +6539,7 @@
         <v>8</v>
       </c>
       <c r="G89" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H89" s="22"/>
       <c r="I89" s="22"/>
@@ -7176,21 +6565,21 @@
       <c r="Q89" s="22"/>
       <c r="R89" s="22"/>
       <c r="S89" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T89" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="U89" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="U89" s="22" t="s">
-        <v>190</v>
-      </c>
       <c r="V89" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="90" s="6" customFormat="1" spans="1:22">
+    <row r="90" spans="1:22" s="6" customFormat="1">
       <c r="A90" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B90" s="22">
         <v>1</v>
@@ -7206,7 +6595,7 @@
         <v>9</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H90" s="22"/>
       <c r="I90" s="22"/>
@@ -7232,21 +6621,21 @@
       <c r="Q90" s="22"/>
       <c r="R90" s="22"/>
       <c r="S90" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T90" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="U90" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="U90" s="22" t="s">
-        <v>190</v>
-      </c>
       <c r="V90" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="91" s="6" customFormat="1" spans="1:22">
+    <row r="91" spans="1:22" s="6" customFormat="1">
       <c r="A91" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B91" s="22">
         <v>1</v>
@@ -7262,7 +6651,7 @@
         <v>10</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H91" s="22"/>
       <c r="I91" s="22"/>
@@ -7288,21 +6677,21 @@
       <c r="Q91" s="22"/>
       <c r="R91" s="22"/>
       <c r="S91" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T91" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="U91" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="U91" s="22" t="s">
-        <v>190</v>
-      </c>
       <c r="V91" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="92" s="6" customFormat="1" spans="1:22">
+    <row r="92" spans="1:22" s="6" customFormat="1">
       <c r="A92" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B92" s="22">
         <v>1</v>
@@ -7318,7 +6707,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H92" s="22"/>
       <c r="I92" s="22"/>
@@ -7344,21 +6733,21 @@
       <c r="Q92" s="22"/>
       <c r="R92" s="22"/>
       <c r="S92" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T92" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="U92" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="U92" s="22" t="s">
+      <c r="V92" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" s="6" customFormat="1">
+      <c r="A93" s="22" t="s">
         <v>203</v>
-      </c>
-      <c r="V92" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" s="6" customFormat="1" spans="1:22">
-      <c r="A93" s="22" t="s">
-        <v>204</v>
       </c>
       <c r="B93" s="22">
         <v>1</v>
@@ -7374,7 +6763,7 @@
         <v>2</v>
       </c>
       <c r="G93" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H93" s="22"/>
       <c r="I93" s="22"/>
@@ -7400,21 +6789,21 @@
       <c r="Q93" s="22"/>
       <c r="R93" s="22"/>
       <c r="S93" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T93" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="U93" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="U93" s="22" t="s">
-        <v>203</v>
-      </c>
       <c r="V93" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="94" s="6" customFormat="1" spans="1:22">
+    <row r="94" spans="1:22" s="6" customFormat="1">
       <c r="A94" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B94" s="22">
         <v>1</v>
@@ -7430,7 +6819,7 @@
         <v>3</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H94" s="22"/>
       <c r="I94" s="22"/>
@@ -7456,21 +6845,21 @@
       <c r="Q94" s="22"/>
       <c r="R94" s="22"/>
       <c r="S94" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T94" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="U94" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="U94" s="22" t="s">
-        <v>203</v>
-      </c>
       <c r="V94" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="95" s="6" customFormat="1" spans="1:22">
+    <row r="95" spans="1:22" s="6" customFormat="1">
       <c r="A95" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B95" s="22">
         <v>1</v>
@@ -7486,7 +6875,7 @@
         <v>4</v>
       </c>
       <c r="G95" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H95" s="22"/>
       <c r="I95" s="22"/>
@@ -7512,21 +6901,21 @@
       <c r="Q95" s="22"/>
       <c r="R95" s="22"/>
       <c r="S95" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T95" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="U95" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="U95" s="22" t="s">
-        <v>203</v>
-      </c>
       <c r="V95" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="96" s="6" customFormat="1" spans="1:22">
+    <row r="96" spans="1:22" s="6" customFormat="1">
       <c r="A96" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B96" s="22">
         <v>1</v>
@@ -7542,7 +6931,7 @@
         <v>5</v>
       </c>
       <c r="G96" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
@@ -7568,21 +6957,21 @@
       <c r="Q96" s="22"/>
       <c r="R96" s="22"/>
       <c r="S96" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T96" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="U96" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="U96" s="22" t="s">
-        <v>203</v>
-      </c>
       <c r="V96" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="97" s="6" customFormat="1" spans="1:22">
+    <row r="97" spans="1:22" s="6" customFormat="1">
       <c r="A97" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B97" s="22">
         <v>1</v>
@@ -7598,7 +6987,7 @@
         <v>6</v>
       </c>
       <c r="G97" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H97" s="22"/>
       <c r="I97" s="22"/>
@@ -7624,21 +7013,21 @@
       <c r="Q97" s="22"/>
       <c r="R97" s="22"/>
       <c r="S97" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T97" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="U97" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="U97" s="22" t="s">
-        <v>203</v>
-      </c>
       <c r="V97" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="98" s="6" customFormat="1" spans="1:22">
+    <row r="98" spans="1:22" s="6" customFormat="1">
       <c r="A98" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B98" s="22">
         <v>1</v>
@@ -7654,7 +7043,7 @@
         <v>7</v>
       </c>
       <c r="G98" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H98" s="22"/>
       <c r="I98" s="22"/>
@@ -7680,21 +7069,21 @@
       <c r="Q98" s="22"/>
       <c r="R98" s="22"/>
       <c r="S98" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T98" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="U98" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="U98" s="22" t="s">
-        <v>203</v>
-      </c>
       <c r="V98" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="99" s="6" customFormat="1" spans="1:22">
+    <row r="99" spans="1:22" s="6" customFormat="1">
       <c r="A99" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B99" s="22">
         <v>1</v>
@@ -7710,7 +7099,7 @@
         <v>8</v>
       </c>
       <c r="G99" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H99" s="22"/>
       <c r="I99" s="22"/>
@@ -7736,21 +7125,21 @@
       <c r="Q99" s="22"/>
       <c r="R99" s="22"/>
       <c r="S99" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T99" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="U99" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="U99" s="22" t="s">
-        <v>203</v>
-      </c>
       <c r="V99" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="100" s="6" customFormat="1" spans="1:22">
+    <row r="100" spans="1:22" s="6" customFormat="1">
       <c r="A100" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B100" s="22">
         <v>1</v>
@@ -7766,7 +7155,7 @@
         <v>9</v>
       </c>
       <c r="G100" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H100" s="22"/>
       <c r="I100" s="22"/>
@@ -7792,21 +7181,21 @@
       <c r="Q100" s="22"/>
       <c r="R100" s="22"/>
       <c r="S100" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T100" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="U100" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="U100" s="22" t="s">
-        <v>203</v>
-      </c>
       <c r="V100" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="101" s="6" customFormat="1" spans="1:22">
+    <row r="101" spans="1:22" s="6" customFormat="1">
       <c r="A101" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B101" s="22">
         <v>1</v>
@@ -7822,7 +7211,7 @@
         <v>10</v>
       </c>
       <c r="G101" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H101" s="22"/>
       <c r="I101" s="22"/>
@@ -7848,21 +7237,21 @@
       <c r="Q101" s="22"/>
       <c r="R101" s="22"/>
       <c r="S101" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T101" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="U101" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="U101" s="22" t="s">
-        <v>203</v>
-      </c>
       <c r="V101" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="102" s="7" customFormat="1" spans="1:22">
+    <row r="102" spans="1:22" s="7" customFormat="1">
       <c r="A102" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B102" s="23">
         <v>1</v>
@@ -7878,7 +7267,7 @@
         <v>1</v>
       </c>
       <c r="G102" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H102" s="23"/>
       <c r="I102" s="23"/>
@@ -7904,21 +7293,21 @@
       <c r="Q102" s="23"/>
       <c r="R102" s="22"/>
       <c r="S102" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T102" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="U102" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="U102" s="23" t="s">
+      <c r="V102" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" s="7" customFormat="1">
+      <c r="A103" s="23" t="s">
         <v>216</v>
-      </c>
-      <c r="V102" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" s="7" customFormat="1" spans="1:22">
-      <c r="A103" s="23" t="s">
-        <v>217</v>
       </c>
       <c r="B103" s="23">
         <v>1</v>
@@ -7934,7 +7323,7 @@
         <v>2</v>
       </c>
       <c r="G103" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H103" s="23"/>
       <c r="I103" s="23"/>
@@ -7960,21 +7349,21 @@
       <c r="Q103" s="23"/>
       <c r="R103" s="22"/>
       <c r="S103" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T103" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="U103" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="U103" s="23" t="s">
-        <v>216</v>
-      </c>
       <c r="V103" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="104" s="7" customFormat="1" spans="1:22">
+    <row r="104" spans="1:22" s="7" customFormat="1">
       <c r="A104" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B104" s="23">
         <v>1</v>
@@ -7990,7 +7379,7 @@
         <v>3</v>
       </c>
       <c r="G104" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H104" s="23"/>
       <c r="I104" s="23"/>
@@ -8016,21 +7405,21 @@
       <c r="Q104" s="23"/>
       <c r="R104" s="22"/>
       <c r="S104" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T104" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="U104" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="U104" s="23" t="s">
-        <v>216</v>
-      </c>
       <c r="V104" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="105" s="7" customFormat="1" spans="1:22">
+    <row r="105" spans="1:22" s="7" customFormat="1">
       <c r="A105" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B105" s="23">
         <v>1</v>
@@ -8046,7 +7435,7 @@
         <v>4</v>
       </c>
       <c r="G105" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H105" s="23"/>
       <c r="I105" s="23"/>
@@ -8072,21 +7461,21 @@
       <c r="Q105" s="23"/>
       <c r="R105" s="22"/>
       <c r="S105" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T105" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="U105" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="U105" s="23" t="s">
-        <v>216</v>
-      </c>
       <c r="V105" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="106" s="7" customFormat="1" spans="1:22">
+    <row r="106" spans="1:22" s="7" customFormat="1">
       <c r="A106" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B106" s="23">
         <v>1</v>
@@ -8102,7 +7491,7 @@
         <v>5</v>
       </c>
       <c r="G106" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H106" s="23"/>
       <c r="I106" s="23"/>
@@ -8128,21 +7517,21 @@
       <c r="Q106" s="23"/>
       <c r="R106" s="22"/>
       <c r="S106" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T106" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="U106" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="U106" s="23" t="s">
-        <v>216</v>
-      </c>
       <c r="V106" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="107" s="7" customFormat="1" spans="1:22">
+    <row r="107" spans="1:22" s="7" customFormat="1">
       <c r="A107" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B107" s="23">
         <v>1</v>
@@ -8158,7 +7547,7 @@
         <v>6</v>
       </c>
       <c r="G107" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H107" s="23"/>
       <c r="I107" s="23"/>
@@ -8184,21 +7573,21 @@
       <c r="Q107" s="23"/>
       <c r="R107" s="22"/>
       <c r="S107" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T107" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="U107" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="U107" s="23" t="s">
-        <v>216</v>
-      </c>
       <c r="V107" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="108" s="7" customFormat="1" spans="1:22">
+    <row r="108" spans="1:22" s="7" customFormat="1">
       <c r="A108" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B108" s="23">
         <v>1</v>
@@ -8214,7 +7603,7 @@
         <v>7</v>
       </c>
       <c r="G108" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H108" s="23"/>
       <c r="I108" s="23"/>
@@ -8240,21 +7629,21 @@
       <c r="Q108" s="23"/>
       <c r="R108" s="22"/>
       <c r="S108" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T108" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="U108" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="U108" s="23" t="s">
-        <v>216</v>
-      </c>
       <c r="V108" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="109" s="7" customFormat="1" spans="1:22">
+    <row r="109" spans="1:22" s="7" customFormat="1">
       <c r="A109" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B109" s="23">
         <v>1</v>
@@ -8270,7 +7659,7 @@
         <v>8</v>
       </c>
       <c r="G109" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H109" s="23"/>
       <c r="I109" s="23"/>
@@ -8296,21 +7685,21 @@
       <c r="Q109" s="23"/>
       <c r="R109" s="22"/>
       <c r="S109" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T109" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="U109" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="U109" s="23" t="s">
-        <v>216</v>
-      </c>
       <c r="V109" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="110" s="7" customFormat="1" spans="1:22">
+    <row r="110" spans="1:22" s="7" customFormat="1">
       <c r="A110" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B110" s="23">
         <v>1</v>
@@ -8326,7 +7715,7 @@
         <v>9</v>
       </c>
       <c r="G110" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H110" s="23"/>
       <c r="I110" s="23"/>
@@ -8352,21 +7741,21 @@
       <c r="Q110" s="23"/>
       <c r="R110" s="22"/>
       <c r="S110" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T110" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="U110" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="U110" s="23" t="s">
-        <v>216</v>
-      </c>
       <c r="V110" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="111" s="7" customFormat="1" spans="1:22">
+    <row r="111" spans="1:22" s="7" customFormat="1">
       <c r="A111" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B111" s="23">
         <v>1</v>
@@ -8382,7 +7771,7 @@
         <v>10</v>
       </c>
       <c r="G111" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H111" s="23"/>
       <c r="I111" s="23"/>
@@ -8408,21 +7797,21 @@
       <c r="Q111" s="23"/>
       <c r="R111" s="22"/>
       <c r="S111" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T111" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="U111" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="U111" s="23" t="s">
-        <v>216</v>
-      </c>
       <c r="V111" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="112" s="6" customFormat="1" spans="1:22">
+    <row r="112" spans="1:22" s="6" customFormat="1">
       <c r="A112" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B112" s="22">
         <v>1</v>
@@ -8438,7 +7827,7 @@
         <v>1</v>
       </c>
       <c r="G112" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H112" s="22"/>
       <c r="I112" s="22"/>
@@ -8464,21 +7853,21 @@
       <c r="Q112" s="22"/>
       <c r="R112" s="22"/>
       <c r="S112" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T112" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="U112" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="U112" s="22" t="s">
+      <c r="V112" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" s="6" customFormat="1">
+      <c r="A113" s="22" t="s">
         <v>229</v>
-      </c>
-      <c r="V112" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" s="6" customFormat="1" spans="1:22">
-      <c r="A113" s="22" t="s">
-        <v>230</v>
       </c>
       <c r="B113" s="22">
         <v>1</v>
@@ -8494,7 +7883,7 @@
         <v>2</v>
       </c>
       <c r="G113" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H113" s="22"/>
       <c r="I113" s="22"/>
@@ -8520,21 +7909,21 @@
       <c r="Q113" s="22"/>
       <c r="R113" s="22"/>
       <c r="S113" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T113" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="U113" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="U113" s="22" t="s">
-        <v>229</v>
-      </c>
       <c r="V113" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="114" s="6" customFormat="1" spans="1:22">
+    <row r="114" spans="1:22" s="6" customFormat="1">
       <c r="A114" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B114" s="22">
         <v>1</v>
@@ -8550,7 +7939,7 @@
         <v>3</v>
       </c>
       <c r="G114" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H114" s="22"/>
       <c r="I114" s="22"/>
@@ -8576,21 +7965,21 @@
       <c r="Q114" s="22"/>
       <c r="R114" s="22"/>
       <c r="S114" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T114" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="U114" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="U114" s="22" t="s">
-        <v>229</v>
-      </c>
       <c r="V114" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="115" s="6" customFormat="1" spans="1:22">
+    <row r="115" spans="1:22" s="6" customFormat="1">
       <c r="A115" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B115" s="22">
         <v>1</v>
@@ -8606,7 +7995,7 @@
         <v>4</v>
       </c>
       <c r="G115" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H115" s="22"/>
       <c r="I115" s="22"/>
@@ -8632,21 +8021,21 @@
       <c r="Q115" s="22"/>
       <c r="R115" s="22"/>
       <c r="S115" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T115" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="U115" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="U115" s="22" t="s">
-        <v>229</v>
-      </c>
       <c r="V115" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="116" s="6" customFormat="1" spans="1:22">
+    <row r="116" spans="1:22" s="6" customFormat="1">
       <c r="A116" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B116" s="22">
         <v>1</v>
@@ -8662,7 +8051,7 @@
         <v>5</v>
       </c>
       <c r="G116" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H116" s="22"/>
       <c r="I116" s="22"/>
@@ -8688,21 +8077,21 @@
       <c r="Q116" s="22"/>
       <c r="R116" s="22"/>
       <c r="S116" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T116" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="U116" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="U116" s="22" t="s">
-        <v>229</v>
-      </c>
       <c r="V116" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="117" s="6" customFormat="1" spans="1:22">
+    <row r="117" spans="1:22" s="6" customFormat="1">
       <c r="A117" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B117" s="22">
         <v>1</v>
@@ -8718,7 +8107,7 @@
         <v>6</v>
       </c>
       <c r="G117" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H117" s="22"/>
       <c r="I117" s="22"/>
@@ -8744,21 +8133,21 @@
       <c r="Q117" s="22"/>
       <c r="R117" s="22"/>
       <c r="S117" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T117" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="U117" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="U117" s="22" t="s">
-        <v>229</v>
-      </c>
       <c r="V117" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="118" s="6" customFormat="1" spans="1:22">
+    <row r="118" spans="1:22" s="6" customFormat="1">
       <c r="A118" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B118" s="22">
         <v>1</v>
@@ -8774,7 +8163,7 @@
         <v>7</v>
       </c>
       <c r="G118" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H118" s="22"/>
       <c r="I118" s="22"/>
@@ -8800,21 +8189,21 @@
       <c r="Q118" s="22"/>
       <c r="R118" s="22"/>
       <c r="S118" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T118" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="U118" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="U118" s="22" t="s">
-        <v>229</v>
-      </c>
       <c r="V118" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="119" s="6" customFormat="1" spans="1:22">
+    <row r="119" spans="1:22" s="6" customFormat="1">
       <c r="A119" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B119" s="22">
         <v>1</v>
@@ -8830,7 +8219,7 @@
         <v>8</v>
       </c>
       <c r="G119" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H119" s="22"/>
       <c r="I119" s="22"/>
@@ -8856,21 +8245,21 @@
       <c r="Q119" s="22"/>
       <c r="R119" s="22"/>
       <c r="S119" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T119" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="U119" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="U119" s="22" t="s">
-        <v>229</v>
-      </c>
       <c r="V119" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="120" s="6" customFormat="1" spans="1:22">
+    <row r="120" spans="1:22" s="6" customFormat="1">
       <c r="A120" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B120" s="22">
         <v>1</v>
@@ -8886,7 +8275,7 @@
         <v>9</v>
       </c>
       <c r="G120" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H120" s="22"/>
       <c r="I120" s="22"/>
@@ -8912,21 +8301,21 @@
       <c r="Q120" s="22"/>
       <c r="R120" s="22"/>
       <c r="S120" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T120" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="U120" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="U120" s="22" t="s">
-        <v>229</v>
-      </c>
       <c r="V120" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="121" s="6" customFormat="1" spans="1:22">
+    <row r="121" spans="1:22" s="6" customFormat="1">
       <c r="A121" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B121" s="22">
         <v>1</v>
@@ -8942,7 +8331,7 @@
         <v>10</v>
       </c>
       <c r="G121" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H121" s="22"/>
       <c r="I121" s="22"/>
@@ -8968,21 +8357,21 @@
       <c r="Q121" s="22"/>
       <c r="R121" s="22"/>
       <c r="S121" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T121" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="U121" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="U121" s="22" t="s">
-        <v>229</v>
-      </c>
       <c r="V121" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="122" s="6" customFormat="1" spans="1:22">
+    <row r="122" spans="1:22" s="6" customFormat="1">
       <c r="A122" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B122" s="22">
         <v>1</v>
@@ -8998,7 +8387,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H122" s="22"/>
       <c r="I122" s="22"/>
@@ -9024,21 +8413,21 @@
       <c r="Q122" s="22"/>
       <c r="R122" s="22"/>
       <c r="S122" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T122" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="U122" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="U122" s="22" t="s">
+      <c r="V122" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" s="6" customFormat="1">
+      <c r="A123" s="22" t="s">
         <v>242</v>
-      </c>
-      <c r="V122" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" s="6" customFormat="1" spans="1:22">
-      <c r="A123" s="22" t="s">
-        <v>243</v>
       </c>
       <c r="B123" s="22">
         <v>1</v>
@@ -9054,7 +8443,7 @@
         <v>2</v>
       </c>
       <c r="G123" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H123" s="22"/>
       <c r="I123" s="22"/>
@@ -9080,21 +8469,21 @@
       <c r="Q123" s="22"/>
       <c r="R123" s="22"/>
       <c r="S123" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T123" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="U123" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="U123" s="22" t="s">
-        <v>242</v>
-      </c>
       <c r="V123" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="124" s="6" customFormat="1" spans="1:22">
+    <row r="124" spans="1:22" s="6" customFormat="1">
       <c r="A124" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B124" s="22">
         <v>1</v>
@@ -9110,7 +8499,7 @@
         <v>3</v>
       </c>
       <c r="G124" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H124" s="22"/>
       <c r="I124" s="22"/>
@@ -9136,21 +8525,21 @@
       <c r="Q124" s="22"/>
       <c r="R124" s="22"/>
       <c r="S124" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T124" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="U124" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="U124" s="22" t="s">
-        <v>242</v>
-      </c>
       <c r="V124" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="125" s="6" customFormat="1" spans="1:22">
+    <row r="125" spans="1:22" s="6" customFormat="1">
       <c r="A125" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B125" s="22">
         <v>1</v>
@@ -9166,7 +8555,7 @@
         <v>4</v>
       </c>
       <c r="G125" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H125" s="22"/>
       <c r="I125" s="22"/>
@@ -9192,21 +8581,21 @@
       <c r="Q125" s="22"/>
       <c r="R125" s="22"/>
       <c r="S125" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T125" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="U125" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="U125" s="22" t="s">
-        <v>242</v>
-      </c>
       <c r="V125" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="126" s="6" customFormat="1" spans="1:22">
+    <row r="126" spans="1:22" s="6" customFormat="1">
       <c r="A126" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B126" s="22">
         <v>1</v>
@@ -9222,7 +8611,7 @@
         <v>5</v>
       </c>
       <c r="G126" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H126" s="22"/>
       <c r="I126" s="22"/>
@@ -9248,21 +8637,21 @@
       <c r="Q126" s="22"/>
       <c r="R126" s="22"/>
       <c r="S126" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T126" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="U126" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="U126" s="22" t="s">
-        <v>242</v>
-      </c>
       <c r="V126" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="127" s="6" customFormat="1" spans="1:22">
+    <row r="127" spans="1:22" s="6" customFormat="1">
       <c r="A127" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B127" s="22">
         <v>1</v>
@@ -9278,7 +8667,7 @@
         <v>6</v>
       </c>
       <c r="G127" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H127" s="22"/>
       <c r="I127" s="22"/>
@@ -9304,21 +8693,21 @@
       <c r="Q127" s="22"/>
       <c r="R127" s="22"/>
       <c r="S127" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T127" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="U127" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="U127" s="22" t="s">
-        <v>242</v>
-      </c>
       <c r="V127" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="128" s="6" customFormat="1" spans="1:22">
+    <row r="128" spans="1:22" s="6" customFormat="1">
       <c r="A128" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B128" s="22">
         <v>1</v>
@@ -9334,7 +8723,7 @@
         <v>7</v>
       </c>
       <c r="G128" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H128" s="22"/>
       <c r="I128" s="22"/>
@@ -9360,21 +8749,21 @@
       <c r="Q128" s="22"/>
       <c r="R128" s="22"/>
       <c r="S128" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T128" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="U128" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="U128" s="22" t="s">
-        <v>242</v>
-      </c>
       <c r="V128" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="129" s="6" customFormat="1" spans="1:22">
+    <row r="129" spans="1:22" s="6" customFormat="1">
       <c r="A129" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B129" s="22">
         <v>1</v>
@@ -9390,7 +8779,7 @@
         <v>8</v>
       </c>
       <c r="G129" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H129" s="22"/>
       <c r="I129" s="22"/>
@@ -9416,21 +8805,21 @@
       <c r="Q129" s="22"/>
       <c r="R129" s="22"/>
       <c r="S129" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T129" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="U129" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="U129" s="22" t="s">
-        <v>242</v>
-      </c>
       <c r="V129" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="130" s="6" customFormat="1" spans="1:22">
+    <row r="130" spans="1:22" s="6" customFormat="1">
       <c r="A130" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B130" s="22">
         <v>1</v>
@@ -9446,7 +8835,7 @@
         <v>9</v>
       </c>
       <c r="G130" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H130" s="22"/>
       <c r="I130" s="22"/>
@@ -9472,21 +8861,21 @@
       <c r="Q130" s="22"/>
       <c r="R130" s="22"/>
       <c r="S130" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T130" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="U130" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="U130" s="22" t="s">
-        <v>242</v>
-      </c>
       <c r="V130" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="131" s="6" customFormat="1" spans="1:22">
+    <row r="131" spans="1:22" s="6" customFormat="1">
       <c r="A131" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B131" s="22">
         <v>1</v>
@@ -9502,7 +8891,7 @@
         <v>10</v>
       </c>
       <c r="G131" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H131" s="22"/>
       <c r="I131" s="22"/>
@@ -9528,21 +8917,21 @@
       <c r="Q131" s="22"/>
       <c r="R131" s="22"/>
       <c r="S131" s="12" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="T131" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="U131" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="U131" s="22" t="s">
-        <v>242</v>
-      </c>
       <c r="V131" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="132" s="8" customFormat="1" spans="1:22">
+    <row r="132" spans="1:22" s="8" customFormat="1">
       <c r="A132" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B132" s="25">
         <v>3</v>
@@ -9558,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="G132" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H132" s="25"/>
       <c r="I132" s="25"/>
@@ -9583,24 +8972,24 @@
       </c>
       <c r="Q132" s="25"/>
       <c r="R132" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="S132" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="T132" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="S132" s="12" t="s">
+      <c r="U132" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="T132" s="24" t="s">
+      <c r="V132" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" s="8" customFormat="1">
+      <c r="A133" s="26" t="s">
         <v>256</v>
-      </c>
-      <c r="U132" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="V132" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" s="8" customFormat="1" spans="1:22">
-      <c r="A133" s="26" t="s">
-        <v>258</v>
       </c>
       <c r="B133" s="27">
         <v>3</v>
@@ -9616,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="G133" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
@@ -9641,24 +9030,24 @@
       </c>
       <c r="Q133" s="27"/>
       <c r="R133" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="S133" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="T133" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="U133" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="S133" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="T133" s="26" t="s">
+      <c r="V133" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" s="8" customFormat="1">
+      <c r="A134" s="26" t="s">
         <v>261</v>
-      </c>
-      <c r="U133" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="V133" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" s="8" customFormat="1" spans="1:22">
-      <c r="A134" s="26" t="s">
-        <v>263</v>
       </c>
       <c r="B134" s="25">
         <v>3</v>
@@ -9674,7 +9063,7 @@
         <v>0</v>
       </c>
       <c r="G134" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
@@ -9699,24 +9088,24 @@
       </c>
       <c r="Q134" s="27"/>
       <c r="R134" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="S134" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="T134" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="U134" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="S134" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="T134" s="26" t="s">
+      <c r="V134" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" s="8" customFormat="1">
+      <c r="A135" s="26" t="s">
         <v>266</v>
-      </c>
-      <c r="U134" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="V134" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" s="8" customFormat="1" spans="1:22">
-      <c r="A135" s="26" t="s">
-        <v>268</v>
       </c>
       <c r="B135" s="27">
         <v>3</v>
@@ -9732,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
@@ -9757,24 +9146,24 @@
       </c>
       <c r="Q135" s="27"/>
       <c r="R135" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="S135" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="T135" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="U135" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="S135" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="T135" s="26" t="s">
+      <c r="V135" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" s="8" customFormat="1">
+      <c r="A136" s="26" t="s">
         <v>271</v>
-      </c>
-      <c r="U135" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="V135" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" s="8" customFormat="1" spans="1:22">
-      <c r="A136" s="26" t="s">
-        <v>273</v>
       </c>
       <c r="B136" s="25">
         <v>3</v>
@@ -9790,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="G136" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
@@ -9815,24 +9204,24 @@
       </c>
       <c r="Q136" s="27"/>
       <c r="R136" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="S136" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="T136" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="U136" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="S136" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="T136" s="26" t="s">
+      <c r="V136" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" s="8" customFormat="1">
+      <c r="A137" s="26" t="s">
         <v>276</v>
-      </c>
-      <c r="U136" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="V136" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" s="8" customFormat="1" spans="1:22">
-      <c r="A137" s="26" t="s">
-        <v>278</v>
       </c>
       <c r="B137" s="27">
         <v>3</v>
@@ -9848,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
@@ -9873,24 +9262,24 @@
       </c>
       <c r="Q137" s="27"/>
       <c r="R137" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="S137" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="T137" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="U137" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="S137" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="T137" s="26" t="s">
+      <c r="V137" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" s="8" customFormat="1">
+      <c r="A138" s="26" t="s">
         <v>281</v>
-      </c>
-      <c r="U137" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="V137" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" s="8" customFormat="1" spans="1:22">
-      <c r="A138" s="26" t="s">
-        <v>283</v>
       </c>
       <c r="B138" s="27">
         <v>3</v>
@@ -9906,7 +9295,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
@@ -9931,24 +9320,24 @@
       </c>
       <c r="Q138" s="27"/>
       <c r="R138" s="26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S138" s="12" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="T138" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="U138" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="V138" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" s="8" customFormat="1">
+      <c r="A139" s="26" t="s">
         <v>285</v>
-      </c>
-      <c r="U138" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="V138" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" s="8" customFormat="1" spans="1:22">
-      <c r="A139" s="26" t="s">
-        <v>287</v>
       </c>
       <c r="B139" s="27">
         <v>3</v>
@@ -9964,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="G139" s="26" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
@@ -9989,24 +9378,24 @@
       </c>
       <c r="Q139" s="27"/>
       <c r="R139" s="26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S139" s="12" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="T139" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="U139" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="V139" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" s="8" customFormat="1">
+      <c r="A140" s="26" t="s">
         <v>289</v>
-      </c>
-      <c r="U139" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="V139" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" s="8" customFormat="1" spans="1:22">
-      <c r="A140" s="26" t="s">
-        <v>291</v>
       </c>
       <c r="B140" s="27">
         <v>3</v>
@@ -10022,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="G140" s="26" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
@@ -10047,16 +9436,16 @@
       </c>
       <c r="Q140" s="27"/>
       <c r="R140" s="26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S140" s="12" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="T140" s="26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="U140" s="27" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="V140" s="27">
         <v>0</v>
@@ -10069,8 +9458,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/_Out/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Item.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="297">
   <si>
     <t>Id</t>
   </si>
@@ -791,12 +791,6 @@
     <t>Desc_HeroCard_Abaddon</t>
   </si>
   <si>
-    <t>Hero_1</t>
-  </si>
-  <si>
-    <t>Hero_Abaddon</t>
-  </si>
-  <si>
     <t>NameID_Abaddon</t>
   </si>
   <si>
@@ -806,12 +800,6 @@
     <t>Desc_HeroCard_Beastmaster</t>
   </si>
   <si>
-    <t>Hero_2</t>
-  </si>
-  <si>
-    <t>Hero_Beastmaster</t>
-  </si>
-  <si>
     <t>NameID_Beastmaster</t>
   </si>
   <si>
@@ -821,12 +809,6 @@
     <t>Desc_HeroCard_BountyHunter</t>
   </si>
   <si>
-    <t>Hero_3</t>
-  </si>
-  <si>
-    <t>Hero_BountyHunter</t>
-  </si>
-  <si>
     <t>NameID_BountyHunter</t>
   </si>
   <si>
@@ -836,9 +818,6 @@
     <t>Desc_HeroCard_Bristleback</t>
   </si>
   <si>
-    <t>Hero_4</t>
-  </si>
-  <si>
     <t>Hero_Bristleback</t>
   </si>
   <si>
@@ -851,9 +830,6 @@
     <t>Desc_HeroCard_Clinkz</t>
   </si>
   <si>
-    <t>Hero_5</t>
-  </si>
-  <si>
     <t>Hero_Clinkz</t>
   </si>
   <si>
@@ -866,9 +842,6 @@
     <t>Desc_HeroCard_CrystalMaiden</t>
   </si>
   <si>
-    <t>Hero_6</t>
-  </si>
-  <si>
     <t>Hero_CrystalMaiden</t>
   </si>
   <si>
@@ -912,13 +885,49 @@
   </si>
   <si>
     <t>UIResources/ItemSprite</t>
+  </si>
+  <si>
+    <t>NPC_HERO_Orc_Slinger</t>
+  </si>
+  <si>
+    <t>NPC_HERO_Dwarf_Warrior</t>
+  </si>
+  <si>
+    <t>NPC_HERO_Wererat_Soldier</t>
+  </si>
+  <si>
+    <t>NPC_HERO_Bristleback</t>
+  </si>
+  <si>
+    <t>NPC_HERO_Clinkz</t>
+  </si>
+  <si>
+    <t>NPC_HERO_CrystalMaiden</t>
+  </si>
+  <si>
+    <t>NPC_HERO_Ezalor</t>
+  </si>
+  <si>
+    <t>NPC_HERO_Lifestealer</t>
+  </si>
+  <si>
+    <t>NPC_HERO_TeaantProtector</t>
+  </si>
+  <si>
+    <t>Hero_Orc_Slinger</t>
+  </si>
+  <si>
+    <t>Hero_Dwarf_Warrior</t>
+  </si>
+  <si>
+    <t>Hero_Wererat_Soldier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -938,6 +947,12 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1059,7 +1074,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1148,6 +1163,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1443,10 +1461,10 @@
   <dimension ref="A1:V140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="N131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="R130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A132" sqref="A132"/>
+      <selection pane="bottomRight" activeCell="T135" sqref="T135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1467,7 +1485,7 @@
     <col min="15" max="15" width="16.53125" customWidth="1"/>
     <col min="16" max="16" width="12.6640625" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="18.6640625" customWidth="1"/>
+    <col min="18" max="18" width="27.59765625" customWidth="1"/>
     <col min="19" max="20" width="23.33203125" customWidth="1"/>
     <col min="21" max="21" width="21.53125" customWidth="1"/>
     <col min="22" max="22" width="8.6640625" customWidth="1"/>
@@ -2131,7 +2149,7 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T10" s="12" t="s">
         <v>56</v>
@@ -2189,7 +2207,7 @@
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
       <c r="S11" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T11" s="12" t="s">
         <v>60</v>
@@ -2247,7 +2265,7 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="13"/>
       <c r="S12" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>63</v>
@@ -2305,7 +2323,7 @@
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
       <c r="S13" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T13" s="12" t="s">
         <v>66</v>
@@ -2363,7 +2381,7 @@
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
       <c r="S14" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T14" s="12" t="s">
         <v>69</v>
@@ -2419,7 +2437,7 @@
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T15" s="12" t="s">
         <v>71</v>
@@ -2475,7 +2493,7 @@
       <c r="Q16" s="14"/>
       <c r="R16" s="13"/>
       <c r="S16" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T16" s="15" t="s">
         <v>74</v>
@@ -2531,7 +2549,7 @@
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
       <c r="S17" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T17" s="15" t="s">
         <v>77</v>
@@ -2587,7 +2605,7 @@
       <c r="Q18" s="14"/>
       <c r="R18" s="13"/>
       <c r="S18" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T18" s="15" t="s">
         <v>79</v>
@@ -2643,7 +2661,7 @@
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T19" s="15" t="s">
         <v>81</v>
@@ -2699,7 +2717,7 @@
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
       <c r="S20" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T20" s="15" t="s">
         <v>83</v>
@@ -2755,7 +2773,7 @@
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T21" s="15" t="s">
         <v>85</v>
@@ -2811,7 +2829,7 @@
       <c r="Q22" s="14"/>
       <c r="R22" s="13"/>
       <c r="S22" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T22" s="15" t="s">
         <v>88</v>
@@ -2867,7 +2885,7 @@
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
       <c r="S23" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T23" s="15" t="s">
         <v>91</v>
@@ -2923,7 +2941,7 @@
       <c r="Q24" s="14"/>
       <c r="R24" s="13"/>
       <c r="S24" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T24" s="15" t="s">
         <v>93</v>
@@ -2979,7 +2997,7 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T25" s="15" t="s">
         <v>95</v>
@@ -3035,7 +3053,7 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T26" s="15" t="s">
         <v>97</v>
@@ -3091,7 +3109,7 @@
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
       <c r="S27" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T27" s="15" t="s">
         <v>99</v>
@@ -3147,7 +3165,7 @@
       <c r="Q28" s="14"/>
       <c r="R28" s="13"/>
       <c r="S28" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T28" s="15" t="s">
         <v>102</v>
@@ -3203,7 +3221,7 @@
       <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
       <c r="S29" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T29" s="15" t="s">
         <v>105</v>
@@ -3259,7 +3277,7 @@
       <c r="Q30" s="14"/>
       <c r="R30" s="13"/>
       <c r="S30" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T30" s="15" t="s">
         <v>107</v>
@@ -3315,7 +3333,7 @@
       <c r="Q31" s="14"/>
       <c r="R31" s="14"/>
       <c r="S31" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T31" s="15" t="s">
         <v>109</v>
@@ -3371,7 +3389,7 @@
       <c r="Q32" s="14"/>
       <c r="R32" s="13"/>
       <c r="S32" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T32" s="15" t="s">
         <v>111</v>
@@ -3427,7 +3445,7 @@
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
       <c r="S33" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T33" s="15" t="s">
         <v>113</v>
@@ -3483,7 +3501,7 @@
       <c r="Q34" s="14"/>
       <c r="R34" s="13"/>
       <c r="S34" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T34" s="14" t="s">
         <v>116</v>
@@ -3539,7 +3557,7 @@
       <c r="Q35" s="14"/>
       <c r="R35" s="14"/>
       <c r="S35" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T35" s="14" t="s">
         <v>116</v>
@@ -3595,7 +3613,7 @@
       <c r="Q36" s="14"/>
       <c r="R36" s="13"/>
       <c r="S36" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T36" s="14" t="s">
         <v>116</v>
@@ -3651,7 +3669,7 @@
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
       <c r="S37" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T37" s="14" t="s">
         <v>116</v>
@@ -3707,7 +3725,7 @@
       <c r="Q38" s="14"/>
       <c r="R38" s="13"/>
       <c r="S38" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T38" s="14" t="s">
         <v>116</v>
@@ -3763,7 +3781,7 @@
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
       <c r="S39" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T39" s="14" t="s">
         <v>116</v>
@@ -3819,7 +3837,7 @@
       <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
       <c r="S40" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T40" s="15" t="s">
         <v>125</v>
@@ -3875,7 +3893,7 @@
       <c r="Q41" s="14"/>
       <c r="R41" s="13"/>
       <c r="S41" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T41" s="15" t="s">
         <v>128</v>
@@ -3931,7 +3949,7 @@
       <c r="Q42" s="14"/>
       <c r="R42" s="14"/>
       <c r="S42" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T42" s="15" t="s">
         <v>130</v>
@@ -3987,7 +4005,7 @@
       <c r="Q43" s="14"/>
       <c r="R43" s="13"/>
       <c r="S43" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T43" s="15" t="s">
         <v>132</v>
@@ -4043,7 +4061,7 @@
       <c r="Q44" s="14"/>
       <c r="R44" s="14"/>
       <c r="S44" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T44" s="15" t="s">
         <v>134</v>
@@ -4099,7 +4117,7 @@
       <c r="Q45" s="14"/>
       <c r="R45" s="13"/>
       <c r="S45" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T45" s="15" t="s">
         <v>136</v>
@@ -4157,7 +4175,7 @@
       <c r="Q46" s="17"/>
       <c r="R46" s="17"/>
       <c r="S46" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T46" s="16" t="s">
         <v>140</v>
@@ -4213,7 +4231,7 @@
       <c r="Q47" s="17"/>
       <c r="R47" s="18"/>
       <c r="S47" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T47" s="16" t="s">
         <v>140</v>
@@ -4269,7 +4287,7 @@
       <c r="Q48" s="17"/>
       <c r="R48" s="17"/>
       <c r="S48" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T48" s="16" t="s">
         <v>140</v>
@@ -4325,7 +4343,7 @@
       <c r="Q49" s="17"/>
       <c r="R49" s="18"/>
       <c r="S49" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T49" s="16" t="s">
         <v>140</v>
@@ -4381,7 +4399,7 @@
       <c r="Q50" s="17"/>
       <c r="R50" s="17"/>
       <c r="S50" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T50" s="16" t="s">
         <v>140</v>
@@ -4437,7 +4455,7 @@
       <c r="Q51" s="17"/>
       <c r="R51" s="18"/>
       <c r="S51" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T51" s="16" t="s">
         <v>140</v>
@@ -4493,7 +4511,7 @@
       <c r="Q52" s="17"/>
       <c r="R52" s="17"/>
       <c r="S52" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T52" s="16" t="s">
         <v>140</v>
@@ -4549,7 +4567,7 @@
       <c r="Q53" s="17"/>
       <c r="R53" s="18"/>
       <c r="S53" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T53" s="16" t="s">
         <v>140</v>
@@ -4605,7 +4623,7 @@
       <c r="Q54" s="17"/>
       <c r="R54" s="17"/>
       <c r="S54" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T54" s="16" t="s">
         <v>140</v>
@@ -4661,7 +4679,7 @@
       <c r="Q55" s="17"/>
       <c r="R55" s="18"/>
       <c r="S55" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T55" s="16" t="s">
         <v>140</v>
@@ -4717,7 +4735,7 @@
       <c r="Q56" s="17"/>
       <c r="R56" s="17"/>
       <c r="S56" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T56" s="16" t="s">
         <v>153</v>
@@ -4773,7 +4791,7 @@
       <c r="Q57" s="17"/>
       <c r="R57" s="18"/>
       <c r="S57" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T57" s="16" t="s">
         <v>153</v>
@@ -4829,7 +4847,7 @@
       <c r="Q58" s="17"/>
       <c r="R58" s="17"/>
       <c r="S58" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T58" s="16" t="s">
         <v>153</v>
@@ -4885,7 +4903,7 @@
       <c r="Q59" s="17"/>
       <c r="R59" s="18"/>
       <c r="S59" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T59" s="16" t="s">
         <v>153</v>
@@ -4941,7 +4959,7 @@
       <c r="Q60" s="20"/>
       <c r="R60" s="20"/>
       <c r="S60" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T60" s="16" t="s">
         <v>153</v>
@@ -4997,7 +5015,7 @@
       <c r="Q61" s="20"/>
       <c r="R61" s="20"/>
       <c r="S61" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T61" s="16" t="s">
         <v>153</v>
@@ -5053,7 +5071,7 @@
       <c r="Q62" s="22"/>
       <c r="R62" s="22"/>
       <c r="S62" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T62" s="22" t="s">
         <v>162</v>
@@ -5109,7 +5127,7 @@
       <c r="Q63" s="22"/>
       <c r="R63" s="22"/>
       <c r="S63" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T63" s="22" t="s">
         <v>162</v>
@@ -5165,7 +5183,7 @@
       <c r="Q64" s="22"/>
       <c r="R64" s="22"/>
       <c r="S64" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T64" s="22" t="s">
         <v>162</v>
@@ -5221,7 +5239,7 @@
       <c r="Q65" s="22"/>
       <c r="R65" s="22"/>
       <c r="S65" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T65" s="22" t="s">
         <v>162</v>
@@ -5277,7 +5295,7 @@
       <c r="Q66" s="22"/>
       <c r="R66" s="22"/>
       <c r="S66" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T66" s="22" t="s">
         <v>162</v>
@@ -5333,7 +5351,7 @@
       <c r="Q67" s="22"/>
       <c r="R67" s="22"/>
       <c r="S67" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T67" s="22" t="s">
         <v>162</v>
@@ -5389,7 +5407,7 @@
       <c r="Q68" s="22"/>
       <c r="R68" s="22"/>
       <c r="S68" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T68" s="22" t="s">
         <v>162</v>
@@ -5445,7 +5463,7 @@
       <c r="Q69" s="22"/>
       <c r="R69" s="22"/>
       <c r="S69" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T69" s="22" t="s">
         <v>162</v>
@@ -5501,7 +5519,7 @@
       <c r="Q70" s="22"/>
       <c r="R70" s="22"/>
       <c r="S70" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T70" s="22" t="s">
         <v>162</v>
@@ -5557,7 +5575,7 @@
       <c r="Q71" s="22"/>
       <c r="R71" s="22"/>
       <c r="S71" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T71" s="22" t="s">
         <v>162</v>
@@ -5613,7 +5631,7 @@
       <c r="Q72" s="22"/>
       <c r="R72" s="22"/>
       <c r="S72" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T72" s="22" t="s">
         <v>175</v>
@@ -5669,7 +5687,7 @@
       <c r="Q73" s="22"/>
       <c r="R73" s="22"/>
       <c r="S73" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T73" s="22" t="s">
         <v>175</v>
@@ -5725,7 +5743,7 @@
       <c r="Q74" s="22"/>
       <c r="R74" s="22"/>
       <c r="S74" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T74" s="22" t="s">
         <v>175</v>
@@ -5781,7 +5799,7 @@
       <c r="Q75" s="22"/>
       <c r="R75" s="22"/>
       <c r="S75" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T75" s="22" t="s">
         <v>175</v>
@@ -5837,7 +5855,7 @@
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
       <c r="S76" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T76" s="22" t="s">
         <v>175</v>
@@ -5893,7 +5911,7 @@
       <c r="Q77" s="22"/>
       <c r="R77" s="22"/>
       <c r="S77" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T77" s="22" t="s">
         <v>175</v>
@@ -5949,7 +5967,7 @@
       <c r="Q78" s="22"/>
       <c r="R78" s="22"/>
       <c r="S78" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T78" s="22" t="s">
         <v>175</v>
@@ -6005,7 +6023,7 @@
       <c r="Q79" s="22"/>
       <c r="R79" s="22"/>
       <c r="S79" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T79" s="22" t="s">
         <v>175</v>
@@ -6061,7 +6079,7 @@
       <c r="Q80" s="22"/>
       <c r="R80" s="22"/>
       <c r="S80" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T80" s="22" t="s">
         <v>175</v>
@@ -6117,7 +6135,7 @@
       <c r="Q81" s="22"/>
       <c r="R81" s="22"/>
       <c r="S81" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T81" s="22" t="s">
         <v>175</v>
@@ -6173,7 +6191,7 @@
       <c r="Q82" s="22"/>
       <c r="R82" s="22"/>
       <c r="S82" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T82" s="22" t="s">
         <v>188</v>
@@ -6229,7 +6247,7 @@
       <c r="Q83" s="22"/>
       <c r="R83" s="22"/>
       <c r="S83" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T83" s="22" t="s">
         <v>188</v>
@@ -6285,7 +6303,7 @@
       <c r="Q84" s="22"/>
       <c r="R84" s="22"/>
       <c r="S84" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T84" s="22" t="s">
         <v>188</v>
@@ -6341,7 +6359,7 @@
       <c r="Q85" s="22"/>
       <c r="R85" s="22"/>
       <c r="S85" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T85" s="22" t="s">
         <v>188</v>
@@ -6397,7 +6415,7 @@
       <c r="Q86" s="22"/>
       <c r="R86" s="22"/>
       <c r="S86" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T86" s="22" t="s">
         <v>188</v>
@@ -6453,7 +6471,7 @@
       <c r="Q87" s="22"/>
       <c r="R87" s="22"/>
       <c r="S87" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T87" s="22" t="s">
         <v>188</v>
@@ -6509,7 +6527,7 @@
       <c r="Q88" s="22"/>
       <c r="R88" s="22"/>
       <c r="S88" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T88" s="22" t="s">
         <v>188</v>
@@ -6565,7 +6583,7 @@
       <c r="Q89" s="22"/>
       <c r="R89" s="22"/>
       <c r="S89" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T89" s="22" t="s">
         <v>188</v>
@@ -6621,7 +6639,7 @@
       <c r="Q90" s="22"/>
       <c r="R90" s="22"/>
       <c r="S90" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T90" s="22" t="s">
         <v>188</v>
@@ -6677,7 +6695,7 @@
       <c r="Q91" s="22"/>
       <c r="R91" s="22"/>
       <c r="S91" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T91" s="22" t="s">
         <v>188</v>
@@ -6733,7 +6751,7 @@
       <c r="Q92" s="22"/>
       <c r="R92" s="22"/>
       <c r="S92" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T92" s="22" t="s">
         <v>201</v>
@@ -6789,7 +6807,7 @@
       <c r="Q93" s="22"/>
       <c r="R93" s="22"/>
       <c r="S93" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T93" s="22" t="s">
         <v>201</v>
@@ -6845,7 +6863,7 @@
       <c r="Q94" s="22"/>
       <c r="R94" s="22"/>
       <c r="S94" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T94" s="22" t="s">
         <v>201</v>
@@ -6901,7 +6919,7 @@
       <c r="Q95" s="22"/>
       <c r="R95" s="22"/>
       <c r="S95" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T95" s="22" t="s">
         <v>201</v>
@@ -6957,7 +6975,7 @@
       <c r="Q96" s="22"/>
       <c r="R96" s="22"/>
       <c r="S96" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T96" s="22" t="s">
         <v>201</v>
@@ -7013,7 +7031,7 @@
       <c r="Q97" s="22"/>
       <c r="R97" s="22"/>
       <c r="S97" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T97" s="22" t="s">
         <v>201</v>
@@ -7069,7 +7087,7 @@
       <c r="Q98" s="22"/>
       <c r="R98" s="22"/>
       <c r="S98" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T98" s="22" t="s">
         <v>201</v>
@@ -7125,7 +7143,7 @@
       <c r="Q99" s="22"/>
       <c r="R99" s="22"/>
       <c r="S99" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T99" s="22" t="s">
         <v>201</v>
@@ -7181,7 +7199,7 @@
       <c r="Q100" s="22"/>
       <c r="R100" s="22"/>
       <c r="S100" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T100" s="22" t="s">
         <v>201</v>
@@ -7237,7 +7255,7 @@
       <c r="Q101" s="22"/>
       <c r="R101" s="22"/>
       <c r="S101" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T101" s="22" t="s">
         <v>201</v>
@@ -7293,7 +7311,7 @@
       <c r="Q102" s="23"/>
       <c r="R102" s="22"/>
       <c r="S102" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T102" s="23" t="s">
         <v>214</v>
@@ -7349,7 +7367,7 @@
       <c r="Q103" s="23"/>
       <c r="R103" s="22"/>
       <c r="S103" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T103" s="23" t="s">
         <v>214</v>
@@ -7405,7 +7423,7 @@
       <c r="Q104" s="23"/>
       <c r="R104" s="22"/>
       <c r="S104" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T104" s="23" t="s">
         <v>214</v>
@@ -7461,7 +7479,7 @@
       <c r="Q105" s="23"/>
       <c r="R105" s="22"/>
       <c r="S105" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T105" s="23" t="s">
         <v>214</v>
@@ -7517,7 +7535,7 @@
       <c r="Q106" s="23"/>
       <c r="R106" s="22"/>
       <c r="S106" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T106" s="23" t="s">
         <v>214</v>
@@ -7573,7 +7591,7 @@
       <c r="Q107" s="23"/>
       <c r="R107" s="22"/>
       <c r="S107" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T107" s="23" t="s">
         <v>214</v>
@@ -7629,7 +7647,7 @@
       <c r="Q108" s="23"/>
       <c r="R108" s="22"/>
       <c r="S108" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T108" s="23" t="s">
         <v>214</v>
@@ -7685,7 +7703,7 @@
       <c r="Q109" s="23"/>
       <c r="R109" s="22"/>
       <c r="S109" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T109" s="23" t="s">
         <v>214</v>
@@ -7741,7 +7759,7 @@
       <c r="Q110" s="23"/>
       <c r="R110" s="22"/>
       <c r="S110" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T110" s="23" t="s">
         <v>214</v>
@@ -7797,7 +7815,7 @@
       <c r="Q111" s="23"/>
       <c r="R111" s="22"/>
       <c r="S111" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T111" s="23" t="s">
         <v>214</v>
@@ -7853,7 +7871,7 @@
       <c r="Q112" s="22"/>
       <c r="R112" s="22"/>
       <c r="S112" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T112" s="22" t="s">
         <v>227</v>
@@ -7909,7 +7927,7 @@
       <c r="Q113" s="22"/>
       <c r="R113" s="22"/>
       <c r="S113" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T113" s="22" t="s">
         <v>227</v>
@@ -7965,7 +7983,7 @@
       <c r="Q114" s="22"/>
       <c r="R114" s="22"/>
       <c r="S114" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T114" s="22" t="s">
         <v>227</v>
@@ -8021,7 +8039,7 @@
       <c r="Q115" s="22"/>
       <c r="R115" s="22"/>
       <c r="S115" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T115" s="22" t="s">
         <v>227</v>
@@ -8077,7 +8095,7 @@
       <c r="Q116" s="22"/>
       <c r="R116" s="22"/>
       <c r="S116" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T116" s="22" t="s">
         <v>227</v>
@@ -8133,7 +8151,7 @@
       <c r="Q117" s="22"/>
       <c r="R117" s="22"/>
       <c r="S117" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T117" s="22" t="s">
         <v>227</v>
@@ -8189,7 +8207,7 @@
       <c r="Q118" s="22"/>
       <c r="R118" s="22"/>
       <c r="S118" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T118" s="22" t="s">
         <v>227</v>
@@ -8245,7 +8263,7 @@
       <c r="Q119" s="22"/>
       <c r="R119" s="22"/>
       <c r="S119" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T119" s="22" t="s">
         <v>227</v>
@@ -8301,7 +8319,7 @@
       <c r="Q120" s="22"/>
       <c r="R120" s="22"/>
       <c r="S120" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T120" s="22" t="s">
         <v>227</v>
@@ -8357,7 +8375,7 @@
       <c r="Q121" s="22"/>
       <c r="R121" s="22"/>
       <c r="S121" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T121" s="22" t="s">
         <v>227</v>
@@ -8413,7 +8431,7 @@
       <c r="Q122" s="22"/>
       <c r="R122" s="22"/>
       <c r="S122" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T122" s="22" t="s">
         <v>240</v>
@@ -8469,7 +8487,7 @@
       <c r="Q123" s="22"/>
       <c r="R123" s="22"/>
       <c r="S123" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T123" s="22" t="s">
         <v>240</v>
@@ -8525,7 +8543,7 @@
       <c r="Q124" s="22"/>
       <c r="R124" s="22"/>
       <c r="S124" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T124" s="22" t="s">
         <v>240</v>
@@ -8581,7 +8599,7 @@
       <c r="Q125" s="22"/>
       <c r="R125" s="22"/>
       <c r="S125" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T125" s="22" t="s">
         <v>240</v>
@@ -8637,7 +8655,7 @@
       <c r="Q126" s="22"/>
       <c r="R126" s="22"/>
       <c r="S126" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T126" s="22" t="s">
         <v>240</v>
@@ -8693,7 +8711,7 @@
       <c r="Q127" s="22"/>
       <c r="R127" s="22"/>
       <c r="S127" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T127" s="22" t="s">
         <v>240</v>
@@ -8749,7 +8767,7 @@
       <c r="Q128" s="22"/>
       <c r="R128" s="22"/>
       <c r="S128" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T128" s="22" t="s">
         <v>240</v>
@@ -8805,7 +8823,7 @@
       <c r="Q129" s="22"/>
       <c r="R129" s="22"/>
       <c r="S129" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T129" s="22" t="s">
         <v>240</v>
@@ -8861,7 +8879,7 @@
       <c r="Q130" s="22"/>
       <c r="R130" s="22"/>
       <c r="S130" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T130" s="22" t="s">
         <v>240</v>
@@ -8917,7 +8935,7 @@
       <c r="Q131" s="22"/>
       <c r="R131" s="22"/>
       <c r="S131" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T131" s="22" t="s">
         <v>240</v>
@@ -8971,17 +8989,17 @@
         <v>1</v>
       </c>
       <c r="Q132" s="25"/>
-      <c r="R132" s="24" t="s">
+      <c r="R132" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="S132" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="T132" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="U132" s="25" t="s">
         <v>253</v>
-      </c>
-      <c r="S132" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="T132" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="U132" s="25" t="s">
-        <v>255</v>
       </c>
       <c r="V132" s="25">
         <v>0</v>
@@ -8989,7 +9007,7 @@
     </row>
     <row r="133" spans="1:22" s="8" customFormat="1">
       <c r="A133" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B133" s="27">
         <v>3</v>
@@ -9005,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="G133" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
@@ -9029,17 +9047,17 @@
         <v>1</v>
       </c>
       <c r="Q133" s="27"/>
-      <c r="R133" s="26" t="s">
-        <v>258</v>
+      <c r="R133" s="30" t="s">
+        <v>286</v>
       </c>
       <c r="S133" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T133" s="26" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="U133" s="27" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="V133" s="27">
         <v>0</v>
@@ -9047,7 +9065,7 @@
     </row>
     <row r="134" spans="1:22" s="8" customFormat="1">
       <c r="A134" s="26" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B134" s="25">
         <v>3</v>
@@ -9063,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="G134" s="26" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
@@ -9087,17 +9105,17 @@
         <v>1</v>
       </c>
       <c r="Q134" s="27"/>
-      <c r="R134" s="26" t="s">
-        <v>263</v>
+      <c r="R134" s="30" t="s">
+        <v>287</v>
       </c>
       <c r="S134" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T134" s="26" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="U134" s="27" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="V134" s="27">
         <v>0</v>
@@ -9105,7 +9123,7 @@
     </row>
     <row r="135" spans="1:22" s="8" customFormat="1">
       <c r="A135" s="26" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B135" s="27">
         <v>3</v>
@@ -9121,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="26" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
@@ -9145,17 +9163,17 @@
         <v>1</v>
       </c>
       <c r="Q135" s="27"/>
-      <c r="R135" s="26" t="s">
-        <v>268</v>
+      <c r="R135" s="30" t="s">
+        <v>288</v>
       </c>
       <c r="S135" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T135" s="26" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="U135" s="27" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="V135" s="27">
         <v>0</v>
@@ -9163,7 +9181,7 @@
     </row>
     <row r="136" spans="1:22" s="8" customFormat="1">
       <c r="A136" s="26" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B136" s="25">
         <v>3</v>
@@ -9179,7 +9197,7 @@
         <v>0</v>
       </c>
       <c r="G136" s="26" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
@@ -9203,17 +9221,17 @@
         <v>1</v>
       </c>
       <c r="Q136" s="27"/>
-      <c r="R136" s="26" t="s">
-        <v>273</v>
+      <c r="R136" s="30" t="s">
+        <v>289</v>
       </c>
       <c r="S136" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T136" s="26" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="U136" s="27" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="V136" s="27">
         <v>0</v>
@@ -9221,7 +9239,7 @@
     </row>
     <row r="137" spans="1:22" s="8" customFormat="1">
       <c r="A137" s="26" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B137" s="27">
         <v>3</v>
@@ -9237,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="26" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
@@ -9261,17 +9279,17 @@
         <v>1</v>
       </c>
       <c r="Q137" s="27"/>
-      <c r="R137" s="26" t="s">
-        <v>278</v>
+      <c r="R137" s="30" t="s">
+        <v>290</v>
       </c>
       <c r="S137" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T137" s="26" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="U137" s="27" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="V137" s="27">
         <v>0</v>
@@ -9279,7 +9297,7 @@
     </row>
     <row r="138" spans="1:22" s="8" customFormat="1">
       <c r="A138" s="26" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B138" s="27">
         <v>3</v>
@@ -9295,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="26" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
@@ -9319,17 +9337,17 @@
         <v>1</v>
       </c>
       <c r="Q138" s="27"/>
-      <c r="R138" s="26" t="s">
-        <v>278</v>
+      <c r="R138" s="30" t="s">
+        <v>291</v>
       </c>
       <c r="S138" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T138" s="26" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="U138" s="27" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="V138" s="27">
         <v>0</v>
@@ -9337,7 +9355,7 @@
     </row>
     <row r="139" spans="1:22" s="8" customFormat="1">
       <c r="A139" s="26" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B139" s="27">
         <v>3</v>
@@ -9353,7 +9371,7 @@
         <v>0</v>
       </c>
       <c r="G139" s="26" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
@@ -9377,17 +9395,17 @@
         <v>1</v>
       </c>
       <c r="Q139" s="27"/>
-      <c r="R139" s="26" t="s">
+      <c r="R139" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="S139" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="T139" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="S139" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="T139" s="26" t="s">
-        <v>287</v>
-      </c>
       <c r="U139" s="27" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="V139" s="27">
         <v>0</v>
@@ -9395,7 +9413,7 @@
     </row>
     <row r="140" spans="1:22" s="8" customFormat="1">
       <c r="A140" s="26" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B140" s="27">
         <v>3</v>
@@ -9411,7 +9429,7 @@
         <v>0</v>
       </c>
       <c r="G140" s="26" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
@@ -9435,17 +9453,17 @@
         <v>1</v>
       </c>
       <c r="Q140" s="27"/>
-      <c r="R140" s="26" t="s">
-        <v>278</v>
+      <c r="R140" s="30" t="s">
+        <v>293</v>
       </c>
       <c r="S140" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="T140" s="26" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="U140" s="27" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="V140" s="27">
         <v>0</v>

--- a/_Out/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Item.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1464,7 +1464,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="R130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T135" sqref="T135"/>
+      <selection pane="bottomRight" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/_Out/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Item.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="333">
   <si>
     <t>Id</t>
   </si>
@@ -134,9 +134,6 @@
     <t>物品类别EItemType</t>
   </si>
   <si>
-    <t>物品子类别EGameEquipSubType EGameGemSubType EGameItemSubType EGameCardSubType EGameTokenSubType</t>
-  </si>
-  <si>
     <t>等级限制</t>
   </si>
   <si>
@@ -449,9 +446,6 @@
     <t>Desc_NoobPack</t>
   </si>
   <si>
-    <t>Item_HOLY_WATER_1,11;Item_HOLY_WATER_2,22;Item_HOLY_WATER_3,33;Item_HOLY_WATER_4,44;Item_HOLY_WATER_5,55;Item_MP1,11;Item_MP2,22;Item_MP3,33;Item_MP4,44;Item_MP5,55;Item_GEM_ATK_1,11;Item_GEM_ATK_2,22;Item_GEM_ATK_3,33;Item_GEM_ATK_4,44;Item_GEM_DEF_1,11;Item_GEM_DEF_2,22;Item_GEM_DEF_3,33;Item_GEM_DEF_4,44;Item_GEM_DEF_5,55;Item_GEM_FIRE_1,11;Item_GEM_FIRE_2,22;Item_GEM_FIRE_3,33;Item_GEM_WIND_1,11;Item_GEM_WIND_2,22;Item_GEM_WIND_3,33;Item_HeroCard_Abaddon,88;Item_HeroCard_Beastmaster,99;Item_HeroCard_BountyHunter,66;Item_HeroCard_Bristleback,33;Item_HeroCard_Clinkz,66;Item_HeroCard_CrystalMaiden,99;Item_HeroCard_Ezalor,99;Item_HeroCard_Lifestealer,99;Item_HeroCard_TeaantProtector,99</t>
-  </si>
-  <si>
     <t>Item_NoobPack</t>
   </si>
   <si>
@@ -921,6 +915,120 @@
   </si>
   <si>
     <t>Hero_Wererat_Soldier</t>
+  </si>
+  <si>
+    <t>Item_dragon_cannon_1</t>
+  </si>
+  <si>
+    <t>Item_dragon_cannon_2</t>
+  </si>
+  <si>
+    <t>Item_dragon_cannon_3</t>
+  </si>
+  <si>
+    <t>Item_gold_mine_1</t>
+  </si>
+  <si>
+    <t>Item_gold_mine_2</t>
+  </si>
+  <si>
+    <t>Item_gold_mine_3</t>
+  </si>
+  <si>
+    <t>Item_ballista_tower_1</t>
+  </si>
+  <si>
+    <t>Item_ballista_tower_2</t>
+  </si>
+  <si>
+    <t>Item_ballista_tower_3</t>
+  </si>
+  <si>
+    <t>Item_townhall_1</t>
+  </si>
+  <si>
+    <t>Item_townhall_2</t>
+  </si>
+  <si>
+    <t>Item_townhall_3</t>
+  </si>
+  <si>
+    <t>Item_camp_1</t>
+  </si>
+  <si>
+    <t>Item_camp_2</t>
+  </si>
+  <si>
+    <t>Item_camp_3</t>
+  </si>
+  <si>
+    <t>Item_gold_storage_1</t>
+  </si>
+  <si>
+    <t>Item_gold_storage_2</t>
+  </si>
+  <si>
+    <t>Item_gold_storage_3</t>
+  </si>
+  <si>
+    <t>Item_mana_storage_1</t>
+  </si>
+  <si>
+    <t>Item_mana_storage_2</t>
+  </si>
+  <si>
+    <t>Item_mana_storage_3</t>
+  </si>
+  <si>
+    <t>Item_barrack_1</t>
+  </si>
+  <si>
+    <t>Item_barrack_2</t>
+  </si>
+  <si>
+    <t>Item_barrack_3</t>
+  </si>
+  <si>
+    <t>Item_bomb_1</t>
+  </si>
+  <si>
+    <t>Item_bomb_2</t>
+  </si>
+  <si>
+    <t>Item_bomb_3</t>
+  </si>
+  <si>
+    <t>Item_worker_hut_1</t>
+  </si>
+  <si>
+    <t>Item_worker_hut_2</t>
+  </si>
+  <si>
+    <t>Item_worker_hut_3</t>
+  </si>
+  <si>
+    <t>Item_anti_air_tower_1</t>
+  </si>
+  <si>
+    <t>Item_anti_air_tower_2</t>
+  </si>
+  <si>
+    <t>Item_anti_air_tower_3</t>
+  </si>
+  <si>
+    <t>Item_mana_well_1</t>
+  </si>
+  <si>
+    <t>Item_mana_well_2</t>
+  </si>
+  <si>
+    <t>Item_mana_well_3</t>
+  </si>
+  <si>
+    <t>物品子类别 EGameEquipSubType EGameGemSubType EGameItemSubType EGameCardSubType EGameTokenSubType</t>
+  </si>
+  <si>
+    <t>Item_HOLY_WATER_1,11;Item_HOLY_WATER_2,22;Item_HOLY_WATER_3,33;Item_HOLY_WATER_4,44;Item_HOLY_WATER_5,55;Item_MP1,11;Item_MP2,22;Item_MP3,33;Item_MP4,44;Item_MP5,55;Item_GEM_ATK_1,11;Item_GEM_ATK_2,22;Item_GEM_ATK_3,33;Item_GEM_ATK_4,44;Item_GEM_DEF_1,11;Item_GEM_DEF_2,22;Item_GEM_DEF_3,33;Item_GEM_DEF_4,44;Item_GEM_DEF_5,55;Item_GEM_FIRE_1,11;Item_GEM_FIRE_2,22;Item_GEM_FIRE_3,33;Item_GEM_WIND_1,11;Item_GEM_WIND_2,22;Item_GEM_WIND_3,33;Item_HeroCard_Abaddon,88;Item_HeroCard_Beastmaster,99;Item_HeroCard_BountyHunter,66;Item_HeroCard_Bristleback,33;Item_HeroCard_Clinkz,66;Item_HeroCard_CrystalMaiden,99;Item_HeroCard_Ezalor,99;Item_HeroCard_Lifestealer,99;Item_HeroCard_TeaantProtector,99;Item_dragon_cannon_1,99;Item_dragon_cannon_2,99;Item_dragon_cannon_3,99;Item_gold_mine_1,99;Item_gold_mine_2,99;Item_gold_mine_3,99;Item_ballista_tower_1,99;Item_ballista_tower_2,99;Item_ballista_tower_3,99;Item_townhall_1,99;Item_townhall_2,99;Item_townhall_3,99;Item_camp_1,99;Item_camp_2,99;Item_camp_3,99;Item_gold_storage_1,99;Item_gold_storage_2,99;Item_gold_storage_3,99;Item_mana_storage_1,99;Item_mana_storage_2,99;Item_mana_storage_3,99;Item_barrack_1,99;Item_barrack_2,99;Item_barrack_3,99;Item_bomb_1,99;Item_bomb_2,99;Item_bomb_3,99;Item_worker_hut_1,99;Item_worker_hut_2,99;Item_worker_hut_3,99;Item_anti_air_tower_1,99;Item_anti_air_tower_2,99;Item_anti_air_tower_3,99;Item_mana_well_1,99;Item_mana_well_2,99;Item_mana_well_3,99</t>
   </si>
 </sst>
 </file>
@@ -957,7 +1065,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -994,8 +1102,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1068,13 +1182,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1167,6 +1324,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1458,13 +1639,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V140"/>
+  <dimension ref="A1:V176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="R130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1478,7 +1659,7 @@
     <col min="7" max="7" width="22.6640625" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.3984375" customWidth="1"/>
     <col min="11" max="11" width="31.53125" customWidth="1"/>
     <col min="12" max="13" width="14.1328125" customWidth="1"/>
     <col min="14" max="14" width="17.6640625" customWidth="1"/>
@@ -2043,69 +2224,69 @@
         <v>33</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="K9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="L9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="M9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="N9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="O9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="P9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="Q9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="R9" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="S9" s="10" t="s">
         <v>18</v>
       </c>
       <c r="T9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="U9" s="10" t="s">
+      <c r="V9" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="V9" s="10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="4" customFormat="1">
       <c r="A10" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="13">
         <v>2</v>
@@ -2121,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -2149,13 +2330,13 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="U10" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="V10" s="13">
         <v>0</v>
@@ -2163,7 +2344,7 @@
     </row>
     <row r="11" spans="1:22" s="4" customFormat="1">
       <c r="A11" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="14">
         <v>2</v>
@@ -2179,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -2207,13 +2388,13 @@
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
       <c r="S11" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V11" s="14">
         <v>0</v>
@@ -2221,7 +2402,7 @@
     </row>
     <row r="12" spans="1:22" s="4" customFormat="1">
       <c r="A12" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="13">
         <v>2</v>
@@ -2237,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -2265,13 +2446,13 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="13"/>
       <c r="S12" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V12" s="14">
         <v>0</v>
@@ -2279,7 +2460,7 @@
     </row>
     <row r="13" spans="1:22" s="4" customFormat="1">
       <c r="A13" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="14">
         <v>2</v>
@@ -2295,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -2323,13 +2504,13 @@
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
       <c r="S13" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V13" s="14">
         <v>0</v>
@@ -2337,7 +2518,7 @@
     </row>
     <row r="14" spans="1:22" s="4" customFormat="1">
       <c r="A14" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="14">
         <v>2</v>
@@ -2353,10 +2534,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -2381,13 +2562,13 @@
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
       <c r="S14" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V14" s="14">
         <v>0</v>
@@ -2395,7 +2576,7 @@
     </row>
     <row r="15" spans="1:22" s="4" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="14">
         <v>2</v>
@@ -2411,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="14"/>
@@ -2437,13 +2618,13 @@
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V15" s="14">
         <v>0</v>
@@ -2451,7 +2632,7 @@
     </row>
     <row r="16" spans="1:22" s="4" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="13">
         <v>2</v>
@@ -2467,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="14"/>
@@ -2493,13 +2674,13 @@
       <c r="Q16" s="14"/>
       <c r="R16" s="13"/>
       <c r="S16" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="U16" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="U16" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="V16" s="14">
         <v>0</v>
@@ -2507,7 +2688,7 @@
     </row>
     <row r="17" spans="1:22" s="4" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="14">
         <v>2</v>
@@ -2523,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="14"/>
@@ -2549,13 +2730,13 @@
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
       <c r="S17" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T17" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U17" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V17" s="14">
         <v>0</v>
@@ -2563,7 +2744,7 @@
     </row>
     <row r="18" spans="1:22" s="4" customFormat="1">
       <c r="A18" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="13">
         <v>2</v>
@@ -2579,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="14"/>
@@ -2605,13 +2786,13 @@
       <c r="Q18" s="14"/>
       <c r="R18" s="13"/>
       <c r="S18" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T18" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U18" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V18" s="14">
         <v>0</v>
@@ -2619,7 +2800,7 @@
     </row>
     <row r="19" spans="1:22" s="4" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="14">
         <v>2</v>
@@ -2635,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="14"/>
@@ -2661,13 +2842,13 @@
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T19" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V19" s="14">
         <v>0</v>
@@ -2675,7 +2856,7 @@
     </row>
     <row r="20" spans="1:22" s="4" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="14">
         <v>2</v>
@@ -2691,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="14"/>
@@ -2717,13 +2898,13 @@
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
       <c r="S20" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T20" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U20" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V20" s="14">
         <v>0</v>
@@ -2731,7 +2912,7 @@
     </row>
     <row r="21" spans="1:22" s="4" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="14">
         <v>2</v>
@@ -2747,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="14"/>
@@ -2773,13 +2954,13 @@
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T21" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V21" s="14">
         <v>0</v>
@@ -2787,7 +2968,7 @@
     </row>
     <row r="22" spans="1:22" s="4" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" s="13">
         <v>2</v>
@@ -2803,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="14"/>
@@ -2829,13 +3010,13 @@
       <c r="Q22" s="14"/>
       <c r="R22" s="13"/>
       <c r="S22" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T22" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="U22" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="U22" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="V22" s="14">
         <v>0</v>
@@ -2843,7 +3024,7 @@
     </row>
     <row r="23" spans="1:22" s="4" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="14">
         <v>2</v>
@@ -2859,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="14"/>
@@ -2885,13 +3066,13 @@
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
       <c r="S23" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T23" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U23" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V23" s="14">
         <v>0</v>
@@ -2899,7 +3080,7 @@
     </row>
     <row r="24" spans="1:22" s="4" customFormat="1">
       <c r="A24" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" s="13">
         <v>2</v>
@@ -2915,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="14"/>
@@ -2941,13 +3122,13 @@
       <c r="Q24" s="14"/>
       <c r="R24" s="13"/>
       <c r="S24" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T24" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U24" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V24" s="14">
         <v>0</v>
@@ -2955,7 +3136,7 @@
     </row>
     <row r="25" spans="1:22" s="4" customFormat="1">
       <c r="A25" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="14">
         <v>2</v>
@@ -2971,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="14"/>
@@ -2997,13 +3178,13 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V25" s="14">
         <v>0</v>
@@ -3011,7 +3192,7 @@
     </row>
     <row r="26" spans="1:22" s="4" customFormat="1">
       <c r="A26" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="14">
         <v>2</v>
@@ -3027,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="14"/>
@@ -3053,13 +3234,13 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T26" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U26" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V26" s="14">
         <v>0</v>
@@ -3067,7 +3248,7 @@
     </row>
     <row r="27" spans="1:22" s="4" customFormat="1">
       <c r="A27" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B27" s="14">
         <v>2</v>
@@ -3083,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="14"/>
@@ -3109,13 +3290,13 @@
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
       <c r="S27" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T27" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U27" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V27" s="14">
         <v>0</v>
@@ -3123,7 +3304,7 @@
     </row>
     <row r="28" spans="1:22" s="4" customFormat="1">
       <c r="A28" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B28" s="13">
         <v>2</v>
@@ -3139,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="14"/>
@@ -3165,13 +3346,13 @@
       <c r="Q28" s="14"/>
       <c r="R28" s="13"/>
       <c r="S28" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T28" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="U28" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="U28" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="V28" s="14">
         <v>0</v>
@@ -3179,7 +3360,7 @@
     </row>
     <row r="29" spans="1:22" s="4" customFormat="1">
       <c r="A29" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="14">
         <v>2</v>
@@ -3195,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="14"/>
@@ -3221,13 +3402,13 @@
       <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
       <c r="S29" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T29" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U29" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V29" s="14">
         <v>0</v>
@@ -3235,7 +3416,7 @@
     </row>
     <row r="30" spans="1:22" s="4" customFormat="1">
       <c r="A30" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B30" s="13">
         <v>2</v>
@@ -3251,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="14"/>
@@ -3277,13 +3458,13 @@
       <c r="Q30" s="14"/>
       <c r="R30" s="13"/>
       <c r="S30" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T30" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U30" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V30" s="14">
         <v>0</v>
@@ -3291,7 +3472,7 @@
     </row>
     <row r="31" spans="1:22" s="4" customFormat="1">
       <c r="A31" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B31" s="14">
         <v>2</v>
@@ -3307,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="14"/>
@@ -3333,13 +3514,13 @@
       <c r="Q31" s="14"/>
       <c r="R31" s="14"/>
       <c r="S31" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T31" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U31" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V31" s="14">
         <v>0</v>
@@ -3347,7 +3528,7 @@
     </row>
     <row r="32" spans="1:22" s="4" customFormat="1">
       <c r="A32" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B32" s="13">
         <v>2</v>
@@ -3363,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="14"/>
@@ -3389,13 +3570,13 @@
       <c r="Q32" s="14"/>
       <c r="R32" s="13"/>
       <c r="S32" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T32" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U32" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V32" s="14">
         <v>0</v>
@@ -3403,7 +3584,7 @@
     </row>
     <row r="33" spans="1:22" s="4" customFormat="1">
       <c r="A33" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B33" s="14">
         <v>2</v>
@@ -3419,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="14"/>
@@ -3445,13 +3626,13 @@
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
       <c r="S33" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T33" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U33" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V33" s="14">
         <v>0</v>
@@ -3459,7 +3640,7 @@
     </row>
     <row r="34" spans="1:22" s="4" customFormat="1">
       <c r="A34" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B34" s="13">
         <v>2</v>
@@ -3475,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="14"/>
@@ -3501,13 +3682,13 @@
       <c r="Q34" s="14"/>
       <c r="R34" s="13"/>
       <c r="S34" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T34" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="U34" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="U34" s="14" t="s">
-        <v>117</v>
       </c>
       <c r="V34" s="14">
         <v>0</v>
@@ -3515,7 +3696,7 @@
     </row>
     <row r="35" spans="1:22" s="4" customFormat="1">
       <c r="A35" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B35" s="14">
         <v>2</v>
@@ -3531,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="14"/>
@@ -3557,13 +3738,13 @@
       <c r="Q35" s="14"/>
       <c r="R35" s="14"/>
       <c r="S35" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T35" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="U35" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="U35" s="14" t="s">
-        <v>117</v>
       </c>
       <c r="V35" s="14">
         <v>0</v>
@@ -3571,7 +3752,7 @@
     </row>
     <row r="36" spans="1:22" s="4" customFormat="1">
       <c r="A36" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B36" s="13">
         <v>2</v>
@@ -3587,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="14"/>
@@ -3613,13 +3794,13 @@
       <c r="Q36" s="14"/>
       <c r="R36" s="13"/>
       <c r="S36" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T36" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="U36" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="U36" s="14" t="s">
-        <v>117</v>
       </c>
       <c r="V36" s="14">
         <v>0</v>
@@ -3627,7 +3808,7 @@
     </row>
     <row r="37" spans="1:22" s="4" customFormat="1">
       <c r="A37" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B37" s="14">
         <v>2</v>
@@ -3643,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="14"/>
@@ -3669,13 +3850,13 @@
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
       <c r="S37" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T37" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="U37" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="U37" s="14" t="s">
-        <v>117</v>
       </c>
       <c r="V37" s="14">
         <v>0</v>
@@ -3683,7 +3864,7 @@
     </row>
     <row r="38" spans="1:22" s="4" customFormat="1">
       <c r="A38" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B38" s="13">
         <v>2</v>
@@ -3699,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="14"/>
@@ -3725,13 +3906,13 @@
       <c r="Q38" s="14"/>
       <c r="R38" s="13"/>
       <c r="S38" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T38" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="U38" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="U38" s="14" t="s">
-        <v>117</v>
       </c>
       <c r="V38" s="14">
         <v>0</v>
@@ -3739,7 +3920,7 @@
     </row>
     <row r="39" spans="1:22" s="4" customFormat="1">
       <c r="A39" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B39" s="14">
         <v>2</v>
@@ -3755,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="14"/>
@@ -3781,13 +3962,13 @@
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
       <c r="S39" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T39" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="U39" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="U39" s="14" t="s">
-        <v>117</v>
       </c>
       <c r="V39" s="14">
         <v>0</v>
@@ -3795,7 +3976,7 @@
     </row>
     <row r="40" spans="1:22" s="4" customFormat="1">
       <c r="A40" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B40" s="14">
         <v>2</v>
@@ -3811,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="14"/>
@@ -3837,13 +4018,13 @@
       <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
       <c r="S40" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T40" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="U40" s="15" t="s">
         <v>125</v>
-      </c>
-      <c r="U40" s="15" t="s">
-        <v>126</v>
       </c>
       <c r="V40" s="14">
         <v>0</v>
@@ -3851,7 +4032,7 @@
     </row>
     <row r="41" spans="1:22" s="4" customFormat="1">
       <c r="A41" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B41" s="13">
         <v>2</v>
@@ -3867,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="14"/>
@@ -3893,13 +4074,13 @@
       <c r="Q41" s="14"/>
       <c r="R41" s="13"/>
       <c r="S41" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T41" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U41" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V41" s="14">
         <v>0</v>
@@ -3907,7 +4088,7 @@
     </row>
     <row r="42" spans="1:22" s="4" customFormat="1">
       <c r="A42" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B42" s="14">
         <v>2</v>
@@ -3923,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="14"/>
@@ -3949,13 +4130,13 @@
       <c r="Q42" s="14"/>
       <c r="R42" s="14"/>
       <c r="S42" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T42" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U42" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V42" s="14">
         <v>0</v>
@@ -3963,7 +4144,7 @@
     </row>
     <row r="43" spans="1:22" s="4" customFormat="1">
       <c r="A43" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B43" s="13">
         <v>2</v>
@@ -3979,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H43" s="15"/>
       <c r="I43" s="14"/>
@@ -4005,13 +4186,13 @@
       <c r="Q43" s="14"/>
       <c r="R43" s="13"/>
       <c r="S43" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T43" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U43" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V43" s="14">
         <v>0</v>
@@ -4019,7 +4200,7 @@
     </row>
     <row r="44" spans="1:22" s="4" customFormat="1">
       <c r="A44" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B44" s="14">
         <v>2</v>
@@ -4035,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="14"/>
@@ -4061,13 +4242,13 @@
       <c r="Q44" s="14"/>
       <c r="R44" s="14"/>
       <c r="S44" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T44" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U44" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V44" s="14">
         <v>0</v>
@@ -4075,7 +4256,7 @@
     </row>
     <row r="45" spans="1:22" s="4" customFormat="1">
       <c r="A45" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B45" s="13">
         <v>2</v>
@@ -4091,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H45" s="15"/>
       <c r="I45" s="14"/>
@@ -4117,21 +4298,21 @@
       <c r="Q45" s="14"/>
       <c r="R45" s="13"/>
       <c r="S45" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T45" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="U45" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="V45" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" s="5" customFormat="1" ht="327.75">
+      <c r="A46" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="U45" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="V45" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" s="5" customFormat="1">
-      <c r="A46" s="16" t="s">
-        <v>137</v>
       </c>
       <c r="B46" s="17">
         <v>2</v>
@@ -4147,12 +4328,12 @@
         <v>0</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
-      <c r="J46" s="17" t="s">
-        <v>139</v>
+      <c r="J46" s="38" t="s">
+        <v>332</v>
       </c>
       <c r="K46" s="17">
         <v>0</v>
@@ -4175,13 +4356,13 @@
       <c r="Q46" s="17"/>
       <c r="R46" s="17"/>
       <c r="S46" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T46" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U46" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="V46" s="17">
         <v>0</v>
@@ -4189,7 +4370,7 @@
     </row>
     <row r="47" spans="1:22" s="5" customFormat="1">
       <c r="A47" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B47" s="18">
         <v>2</v>
@@ -4205,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
@@ -4231,13 +4412,13 @@
       <c r="Q47" s="17"/>
       <c r="R47" s="18"/>
       <c r="S47" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T47" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U47" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="V47" s="17">
         <v>0</v>
@@ -4245,7 +4426,7 @@
     </row>
     <row r="48" spans="1:22" s="5" customFormat="1">
       <c r="A48" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B48" s="17">
         <v>2</v>
@@ -4261,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
@@ -4287,13 +4468,13 @@
       <c r="Q48" s="17"/>
       <c r="R48" s="17"/>
       <c r="S48" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T48" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U48" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="V48" s="17">
         <v>0</v>
@@ -4301,7 +4482,7 @@
     </row>
     <row r="49" spans="1:22" s="5" customFormat="1">
       <c r="A49" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B49" s="18">
         <v>2</v>
@@ -4317,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
@@ -4343,13 +4524,13 @@
       <c r="Q49" s="17"/>
       <c r="R49" s="18"/>
       <c r="S49" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T49" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U49" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="V49" s="17">
         <v>0</v>
@@ -4357,7 +4538,7 @@
     </row>
     <row r="50" spans="1:22" s="5" customFormat="1">
       <c r="A50" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B50" s="17">
         <v>2</v>
@@ -4373,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
@@ -4399,13 +4580,13 @@
       <c r="Q50" s="17"/>
       <c r="R50" s="17"/>
       <c r="S50" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T50" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U50" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="V50" s="17">
         <v>0</v>
@@ -4413,7 +4594,7 @@
     </row>
     <row r="51" spans="1:22" s="5" customFormat="1">
       <c r="A51" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B51" s="18">
         <v>2</v>
@@ -4429,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
@@ -4455,13 +4636,13 @@
       <c r="Q51" s="17"/>
       <c r="R51" s="18"/>
       <c r="S51" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T51" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U51" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="V51" s="17">
         <v>0</v>
@@ -4469,7 +4650,7 @@
     </row>
     <row r="52" spans="1:22" s="5" customFormat="1">
       <c r="A52" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B52" s="17">
         <v>2</v>
@@ -4485,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
@@ -4511,13 +4692,13 @@
       <c r="Q52" s="17"/>
       <c r="R52" s="17"/>
       <c r="S52" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T52" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U52" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="V52" s="17">
         <v>0</v>
@@ -4525,7 +4706,7 @@
     </row>
     <row r="53" spans="1:22" s="5" customFormat="1">
       <c r="A53" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B53" s="18">
         <v>2</v>
@@ -4541,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
@@ -4567,13 +4748,13 @@
       <c r="Q53" s="17"/>
       <c r="R53" s="18"/>
       <c r="S53" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T53" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U53" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="V53" s="17">
         <v>0</v>
@@ -4581,7 +4762,7 @@
     </row>
     <row r="54" spans="1:22" s="5" customFormat="1">
       <c r="A54" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B54" s="17">
         <v>2</v>
@@ -4597,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
@@ -4623,13 +4804,13 @@
       <c r="Q54" s="17"/>
       <c r="R54" s="17"/>
       <c r="S54" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T54" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U54" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="V54" s="17">
         <v>0</v>
@@ -4637,7 +4818,7 @@
     </row>
     <row r="55" spans="1:22" s="5" customFormat="1">
       <c r="A55" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B55" s="18">
         <v>2</v>
@@ -4653,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
@@ -4679,13 +4860,13 @@
       <c r="Q55" s="17"/>
       <c r="R55" s="18"/>
       <c r="S55" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T55" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U55" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="V55" s="17">
         <v>0</v>
@@ -4693,7 +4874,7 @@
     </row>
     <row r="56" spans="1:22" s="5" customFormat="1">
       <c r="A56" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B56" s="17">
         <v>2</v>
@@ -4709,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
@@ -4735,13 +4916,13 @@
       <c r="Q56" s="17"/>
       <c r="R56" s="17"/>
       <c r="S56" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T56" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U56" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="V56" s="17">
         <v>0</v>
@@ -4749,7 +4930,7 @@
     </row>
     <row r="57" spans="1:22" s="5" customFormat="1">
       <c r="A57" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B57" s="18">
         <v>2</v>
@@ -4765,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
@@ -4791,13 +4972,13 @@
       <c r="Q57" s="17"/>
       <c r="R57" s="18"/>
       <c r="S57" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T57" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U57" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="V57" s="17">
         <v>0</v>
@@ -4805,7 +4986,7 @@
     </row>
     <row r="58" spans="1:22" s="5" customFormat="1">
       <c r="A58" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B58" s="17">
         <v>2</v>
@@ -4821,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
@@ -4847,13 +5028,13 @@
       <c r="Q58" s="17"/>
       <c r="R58" s="17"/>
       <c r="S58" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T58" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U58" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="V58" s="17">
         <v>0</v>
@@ -4861,7 +5042,7 @@
     </row>
     <row r="59" spans="1:22" s="5" customFormat="1">
       <c r="A59" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B59" s="18">
         <v>2</v>
@@ -4877,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
@@ -4903,13 +5084,13 @@
       <c r="Q59" s="17"/>
       <c r="R59" s="18"/>
       <c r="S59" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T59" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U59" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="V59" s="17">
         <v>0</v>
@@ -4917,7 +5098,7 @@
     </row>
     <row r="60" spans="1:22" s="5" customFormat="1">
       <c r="A60" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B60" s="17">
         <v>2</v>
@@ -4933,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
@@ -4959,13 +5140,13 @@
       <c r="Q60" s="20"/>
       <c r="R60" s="20"/>
       <c r="S60" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T60" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U60" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="V60" s="20">
         <v>0</v>
@@ -4973,7 +5154,7 @@
     </row>
     <row r="61" spans="1:22" s="5" customFormat="1">
       <c r="A61" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B61" s="18">
         <v>2</v>
@@ -4989,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
@@ -5015,13 +5196,13 @@
       <c r="Q61" s="20"/>
       <c r="R61" s="20"/>
       <c r="S61" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T61" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U61" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="V61" s="20">
         <v>0</v>
@@ -5029,7 +5210,7 @@
     </row>
     <row r="62" spans="1:22" s="6" customFormat="1">
       <c r="A62" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B62" s="22">
         <v>1</v>
@@ -5045,7 +5226,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
@@ -5071,13 +5252,13 @@
       <c r="Q62" s="22"/>
       <c r="R62" s="22"/>
       <c r="S62" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T62" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U62" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="V62" s="22">
         <v>0</v>
@@ -5085,7 +5266,7 @@
     </row>
     <row r="63" spans="1:22" s="6" customFormat="1">
       <c r="A63" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B63" s="22">
         <v>1</v>
@@ -5101,7 +5282,7 @@
         <v>2</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
@@ -5127,13 +5308,13 @@
       <c r="Q63" s="22"/>
       <c r="R63" s="22"/>
       <c r="S63" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T63" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U63" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="V63" s="22">
         <v>0</v>
@@ -5141,7 +5322,7 @@
     </row>
     <row r="64" spans="1:22" s="6" customFormat="1">
       <c r="A64" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B64" s="22">
         <v>1</v>
@@ -5157,7 +5338,7 @@
         <v>3</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H64" s="22"/>
       <c r="I64" s="22"/>
@@ -5183,13 +5364,13 @@
       <c r="Q64" s="22"/>
       <c r="R64" s="22"/>
       <c r="S64" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T64" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U64" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="V64" s="22">
         <v>0</v>
@@ -5197,7 +5378,7 @@
     </row>
     <row r="65" spans="1:22" s="6" customFormat="1">
       <c r="A65" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B65" s="22">
         <v>1</v>
@@ -5213,7 +5394,7 @@
         <v>4</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H65" s="22"/>
       <c r="I65" s="22"/>
@@ -5239,13 +5420,13 @@
       <c r="Q65" s="22"/>
       <c r="R65" s="22"/>
       <c r="S65" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T65" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U65" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="V65" s="22">
         <v>0</v>
@@ -5253,7 +5434,7 @@
     </row>
     <row r="66" spans="1:22" s="6" customFormat="1">
       <c r="A66" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B66" s="22">
         <v>1</v>
@@ -5269,7 +5450,7 @@
         <v>5</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
@@ -5295,13 +5476,13 @@
       <c r="Q66" s="22"/>
       <c r="R66" s="22"/>
       <c r="S66" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T66" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U66" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="V66" s="22">
         <v>0</v>
@@ -5309,7 +5490,7 @@
     </row>
     <row r="67" spans="1:22" s="6" customFormat="1">
       <c r="A67" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B67" s="22">
         <v>1</v>
@@ -5325,7 +5506,7 @@
         <v>6</v>
       </c>
       <c r="G67" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
@@ -5351,13 +5532,13 @@
       <c r="Q67" s="22"/>
       <c r="R67" s="22"/>
       <c r="S67" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T67" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U67" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="V67" s="22">
         <v>0</v>
@@ -5365,7 +5546,7 @@
     </row>
     <row r="68" spans="1:22" s="6" customFormat="1">
       <c r="A68" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B68" s="22">
         <v>1</v>
@@ -5381,7 +5562,7 @@
         <v>7</v>
       </c>
       <c r="G68" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H68" s="22"/>
       <c r="I68" s="22"/>
@@ -5407,13 +5588,13 @@
       <c r="Q68" s="22"/>
       <c r="R68" s="22"/>
       <c r="S68" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T68" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U68" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="V68" s="22">
         <v>0</v>
@@ -5421,7 +5602,7 @@
     </row>
     <row r="69" spans="1:22" s="6" customFormat="1">
       <c r="A69" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B69" s="22">
         <v>1</v>
@@ -5437,7 +5618,7 @@
         <v>8</v>
       </c>
       <c r="G69" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H69" s="22"/>
       <c r="I69" s="22"/>
@@ -5463,13 +5644,13 @@
       <c r="Q69" s="22"/>
       <c r="R69" s="22"/>
       <c r="S69" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T69" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U69" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="V69" s="22">
         <v>0</v>
@@ -5477,7 +5658,7 @@
     </row>
     <row r="70" spans="1:22" s="6" customFormat="1">
       <c r="A70" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B70" s="22">
         <v>1</v>
@@ -5493,7 +5674,7 @@
         <v>9</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
@@ -5519,13 +5700,13 @@
       <c r="Q70" s="22"/>
       <c r="R70" s="22"/>
       <c r="S70" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T70" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U70" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="V70" s="22">
         <v>0</v>
@@ -5533,7 +5714,7 @@
     </row>
     <row r="71" spans="1:22" s="6" customFormat="1">
       <c r="A71" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B71" s="22">
         <v>1</v>
@@ -5549,7 +5730,7 @@
         <v>10</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H71" s="22"/>
       <c r="I71" s="22"/>
@@ -5575,13 +5756,13 @@
       <c r="Q71" s="22"/>
       <c r="R71" s="22"/>
       <c r="S71" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T71" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U71" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="V71" s="22">
         <v>0</v>
@@ -5589,7 +5770,7 @@
     </row>
     <row r="72" spans="1:22" s="6" customFormat="1">
       <c r="A72" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B72" s="22">
         <v>1</v>
@@ -5605,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H72" s="22"/>
       <c r="I72" s="22"/>
@@ -5631,13 +5812,13 @@
       <c r="Q72" s="22"/>
       <c r="R72" s="22"/>
       <c r="S72" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T72" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="U72" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V72" s="22">
         <v>0</v>
@@ -5645,7 +5826,7 @@
     </row>
     <row r="73" spans="1:22" s="6" customFormat="1">
       <c r="A73" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B73" s="22">
         <v>1</v>
@@ -5661,7 +5842,7 @@
         <v>2</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
@@ -5687,13 +5868,13 @@
       <c r="Q73" s="22"/>
       <c r="R73" s="22"/>
       <c r="S73" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T73" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="U73" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V73" s="22">
         <v>0</v>
@@ -5701,7 +5882,7 @@
     </row>
     <row r="74" spans="1:22" s="6" customFormat="1">
       <c r="A74" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B74" s="22">
         <v>1</v>
@@ -5717,7 +5898,7 @@
         <v>3</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
@@ -5743,13 +5924,13 @@
       <c r="Q74" s="22"/>
       <c r="R74" s="22"/>
       <c r="S74" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T74" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="U74" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V74" s="22">
         <v>0</v>
@@ -5757,7 +5938,7 @@
     </row>
     <row r="75" spans="1:22" s="6" customFormat="1">
       <c r="A75" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B75" s="22">
         <v>1</v>
@@ -5773,7 +5954,7 @@
         <v>4</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
@@ -5799,13 +5980,13 @@
       <c r="Q75" s="22"/>
       <c r="R75" s="22"/>
       <c r="S75" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T75" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="U75" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V75" s="22">
         <v>0</v>
@@ -5813,7 +5994,7 @@
     </row>
     <row r="76" spans="1:22" s="6" customFormat="1">
       <c r="A76" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B76" s="22">
         <v>1</v>
@@ -5829,7 +6010,7 @@
         <v>5</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
@@ -5855,13 +6036,13 @@
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
       <c r="S76" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T76" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="U76" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V76" s="22">
         <v>0</v>
@@ -5869,7 +6050,7 @@
     </row>
     <row r="77" spans="1:22" s="6" customFormat="1">
       <c r="A77" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B77" s="22">
         <v>1</v>
@@ -5885,7 +6066,7 @@
         <v>6</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
@@ -5911,13 +6092,13 @@
       <c r="Q77" s="22"/>
       <c r="R77" s="22"/>
       <c r="S77" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T77" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="U77" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V77" s="22">
         <v>0</v>
@@ -5925,7 +6106,7 @@
     </row>
     <row r="78" spans="1:22" s="6" customFormat="1">
       <c r="A78" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B78" s="22">
         <v>1</v>
@@ -5941,7 +6122,7 @@
         <v>7</v>
       </c>
       <c r="G78" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H78" s="22"/>
       <c r="I78" s="22"/>
@@ -5967,13 +6148,13 @@
       <c r="Q78" s="22"/>
       <c r="R78" s="22"/>
       <c r="S78" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T78" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="U78" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V78" s="22">
         <v>0</v>
@@ -5981,7 +6162,7 @@
     </row>
     <row r="79" spans="1:22" s="6" customFormat="1">
       <c r="A79" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B79" s="22">
         <v>1</v>
@@ -5997,7 +6178,7 @@
         <v>8</v>
       </c>
       <c r="G79" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
@@ -6023,13 +6204,13 @@
       <c r="Q79" s="22"/>
       <c r="R79" s="22"/>
       <c r="S79" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T79" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="U79" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V79" s="22">
         <v>0</v>
@@ -6037,7 +6218,7 @@
     </row>
     <row r="80" spans="1:22" s="6" customFormat="1">
       <c r="A80" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B80" s="22">
         <v>1</v>
@@ -6053,7 +6234,7 @@
         <v>9</v>
       </c>
       <c r="G80" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H80" s="22"/>
       <c r="I80" s="22"/>
@@ -6079,13 +6260,13 @@
       <c r="Q80" s="22"/>
       <c r="R80" s="22"/>
       <c r="S80" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T80" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="U80" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V80" s="22">
         <v>0</v>
@@ -6093,7 +6274,7 @@
     </row>
     <row r="81" spans="1:22" s="6" customFormat="1">
       <c r="A81" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B81" s="22">
         <v>1</v>
@@ -6109,7 +6290,7 @@
         <v>10</v>
       </c>
       <c r="G81" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
@@ -6135,13 +6316,13 @@
       <c r="Q81" s="22"/>
       <c r="R81" s="22"/>
       <c r="S81" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T81" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="U81" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V81" s="22">
         <v>0</v>
@@ -6149,7 +6330,7 @@
     </row>
     <row r="82" spans="1:22" s="6" customFormat="1">
       <c r="A82" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B82" s="22">
         <v>1</v>
@@ -6165,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H82" s="22"/>
       <c r="I82" s="22"/>
@@ -6191,13 +6372,13 @@
       <c r="Q82" s="22"/>
       <c r="R82" s="22"/>
       <c r="S82" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T82" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="U82" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="V82" s="22">
         <v>0</v>
@@ -6205,7 +6386,7 @@
     </row>
     <row r="83" spans="1:22" s="6" customFormat="1">
       <c r="A83" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B83" s="22">
         <v>1</v>
@@ -6221,7 +6402,7 @@
         <v>2</v>
       </c>
       <c r="G83" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H83" s="22"/>
       <c r="I83" s="22"/>
@@ -6247,13 +6428,13 @@
       <c r="Q83" s="22"/>
       <c r="R83" s="22"/>
       <c r="S83" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T83" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="U83" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="V83" s="22">
         <v>0</v>
@@ -6261,7 +6442,7 @@
     </row>
     <row r="84" spans="1:22" s="6" customFormat="1">
       <c r="A84" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B84" s="22">
         <v>1</v>
@@ -6277,7 +6458,7 @@
         <v>3</v>
       </c>
       <c r="G84" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
@@ -6303,13 +6484,13 @@
       <c r="Q84" s="22"/>
       <c r="R84" s="22"/>
       <c r="S84" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T84" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="U84" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="V84" s="22">
         <v>0</v>
@@ -6317,7 +6498,7 @@
     </row>
     <row r="85" spans="1:22" s="6" customFormat="1">
       <c r="A85" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B85" s="22">
         <v>1</v>
@@ -6333,7 +6514,7 @@
         <v>4</v>
       </c>
       <c r="G85" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H85" s="22"/>
       <c r="I85" s="22"/>
@@ -6359,13 +6540,13 @@
       <c r="Q85" s="22"/>
       <c r="R85" s="22"/>
       <c r="S85" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T85" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="U85" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="V85" s="22">
         <v>0</v>
@@ -6373,7 +6554,7 @@
     </row>
     <row r="86" spans="1:22" s="6" customFormat="1">
       <c r="A86" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B86" s="22">
         <v>1</v>
@@ -6389,7 +6570,7 @@
         <v>5</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H86" s="22"/>
       <c r="I86" s="22"/>
@@ -6415,13 +6596,13 @@
       <c r="Q86" s="22"/>
       <c r="R86" s="22"/>
       <c r="S86" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T86" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="U86" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="V86" s="22">
         <v>0</v>
@@ -6429,7 +6610,7 @@
     </row>
     <row r="87" spans="1:22" s="6" customFormat="1">
       <c r="A87" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B87" s="22">
         <v>1</v>
@@ -6445,7 +6626,7 @@
         <v>6</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H87" s="22"/>
       <c r="I87" s="22"/>
@@ -6471,13 +6652,13 @@
       <c r="Q87" s="22"/>
       <c r="R87" s="22"/>
       <c r="S87" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T87" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="U87" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="V87" s="22">
         <v>0</v>
@@ -6485,7 +6666,7 @@
     </row>
     <row r="88" spans="1:22" s="6" customFormat="1">
       <c r="A88" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B88" s="22">
         <v>1</v>
@@ -6501,7 +6682,7 @@
         <v>7</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
@@ -6527,13 +6708,13 @@
       <c r="Q88" s="22"/>
       <c r="R88" s="22"/>
       <c r="S88" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T88" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="U88" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="V88" s="22">
         <v>0</v>
@@ -6541,7 +6722,7 @@
     </row>
     <row r="89" spans="1:22" s="6" customFormat="1">
       <c r="A89" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B89" s="22">
         <v>1</v>
@@ -6557,7 +6738,7 @@
         <v>8</v>
       </c>
       <c r="G89" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H89" s="22"/>
       <c r="I89" s="22"/>
@@ -6583,13 +6764,13 @@
       <c r="Q89" s="22"/>
       <c r="R89" s="22"/>
       <c r="S89" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T89" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="U89" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="V89" s="22">
         <v>0</v>
@@ -6597,7 +6778,7 @@
     </row>
     <row r="90" spans="1:22" s="6" customFormat="1">
       <c r="A90" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B90" s="22">
         <v>1</v>
@@ -6613,7 +6794,7 @@
         <v>9</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H90" s="22"/>
       <c r="I90" s="22"/>
@@ -6639,13 +6820,13 @@
       <c r="Q90" s="22"/>
       <c r="R90" s="22"/>
       <c r="S90" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T90" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="U90" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="V90" s="22">
         <v>0</v>
@@ -6653,7 +6834,7 @@
     </row>
     <row r="91" spans="1:22" s="6" customFormat="1">
       <c r="A91" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B91" s="22">
         <v>1</v>
@@ -6669,7 +6850,7 @@
         <v>10</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H91" s="22"/>
       <c r="I91" s="22"/>
@@ -6695,13 +6876,13 @@
       <c r="Q91" s="22"/>
       <c r="R91" s="22"/>
       <c r="S91" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T91" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="U91" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="V91" s="22">
         <v>0</v>
@@ -6709,7 +6890,7 @@
     </row>
     <row r="92" spans="1:22" s="6" customFormat="1">
       <c r="A92" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B92" s="22">
         <v>1</v>
@@ -6725,7 +6906,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H92" s="22"/>
       <c r="I92" s="22"/>
@@ -6751,13 +6932,13 @@
       <c r="Q92" s="22"/>
       <c r="R92" s="22"/>
       <c r="S92" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T92" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U92" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="V92" s="22">
         <v>0</v>
@@ -6765,7 +6946,7 @@
     </row>
     <row r="93" spans="1:22" s="6" customFormat="1">
       <c r="A93" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B93" s="22">
         <v>1</v>
@@ -6781,7 +6962,7 @@
         <v>2</v>
       </c>
       <c r="G93" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H93" s="22"/>
       <c r="I93" s="22"/>
@@ -6807,13 +6988,13 @@
       <c r="Q93" s="22"/>
       <c r="R93" s="22"/>
       <c r="S93" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T93" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U93" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="V93" s="22">
         <v>0</v>
@@ -6821,7 +7002,7 @@
     </row>
     <row r="94" spans="1:22" s="6" customFormat="1">
       <c r="A94" s="22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B94" s="22">
         <v>1</v>
@@ -6837,7 +7018,7 @@
         <v>3</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H94" s="22"/>
       <c r="I94" s="22"/>
@@ -6863,13 +7044,13 @@
       <c r="Q94" s="22"/>
       <c r="R94" s="22"/>
       <c r="S94" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T94" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U94" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="V94" s="22">
         <v>0</v>
@@ -6877,7 +7058,7 @@
     </row>
     <row r="95" spans="1:22" s="6" customFormat="1">
       <c r="A95" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B95" s="22">
         <v>1</v>
@@ -6893,7 +7074,7 @@
         <v>4</v>
       </c>
       <c r="G95" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H95" s="22"/>
       <c r="I95" s="22"/>
@@ -6919,13 +7100,13 @@
       <c r="Q95" s="22"/>
       <c r="R95" s="22"/>
       <c r="S95" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T95" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U95" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="V95" s="22">
         <v>0</v>
@@ -6933,7 +7114,7 @@
     </row>
     <row r="96" spans="1:22" s="6" customFormat="1">
       <c r="A96" s="22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B96" s="22">
         <v>1</v>
@@ -6949,7 +7130,7 @@
         <v>5</v>
       </c>
       <c r="G96" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
@@ -6975,13 +7156,13 @@
       <c r="Q96" s="22"/>
       <c r="R96" s="22"/>
       <c r="S96" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T96" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U96" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="V96" s="22">
         <v>0</v>
@@ -6989,7 +7170,7 @@
     </row>
     <row r="97" spans="1:22" s="6" customFormat="1">
       <c r="A97" s="22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B97" s="22">
         <v>1</v>
@@ -7005,7 +7186,7 @@
         <v>6</v>
       </c>
       <c r="G97" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H97" s="22"/>
       <c r="I97" s="22"/>
@@ -7031,13 +7212,13 @@
       <c r="Q97" s="22"/>
       <c r="R97" s="22"/>
       <c r="S97" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T97" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U97" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="V97" s="22">
         <v>0</v>
@@ -7045,7 +7226,7 @@
     </row>
     <row r="98" spans="1:22" s="6" customFormat="1">
       <c r="A98" s="22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B98" s="22">
         <v>1</v>
@@ -7061,7 +7242,7 @@
         <v>7</v>
       </c>
       <c r="G98" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H98" s="22"/>
       <c r="I98" s="22"/>
@@ -7087,13 +7268,13 @@
       <c r="Q98" s="22"/>
       <c r="R98" s="22"/>
       <c r="S98" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T98" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U98" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="V98" s="22">
         <v>0</v>
@@ -7101,7 +7282,7 @@
     </row>
     <row r="99" spans="1:22" s="6" customFormat="1">
       <c r="A99" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B99" s="22">
         <v>1</v>
@@ -7117,7 +7298,7 @@
         <v>8</v>
       </c>
       <c r="G99" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H99" s="22"/>
       <c r="I99" s="22"/>
@@ -7143,13 +7324,13 @@
       <c r="Q99" s="22"/>
       <c r="R99" s="22"/>
       <c r="S99" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T99" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U99" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="V99" s="22">
         <v>0</v>
@@ -7157,7 +7338,7 @@
     </row>
     <row r="100" spans="1:22" s="6" customFormat="1">
       <c r="A100" s="22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B100" s="22">
         <v>1</v>
@@ -7173,7 +7354,7 @@
         <v>9</v>
       </c>
       <c r="G100" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H100" s="22"/>
       <c r="I100" s="22"/>
@@ -7199,13 +7380,13 @@
       <c r="Q100" s="22"/>
       <c r="R100" s="22"/>
       <c r="S100" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T100" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U100" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="V100" s="22">
         <v>0</v>
@@ -7213,7 +7394,7 @@
     </row>
     <row r="101" spans="1:22" s="6" customFormat="1">
       <c r="A101" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B101" s="22">
         <v>1</v>
@@ -7229,7 +7410,7 @@
         <v>10</v>
       </c>
       <c r="G101" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H101" s="22"/>
       <c r="I101" s="22"/>
@@ -7255,13 +7436,13 @@
       <c r="Q101" s="22"/>
       <c r="R101" s="22"/>
       <c r="S101" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T101" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U101" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="V101" s="22">
         <v>0</v>
@@ -7269,7 +7450,7 @@
     </row>
     <row r="102" spans="1:22" s="7" customFormat="1">
       <c r="A102" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B102" s="23">
         <v>1</v>
@@ -7285,7 +7466,7 @@
         <v>1</v>
       </c>
       <c r="G102" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H102" s="23"/>
       <c r="I102" s="23"/>
@@ -7311,13 +7492,13 @@
       <c r="Q102" s="23"/>
       <c r="R102" s="22"/>
       <c r="S102" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T102" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="U102" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="V102" s="23">
         <v>0</v>
@@ -7325,7 +7506,7 @@
     </row>
     <row r="103" spans="1:22" s="7" customFormat="1">
       <c r="A103" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B103" s="23">
         <v>1</v>
@@ -7341,7 +7522,7 @@
         <v>2</v>
       </c>
       <c r="G103" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H103" s="23"/>
       <c r="I103" s="23"/>
@@ -7367,13 +7548,13 @@
       <c r="Q103" s="23"/>
       <c r="R103" s="22"/>
       <c r="S103" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T103" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="U103" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="V103" s="23">
         <v>0</v>
@@ -7381,7 +7562,7 @@
     </row>
     <row r="104" spans="1:22" s="7" customFormat="1">
       <c r="A104" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B104" s="23">
         <v>1</v>
@@ -7397,7 +7578,7 @@
         <v>3</v>
       </c>
       <c r="G104" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H104" s="23"/>
       <c r="I104" s="23"/>
@@ -7423,13 +7604,13 @@
       <c r="Q104" s="23"/>
       <c r="R104" s="22"/>
       <c r="S104" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T104" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="U104" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="V104" s="23">
         <v>0</v>
@@ -7437,7 +7618,7 @@
     </row>
     <row r="105" spans="1:22" s="7" customFormat="1">
       <c r="A105" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B105" s="23">
         <v>1</v>
@@ -7453,7 +7634,7 @@
         <v>4</v>
       </c>
       <c r="G105" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H105" s="23"/>
       <c r="I105" s="23"/>
@@ -7479,13 +7660,13 @@
       <c r="Q105" s="23"/>
       <c r="R105" s="22"/>
       <c r="S105" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T105" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="U105" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="V105" s="23">
         <v>0</v>
@@ -7493,7 +7674,7 @@
     </row>
     <row r="106" spans="1:22" s="7" customFormat="1">
       <c r="A106" s="23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B106" s="23">
         <v>1</v>
@@ -7509,7 +7690,7 @@
         <v>5</v>
       </c>
       <c r="G106" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H106" s="23"/>
       <c r="I106" s="23"/>
@@ -7535,13 +7716,13 @@
       <c r="Q106" s="23"/>
       <c r="R106" s="22"/>
       <c r="S106" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T106" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="U106" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="V106" s="23">
         <v>0</v>
@@ -7549,7 +7730,7 @@
     </row>
     <row r="107" spans="1:22" s="7" customFormat="1">
       <c r="A107" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B107" s="23">
         <v>1</v>
@@ -7565,7 +7746,7 @@
         <v>6</v>
       </c>
       <c r="G107" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H107" s="23"/>
       <c r="I107" s="23"/>
@@ -7591,13 +7772,13 @@
       <c r="Q107" s="23"/>
       <c r="R107" s="22"/>
       <c r="S107" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T107" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="U107" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="V107" s="23">
         <v>0</v>
@@ -7605,7 +7786,7 @@
     </row>
     <row r="108" spans="1:22" s="7" customFormat="1">
       <c r="A108" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B108" s="23">
         <v>1</v>
@@ -7621,7 +7802,7 @@
         <v>7</v>
       </c>
       <c r="G108" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H108" s="23"/>
       <c r="I108" s="23"/>
@@ -7647,13 +7828,13 @@
       <c r="Q108" s="23"/>
       <c r="R108" s="22"/>
       <c r="S108" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T108" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="U108" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="V108" s="23">
         <v>0</v>
@@ -7661,7 +7842,7 @@
     </row>
     <row r="109" spans="1:22" s="7" customFormat="1">
       <c r="A109" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B109" s="23">
         <v>1</v>
@@ -7677,7 +7858,7 @@
         <v>8</v>
       </c>
       <c r="G109" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H109" s="23"/>
       <c r="I109" s="23"/>
@@ -7703,13 +7884,13 @@
       <c r="Q109" s="23"/>
       <c r="R109" s="22"/>
       <c r="S109" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T109" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="U109" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="V109" s="23">
         <v>0</v>
@@ -7717,7 +7898,7 @@
     </row>
     <row r="110" spans="1:22" s="7" customFormat="1">
       <c r="A110" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B110" s="23">
         <v>1</v>
@@ -7733,7 +7914,7 @@
         <v>9</v>
       </c>
       <c r="G110" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H110" s="23"/>
       <c r="I110" s="23"/>
@@ -7759,13 +7940,13 @@
       <c r="Q110" s="23"/>
       <c r="R110" s="22"/>
       <c r="S110" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T110" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="U110" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="V110" s="23">
         <v>0</v>
@@ -7773,7 +7954,7 @@
     </row>
     <row r="111" spans="1:22" s="7" customFormat="1">
       <c r="A111" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B111" s="23">
         <v>1</v>
@@ -7789,7 +7970,7 @@
         <v>10</v>
       </c>
       <c r="G111" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H111" s="23"/>
       <c r="I111" s="23"/>
@@ -7815,13 +7996,13 @@
       <c r="Q111" s="23"/>
       <c r="R111" s="22"/>
       <c r="S111" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T111" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="U111" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="V111" s="23">
         <v>0</v>
@@ -7829,7 +8010,7 @@
     </row>
     <row r="112" spans="1:22" s="6" customFormat="1">
       <c r="A112" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B112" s="22">
         <v>1</v>
@@ -7845,7 +8026,7 @@
         <v>1</v>
       </c>
       <c r="G112" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H112" s="22"/>
       <c r="I112" s="22"/>
@@ -7871,13 +8052,13 @@
       <c r="Q112" s="22"/>
       <c r="R112" s="22"/>
       <c r="S112" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T112" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="U112" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="V112" s="22">
         <v>0</v>
@@ -7885,7 +8066,7 @@
     </row>
     <row r="113" spans="1:22" s="6" customFormat="1">
       <c r="A113" s="22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B113" s="22">
         <v>1</v>
@@ -7901,7 +8082,7 @@
         <v>2</v>
       </c>
       <c r="G113" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H113" s="22"/>
       <c r="I113" s="22"/>
@@ -7927,13 +8108,13 @@
       <c r="Q113" s="22"/>
       <c r="R113" s="22"/>
       <c r="S113" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T113" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="U113" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="V113" s="22">
         <v>0</v>
@@ -7941,7 +8122,7 @@
     </row>
     <row r="114" spans="1:22" s="6" customFormat="1">
       <c r="A114" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B114" s="22">
         <v>1</v>
@@ -7957,7 +8138,7 @@
         <v>3</v>
       </c>
       <c r="G114" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H114" s="22"/>
       <c r="I114" s="22"/>
@@ -7983,13 +8164,13 @@
       <c r="Q114" s="22"/>
       <c r="R114" s="22"/>
       <c r="S114" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T114" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="U114" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="V114" s="22">
         <v>0</v>
@@ -7997,7 +8178,7 @@
     </row>
     <row r="115" spans="1:22" s="6" customFormat="1">
       <c r="A115" s="22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B115" s="22">
         <v>1</v>
@@ -8013,7 +8194,7 @@
         <v>4</v>
       </c>
       <c r="G115" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H115" s="22"/>
       <c r="I115" s="22"/>
@@ -8039,13 +8220,13 @@
       <c r="Q115" s="22"/>
       <c r="R115" s="22"/>
       <c r="S115" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T115" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="U115" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="V115" s="22">
         <v>0</v>
@@ -8053,7 +8234,7 @@
     </row>
     <row r="116" spans="1:22" s="6" customFormat="1">
       <c r="A116" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B116" s="22">
         <v>1</v>
@@ -8069,7 +8250,7 @@
         <v>5</v>
       </c>
       <c r="G116" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H116" s="22"/>
       <c r="I116" s="22"/>
@@ -8095,13 +8276,13 @@
       <c r="Q116" s="22"/>
       <c r="R116" s="22"/>
       <c r="S116" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T116" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="U116" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="V116" s="22">
         <v>0</v>
@@ -8109,7 +8290,7 @@
     </row>
     <row r="117" spans="1:22" s="6" customFormat="1">
       <c r="A117" s="22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B117" s="22">
         <v>1</v>
@@ -8125,7 +8306,7 @@
         <v>6</v>
       </c>
       <c r="G117" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H117" s="22"/>
       <c r="I117" s="22"/>
@@ -8151,13 +8332,13 @@
       <c r="Q117" s="22"/>
       <c r="R117" s="22"/>
       <c r="S117" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T117" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="U117" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="V117" s="22">
         <v>0</v>
@@ -8165,7 +8346,7 @@
     </row>
     <row r="118" spans="1:22" s="6" customFormat="1">
       <c r="A118" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B118" s="22">
         <v>1</v>
@@ -8181,7 +8362,7 @@
         <v>7</v>
       </c>
       <c r="G118" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H118" s="22"/>
       <c r="I118" s="22"/>
@@ -8207,13 +8388,13 @@
       <c r="Q118" s="22"/>
       <c r="R118" s="22"/>
       <c r="S118" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T118" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="U118" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="V118" s="22">
         <v>0</v>
@@ -8221,7 +8402,7 @@
     </row>
     <row r="119" spans="1:22" s="6" customFormat="1">
       <c r="A119" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B119" s="22">
         <v>1</v>
@@ -8237,7 +8418,7 @@
         <v>8</v>
       </c>
       <c r="G119" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H119" s="22"/>
       <c r="I119" s="22"/>
@@ -8263,13 +8444,13 @@
       <c r="Q119" s="22"/>
       <c r="R119" s="22"/>
       <c r="S119" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T119" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="U119" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="V119" s="22">
         <v>0</v>
@@ -8277,7 +8458,7 @@
     </row>
     <row r="120" spans="1:22" s="6" customFormat="1">
       <c r="A120" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B120" s="22">
         <v>1</v>
@@ -8293,7 +8474,7 @@
         <v>9</v>
       </c>
       <c r="G120" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H120" s="22"/>
       <c r="I120" s="22"/>
@@ -8319,13 +8500,13 @@
       <c r="Q120" s="22"/>
       <c r="R120" s="22"/>
       <c r="S120" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T120" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="U120" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="V120" s="22">
         <v>0</v>
@@ -8333,7 +8514,7 @@
     </row>
     <row r="121" spans="1:22" s="6" customFormat="1">
       <c r="A121" s="22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B121" s="22">
         <v>1</v>
@@ -8349,7 +8530,7 @@
         <v>10</v>
       </c>
       <c r="G121" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H121" s="22"/>
       <c r="I121" s="22"/>
@@ -8375,13 +8556,13 @@
       <c r="Q121" s="22"/>
       <c r="R121" s="22"/>
       <c r="S121" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T121" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="U121" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="V121" s="22">
         <v>0</v>
@@ -8389,7 +8570,7 @@
     </row>
     <row r="122" spans="1:22" s="6" customFormat="1">
       <c r="A122" s="22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B122" s="22">
         <v>1</v>
@@ -8405,7 +8586,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H122" s="22"/>
       <c r="I122" s="22"/>
@@ -8431,13 +8612,13 @@
       <c r="Q122" s="22"/>
       <c r="R122" s="22"/>
       <c r="S122" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T122" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="U122" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="V122" s="22">
         <v>0</v>
@@ -8445,7 +8626,7 @@
     </row>
     <row r="123" spans="1:22" s="6" customFormat="1">
       <c r="A123" s="22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B123" s="22">
         <v>1</v>
@@ -8461,7 +8642,7 @@
         <v>2</v>
       </c>
       <c r="G123" s="22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H123" s="22"/>
       <c r="I123" s="22"/>
@@ -8487,13 +8668,13 @@
       <c r="Q123" s="22"/>
       <c r="R123" s="22"/>
       <c r="S123" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T123" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="U123" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="V123" s="22">
         <v>0</v>
@@ -8501,7 +8682,7 @@
     </row>
     <row r="124" spans="1:22" s="6" customFormat="1">
       <c r="A124" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B124" s="22">
         <v>1</v>
@@ -8517,7 +8698,7 @@
         <v>3</v>
       </c>
       <c r="G124" s="22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H124" s="22"/>
       <c r="I124" s="22"/>
@@ -8543,13 +8724,13 @@
       <c r="Q124" s="22"/>
       <c r="R124" s="22"/>
       <c r="S124" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T124" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="U124" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="V124" s="22">
         <v>0</v>
@@ -8557,7 +8738,7 @@
     </row>
     <row r="125" spans="1:22" s="6" customFormat="1">
       <c r="A125" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B125" s="22">
         <v>1</v>
@@ -8573,7 +8754,7 @@
         <v>4</v>
       </c>
       <c r="G125" s="22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H125" s="22"/>
       <c r="I125" s="22"/>
@@ -8599,13 +8780,13 @@
       <c r="Q125" s="22"/>
       <c r="R125" s="22"/>
       <c r="S125" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T125" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="U125" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="V125" s="22">
         <v>0</v>
@@ -8613,7 +8794,7 @@
     </row>
     <row r="126" spans="1:22" s="6" customFormat="1">
       <c r="A126" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B126" s="22">
         <v>1</v>
@@ -8629,7 +8810,7 @@
         <v>5</v>
       </c>
       <c r="G126" s="22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H126" s="22"/>
       <c r="I126" s="22"/>
@@ -8655,13 +8836,13 @@
       <c r="Q126" s="22"/>
       <c r="R126" s="22"/>
       <c r="S126" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T126" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="U126" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="V126" s="22">
         <v>0</v>
@@ -8669,7 +8850,7 @@
     </row>
     <row r="127" spans="1:22" s="6" customFormat="1">
       <c r="A127" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B127" s="22">
         <v>1</v>
@@ -8685,7 +8866,7 @@
         <v>6</v>
       </c>
       <c r="G127" s="22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H127" s="22"/>
       <c r="I127" s="22"/>
@@ -8711,13 +8892,13 @@
       <c r="Q127" s="22"/>
       <c r="R127" s="22"/>
       <c r="S127" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T127" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="U127" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="V127" s="22">
         <v>0</v>
@@ -8725,7 +8906,7 @@
     </row>
     <row r="128" spans="1:22" s="6" customFormat="1">
       <c r="A128" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B128" s="22">
         <v>1</v>
@@ -8741,7 +8922,7 @@
         <v>7</v>
       </c>
       <c r="G128" s="22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H128" s="22"/>
       <c r="I128" s="22"/>
@@ -8767,13 +8948,13 @@
       <c r="Q128" s="22"/>
       <c r="R128" s="22"/>
       <c r="S128" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T128" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="U128" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="V128" s="22">
         <v>0</v>
@@ -8781,7 +8962,7 @@
     </row>
     <row r="129" spans="1:22" s="6" customFormat="1">
       <c r="A129" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B129" s="22">
         <v>1</v>
@@ -8797,7 +8978,7 @@
         <v>8</v>
       </c>
       <c r="G129" s="22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H129" s="22"/>
       <c r="I129" s="22"/>
@@ -8823,13 +9004,13 @@
       <c r="Q129" s="22"/>
       <c r="R129" s="22"/>
       <c r="S129" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T129" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="U129" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="V129" s="22">
         <v>0</v>
@@ -8837,7 +9018,7 @@
     </row>
     <row r="130" spans="1:22" s="6" customFormat="1">
       <c r="A130" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B130" s="22">
         <v>1</v>
@@ -8853,7 +9034,7 @@
         <v>9</v>
       </c>
       <c r="G130" s="22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H130" s="22"/>
       <c r="I130" s="22"/>
@@ -8879,13 +9060,13 @@
       <c r="Q130" s="22"/>
       <c r="R130" s="22"/>
       <c r="S130" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T130" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="U130" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="V130" s="22">
         <v>0</v>
@@ -8893,7 +9074,7 @@
     </row>
     <row r="131" spans="1:22" s="6" customFormat="1">
       <c r="A131" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B131" s="22">
         <v>1</v>
@@ -8909,7 +9090,7 @@
         <v>10</v>
       </c>
       <c r="G131" s="22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H131" s="22"/>
       <c r="I131" s="22"/>
@@ -8935,13 +9116,13 @@
       <c r="Q131" s="22"/>
       <c r="R131" s="22"/>
       <c r="S131" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T131" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="U131" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="V131" s="22">
         <v>0</v>
@@ -8949,7 +9130,7 @@
     </row>
     <row r="132" spans="1:22" s="8" customFormat="1">
       <c r="A132" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B132" s="25">
         <v>3</v>
@@ -8965,7 +9146,7 @@
         <v>0</v>
       </c>
       <c r="G132" s="24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H132" s="25"/>
       <c r="I132" s="25"/>
@@ -8990,16 +9171,16 @@
       </c>
       <c r="Q132" s="25"/>
       <c r="R132" s="30" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="S132" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T132" s="24" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="U132" s="25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V132" s="25">
         <v>0</v>
@@ -9007,7 +9188,7 @@
     </row>
     <row r="133" spans="1:22" s="8" customFormat="1">
       <c r="A133" s="26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B133" s="27">
         <v>3</v>
@@ -9023,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="G133" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
@@ -9048,16 +9229,16 @@
       </c>
       <c r="Q133" s="27"/>
       <c r="R133" s="30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="S133" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T133" s="26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="U133" s="27" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V133" s="27">
         <v>0</v>
@@ -9065,7 +9246,7 @@
     </row>
     <row r="134" spans="1:22" s="8" customFormat="1">
       <c r="A134" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B134" s="25">
         <v>3</v>
@@ -9081,7 +9262,7 @@
         <v>0</v>
       </c>
       <c r="G134" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
@@ -9106,16 +9287,16 @@
       </c>
       <c r="Q134" s="27"/>
       <c r="R134" s="30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="S134" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T134" s="26" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="U134" s="27" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="V134" s="27">
         <v>0</v>
@@ -9123,7 +9304,7 @@
     </row>
     <row r="135" spans="1:22" s="8" customFormat="1">
       <c r="A135" s="26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B135" s="27">
         <v>3</v>
@@ -9139,7 +9320,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
@@ -9164,16 +9345,16 @@
       </c>
       <c r="Q135" s="27"/>
       <c r="R135" s="30" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="S135" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T135" s="26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="U135" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="V135" s="27">
         <v>0</v>
@@ -9181,7 +9362,7 @@
     </row>
     <row r="136" spans="1:22" s="8" customFormat="1">
       <c r="A136" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B136" s="25">
         <v>3</v>
@@ -9197,7 +9378,7 @@
         <v>0</v>
       </c>
       <c r="G136" s="26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
@@ -9222,16 +9403,16 @@
       </c>
       <c r="Q136" s="27"/>
       <c r="R136" s="30" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S136" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T136" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="U136" s="27" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="V136" s="27">
         <v>0</v>
@@ -9239,7 +9420,7 @@
     </row>
     <row r="137" spans="1:22" s="8" customFormat="1">
       <c r="A137" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B137" s="27">
         <v>3</v>
@@ -9255,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
@@ -9280,16 +9461,16 @@
       </c>
       <c r="Q137" s="27"/>
       <c r="R137" s="30" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S137" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T137" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="U137" s="27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="V137" s="27">
         <v>0</v>
@@ -9297,7 +9478,7 @@
     </row>
     <row r="138" spans="1:22" s="8" customFormat="1">
       <c r="A138" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B138" s="27">
         <v>3</v>
@@ -9313,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
@@ -9338,16 +9519,16 @@
       </c>
       <c r="Q138" s="27"/>
       <c r="R138" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S138" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T138" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="U138" s="27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="V138" s="27">
         <v>0</v>
@@ -9355,7 +9536,7 @@
     </row>
     <row r="139" spans="1:22" s="8" customFormat="1">
       <c r="A139" s="26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B139" s="27">
         <v>3</v>
@@ -9371,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="G139" s="26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
@@ -9396,16 +9577,16 @@
       </c>
       <c r="Q139" s="27"/>
       <c r="R139" s="30" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S139" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T139" s="26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="U139" s="27" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="V139" s="27">
         <v>0</v>
@@ -9413,7 +9594,7 @@
     </row>
     <row r="140" spans="1:22" s="8" customFormat="1">
       <c r="A140" s="26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B140" s="27">
         <v>3</v>
@@ -9429,7 +9610,7 @@
         <v>0</v>
       </c>
       <c r="G140" s="26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
@@ -9454,18 +9635,2034 @@
       </c>
       <c r="Q140" s="27"/>
       <c r="R140" s="30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="S140" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T140" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="U140" s="27" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="V140" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" s="34" customFormat="1">
+      <c r="A141" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="B141" s="32">
+        <v>4</v>
+      </c>
+      <c r="C141" s="32">
+        <v>4</v>
+      </c>
+      <c r="D141" s="32">
+        <v>0</v>
+      </c>
+      <c r="E141" s="32"/>
+      <c r="F141" s="32">
+        <v>1</v>
+      </c>
+      <c r="G141" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H141" s="32"/>
+      <c r="I141" s="32"/>
+      <c r="J141" s="32"/>
+      <c r="K141" s="32">
+        <v>20</v>
+      </c>
+      <c r="L141" s="32">
+        <v>0</v>
+      </c>
+      <c r="M141" s="32">
+        <v>1</v>
+      </c>
+      <c r="N141" s="32">
+        <v>0</v>
+      </c>
+      <c r="O141" s="32">
+        <v>20</v>
+      </c>
+      <c r="P141" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q141" s="32"/>
+      <c r="R141" s="32"/>
+      <c r="S141" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T141" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U141" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V141" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" s="34" customFormat="1">
+      <c r="A142" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="B142" s="32">
+        <v>4</v>
+      </c>
+      <c r="C142" s="32">
+        <v>4</v>
+      </c>
+      <c r="D142" s="32">
+        <v>0</v>
+      </c>
+      <c r="E142" s="32"/>
+      <c r="F142" s="32">
+        <v>2</v>
+      </c>
+      <c r="G142" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H142" s="32"/>
+      <c r="I142" s="32"/>
+      <c r="J142" s="32"/>
+      <c r="K142" s="32">
+        <v>50</v>
+      </c>
+      <c r="L142" s="32">
+        <v>0</v>
+      </c>
+      <c r="M142" s="32">
+        <v>1</v>
+      </c>
+      <c r="N142" s="32">
+        <v>0</v>
+      </c>
+      <c r="O142" s="32">
+        <v>50</v>
+      </c>
+      <c r="P142" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q142" s="32"/>
+      <c r="R142" s="32"/>
+      <c r="S142" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T142" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U142" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V142" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" s="34" customFormat="1">
+      <c r="A143" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="B143" s="32">
+        <v>4</v>
+      </c>
+      <c r="C143" s="32">
+        <v>4</v>
+      </c>
+      <c r="D143" s="32">
+        <v>0</v>
+      </c>
+      <c r="E143" s="32"/>
+      <c r="F143" s="32">
+        <v>3</v>
+      </c>
+      <c r="G143" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H143" s="32"/>
+      <c r="I143" s="32"/>
+      <c r="J143" s="32"/>
+      <c r="K143" s="32">
+        <v>90</v>
+      </c>
+      <c r="L143" s="32">
+        <v>0</v>
+      </c>
+      <c r="M143" s="32">
+        <v>1</v>
+      </c>
+      <c r="N143" s="32">
+        <v>0</v>
+      </c>
+      <c r="O143" s="32">
+        <v>90</v>
+      </c>
+      <c r="P143" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q143" s="32"/>
+      <c r="R143" s="32"/>
+      <c r="S143" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T143" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U143" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V143" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" s="34" customFormat="1">
+      <c r="A144" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="B144" s="32">
+        <v>4</v>
+      </c>
+      <c r="C144" s="32">
+        <v>4</v>
+      </c>
+      <c r="D144" s="32">
+        <v>0</v>
+      </c>
+      <c r="E144" s="32"/>
+      <c r="F144" s="32">
+        <v>4</v>
+      </c>
+      <c r="G144" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H144" s="32"/>
+      <c r="I144" s="32"/>
+      <c r="J144" s="32"/>
+      <c r="K144" s="32">
+        <v>140</v>
+      </c>
+      <c r="L144" s="32">
+        <v>0</v>
+      </c>
+      <c r="M144" s="32">
+        <v>1</v>
+      </c>
+      <c r="N144" s="32">
+        <v>0</v>
+      </c>
+      <c r="O144" s="32">
+        <v>140</v>
+      </c>
+      <c r="P144" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q144" s="32"/>
+      <c r="R144" s="32"/>
+      <c r="S144" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T144" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U144" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V144" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" s="34" customFormat="1">
+      <c r="A145" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="B145" s="32">
+        <v>4</v>
+      </c>
+      <c r="C145" s="32">
+        <v>4</v>
+      </c>
+      <c r="D145" s="32">
+        <v>0</v>
+      </c>
+      <c r="E145" s="32"/>
+      <c r="F145" s="32">
+        <v>5</v>
+      </c>
+      <c r="G145" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H145" s="32"/>
+      <c r="I145" s="32"/>
+      <c r="J145" s="32"/>
+      <c r="K145" s="32">
+        <v>200</v>
+      </c>
+      <c r="L145" s="32">
+        <v>0</v>
+      </c>
+      <c r="M145" s="32">
+        <v>1</v>
+      </c>
+      <c r="N145" s="32">
+        <v>0</v>
+      </c>
+      <c r="O145" s="32">
+        <v>200</v>
+      </c>
+      <c r="P145" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q145" s="32"/>
+      <c r="R145" s="32"/>
+      <c r="S145" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T145" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U145" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V145" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" s="34" customFormat="1">
+      <c r="A146" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="B146" s="32">
+        <v>4</v>
+      </c>
+      <c r="C146" s="32">
+        <v>4</v>
+      </c>
+      <c r="D146" s="32">
+        <v>0</v>
+      </c>
+      <c r="E146" s="32"/>
+      <c r="F146" s="32">
+        <v>6</v>
+      </c>
+      <c r="G146" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H146" s="32"/>
+      <c r="I146" s="32"/>
+      <c r="J146" s="32"/>
+      <c r="K146" s="32">
+        <v>270</v>
+      </c>
+      <c r="L146" s="32">
+        <v>0</v>
+      </c>
+      <c r="M146" s="32">
+        <v>1</v>
+      </c>
+      <c r="N146" s="32">
+        <v>0</v>
+      </c>
+      <c r="O146" s="32">
+        <v>270</v>
+      </c>
+      <c r="P146" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q146" s="32"/>
+      <c r="R146" s="32"/>
+      <c r="S146" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T146" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U146" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V146" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" s="34" customFormat="1">
+      <c r="A147" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="B147" s="32">
+        <v>4</v>
+      </c>
+      <c r="C147" s="32">
+        <v>4</v>
+      </c>
+      <c r="D147" s="32">
+        <v>0</v>
+      </c>
+      <c r="E147" s="32"/>
+      <c r="F147" s="32">
+        <v>7</v>
+      </c>
+      <c r="G147" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H147" s="32"/>
+      <c r="I147" s="32"/>
+      <c r="J147" s="32"/>
+      <c r="K147" s="32">
+        <v>350</v>
+      </c>
+      <c r="L147" s="32">
+        <v>0</v>
+      </c>
+      <c r="M147" s="32">
+        <v>1</v>
+      </c>
+      <c r="N147" s="32">
+        <v>0</v>
+      </c>
+      <c r="O147" s="32">
+        <v>350</v>
+      </c>
+      <c r="P147" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q147" s="32"/>
+      <c r="R147" s="32"/>
+      <c r="S147" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T147" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U147" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V147" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" s="34" customFormat="1">
+      <c r="A148" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="B148" s="32">
+        <v>4</v>
+      </c>
+      <c r="C148" s="32">
+        <v>4</v>
+      </c>
+      <c r="D148" s="32">
+        <v>0</v>
+      </c>
+      <c r="E148" s="32"/>
+      <c r="F148" s="32">
+        <v>1</v>
+      </c>
+      <c r="G148" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H148" s="32"/>
+      <c r="I148" s="32"/>
+      <c r="J148" s="32"/>
+      <c r="K148" s="32">
+        <v>20</v>
+      </c>
+      <c r="L148" s="32">
+        <v>0</v>
+      </c>
+      <c r="M148" s="32">
+        <v>1</v>
+      </c>
+      <c r="N148" s="32">
+        <v>0</v>
+      </c>
+      <c r="O148" s="32">
+        <v>20</v>
+      </c>
+      <c r="P148" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q148" s="32"/>
+      <c r="R148" s="32"/>
+      <c r="S148" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T148" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U148" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V148" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" s="34" customFormat="1">
+      <c r="A149" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="B149" s="32">
+        <v>4</v>
+      </c>
+      <c r="C149" s="32">
+        <v>4</v>
+      </c>
+      <c r="D149" s="32">
+        <v>0</v>
+      </c>
+      <c r="E149" s="32"/>
+      <c r="F149" s="32">
+        <v>2</v>
+      </c>
+      <c r="G149" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H149" s="32"/>
+      <c r="I149" s="32"/>
+      <c r="J149" s="32"/>
+      <c r="K149" s="32">
+        <v>50</v>
+      </c>
+      <c r="L149" s="32">
+        <v>0</v>
+      </c>
+      <c r="M149" s="32">
+        <v>1</v>
+      </c>
+      <c r="N149" s="32">
+        <v>0</v>
+      </c>
+      <c r="O149" s="32">
+        <v>50</v>
+      </c>
+      <c r="P149" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q149" s="32"/>
+      <c r="R149" s="32"/>
+      <c r="S149" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T149" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U149" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V149" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" s="34" customFormat="1">
+      <c r="A150" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="B150" s="32">
+        <v>4</v>
+      </c>
+      <c r="C150" s="32">
+        <v>4</v>
+      </c>
+      <c r="D150" s="32">
+        <v>0</v>
+      </c>
+      <c r="E150" s="32"/>
+      <c r="F150" s="32">
+        <v>3</v>
+      </c>
+      <c r="G150" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H150" s="32"/>
+      <c r="I150" s="32"/>
+      <c r="J150" s="32"/>
+      <c r="K150" s="32">
+        <v>90</v>
+      </c>
+      <c r="L150" s="32">
+        <v>0</v>
+      </c>
+      <c r="M150" s="32">
+        <v>1</v>
+      </c>
+      <c r="N150" s="32">
+        <v>0</v>
+      </c>
+      <c r="O150" s="32">
+        <v>90</v>
+      </c>
+      <c r="P150" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q150" s="32"/>
+      <c r="R150" s="32"/>
+      <c r="S150" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T150" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U150" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V150" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" s="34" customFormat="1">
+      <c r="A151" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="B151" s="32">
+        <v>4</v>
+      </c>
+      <c r="C151" s="32">
+        <v>4</v>
+      </c>
+      <c r="D151" s="32">
+        <v>0</v>
+      </c>
+      <c r="E151" s="32"/>
+      <c r="F151" s="32">
+        <v>4</v>
+      </c>
+      <c r="G151" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H151" s="32"/>
+      <c r="I151" s="32"/>
+      <c r="J151" s="32"/>
+      <c r="K151" s="32">
+        <v>140</v>
+      </c>
+      <c r="L151" s="32">
+        <v>0</v>
+      </c>
+      <c r="M151" s="32">
+        <v>1</v>
+      </c>
+      <c r="N151" s="32">
+        <v>0</v>
+      </c>
+      <c r="O151" s="32">
+        <v>140</v>
+      </c>
+      <c r="P151" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q151" s="32"/>
+      <c r="R151" s="32"/>
+      <c r="S151" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T151" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U151" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V151" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" s="34" customFormat="1">
+      <c r="A152" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="B152" s="32">
+        <v>4</v>
+      </c>
+      <c r="C152" s="32">
+        <v>4</v>
+      </c>
+      <c r="D152" s="32">
+        <v>0</v>
+      </c>
+      <c r="E152" s="32"/>
+      <c r="F152" s="32">
+        <v>5</v>
+      </c>
+      <c r="G152" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H152" s="32"/>
+      <c r="I152" s="32"/>
+      <c r="J152" s="32"/>
+      <c r="K152" s="32">
+        <v>200</v>
+      </c>
+      <c r="L152" s="32">
+        <v>0</v>
+      </c>
+      <c r="M152" s="32">
+        <v>1</v>
+      </c>
+      <c r="N152" s="32">
+        <v>0</v>
+      </c>
+      <c r="O152" s="32">
+        <v>200</v>
+      </c>
+      <c r="P152" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q152" s="32"/>
+      <c r="R152" s="32"/>
+      <c r="S152" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T152" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U152" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V152" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" s="34" customFormat="1">
+      <c r="A153" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="B153" s="32">
+        <v>4</v>
+      </c>
+      <c r="C153" s="32">
+        <v>4</v>
+      </c>
+      <c r="D153" s="32">
+        <v>0</v>
+      </c>
+      <c r="E153" s="32"/>
+      <c r="F153" s="32">
+        <v>6</v>
+      </c>
+      <c r="G153" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H153" s="32"/>
+      <c r="I153" s="32"/>
+      <c r="J153" s="32"/>
+      <c r="K153" s="32">
+        <v>270</v>
+      </c>
+      <c r="L153" s="32">
+        <v>0</v>
+      </c>
+      <c r="M153" s="32">
+        <v>1</v>
+      </c>
+      <c r="N153" s="32">
+        <v>0</v>
+      </c>
+      <c r="O153" s="32">
+        <v>270</v>
+      </c>
+      <c r="P153" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q153" s="32"/>
+      <c r="R153" s="32"/>
+      <c r="S153" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T153" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U153" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V153" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" s="34" customFormat="1">
+      <c r="A154" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="B154" s="32">
+        <v>4</v>
+      </c>
+      <c r="C154" s="32">
+        <v>4</v>
+      </c>
+      <c r="D154" s="32">
+        <v>0</v>
+      </c>
+      <c r="E154" s="32"/>
+      <c r="F154" s="32">
+        <v>7</v>
+      </c>
+      <c r="G154" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H154" s="32"/>
+      <c r="I154" s="32"/>
+      <c r="J154" s="32"/>
+      <c r="K154" s="32">
+        <v>350</v>
+      </c>
+      <c r="L154" s="32">
+        <v>0</v>
+      </c>
+      <c r="M154" s="32">
+        <v>1</v>
+      </c>
+      <c r="N154" s="32">
+        <v>0</v>
+      </c>
+      <c r="O154" s="32">
+        <v>350</v>
+      </c>
+      <c r="P154" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q154" s="32"/>
+      <c r="R154" s="32"/>
+      <c r="S154" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T154" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U154" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V154" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" s="34" customFormat="1">
+      <c r="A155" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="B155" s="32">
+        <v>4</v>
+      </c>
+      <c r="C155" s="32">
+        <v>4</v>
+      </c>
+      <c r="D155" s="32">
+        <v>0</v>
+      </c>
+      <c r="E155" s="32"/>
+      <c r="F155" s="32">
+        <v>1</v>
+      </c>
+      <c r="G155" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H155" s="32"/>
+      <c r="I155" s="32"/>
+      <c r="J155" s="32"/>
+      <c r="K155" s="32">
+        <v>20</v>
+      </c>
+      <c r="L155" s="32">
+        <v>0</v>
+      </c>
+      <c r="M155" s="32">
+        <v>1</v>
+      </c>
+      <c r="N155" s="32">
+        <v>0</v>
+      </c>
+      <c r="O155" s="32">
+        <v>20</v>
+      </c>
+      <c r="P155" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q155" s="32"/>
+      <c r="R155" s="32"/>
+      <c r="S155" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T155" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U155" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V155" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" s="34" customFormat="1">
+      <c r="A156" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="B156" s="32">
+        <v>4</v>
+      </c>
+      <c r="C156" s="32">
+        <v>4</v>
+      </c>
+      <c r="D156" s="32">
+        <v>0</v>
+      </c>
+      <c r="E156" s="32"/>
+      <c r="F156" s="32">
+        <v>2</v>
+      </c>
+      <c r="G156" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H156" s="32"/>
+      <c r="I156" s="32"/>
+      <c r="J156" s="32"/>
+      <c r="K156" s="32">
+        <v>50</v>
+      </c>
+      <c r="L156" s="32">
+        <v>0</v>
+      </c>
+      <c r="M156" s="32">
+        <v>1</v>
+      </c>
+      <c r="N156" s="32">
+        <v>0</v>
+      </c>
+      <c r="O156" s="32">
+        <v>50</v>
+      </c>
+      <c r="P156" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q156" s="32"/>
+      <c r="R156" s="32"/>
+      <c r="S156" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T156" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U156" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V156" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" s="34" customFormat="1">
+      <c r="A157" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="B157" s="32">
+        <v>4</v>
+      </c>
+      <c r="C157" s="32">
+        <v>4</v>
+      </c>
+      <c r="D157" s="32">
+        <v>0</v>
+      </c>
+      <c r="E157" s="32"/>
+      <c r="F157" s="32">
+        <v>3</v>
+      </c>
+      <c r="G157" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H157" s="32"/>
+      <c r="I157" s="32"/>
+      <c r="J157" s="32"/>
+      <c r="K157" s="32">
+        <v>90</v>
+      </c>
+      <c r="L157" s="32">
+        <v>0</v>
+      </c>
+      <c r="M157" s="32">
+        <v>1</v>
+      </c>
+      <c r="N157" s="32">
+        <v>0</v>
+      </c>
+      <c r="O157" s="32">
+        <v>90</v>
+      </c>
+      <c r="P157" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q157" s="32"/>
+      <c r="R157" s="32"/>
+      <c r="S157" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T157" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U157" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V157" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" s="34" customFormat="1">
+      <c r="A158" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="B158" s="32">
+        <v>4</v>
+      </c>
+      <c r="C158" s="32">
+        <v>4</v>
+      </c>
+      <c r="D158" s="32">
+        <v>0</v>
+      </c>
+      <c r="E158" s="32"/>
+      <c r="F158" s="32">
+        <v>4</v>
+      </c>
+      <c r="G158" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H158" s="32"/>
+      <c r="I158" s="32"/>
+      <c r="J158" s="32"/>
+      <c r="K158" s="32">
+        <v>140</v>
+      </c>
+      <c r="L158" s="32">
+        <v>0</v>
+      </c>
+      <c r="M158" s="32">
+        <v>1</v>
+      </c>
+      <c r="N158" s="32">
+        <v>0</v>
+      </c>
+      <c r="O158" s="32">
+        <v>140</v>
+      </c>
+      <c r="P158" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q158" s="32"/>
+      <c r="R158" s="32"/>
+      <c r="S158" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T158" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U158" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V158" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" s="34" customFormat="1">
+      <c r="A159" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="B159" s="32">
+        <v>4</v>
+      </c>
+      <c r="C159" s="32">
+        <v>4</v>
+      </c>
+      <c r="D159" s="32">
+        <v>0</v>
+      </c>
+      <c r="E159" s="32"/>
+      <c r="F159" s="32">
+        <v>5</v>
+      </c>
+      <c r="G159" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H159" s="32"/>
+      <c r="I159" s="32"/>
+      <c r="J159" s="32"/>
+      <c r="K159" s="32">
+        <v>200</v>
+      </c>
+      <c r="L159" s="32">
+        <v>0</v>
+      </c>
+      <c r="M159" s="32">
+        <v>1</v>
+      </c>
+      <c r="N159" s="32">
+        <v>0</v>
+      </c>
+      <c r="O159" s="32">
+        <v>200</v>
+      </c>
+      <c r="P159" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q159" s="32"/>
+      <c r="R159" s="32"/>
+      <c r="S159" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T159" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U159" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V159" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" s="34" customFormat="1">
+      <c r="A160" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="B160" s="32">
+        <v>4</v>
+      </c>
+      <c r="C160" s="32">
+        <v>4</v>
+      </c>
+      <c r="D160" s="32">
+        <v>0</v>
+      </c>
+      <c r="E160" s="32"/>
+      <c r="F160" s="32">
+        <v>6</v>
+      </c>
+      <c r="G160" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H160" s="32"/>
+      <c r="I160" s="32"/>
+      <c r="J160" s="32"/>
+      <c r="K160" s="32">
+        <v>270</v>
+      </c>
+      <c r="L160" s="32">
+        <v>0</v>
+      </c>
+      <c r="M160" s="32">
+        <v>1</v>
+      </c>
+      <c r="N160" s="32">
+        <v>0</v>
+      </c>
+      <c r="O160" s="32">
+        <v>270</v>
+      </c>
+      <c r="P160" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q160" s="32"/>
+      <c r="R160" s="32"/>
+      <c r="S160" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T160" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U160" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V160" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" s="34" customFormat="1">
+      <c r="A161" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="B161" s="32">
+        <v>4</v>
+      </c>
+      <c r="C161" s="32">
+        <v>4</v>
+      </c>
+      <c r="D161" s="32">
+        <v>0</v>
+      </c>
+      <c r="E161" s="32"/>
+      <c r="F161" s="32">
+        <v>7</v>
+      </c>
+      <c r="G161" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H161" s="32"/>
+      <c r="I161" s="32"/>
+      <c r="J161" s="32"/>
+      <c r="K161" s="32">
+        <v>350</v>
+      </c>
+      <c r="L161" s="32">
+        <v>0</v>
+      </c>
+      <c r="M161" s="32">
+        <v>1</v>
+      </c>
+      <c r="N161" s="32">
+        <v>0</v>
+      </c>
+      <c r="O161" s="32">
+        <v>350</v>
+      </c>
+      <c r="P161" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q161" s="32"/>
+      <c r="R161" s="32"/>
+      <c r="S161" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T161" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U161" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V161" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" s="36" customFormat="1">
+      <c r="A162" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="B162" s="32">
+        <v>4</v>
+      </c>
+      <c r="C162" s="32">
+        <v>4</v>
+      </c>
+      <c r="D162" s="32">
+        <v>0</v>
+      </c>
+      <c r="E162" s="32"/>
+      <c r="F162" s="32">
+        <v>7</v>
+      </c>
+      <c r="G162" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H162" s="32"/>
+      <c r="I162" s="32"/>
+      <c r="J162" s="32"/>
+      <c r="K162" s="32">
+        <v>350</v>
+      </c>
+      <c r="L162" s="32">
+        <v>0</v>
+      </c>
+      <c r="M162" s="32">
+        <v>1</v>
+      </c>
+      <c r="N162" s="32">
+        <v>0</v>
+      </c>
+      <c r="O162" s="32">
+        <v>350</v>
+      </c>
+      <c r="P162" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q162" s="32"/>
+      <c r="R162" s="32"/>
+      <c r="S162" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T162" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U162" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V162" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" s="36" customFormat="1">
+      <c r="A163" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="B163" s="32">
+        <v>4</v>
+      </c>
+      <c r="C163" s="32">
+        <v>4</v>
+      </c>
+      <c r="D163" s="32">
+        <v>0</v>
+      </c>
+      <c r="E163" s="32"/>
+      <c r="F163" s="32">
+        <v>7</v>
+      </c>
+      <c r="G163" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H163" s="32"/>
+      <c r="I163" s="32"/>
+      <c r="J163" s="32"/>
+      <c r="K163" s="32">
+        <v>350</v>
+      </c>
+      <c r="L163" s="32">
+        <v>0</v>
+      </c>
+      <c r="M163" s="32">
+        <v>1</v>
+      </c>
+      <c r="N163" s="32">
+        <v>0</v>
+      </c>
+      <c r="O163" s="32">
+        <v>350</v>
+      </c>
+      <c r="P163" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q163" s="32"/>
+      <c r="R163" s="32"/>
+      <c r="S163" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T163" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U163" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V163" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" s="36" customFormat="1">
+      <c r="A164" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="B164" s="32">
+        <v>4</v>
+      </c>
+      <c r="C164" s="32">
+        <v>4</v>
+      </c>
+      <c r="D164" s="32">
+        <v>0</v>
+      </c>
+      <c r="E164" s="32"/>
+      <c r="F164" s="32">
+        <v>7</v>
+      </c>
+      <c r="G164" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H164" s="32"/>
+      <c r="I164" s="32"/>
+      <c r="J164" s="32"/>
+      <c r="K164" s="32">
+        <v>350</v>
+      </c>
+      <c r="L164" s="32">
+        <v>0</v>
+      </c>
+      <c r="M164" s="32">
+        <v>1</v>
+      </c>
+      <c r="N164" s="32">
+        <v>0</v>
+      </c>
+      <c r="O164" s="32">
+        <v>350</v>
+      </c>
+      <c r="P164" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q164" s="32"/>
+      <c r="R164" s="32"/>
+      <c r="S164" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T164" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U164" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V164" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" s="36" customFormat="1">
+      <c r="A165" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="B165" s="32">
+        <v>4</v>
+      </c>
+      <c r="C165" s="32">
+        <v>4</v>
+      </c>
+      <c r="D165" s="32">
+        <v>0</v>
+      </c>
+      <c r="E165" s="32"/>
+      <c r="F165" s="32">
+        <v>7</v>
+      </c>
+      <c r="G165" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H165" s="32"/>
+      <c r="I165" s="32"/>
+      <c r="J165" s="32"/>
+      <c r="K165" s="32">
+        <v>350</v>
+      </c>
+      <c r="L165" s="32">
+        <v>0</v>
+      </c>
+      <c r="M165" s="32">
+        <v>1</v>
+      </c>
+      <c r="N165" s="32">
+        <v>0</v>
+      </c>
+      <c r="O165" s="32">
+        <v>350</v>
+      </c>
+      <c r="P165" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q165" s="32"/>
+      <c r="R165" s="32"/>
+      <c r="S165" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T165" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U165" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V165" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" s="36" customFormat="1">
+      <c r="A166" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="B166" s="32">
+        <v>4</v>
+      </c>
+      <c r="C166" s="32">
+        <v>4</v>
+      </c>
+      <c r="D166" s="32">
+        <v>0</v>
+      </c>
+      <c r="E166" s="32"/>
+      <c r="F166" s="32">
+        <v>7</v>
+      </c>
+      <c r="G166" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H166" s="32"/>
+      <c r="I166" s="32"/>
+      <c r="J166" s="32"/>
+      <c r="K166" s="32">
+        <v>350</v>
+      </c>
+      <c r="L166" s="32">
+        <v>0</v>
+      </c>
+      <c r="M166" s="32">
+        <v>1</v>
+      </c>
+      <c r="N166" s="32">
+        <v>0</v>
+      </c>
+      <c r="O166" s="32">
+        <v>350</v>
+      </c>
+      <c r="P166" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q166" s="32"/>
+      <c r="R166" s="32"/>
+      <c r="S166" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T166" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U166" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V166" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" s="36" customFormat="1">
+      <c r="A167" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="B167" s="32">
+        <v>4</v>
+      </c>
+      <c r="C167" s="32">
+        <v>4</v>
+      </c>
+      <c r="D167" s="32">
+        <v>0</v>
+      </c>
+      <c r="E167" s="32"/>
+      <c r="F167" s="32">
+        <v>7</v>
+      </c>
+      <c r="G167" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H167" s="32"/>
+      <c r="I167" s="32"/>
+      <c r="J167" s="32"/>
+      <c r="K167" s="32">
+        <v>350</v>
+      </c>
+      <c r="L167" s="32">
+        <v>0</v>
+      </c>
+      <c r="M167" s="32">
+        <v>1</v>
+      </c>
+      <c r="N167" s="32">
+        <v>0</v>
+      </c>
+      <c r="O167" s="32">
+        <v>350</v>
+      </c>
+      <c r="P167" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q167" s="32"/>
+      <c r="R167" s="32"/>
+      <c r="S167" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T167" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U167" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V167" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" s="36" customFormat="1">
+      <c r="A168" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="B168" s="32">
+        <v>4</v>
+      </c>
+      <c r="C168" s="32">
+        <v>4</v>
+      </c>
+      <c r="D168" s="32">
+        <v>0</v>
+      </c>
+      <c r="E168" s="32"/>
+      <c r="F168" s="32">
+        <v>7</v>
+      </c>
+      <c r="G168" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H168" s="32"/>
+      <c r="I168" s="32"/>
+      <c r="J168" s="32"/>
+      <c r="K168" s="32">
+        <v>350</v>
+      </c>
+      <c r="L168" s="32">
+        <v>0</v>
+      </c>
+      <c r="M168" s="32">
+        <v>1</v>
+      </c>
+      <c r="N168" s="32">
+        <v>0</v>
+      </c>
+      <c r="O168" s="32">
+        <v>350</v>
+      </c>
+      <c r="P168" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q168" s="32"/>
+      <c r="R168" s="32"/>
+      <c r="S168" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T168" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U168" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V168" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" s="36" customFormat="1">
+      <c r="A169" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="B169" s="32">
+        <v>4</v>
+      </c>
+      <c r="C169" s="32">
+        <v>4</v>
+      </c>
+      <c r="D169" s="32">
+        <v>0</v>
+      </c>
+      <c r="E169" s="32"/>
+      <c r="F169" s="32">
+        <v>7</v>
+      </c>
+      <c r="G169" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H169" s="32"/>
+      <c r="I169" s="32"/>
+      <c r="J169" s="32"/>
+      <c r="K169" s="32">
+        <v>350</v>
+      </c>
+      <c r="L169" s="32">
+        <v>0</v>
+      </c>
+      <c r="M169" s="32">
+        <v>1</v>
+      </c>
+      <c r="N169" s="32">
+        <v>0</v>
+      </c>
+      <c r="O169" s="32">
+        <v>350</v>
+      </c>
+      <c r="P169" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q169" s="32"/>
+      <c r="R169" s="32"/>
+      <c r="S169" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T169" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U169" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V169" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" s="36" customFormat="1">
+      <c r="A170" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="B170" s="32">
+        <v>4</v>
+      </c>
+      <c r="C170" s="32">
+        <v>4</v>
+      </c>
+      <c r="D170" s="32">
+        <v>0</v>
+      </c>
+      <c r="E170" s="32"/>
+      <c r="F170" s="32">
+        <v>7</v>
+      </c>
+      <c r="G170" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H170" s="32"/>
+      <c r="I170" s="32"/>
+      <c r="J170" s="32"/>
+      <c r="K170" s="32">
+        <v>350</v>
+      </c>
+      <c r="L170" s="32">
+        <v>0</v>
+      </c>
+      <c r="M170" s="32">
+        <v>1</v>
+      </c>
+      <c r="N170" s="32">
+        <v>0</v>
+      </c>
+      <c r="O170" s="32">
+        <v>350</v>
+      </c>
+      <c r="P170" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q170" s="32"/>
+      <c r="R170" s="32"/>
+      <c r="S170" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T170" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U170" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V170" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" s="36" customFormat="1">
+      <c r="A171" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="B171" s="32">
+        <v>4</v>
+      </c>
+      <c r="C171" s="32">
+        <v>4</v>
+      </c>
+      <c r="D171" s="32">
+        <v>0</v>
+      </c>
+      <c r="E171" s="32"/>
+      <c r="F171" s="32">
+        <v>7</v>
+      </c>
+      <c r="G171" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H171" s="32"/>
+      <c r="I171" s="32"/>
+      <c r="J171" s="32"/>
+      <c r="K171" s="32">
+        <v>350</v>
+      </c>
+      <c r="L171" s="32">
+        <v>0</v>
+      </c>
+      <c r="M171" s="32">
+        <v>1</v>
+      </c>
+      <c r="N171" s="32">
+        <v>0</v>
+      </c>
+      <c r="O171" s="32">
+        <v>350</v>
+      </c>
+      <c r="P171" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q171" s="32"/>
+      <c r="R171" s="32"/>
+      <c r="S171" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T171" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U171" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V171" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" s="36" customFormat="1">
+      <c r="A172" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="B172" s="32">
+        <v>4</v>
+      </c>
+      <c r="C172" s="32">
+        <v>4</v>
+      </c>
+      <c r="D172" s="32">
+        <v>0</v>
+      </c>
+      <c r="E172" s="32"/>
+      <c r="F172" s="32">
+        <v>7</v>
+      </c>
+      <c r="G172" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H172" s="32"/>
+      <c r="I172" s="32"/>
+      <c r="J172" s="32"/>
+      <c r="K172" s="32">
+        <v>350</v>
+      </c>
+      <c r="L172" s="32">
+        <v>0</v>
+      </c>
+      <c r="M172" s="32">
+        <v>1</v>
+      </c>
+      <c r="N172" s="32">
+        <v>0</v>
+      </c>
+      <c r="O172" s="32">
+        <v>350</v>
+      </c>
+      <c r="P172" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q172" s="32"/>
+      <c r="R172" s="32"/>
+      <c r="S172" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T172" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U172" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V172" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" s="36" customFormat="1" ht="14.65" thickBot="1">
+      <c r="A173" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="B173" s="32">
+        <v>4</v>
+      </c>
+      <c r="C173" s="32">
+        <v>4</v>
+      </c>
+      <c r="D173" s="32">
+        <v>0</v>
+      </c>
+      <c r="E173" s="32"/>
+      <c r="F173" s="32">
+        <v>7</v>
+      </c>
+      <c r="G173" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H173" s="32"/>
+      <c r="I173" s="32"/>
+      <c r="J173" s="32"/>
+      <c r="K173" s="32">
+        <v>350</v>
+      </c>
+      <c r="L173" s="32">
+        <v>0</v>
+      </c>
+      <c r="M173" s="32">
+        <v>1</v>
+      </c>
+      <c r="N173" s="32">
+        <v>0</v>
+      </c>
+      <c r="O173" s="32">
+        <v>350</v>
+      </c>
+      <c r="P173" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q173" s="32"/>
+      <c r="R173" s="32"/>
+      <c r="S173" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T173" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U173" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V173" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" s="36" customFormat="1">
+      <c r="A174" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="B174" s="32">
+        <v>4</v>
+      </c>
+      <c r="C174" s="32">
+        <v>4</v>
+      </c>
+      <c r="D174" s="32">
+        <v>0</v>
+      </c>
+      <c r="E174" s="32"/>
+      <c r="F174" s="32">
+        <v>7</v>
+      </c>
+      <c r="G174" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H174" s="32"/>
+      <c r="I174" s="32"/>
+      <c r="J174" s="32"/>
+      <c r="K174" s="32">
+        <v>350</v>
+      </c>
+      <c r="L174" s="32">
+        <v>0</v>
+      </c>
+      <c r="M174" s="32">
+        <v>1</v>
+      </c>
+      <c r="N174" s="32">
+        <v>0</v>
+      </c>
+      <c r="O174" s="32">
+        <v>350</v>
+      </c>
+      <c r="P174" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q174" s="32"/>
+      <c r="R174" s="32"/>
+      <c r="S174" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T174" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U174" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V174" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" s="36" customFormat="1">
+      <c r="A175" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="B175" s="32">
+        <v>4</v>
+      </c>
+      <c r="C175" s="32">
+        <v>4</v>
+      </c>
+      <c r="D175" s="32">
+        <v>0</v>
+      </c>
+      <c r="E175" s="32"/>
+      <c r="F175" s="32">
+        <v>7</v>
+      </c>
+      <c r="G175" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H175" s="32"/>
+      <c r="I175" s="32"/>
+      <c r="J175" s="32"/>
+      <c r="K175" s="32">
+        <v>350</v>
+      </c>
+      <c r="L175" s="32">
+        <v>0</v>
+      </c>
+      <c r="M175" s="32">
+        <v>1</v>
+      </c>
+      <c r="N175" s="32">
+        <v>0</v>
+      </c>
+      <c r="O175" s="32">
+        <v>350</v>
+      </c>
+      <c r="P175" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q175" s="32"/>
+      <c r="R175" s="32"/>
+      <c r="S175" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T175" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U175" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V175" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" s="36" customFormat="1" ht="14.65" thickBot="1">
+      <c r="A176" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="B176" s="32">
+        <v>4</v>
+      </c>
+      <c r="C176" s="32">
+        <v>4</v>
+      </c>
+      <c r="D176" s="32">
+        <v>0</v>
+      </c>
+      <c r="E176" s="32"/>
+      <c r="F176" s="32">
+        <v>7</v>
+      </c>
+      <c r="G176" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H176" s="32"/>
+      <c r="I176" s="32"/>
+      <c r="J176" s="32"/>
+      <c r="K176" s="32">
+        <v>350</v>
+      </c>
+      <c r="L176" s="32">
+        <v>0</v>
+      </c>
+      <c r="M176" s="32">
+        <v>1</v>
+      </c>
+      <c r="N176" s="32">
+        <v>0</v>
+      </c>
+      <c r="O176" s="32">
+        <v>350</v>
+      </c>
+      <c r="P176" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q176" s="32"/>
+      <c r="R176" s="32"/>
+      <c r="S176" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="T176" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="U176" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="V176" s="32">
         <v>0</v>
       </c>
     </row>
@@ -9477,6 +11674,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/_Out/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Item.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="477">
   <si>
     <t>Id</t>
   </si>
@@ -1029,6 +1029,438 @@
   </si>
   <si>
     <t>Item_HOLY_WATER_1,11;Item_HOLY_WATER_2,22;Item_HOLY_WATER_3,33;Item_HOLY_WATER_4,44;Item_HOLY_WATER_5,55;Item_MP1,11;Item_MP2,22;Item_MP3,33;Item_MP4,44;Item_MP5,55;Item_GEM_ATK_1,11;Item_GEM_ATK_2,22;Item_GEM_ATK_3,33;Item_GEM_ATK_4,44;Item_GEM_DEF_1,11;Item_GEM_DEF_2,22;Item_GEM_DEF_3,33;Item_GEM_DEF_4,44;Item_GEM_DEF_5,55;Item_GEM_FIRE_1,11;Item_GEM_FIRE_2,22;Item_GEM_FIRE_3,33;Item_GEM_WIND_1,11;Item_GEM_WIND_2,22;Item_GEM_WIND_3,33;Item_HeroCard_Abaddon,88;Item_HeroCard_Beastmaster,99;Item_HeroCard_BountyHunter,66;Item_HeroCard_Bristleback,33;Item_HeroCard_Clinkz,66;Item_HeroCard_CrystalMaiden,99;Item_HeroCard_Ezalor,99;Item_HeroCard_Lifestealer,99;Item_HeroCard_TeaantProtector,99;Item_dragon_cannon_1,99;Item_dragon_cannon_2,99;Item_dragon_cannon_3,99;Item_gold_mine_1,99;Item_gold_mine_2,99;Item_gold_mine_3,99;Item_ballista_tower_1,99;Item_ballista_tower_2,99;Item_ballista_tower_3,99;Item_townhall_1,99;Item_townhall_2,99;Item_townhall_3,99;Item_camp_1,99;Item_camp_2,99;Item_camp_3,99;Item_gold_storage_1,99;Item_gold_storage_2,99;Item_gold_storage_3,99;Item_mana_storage_1,99;Item_mana_storage_2,99;Item_mana_storage_3,99;Item_barrack_1,99;Item_barrack_2,99;Item_barrack_3,99;Item_bomb_1,99;Item_bomb_2,99;Item_bomb_3,99;Item_worker_hut_1,99;Item_worker_hut_2,99;Item_worker_hut_3,99;Item_anti_air_tower_1,99;Item_anti_air_tower_2,99;Item_anti_air_tower_3,99;Item_mana_well_1,99;Item_mana_well_2,99;Item_mana_well_3,99</t>
+  </si>
+  <si>
+    <t>Desc_dragon_cannon_1</t>
+  </si>
+  <si>
+    <t>Desc_dragon_cannon_2</t>
+  </si>
+  <si>
+    <t>Desc_dragon_cannon_3</t>
+  </si>
+  <si>
+    <t>Desc_gold_mine_1</t>
+  </si>
+  <si>
+    <t>Desc_gold_mine_2</t>
+  </si>
+  <si>
+    <t>Desc_gold_mine_3</t>
+  </si>
+  <si>
+    <t>Desc_ballista_tower_1</t>
+  </si>
+  <si>
+    <t>Desc_ballista_tower_2</t>
+  </si>
+  <si>
+    <t>Desc_ballista_tower_3</t>
+  </si>
+  <si>
+    <t>Desc_townhall_1</t>
+  </si>
+  <si>
+    <t>Desc_townhall_2</t>
+  </si>
+  <si>
+    <t>Desc_townhall_3</t>
+  </si>
+  <si>
+    <t>Desc_camp_1</t>
+  </si>
+  <si>
+    <t>Desc_camp_2</t>
+  </si>
+  <si>
+    <t>Desc_camp_3</t>
+  </si>
+  <si>
+    <t>Desc_gold_storage_1</t>
+  </si>
+  <si>
+    <t>Desc_gold_storage_2</t>
+  </si>
+  <si>
+    <t>Desc_gold_storage_3</t>
+  </si>
+  <si>
+    <t>Desc_mana_storage_1</t>
+  </si>
+  <si>
+    <t>Desc_mana_storage_2</t>
+  </si>
+  <si>
+    <t>Desc_mana_storage_3</t>
+  </si>
+  <si>
+    <t>Desc_barrack_1</t>
+  </si>
+  <si>
+    <t>Desc_barrack_2</t>
+  </si>
+  <si>
+    <t>Desc_barrack_3</t>
+  </si>
+  <si>
+    <t>Desc_bomb_1</t>
+  </si>
+  <si>
+    <t>Desc_bomb_2</t>
+  </si>
+  <si>
+    <t>Desc_bomb_3</t>
+  </si>
+  <si>
+    <t>Desc_worker_hut_1</t>
+  </si>
+  <si>
+    <t>Desc_worker_hut_2</t>
+  </si>
+  <si>
+    <t>Desc_worker_hut_3</t>
+  </si>
+  <si>
+    <t>Desc_anti_air_tower_1</t>
+  </si>
+  <si>
+    <t>Desc_anti_air_tower_2</t>
+  </si>
+  <si>
+    <t>Desc_anti_air_tower_3</t>
+  </si>
+  <si>
+    <t>Desc_mana_well_1</t>
+  </si>
+  <si>
+    <t>Desc_mana_well_2</t>
+  </si>
+  <si>
+    <t>Desc_mana_well_3</t>
+  </si>
+  <si>
+    <t>NameID_dragon_cannon_1</t>
+  </si>
+  <si>
+    <t>NameID_dragon_cannon_2</t>
+  </si>
+  <si>
+    <t>NameID_dragon_cannon_3</t>
+  </si>
+  <si>
+    <t>NameID_gold_mine_1</t>
+  </si>
+  <si>
+    <t>NameID_gold_mine_2</t>
+  </si>
+  <si>
+    <t>NameID_gold_mine_3</t>
+  </si>
+  <si>
+    <t>NameID_ballista_tower_1</t>
+  </si>
+  <si>
+    <t>NameID_ballista_tower_2</t>
+  </si>
+  <si>
+    <t>NameID_ballista_tower_3</t>
+  </si>
+  <si>
+    <t>NameID_townhall_1</t>
+  </si>
+  <si>
+    <t>NameID_townhall_2</t>
+  </si>
+  <si>
+    <t>NameID_townhall_3</t>
+  </si>
+  <si>
+    <t>NameID_camp_1</t>
+  </si>
+  <si>
+    <t>NameID_camp_2</t>
+  </si>
+  <si>
+    <t>NameID_camp_3</t>
+  </si>
+  <si>
+    <t>NameID_gold_storage_1</t>
+  </si>
+  <si>
+    <t>NameID_gold_storage_2</t>
+  </si>
+  <si>
+    <t>NameID_gold_storage_3</t>
+  </si>
+  <si>
+    <t>NameID_mana_storage_1</t>
+  </si>
+  <si>
+    <t>NameID_mana_storage_2</t>
+  </si>
+  <si>
+    <t>NameID_mana_storage_3</t>
+  </si>
+  <si>
+    <t>NameID_barrack_1</t>
+  </si>
+  <si>
+    <t>NameID_barrack_2</t>
+  </si>
+  <si>
+    <t>NameID_barrack_3</t>
+  </si>
+  <si>
+    <t>NameID_bomb_1</t>
+  </si>
+  <si>
+    <t>NameID_bomb_2</t>
+  </si>
+  <si>
+    <t>NameID_bomb_3</t>
+  </si>
+  <si>
+    <t>NameID_worker_hut_1</t>
+  </si>
+  <si>
+    <t>NameID_worker_hut_2</t>
+  </si>
+  <si>
+    <t>NameID_worker_hut_3</t>
+  </si>
+  <si>
+    <t>NameID_anti_air_tower_1</t>
+  </si>
+  <si>
+    <t>NameID_anti_air_tower_2</t>
+  </si>
+  <si>
+    <t>NameID_anti_air_tower_3</t>
+  </si>
+  <si>
+    <t>NameID_mana_well_1</t>
+  </si>
+  <si>
+    <t>NameID_mana_well_2</t>
+  </si>
+  <si>
+    <t>NameID_mana_well_3</t>
+  </si>
+  <si>
+    <t>Icon_dragon_cannon_1</t>
+  </si>
+  <si>
+    <t>Icon_dragon_cannon_2</t>
+  </si>
+  <si>
+    <t>Icon_dragon_cannon_3</t>
+  </si>
+  <si>
+    <t>Icon_gold_mine_1</t>
+  </si>
+  <si>
+    <t>Icon_gold_mine_2</t>
+  </si>
+  <si>
+    <t>Icon_gold_mine_3</t>
+  </si>
+  <si>
+    <t>Icon_ballista_tower_1</t>
+  </si>
+  <si>
+    <t>Icon_ballista_tower_2</t>
+  </si>
+  <si>
+    <t>Icon_ballista_tower_3</t>
+  </si>
+  <si>
+    <t>Icon_townhall_1</t>
+  </si>
+  <si>
+    <t>Icon_townhall_2</t>
+  </si>
+  <si>
+    <t>Icon_townhall_3</t>
+  </si>
+  <si>
+    <t>Icon_camp_1</t>
+  </si>
+  <si>
+    <t>Icon_camp_2</t>
+  </si>
+  <si>
+    <t>Icon_camp_3</t>
+  </si>
+  <si>
+    <t>Icon_gold_storage_1</t>
+  </si>
+  <si>
+    <t>Icon_gold_storage_2</t>
+  </si>
+  <si>
+    <t>Icon_gold_storage_3</t>
+  </si>
+  <si>
+    <t>Icon_mana_storage_1</t>
+  </si>
+  <si>
+    <t>Icon_mana_storage_2</t>
+  </si>
+  <si>
+    <t>Icon_mana_storage_3</t>
+  </si>
+  <si>
+    <t>Icon_barrack_1</t>
+  </si>
+  <si>
+    <t>Icon_barrack_2</t>
+  </si>
+  <si>
+    <t>Icon_barrack_3</t>
+  </si>
+  <si>
+    <t>Icon_bomb_1</t>
+  </si>
+  <si>
+    <t>Icon_bomb_2</t>
+  </si>
+  <si>
+    <t>Icon_bomb_3</t>
+  </si>
+  <si>
+    <t>Icon_worker_hut_1</t>
+  </si>
+  <si>
+    <t>Icon_worker_hut_2</t>
+  </si>
+  <si>
+    <t>Icon_worker_hut_3</t>
+  </si>
+  <si>
+    <t>Icon_anti_air_tower_1</t>
+  </si>
+  <si>
+    <t>Icon_anti_air_tower_2</t>
+  </si>
+  <si>
+    <t>Icon_anti_air_tower_3</t>
+  </si>
+  <si>
+    <t>Icon_mana_well_1</t>
+  </si>
+  <si>
+    <t>Icon_mana_well_2</t>
+  </si>
+  <si>
+    <t>Icon_mana_well_3</t>
+  </si>
+  <si>
+    <t>Build_dragon_cannon_1</t>
+  </si>
+  <si>
+    <t>Build_dragon_cannon_2</t>
+  </si>
+  <si>
+    <t>Build_dragon_cannon_3</t>
+  </si>
+  <si>
+    <t>Build_gold_mine_1</t>
+  </si>
+  <si>
+    <t>Build_gold_mine_2</t>
+  </si>
+  <si>
+    <t>Build_gold_mine_3</t>
+  </si>
+  <si>
+    <t>Build_ballista_tower_1</t>
+  </si>
+  <si>
+    <t>Build_ballista_tower_2</t>
+  </si>
+  <si>
+    <t>Build_ballista_tower_3</t>
+  </si>
+  <si>
+    <t>Build_townhall_1</t>
+  </si>
+  <si>
+    <t>Build_townhall_2</t>
+  </si>
+  <si>
+    <t>Build_townhall_3</t>
+  </si>
+  <si>
+    <t>Build_camp_1</t>
+  </si>
+  <si>
+    <t>Build_camp_2</t>
+  </si>
+  <si>
+    <t>Build_camp_3</t>
+  </si>
+  <si>
+    <t>Build_gold_storage_1</t>
+  </si>
+  <si>
+    <t>Build_gold_storage_2</t>
+  </si>
+  <si>
+    <t>Build_gold_storage_3</t>
+  </si>
+  <si>
+    <t>Build_mana_storage_1</t>
+  </si>
+  <si>
+    <t>Build_mana_storage_2</t>
+  </si>
+  <si>
+    <t>Build_mana_storage_3</t>
+  </si>
+  <si>
+    <t>Build_barrack_1</t>
+  </si>
+  <si>
+    <t>Build_barrack_2</t>
+  </si>
+  <si>
+    <t>Build_barrack_3</t>
+  </si>
+  <si>
+    <t>Build_bomb_1</t>
+  </si>
+  <si>
+    <t>Build_bomb_2</t>
+  </si>
+  <si>
+    <t>Build_bomb_3</t>
+  </si>
+  <si>
+    <t>Build_worker_hut_1</t>
+  </si>
+  <si>
+    <t>Build_worker_hut_2</t>
+  </si>
+  <si>
+    <t>Build_worker_hut_3</t>
+  </si>
+  <si>
+    <t>Build_anti_air_tower_1</t>
+  </si>
+  <si>
+    <t>Build_anti_air_tower_2</t>
+  </si>
+  <si>
+    <t>Build_anti_air_tower_3</t>
+  </si>
+  <si>
+    <t>Build_mana_well_1</t>
+  </si>
+  <si>
+    <t>Build_mana_well_2</t>
+  </si>
+  <si>
+    <t>Build_mana_well_3</t>
   </si>
 </sst>
 </file>
@@ -1642,10 +2074,10 @@
   <dimension ref="A1:V176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="O166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
+      <selection pane="bottomRight" activeCell="R141" sqref="R141:R176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9668,7 +10100,7 @@
         <v>1</v>
       </c>
       <c r="G141" s="32" t="s">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="H141" s="32"/>
       <c r="I141" s="32"/>
@@ -9692,15 +10124,17 @@
         <v>1</v>
       </c>
       <c r="Q141" s="32"/>
-      <c r="R141" s="32"/>
+      <c r="R141" s="32" t="s">
+        <v>441</v>
+      </c>
       <c r="S141" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T141" s="32" t="s">
-        <v>238</v>
+        <v>405</v>
       </c>
       <c r="U141" s="32" t="s">
-        <v>239</v>
+        <v>369</v>
       </c>
       <c r="V141" s="32">
         <v>0</v>
@@ -9724,7 +10158,7 @@
         <v>2</v>
       </c>
       <c r="G142" s="32" t="s">
-        <v>237</v>
+        <v>334</v>
       </c>
       <c r="H142" s="32"/>
       <c r="I142" s="32"/>
@@ -9748,15 +10182,17 @@
         <v>1</v>
       </c>
       <c r="Q142" s="32"/>
-      <c r="R142" s="32"/>
+      <c r="R142" s="32" t="s">
+        <v>442</v>
+      </c>
       <c r="S142" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T142" s="32" t="s">
-        <v>238</v>
+        <v>406</v>
       </c>
       <c r="U142" s="32" t="s">
-        <v>239</v>
+        <v>370</v>
       </c>
       <c r="V142" s="32">
         <v>0</v>
@@ -9780,7 +10216,7 @@
         <v>3</v>
       </c>
       <c r="G143" s="32" t="s">
-        <v>237</v>
+        <v>335</v>
       </c>
       <c r="H143" s="32"/>
       <c r="I143" s="32"/>
@@ -9804,15 +10240,17 @@
         <v>1</v>
       </c>
       <c r="Q143" s="32"/>
-      <c r="R143" s="32"/>
+      <c r="R143" s="32" t="s">
+        <v>443</v>
+      </c>
       <c r="S143" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T143" s="32" t="s">
-        <v>238</v>
+        <v>407</v>
       </c>
       <c r="U143" s="32" t="s">
-        <v>239</v>
+        <v>371</v>
       </c>
       <c r="V143" s="32">
         <v>0</v>
@@ -9836,7 +10274,7 @@
         <v>4</v>
       </c>
       <c r="G144" s="32" t="s">
-        <v>237</v>
+        <v>336</v>
       </c>
       <c r="H144" s="32"/>
       <c r="I144" s="32"/>
@@ -9860,15 +10298,17 @@
         <v>1</v>
       </c>
       <c r="Q144" s="32"/>
-      <c r="R144" s="32"/>
+      <c r="R144" s="32" t="s">
+        <v>444</v>
+      </c>
       <c r="S144" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T144" s="32" t="s">
-        <v>238</v>
+        <v>408</v>
       </c>
       <c r="U144" s="32" t="s">
-        <v>239</v>
+        <v>372</v>
       </c>
       <c r="V144" s="32">
         <v>0</v>
@@ -9892,7 +10332,7 @@
         <v>5</v>
       </c>
       <c r="G145" s="32" t="s">
-        <v>237</v>
+        <v>337</v>
       </c>
       <c r="H145" s="32"/>
       <c r="I145" s="32"/>
@@ -9916,15 +10356,17 @@
         <v>1</v>
       </c>
       <c r="Q145" s="32"/>
-      <c r="R145" s="32"/>
+      <c r="R145" s="32" t="s">
+        <v>445</v>
+      </c>
       <c r="S145" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T145" s="32" t="s">
-        <v>238</v>
+        <v>409</v>
       </c>
       <c r="U145" s="32" t="s">
-        <v>239</v>
+        <v>373</v>
       </c>
       <c r="V145" s="32">
         <v>0</v>
@@ -9948,7 +10390,7 @@
         <v>6</v>
       </c>
       <c r="G146" s="32" t="s">
-        <v>237</v>
+        <v>338</v>
       </c>
       <c r="H146" s="32"/>
       <c r="I146" s="32"/>
@@ -9972,15 +10414,17 @@
         <v>1</v>
       </c>
       <c r="Q146" s="32"/>
-      <c r="R146" s="32"/>
+      <c r="R146" s="32" t="s">
+        <v>446</v>
+      </c>
       <c r="S146" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T146" s="32" t="s">
-        <v>238</v>
+        <v>410</v>
       </c>
       <c r="U146" s="32" t="s">
-        <v>239</v>
+        <v>374</v>
       </c>
       <c r="V146" s="32">
         <v>0</v>
@@ -10004,7 +10448,7 @@
         <v>7</v>
       </c>
       <c r="G147" s="32" t="s">
-        <v>237</v>
+        <v>339</v>
       </c>
       <c r="H147" s="32"/>
       <c r="I147" s="32"/>
@@ -10028,15 +10472,17 @@
         <v>1</v>
       </c>
       <c r="Q147" s="32"/>
-      <c r="R147" s="32"/>
+      <c r="R147" s="32" t="s">
+        <v>447</v>
+      </c>
       <c r="S147" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T147" s="32" t="s">
-        <v>238</v>
+        <v>411</v>
       </c>
       <c r="U147" s="32" t="s">
-        <v>239</v>
+        <v>375</v>
       </c>
       <c r="V147" s="32">
         <v>0</v>
@@ -10060,7 +10506,7 @@
         <v>1</v>
       </c>
       <c r="G148" s="32" t="s">
-        <v>237</v>
+        <v>340</v>
       </c>
       <c r="H148" s="32"/>
       <c r="I148" s="32"/>
@@ -10084,15 +10530,17 @@
         <v>1</v>
       </c>
       <c r="Q148" s="32"/>
-      <c r="R148" s="32"/>
+      <c r="R148" s="32" t="s">
+        <v>448</v>
+      </c>
       <c r="S148" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T148" s="32" t="s">
-        <v>238</v>
+        <v>412</v>
       </c>
       <c r="U148" s="32" t="s">
-        <v>239</v>
+        <v>376</v>
       </c>
       <c r="V148" s="32">
         <v>0</v>
@@ -10116,7 +10564,7 @@
         <v>2</v>
       </c>
       <c r="G149" s="32" t="s">
-        <v>237</v>
+        <v>341</v>
       </c>
       <c r="H149" s="32"/>
       <c r="I149" s="32"/>
@@ -10140,15 +10588,17 @@
         <v>1</v>
       </c>
       <c r="Q149" s="32"/>
-      <c r="R149" s="32"/>
+      <c r="R149" s="32" t="s">
+        <v>449</v>
+      </c>
       <c r="S149" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T149" s="32" t="s">
-        <v>238</v>
+        <v>413</v>
       </c>
       <c r="U149" s="32" t="s">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="V149" s="32">
         <v>0</v>
@@ -10172,7 +10622,7 @@
         <v>3</v>
       </c>
       <c r="G150" s="32" t="s">
-        <v>237</v>
+        <v>342</v>
       </c>
       <c r="H150" s="32"/>
       <c r="I150" s="32"/>
@@ -10196,15 +10646,17 @@
         <v>1</v>
       </c>
       <c r="Q150" s="32"/>
-      <c r="R150" s="32"/>
+      <c r="R150" s="32" t="s">
+        <v>450</v>
+      </c>
       <c r="S150" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T150" s="32" t="s">
-        <v>238</v>
+        <v>414</v>
       </c>
       <c r="U150" s="32" t="s">
-        <v>239</v>
+        <v>378</v>
       </c>
       <c r="V150" s="32">
         <v>0</v>
@@ -10228,7 +10680,7 @@
         <v>4</v>
       </c>
       <c r="G151" s="32" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="H151" s="32"/>
       <c r="I151" s="32"/>
@@ -10252,15 +10704,17 @@
         <v>1</v>
       </c>
       <c r="Q151" s="32"/>
-      <c r="R151" s="32"/>
+      <c r="R151" s="32" t="s">
+        <v>451</v>
+      </c>
       <c r="S151" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T151" s="32" t="s">
-        <v>238</v>
+        <v>415</v>
       </c>
       <c r="U151" s="32" t="s">
-        <v>239</v>
+        <v>379</v>
       </c>
       <c r="V151" s="32">
         <v>0</v>
@@ -10284,7 +10738,7 @@
         <v>5</v>
       </c>
       <c r="G152" s="32" t="s">
-        <v>237</v>
+        <v>344</v>
       </c>
       <c r="H152" s="32"/>
       <c r="I152" s="32"/>
@@ -10308,15 +10762,17 @@
         <v>1</v>
       </c>
       <c r="Q152" s="32"/>
-      <c r="R152" s="32"/>
+      <c r="R152" s="32" t="s">
+        <v>452</v>
+      </c>
       <c r="S152" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T152" s="32" t="s">
-        <v>238</v>
+        <v>416</v>
       </c>
       <c r="U152" s="32" t="s">
-        <v>239</v>
+        <v>380</v>
       </c>
       <c r="V152" s="32">
         <v>0</v>
@@ -10340,7 +10796,7 @@
         <v>6</v>
       </c>
       <c r="G153" s="32" t="s">
-        <v>237</v>
+        <v>345</v>
       </c>
       <c r="H153" s="32"/>
       <c r="I153" s="32"/>
@@ -10364,15 +10820,17 @@
         <v>1</v>
       </c>
       <c r="Q153" s="32"/>
-      <c r="R153" s="32"/>
+      <c r="R153" s="32" t="s">
+        <v>453</v>
+      </c>
       <c r="S153" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T153" s="32" t="s">
-        <v>238</v>
+        <v>417</v>
       </c>
       <c r="U153" s="32" t="s">
-        <v>239</v>
+        <v>381</v>
       </c>
       <c r="V153" s="32">
         <v>0</v>
@@ -10396,7 +10854,7 @@
         <v>7</v>
       </c>
       <c r="G154" s="32" t="s">
-        <v>237</v>
+        <v>346</v>
       </c>
       <c r="H154" s="32"/>
       <c r="I154" s="32"/>
@@ -10420,15 +10878,17 @@
         <v>1</v>
       </c>
       <c r="Q154" s="32"/>
-      <c r="R154" s="32"/>
+      <c r="R154" s="32" t="s">
+        <v>454</v>
+      </c>
       <c r="S154" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T154" s="32" t="s">
-        <v>238</v>
+        <v>418</v>
       </c>
       <c r="U154" s="32" t="s">
-        <v>239</v>
+        <v>382</v>
       </c>
       <c r="V154" s="32">
         <v>0</v>
@@ -10452,7 +10912,7 @@
         <v>1</v>
       </c>
       <c r="G155" s="32" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="H155" s="32"/>
       <c r="I155" s="32"/>
@@ -10476,15 +10936,17 @@
         <v>1</v>
       </c>
       <c r="Q155" s="32"/>
-      <c r="R155" s="32"/>
+      <c r="R155" s="32" t="s">
+        <v>455</v>
+      </c>
       <c r="S155" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T155" s="32" t="s">
-        <v>238</v>
+        <v>419</v>
       </c>
       <c r="U155" s="32" t="s">
-        <v>239</v>
+        <v>383</v>
       </c>
       <c r="V155" s="32">
         <v>0</v>
@@ -10508,7 +10970,7 @@
         <v>2</v>
       </c>
       <c r="G156" s="32" t="s">
-        <v>237</v>
+        <v>348</v>
       </c>
       <c r="H156" s="32"/>
       <c r="I156" s="32"/>
@@ -10532,15 +10994,17 @@
         <v>1</v>
       </c>
       <c r="Q156" s="32"/>
-      <c r="R156" s="32"/>
+      <c r="R156" s="32" t="s">
+        <v>456</v>
+      </c>
       <c r="S156" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T156" s="32" t="s">
-        <v>238</v>
+        <v>420</v>
       </c>
       <c r="U156" s="32" t="s">
-        <v>239</v>
+        <v>384</v>
       </c>
       <c r="V156" s="32">
         <v>0</v>
@@ -10564,7 +11028,7 @@
         <v>3</v>
       </c>
       <c r="G157" s="32" t="s">
-        <v>237</v>
+        <v>349</v>
       </c>
       <c r="H157" s="32"/>
       <c r="I157" s="32"/>
@@ -10588,15 +11052,17 @@
         <v>1</v>
       </c>
       <c r="Q157" s="32"/>
-      <c r="R157" s="32"/>
+      <c r="R157" s="32" t="s">
+        <v>457</v>
+      </c>
       <c r="S157" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T157" s="32" t="s">
-        <v>238</v>
+        <v>421</v>
       </c>
       <c r="U157" s="32" t="s">
-        <v>239</v>
+        <v>385</v>
       </c>
       <c r="V157" s="32">
         <v>0</v>
@@ -10620,7 +11086,7 @@
         <v>4</v>
       </c>
       <c r="G158" s="32" t="s">
-        <v>237</v>
+        <v>350</v>
       </c>
       <c r="H158" s="32"/>
       <c r="I158" s="32"/>
@@ -10644,15 +11110,17 @@
         <v>1</v>
       </c>
       <c r="Q158" s="32"/>
-      <c r="R158" s="32"/>
+      <c r="R158" s="32" t="s">
+        <v>458</v>
+      </c>
       <c r="S158" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T158" s="32" t="s">
-        <v>238</v>
+        <v>422</v>
       </c>
       <c r="U158" s="32" t="s">
-        <v>239</v>
+        <v>386</v>
       </c>
       <c r="V158" s="32">
         <v>0</v>
@@ -10676,7 +11144,7 @@
         <v>5</v>
       </c>
       <c r="G159" s="32" t="s">
-        <v>237</v>
+        <v>351</v>
       </c>
       <c r="H159" s="32"/>
       <c r="I159" s="32"/>
@@ -10700,15 +11168,17 @@
         <v>1</v>
       </c>
       <c r="Q159" s="32"/>
-      <c r="R159" s="32"/>
+      <c r="R159" s="32" t="s">
+        <v>459</v>
+      </c>
       <c r="S159" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T159" s="32" t="s">
-        <v>238</v>
+        <v>423</v>
       </c>
       <c r="U159" s="32" t="s">
-        <v>239</v>
+        <v>387</v>
       </c>
       <c r="V159" s="32">
         <v>0</v>
@@ -10732,7 +11202,7 @@
         <v>6</v>
       </c>
       <c r="G160" s="32" t="s">
-        <v>237</v>
+        <v>352</v>
       </c>
       <c r="H160" s="32"/>
       <c r="I160" s="32"/>
@@ -10756,15 +11226,17 @@
         <v>1</v>
       </c>
       <c r="Q160" s="32"/>
-      <c r="R160" s="32"/>
+      <c r="R160" s="32" t="s">
+        <v>460</v>
+      </c>
       <c r="S160" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T160" s="32" t="s">
-        <v>238</v>
+        <v>424</v>
       </c>
       <c r="U160" s="32" t="s">
-        <v>239</v>
+        <v>388</v>
       </c>
       <c r="V160" s="32">
         <v>0</v>
@@ -10788,7 +11260,7 @@
         <v>7</v>
       </c>
       <c r="G161" s="32" t="s">
-        <v>237</v>
+        <v>353</v>
       </c>
       <c r="H161" s="32"/>
       <c r="I161" s="32"/>
@@ -10812,15 +11284,17 @@
         <v>1</v>
       </c>
       <c r="Q161" s="32"/>
-      <c r="R161" s="32"/>
+      <c r="R161" s="32" t="s">
+        <v>461</v>
+      </c>
       <c r="S161" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T161" s="32" t="s">
-        <v>238</v>
+        <v>425</v>
       </c>
       <c r="U161" s="32" t="s">
-        <v>239</v>
+        <v>389</v>
       </c>
       <c r="V161" s="32">
         <v>0</v>
@@ -10844,7 +11318,7 @@
         <v>7</v>
       </c>
       <c r="G162" s="32" t="s">
-        <v>237</v>
+        <v>354</v>
       </c>
       <c r="H162" s="32"/>
       <c r="I162" s="32"/>
@@ -10868,15 +11342,17 @@
         <v>1</v>
       </c>
       <c r="Q162" s="32"/>
-      <c r="R162" s="32"/>
+      <c r="R162" s="32" t="s">
+        <v>462</v>
+      </c>
       <c r="S162" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T162" s="32" t="s">
-        <v>238</v>
+        <v>426</v>
       </c>
       <c r="U162" s="32" t="s">
-        <v>239</v>
+        <v>390</v>
       </c>
       <c r="V162" s="32">
         <v>0</v>
@@ -10900,7 +11376,7 @@
         <v>7</v>
       </c>
       <c r="G163" s="32" t="s">
-        <v>237</v>
+        <v>355</v>
       </c>
       <c r="H163" s="32"/>
       <c r="I163" s="32"/>
@@ -10924,15 +11400,17 @@
         <v>1</v>
       </c>
       <c r="Q163" s="32"/>
-      <c r="R163" s="32"/>
+      <c r="R163" s="32" t="s">
+        <v>463</v>
+      </c>
       <c r="S163" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T163" s="32" t="s">
-        <v>238</v>
+        <v>427</v>
       </c>
       <c r="U163" s="32" t="s">
-        <v>239</v>
+        <v>391</v>
       </c>
       <c r="V163" s="32">
         <v>0</v>
@@ -10956,7 +11434,7 @@
         <v>7</v>
       </c>
       <c r="G164" s="32" t="s">
-        <v>237</v>
+        <v>356</v>
       </c>
       <c r="H164" s="32"/>
       <c r="I164" s="32"/>
@@ -10980,15 +11458,17 @@
         <v>1</v>
       </c>
       <c r="Q164" s="32"/>
-      <c r="R164" s="32"/>
+      <c r="R164" s="32" t="s">
+        <v>464</v>
+      </c>
       <c r="S164" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T164" s="32" t="s">
-        <v>238</v>
+        <v>428</v>
       </c>
       <c r="U164" s="32" t="s">
-        <v>239</v>
+        <v>392</v>
       </c>
       <c r="V164" s="32">
         <v>0</v>
@@ -11012,7 +11492,7 @@
         <v>7</v>
       </c>
       <c r="G165" s="32" t="s">
-        <v>237</v>
+        <v>357</v>
       </c>
       <c r="H165" s="32"/>
       <c r="I165" s="32"/>
@@ -11036,15 +11516,17 @@
         <v>1</v>
       </c>
       <c r="Q165" s="32"/>
-      <c r="R165" s="32"/>
+      <c r="R165" s="32" t="s">
+        <v>465</v>
+      </c>
       <c r="S165" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T165" s="32" t="s">
-        <v>238</v>
+        <v>429</v>
       </c>
       <c r="U165" s="32" t="s">
-        <v>239</v>
+        <v>393</v>
       </c>
       <c r="V165" s="32">
         <v>0</v>
@@ -11068,7 +11550,7 @@
         <v>7</v>
       </c>
       <c r="G166" s="32" t="s">
-        <v>237</v>
+        <v>358</v>
       </c>
       <c r="H166" s="32"/>
       <c r="I166" s="32"/>
@@ -11092,15 +11574,17 @@
         <v>1</v>
       </c>
       <c r="Q166" s="32"/>
-      <c r="R166" s="32"/>
+      <c r="R166" s="32" t="s">
+        <v>466</v>
+      </c>
       <c r="S166" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T166" s="32" t="s">
-        <v>238</v>
+        <v>430</v>
       </c>
       <c r="U166" s="32" t="s">
-        <v>239</v>
+        <v>394</v>
       </c>
       <c r="V166" s="32">
         <v>0</v>
@@ -11124,7 +11608,7 @@
         <v>7</v>
       </c>
       <c r="G167" s="32" t="s">
-        <v>237</v>
+        <v>359</v>
       </c>
       <c r="H167" s="32"/>
       <c r="I167" s="32"/>
@@ -11148,15 +11632,17 @@
         <v>1</v>
       </c>
       <c r="Q167" s="32"/>
-      <c r="R167" s="32"/>
+      <c r="R167" s="32" t="s">
+        <v>467</v>
+      </c>
       <c r="S167" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T167" s="32" t="s">
-        <v>238</v>
+        <v>431</v>
       </c>
       <c r="U167" s="32" t="s">
-        <v>239</v>
+        <v>395</v>
       </c>
       <c r="V167" s="32">
         <v>0</v>
@@ -11180,7 +11666,7 @@
         <v>7</v>
       </c>
       <c r="G168" s="32" t="s">
-        <v>237</v>
+        <v>360</v>
       </c>
       <c r="H168" s="32"/>
       <c r="I168" s="32"/>
@@ -11204,15 +11690,17 @@
         <v>1</v>
       </c>
       <c r="Q168" s="32"/>
-      <c r="R168" s="32"/>
+      <c r="R168" s="32" t="s">
+        <v>468</v>
+      </c>
       <c r="S168" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T168" s="32" t="s">
-        <v>238</v>
+        <v>432</v>
       </c>
       <c r="U168" s="32" t="s">
-        <v>239</v>
+        <v>396</v>
       </c>
       <c r="V168" s="32">
         <v>0</v>
@@ -11236,7 +11724,7 @@
         <v>7</v>
       </c>
       <c r="G169" s="32" t="s">
-        <v>237</v>
+        <v>361</v>
       </c>
       <c r="H169" s="32"/>
       <c r="I169" s="32"/>
@@ -11260,15 +11748,17 @@
         <v>1</v>
       </c>
       <c r="Q169" s="32"/>
-      <c r="R169" s="32"/>
+      <c r="R169" s="32" t="s">
+        <v>469</v>
+      </c>
       <c r="S169" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T169" s="32" t="s">
-        <v>238</v>
+        <v>433</v>
       </c>
       <c r="U169" s="32" t="s">
-        <v>239</v>
+        <v>397</v>
       </c>
       <c r="V169" s="32">
         <v>0</v>
@@ -11292,7 +11782,7 @@
         <v>7</v>
       </c>
       <c r="G170" s="32" t="s">
-        <v>237</v>
+        <v>362</v>
       </c>
       <c r="H170" s="32"/>
       <c r="I170" s="32"/>
@@ -11316,15 +11806,17 @@
         <v>1</v>
       </c>
       <c r="Q170" s="32"/>
-      <c r="R170" s="32"/>
+      <c r="R170" s="32" t="s">
+        <v>470</v>
+      </c>
       <c r="S170" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T170" s="32" t="s">
-        <v>238</v>
+        <v>434</v>
       </c>
       <c r="U170" s="32" t="s">
-        <v>239</v>
+        <v>398</v>
       </c>
       <c r="V170" s="32">
         <v>0</v>
@@ -11348,7 +11840,7 @@
         <v>7</v>
       </c>
       <c r="G171" s="32" t="s">
-        <v>237</v>
+        <v>363</v>
       </c>
       <c r="H171" s="32"/>
       <c r="I171" s="32"/>
@@ -11372,15 +11864,17 @@
         <v>1</v>
       </c>
       <c r="Q171" s="32"/>
-      <c r="R171" s="32"/>
+      <c r="R171" s="32" t="s">
+        <v>471</v>
+      </c>
       <c r="S171" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T171" s="32" t="s">
-        <v>238</v>
+        <v>435</v>
       </c>
       <c r="U171" s="32" t="s">
-        <v>239</v>
+        <v>399</v>
       </c>
       <c r="V171" s="32">
         <v>0</v>
@@ -11404,7 +11898,7 @@
         <v>7</v>
       </c>
       <c r="G172" s="32" t="s">
-        <v>237</v>
+        <v>364</v>
       </c>
       <c r="H172" s="32"/>
       <c r="I172" s="32"/>
@@ -11428,15 +11922,17 @@
         <v>1</v>
       </c>
       <c r="Q172" s="32"/>
-      <c r="R172" s="32"/>
+      <c r="R172" s="32" t="s">
+        <v>472</v>
+      </c>
       <c r="S172" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T172" s="32" t="s">
-        <v>238</v>
+        <v>436</v>
       </c>
       <c r="U172" s="32" t="s">
-        <v>239</v>
+        <v>400</v>
       </c>
       <c r="V172" s="32">
         <v>0</v>
@@ -11460,7 +11956,7 @@
         <v>7</v>
       </c>
       <c r="G173" s="32" t="s">
-        <v>237</v>
+        <v>365</v>
       </c>
       <c r="H173" s="32"/>
       <c r="I173" s="32"/>
@@ -11484,15 +11980,17 @@
         <v>1</v>
       </c>
       <c r="Q173" s="32"/>
-      <c r="R173" s="32"/>
+      <c r="R173" s="32" t="s">
+        <v>473</v>
+      </c>
       <c r="S173" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T173" s="32" t="s">
-        <v>238</v>
+        <v>437</v>
       </c>
       <c r="U173" s="32" t="s">
-        <v>239</v>
+        <v>401</v>
       </c>
       <c r="V173" s="32">
         <v>0</v>
@@ -11516,7 +12014,7 @@
         <v>7</v>
       </c>
       <c r="G174" s="32" t="s">
-        <v>237</v>
+        <v>366</v>
       </c>
       <c r="H174" s="32"/>
       <c r="I174" s="32"/>
@@ -11540,15 +12038,17 @@
         <v>1</v>
       </c>
       <c r="Q174" s="32"/>
-      <c r="R174" s="32"/>
+      <c r="R174" s="32" t="s">
+        <v>474</v>
+      </c>
       <c r="S174" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T174" s="32" t="s">
-        <v>238</v>
+        <v>438</v>
       </c>
       <c r="U174" s="32" t="s">
-        <v>239</v>
+        <v>402</v>
       </c>
       <c r="V174" s="32">
         <v>0</v>
@@ -11572,7 +12072,7 @@
         <v>7</v>
       </c>
       <c r="G175" s="32" t="s">
-        <v>237</v>
+        <v>367</v>
       </c>
       <c r="H175" s="32"/>
       <c r="I175" s="32"/>
@@ -11596,15 +12096,17 @@
         <v>1</v>
       </c>
       <c r="Q175" s="32"/>
-      <c r="R175" s="32"/>
+      <c r="R175" s="32" t="s">
+        <v>475</v>
+      </c>
       <c r="S175" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T175" s="32" t="s">
-        <v>238</v>
+        <v>439</v>
       </c>
       <c r="U175" s="32" t="s">
-        <v>239</v>
+        <v>403</v>
       </c>
       <c r="V175" s="32">
         <v>0</v>
@@ -11628,7 +12130,7 @@
         <v>7</v>
       </c>
       <c r="G176" s="32" t="s">
-        <v>237</v>
+        <v>368</v>
       </c>
       <c r="H176" s="32"/>
       <c r="I176" s="32"/>
@@ -11652,15 +12154,17 @@
         <v>1</v>
       </c>
       <c r="Q176" s="32"/>
-      <c r="R176" s="32"/>
+      <c r="R176" s="32" t="s">
+        <v>476</v>
+      </c>
       <c r="S176" s="33" t="s">
         <v>282</v>
       </c>
       <c r="T176" s="32" t="s">
-        <v>238</v>
+        <v>440</v>
       </c>
       <c r="U176" s="32" t="s">
-        <v>239</v>
+        <v>404</v>
       </c>
       <c r="V176" s="32">
         <v>0</v>

--- a/_Out/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Item.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="478">
   <si>
     <t>Id</t>
   </si>
@@ -1461,6 +1461,9 @@
   </si>
   <si>
     <t>Build_mana_well_3</t>
+  </si>
+  <si>
+    <t>UIResources/BuilderSprite</t>
   </si>
 </sst>
 </file>
@@ -2074,10 +2077,10 @@
   <dimension ref="A1:V176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="O166" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="O164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R141" sqref="R141:R176"/>
+      <selection pane="bottomRight" activeCell="S141" sqref="S141:S176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10128,7 +10131,7 @@
         <v>441</v>
       </c>
       <c r="S141" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T141" s="32" t="s">
         <v>405</v>
@@ -10186,7 +10189,7 @@
         <v>442</v>
       </c>
       <c r="S142" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T142" s="32" t="s">
         <v>406</v>
@@ -10244,7 +10247,7 @@
         <v>443</v>
       </c>
       <c r="S143" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T143" s="32" t="s">
         <v>407</v>
@@ -10302,7 +10305,7 @@
         <v>444</v>
       </c>
       <c r="S144" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T144" s="32" t="s">
         <v>408</v>
@@ -10360,7 +10363,7 @@
         <v>445</v>
       </c>
       <c r="S145" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T145" s="32" t="s">
         <v>409</v>
@@ -10418,7 +10421,7 @@
         <v>446</v>
       </c>
       <c r="S146" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T146" s="32" t="s">
         <v>410</v>
@@ -10476,7 +10479,7 @@
         <v>447</v>
       </c>
       <c r="S147" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T147" s="32" t="s">
         <v>411</v>
@@ -10534,7 +10537,7 @@
         <v>448</v>
       </c>
       <c r="S148" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T148" s="32" t="s">
         <v>412</v>
@@ -10592,7 +10595,7 @@
         <v>449</v>
       </c>
       <c r="S149" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T149" s="32" t="s">
         <v>413</v>
@@ -10650,7 +10653,7 @@
         <v>450</v>
       </c>
       <c r="S150" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T150" s="32" t="s">
         <v>414</v>
@@ -10708,7 +10711,7 @@
         <v>451</v>
       </c>
       <c r="S151" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T151" s="32" t="s">
         <v>415</v>
@@ -10766,7 +10769,7 @@
         <v>452</v>
       </c>
       <c r="S152" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T152" s="32" t="s">
         <v>416</v>
@@ -10824,7 +10827,7 @@
         <v>453</v>
       </c>
       <c r="S153" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T153" s="32" t="s">
         <v>417</v>
@@ -10882,7 +10885,7 @@
         <v>454</v>
       </c>
       <c r="S154" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T154" s="32" t="s">
         <v>418</v>
@@ -10940,7 +10943,7 @@
         <v>455</v>
       </c>
       <c r="S155" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T155" s="32" t="s">
         <v>419</v>
@@ -10998,7 +11001,7 @@
         <v>456</v>
       </c>
       <c r="S156" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T156" s="32" t="s">
         <v>420</v>
@@ -11056,7 +11059,7 @@
         <v>457</v>
       </c>
       <c r="S157" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T157" s="32" t="s">
         <v>421</v>
@@ -11114,7 +11117,7 @@
         <v>458</v>
       </c>
       <c r="S158" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T158" s="32" t="s">
         <v>422</v>
@@ -11172,7 +11175,7 @@
         <v>459</v>
       </c>
       <c r="S159" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T159" s="32" t="s">
         <v>423</v>
@@ -11230,7 +11233,7 @@
         <v>460</v>
       </c>
       <c r="S160" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T160" s="32" t="s">
         <v>424</v>
@@ -11288,7 +11291,7 @@
         <v>461</v>
       </c>
       <c r="S161" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T161" s="32" t="s">
         <v>425</v>
@@ -11346,7 +11349,7 @@
         <v>462</v>
       </c>
       <c r="S162" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T162" s="32" t="s">
         <v>426</v>
@@ -11404,7 +11407,7 @@
         <v>463</v>
       </c>
       <c r="S163" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T163" s="32" t="s">
         <v>427</v>
@@ -11462,7 +11465,7 @@
         <v>464</v>
       </c>
       <c r="S164" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T164" s="32" t="s">
         <v>428</v>
@@ -11520,7 +11523,7 @@
         <v>465</v>
       </c>
       <c r="S165" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T165" s="32" t="s">
         <v>429</v>
@@ -11578,7 +11581,7 @@
         <v>466</v>
       </c>
       <c r="S166" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T166" s="32" t="s">
         <v>430</v>
@@ -11636,7 +11639,7 @@
         <v>467</v>
       </c>
       <c r="S167" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T167" s="32" t="s">
         <v>431</v>
@@ -11694,7 +11697,7 @@
         <v>468</v>
       </c>
       <c r="S168" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T168" s="32" t="s">
         <v>432</v>
@@ -11752,7 +11755,7 @@
         <v>469</v>
       </c>
       <c r="S169" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T169" s="32" t="s">
         <v>433</v>
@@ -11810,7 +11813,7 @@
         <v>470</v>
       </c>
       <c r="S170" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T170" s="32" t="s">
         <v>434</v>
@@ -11868,7 +11871,7 @@
         <v>471</v>
       </c>
       <c r="S171" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T171" s="32" t="s">
         <v>435</v>
@@ -11926,7 +11929,7 @@
         <v>472</v>
       </c>
       <c r="S172" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T172" s="32" t="s">
         <v>436</v>
@@ -11984,7 +11987,7 @@
         <v>473</v>
       </c>
       <c r="S173" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T173" s="32" t="s">
         <v>437</v>
@@ -12042,7 +12045,7 @@
         <v>474</v>
       </c>
       <c r="S174" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T174" s="32" t="s">
         <v>438</v>
@@ -12100,7 +12103,7 @@
         <v>475</v>
       </c>
       <c r="S175" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T175" s="32" t="s">
         <v>439</v>
@@ -12158,7 +12161,7 @@
         <v>476</v>
       </c>
       <c r="S176" s="33" t="s">
-        <v>282</v>
+        <v>477</v>
       </c>
       <c r="T176" s="32" t="s">
         <v>440</v>

--- a/_Out/NFDataCfg/Excel_Ini/Item.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Item.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="479">
   <si>
     <t>Id</t>
   </si>
@@ -1464,6 +1464,9 @@
   </si>
   <si>
     <t>UIResources/BuilderSprite</t>
+  </si>
+  <si>
+    <t>Force</t>
   </si>
 </sst>
 </file>
@@ -2074,13 +2077,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V176"/>
+  <dimension ref="A1:V177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="O164" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="O11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S141" sqref="S141:S176"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2585,261 +2588,271 @@
     </row>
     <row r="8" spans="1:22" s="3" customFormat="1" ht="13.5">
       <c r="A8" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="3" customFormat="1" ht="13.5">
+      <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" s="2" customFormat="1" ht="92" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="B9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="2" customFormat="1" ht="92" customHeight="1">
+      <c r="A10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="P10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="Q10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="R10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="S9" s="10" t="s">
+      <c r="S10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="10" t="s">
+      <c r="T10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="U9" s="10" t="s">
+      <c r="U10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="V9" s="10" t="s">
+      <c r="V10" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="4" customFormat="1">
-      <c r="A10" s="12" t="s">
+    <row r="11" spans="1:22" s="4" customFormat="1">
+      <c r="A11" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B11" s="13">
         <v>2</v>
       </c>
-      <c r="C10" s="14">
-        <v>0</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13">
-        <v>5</v>
-      </c>
-      <c r="L10" s="13">
-        <v>1</v>
-      </c>
-      <c r="M10" s="13">
-        <v>999</v>
-      </c>
-      <c r="N10" s="13">
-        <v>0</v>
-      </c>
-      <c r="O10" s="13">
-        <v>100</v>
-      </c>
-      <c r="P10" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="T10" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="V10" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" s="4" customFormat="1">
-      <c r="A11" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="14">
-        <v>2</v>
-      </c>
       <c r="C11" s="14">
         <v>0</v>
       </c>
-      <c r="D11" s="14">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14">
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13">
         <v>0</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14">
-        <v>10</v>
-      </c>
-      <c r="L11" s="14">
-        <v>1</v>
-      </c>
-      <c r="M11" s="14">
+      <c r="H11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13">
+        <v>5</v>
+      </c>
+      <c r="L11" s="13">
+        <v>1</v>
+      </c>
+      <c r="M11" s="13">
         <v>999</v>
       </c>
-      <c r="N11" s="14">
-        <v>0</v>
-      </c>
-      <c r="O11" s="14">
+      <c r="N11" s="13">
+        <v>0</v>
+      </c>
+      <c r="O11" s="13">
         <v>100</v>
       </c>
       <c r="P11" s="13">
         <v>1</v>
       </c>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
       <c r="S11" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="U11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="V11" s="14">
+      <c r="V11" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="4" customFormat="1">
       <c r="A12" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="13">
+        <v>57</v>
+      </c>
+      <c r="B12" s="14">
         <v>2</v>
       </c>
       <c r="C12" s="14">
@@ -2848,7 +2861,7 @@
       <c r="D12" s="14">
         <v>0</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="14">
         <v>0</v>
       </c>
@@ -2856,12 +2869,12 @@
         <v>53</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="13">
-        <v>15</v>
+      <c r="K12" s="14">
+        <v>10</v>
       </c>
       <c r="L12" s="14">
         <v>1</v>
@@ -2879,12 +2892,12 @@
         <v>1</v>
       </c>
       <c r="Q12" s="14"/>
-      <c r="R12" s="13"/>
+      <c r="R12" s="14"/>
       <c r="S12" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>56</v>
@@ -2895,9 +2908,9 @@
     </row>
     <row r="13" spans="1:22" s="4" customFormat="1">
       <c r="A13" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="14">
+        <v>60</v>
+      </c>
+      <c r="B13" s="13">
         <v>2</v>
       </c>
       <c r="C13" s="14">
@@ -2906,7 +2919,7 @@
       <c r="D13" s="14">
         <v>0</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="14">
         <v>0</v>
       </c>
@@ -2914,12 +2927,12 @@
         <v>53</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
-      <c r="K13" s="14">
-        <v>20</v>
+      <c r="K13" s="13">
+        <v>15</v>
       </c>
       <c r="L13" s="14">
         <v>1</v>
@@ -2937,12 +2950,12 @@
         <v>1</v>
       </c>
       <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
+      <c r="R13" s="13"/>
       <c r="S13" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U13" s="12" t="s">
         <v>56</v>
@@ -2953,7 +2966,7 @@
     </row>
     <row r="14" spans="1:22" s="4" customFormat="1">
       <c r="A14" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B14" s="14">
         <v>2</v>
@@ -2972,7 +2985,7 @@
         <v>53</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -3000,7 +3013,7 @@
         <v>282</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="U14" s="12" t="s">
         <v>56</v>
@@ -3011,7 +3024,7 @@
     </row>
     <row r="15" spans="1:22" s="4" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B15" s="14">
         <v>2</v>
@@ -3029,7 +3042,9 @@
       <c r="G15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="15"/>
+      <c r="H15" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14">
@@ -3056,7 +3071,7 @@
         <v>282</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U15" s="12" t="s">
         <v>56</v>
@@ -3067,9 +3082,9 @@
     </row>
     <row r="16" spans="1:22" s="4" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="13">
+        <v>69</v>
+      </c>
+      <c r="B16" s="14">
         <v>2</v>
       </c>
       <c r="C16" s="14">
@@ -3078,18 +3093,18 @@
       <c r="D16" s="14">
         <v>0</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="14">
         <v>0</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>72</v>
+      <c r="G16" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L16" s="14">
         <v>1</v>
@@ -3107,15 +3122,15 @@
         <v>1</v>
       </c>
       <c r="Q16" s="14"/>
-      <c r="R16" s="13"/>
+      <c r="R16" s="14"/>
       <c r="S16" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="T16" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="U16" s="15" t="s">
-        <v>74</v>
+      <c r="T16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="V16" s="14">
         <v>0</v>
@@ -3123,9 +3138,9 @@
     </row>
     <row r="17" spans="1:22" s="4" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="14">
+        <v>71</v>
+      </c>
+      <c r="B17" s="13">
         <v>2</v>
       </c>
       <c r="C17" s="14">
@@ -3134,7 +3149,7 @@
       <c r="D17" s="14">
         <v>0</v>
       </c>
-      <c r="E17" s="14"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="14">
         <v>0</v>
       </c>
@@ -3145,7 +3160,7 @@
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L17" s="14">
         <v>1</v>
@@ -3163,12 +3178,12 @@
         <v>1</v>
       </c>
       <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
+      <c r="R17" s="13"/>
       <c r="S17" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T17" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U17" s="15" t="s">
         <v>74</v>
@@ -3179,9 +3194,9 @@
     </row>
     <row r="18" spans="1:22" s="4" customFormat="1">
       <c r="A18" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="13">
+        <v>75</v>
+      </c>
+      <c r="B18" s="14">
         <v>2</v>
       </c>
       <c r="C18" s="14">
@@ -3190,7 +3205,7 @@
       <c r="D18" s="14">
         <v>0</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="14">
         <v>0</v>
       </c>
@@ -3201,7 +3216,7 @@
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L18" s="14">
         <v>1</v>
@@ -3219,12 +3234,12 @@
         <v>1</v>
       </c>
       <c r="Q18" s="14"/>
-      <c r="R18" s="13"/>
+      <c r="R18" s="14"/>
       <c r="S18" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T18" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="U18" s="15" t="s">
         <v>74</v>
@@ -3235,9 +3250,9 @@
     </row>
     <row r="19" spans="1:22" s="4" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="14">
+        <v>77</v>
+      </c>
+      <c r="B19" s="13">
         <v>2</v>
       </c>
       <c r="C19" s="14">
@@ -3246,7 +3261,7 @@
       <c r="D19" s="14">
         <v>0</v>
       </c>
-      <c r="E19" s="14"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="14">
         <v>0</v>
       </c>
@@ -3257,7 +3272,7 @@
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L19" s="14">
         <v>1</v>
@@ -3275,12 +3290,12 @@
         <v>1</v>
       </c>
       <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
+      <c r="R19" s="13"/>
       <c r="S19" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T19" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="U19" s="15" t="s">
         <v>74</v>
@@ -3291,7 +3306,7 @@
     </row>
     <row r="20" spans="1:22" s="4" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B20" s="14">
         <v>2</v>
@@ -3336,7 +3351,7 @@
         <v>282</v>
       </c>
       <c r="T20" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U20" s="15" t="s">
         <v>74</v>
@@ -3347,7 +3362,7 @@
     </row>
     <row r="21" spans="1:22" s="4" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B21" s="14">
         <v>2</v>
@@ -3392,7 +3407,7 @@
         <v>282</v>
       </c>
       <c r="T21" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U21" s="15" t="s">
         <v>74</v>
@@ -3403,9 +3418,9 @@
     </row>
     <row r="22" spans="1:22" s="4" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="13">
+        <v>83</v>
+      </c>
+      <c r="B22" s="14">
         <v>2</v>
       </c>
       <c r="C22" s="14">
@@ -3414,18 +3429,18 @@
       <c r="D22" s="14">
         <v>0</v>
       </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="14">
         <v>0</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="L22" s="14">
         <v>1</v>
@@ -3443,15 +3458,15 @@
         <v>1</v>
       </c>
       <c r="Q22" s="14"/>
-      <c r="R22" s="13"/>
+      <c r="R22" s="14"/>
       <c r="S22" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T22" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U22" s="15" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="V22" s="14">
         <v>0</v>
@@ -3459,9 +3474,9 @@
     </row>
     <row r="23" spans="1:22" s="4" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="14">
+        <v>85</v>
+      </c>
+      <c r="B23" s="13">
         <v>2</v>
       </c>
       <c r="C23" s="14">
@@ -3470,7 +3485,7 @@
       <c r="D23" s="14">
         <v>0</v>
       </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="14">
         <v>0</v>
       </c>
@@ -3481,7 +3496,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L23" s="14">
         <v>1</v>
@@ -3499,12 +3514,12 @@
         <v>1</v>
       </c>
       <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
+      <c r="R23" s="13"/>
       <c r="S23" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T23" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="U23" s="15" t="s">
         <v>88</v>
@@ -3515,9 +3530,9 @@
     </row>
     <row r="24" spans="1:22" s="4" customFormat="1">
       <c r="A24" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="13">
+        <v>89</v>
+      </c>
+      <c r="B24" s="14">
         <v>2</v>
       </c>
       <c r="C24" s="14">
@@ -3526,7 +3541,7 @@
       <c r="D24" s="14">
         <v>0</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="14"/>
       <c r="F24" s="14">
         <v>0</v>
       </c>
@@ -3537,7 +3552,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
       <c r="K24" s="14">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L24" s="14">
         <v>1</v>
@@ -3555,12 +3570,12 @@
         <v>1</v>
       </c>
       <c r="Q24" s="14"/>
-      <c r="R24" s="13"/>
+      <c r="R24" s="14"/>
       <c r="S24" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T24" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="U24" s="15" t="s">
         <v>88</v>
@@ -3571,9 +3586,9 @@
     </row>
     <row r="25" spans="1:22" s="4" customFormat="1">
       <c r="A25" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="14">
+        <v>91</v>
+      </c>
+      <c r="B25" s="13">
         <v>2</v>
       </c>
       <c r="C25" s="14">
@@ -3582,7 +3597,7 @@
       <c r="D25" s="14">
         <v>0</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="14">
         <v>0</v>
       </c>
@@ -3593,7 +3608,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L25" s="14">
         <v>1</v>
@@ -3611,12 +3626,12 @@
         <v>1</v>
       </c>
       <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
+      <c r="R25" s="13"/>
       <c r="S25" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="U25" s="15" t="s">
         <v>88</v>
@@ -3627,7 +3642,7 @@
     </row>
     <row r="26" spans="1:22" s="4" customFormat="1">
       <c r="A26" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B26" s="14">
         <v>2</v>
@@ -3672,7 +3687,7 @@
         <v>282</v>
       </c>
       <c r="T26" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U26" s="15" t="s">
         <v>88</v>
@@ -3683,7 +3698,7 @@
     </row>
     <row r="27" spans="1:22" s="4" customFormat="1">
       <c r="A27" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B27" s="14">
         <v>2</v>
@@ -3728,7 +3743,7 @@
         <v>282</v>
       </c>
       <c r="T27" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="U27" s="15" t="s">
         <v>88</v>
@@ -3739,9 +3754,9 @@
     </row>
     <row r="28" spans="1:22" s="4" customFormat="1">
       <c r="A28" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="13">
+        <v>97</v>
+      </c>
+      <c r="B28" s="14">
         <v>2</v>
       </c>
       <c r="C28" s="14">
@@ -3750,18 +3765,18 @@
       <c r="D28" s="14">
         <v>0</v>
       </c>
-      <c r="E28" s="13"/>
+      <c r="E28" s="14"/>
       <c r="F28" s="14">
         <v>0</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="L28" s="14">
         <v>1</v>
@@ -3779,15 +3794,15 @@
         <v>1</v>
       </c>
       <c r="Q28" s="14"/>
-      <c r="R28" s="13"/>
+      <c r="R28" s="14"/>
       <c r="S28" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T28" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="U28" s="15" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="V28" s="14">
         <v>0</v>
@@ -3795,9 +3810,9 @@
     </row>
     <row r="29" spans="1:22" s="4" customFormat="1">
       <c r="A29" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="14">
+        <v>99</v>
+      </c>
+      <c r="B29" s="13">
         <v>2</v>
       </c>
       <c r="C29" s="14">
@@ -3806,7 +3821,7 @@
       <c r="D29" s="14">
         <v>0</v>
       </c>
-      <c r="E29" s="14"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="14">
         <v>0</v>
       </c>
@@ -3817,7 +3832,7 @@
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L29" s="14">
         <v>1</v>
@@ -3835,12 +3850,12 @@
         <v>1</v>
       </c>
       <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
+      <c r="R29" s="13"/>
       <c r="S29" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T29" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U29" s="15" t="s">
         <v>102</v>
@@ -3851,9 +3866,9 @@
     </row>
     <row r="30" spans="1:22" s="4" customFormat="1">
       <c r="A30" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="13">
+        <v>103</v>
+      </c>
+      <c r="B30" s="14">
         <v>2</v>
       </c>
       <c r="C30" s="14">
@@ -3862,7 +3877,7 @@
       <c r="D30" s="14">
         <v>0</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="14">
         <v>0</v>
       </c>
@@ -3873,7 +3888,7 @@
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L30" s="14">
         <v>1</v>
@@ -3891,12 +3906,12 @@
         <v>1</v>
       </c>
       <c r="Q30" s="14"/>
-      <c r="R30" s="13"/>
+      <c r="R30" s="14"/>
       <c r="S30" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T30" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="U30" s="15" t="s">
         <v>102</v>
@@ -3907,9 +3922,9 @@
     </row>
     <row r="31" spans="1:22" s="4" customFormat="1">
       <c r="A31" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="14">
+        <v>105</v>
+      </c>
+      <c r="B31" s="13">
         <v>2</v>
       </c>
       <c r="C31" s="14">
@@ -3918,7 +3933,7 @@
       <c r="D31" s="14">
         <v>0</v>
       </c>
-      <c r="E31" s="14"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="14">
         <v>0</v>
       </c>
@@ -3929,7 +3944,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L31" s="14">
         <v>1</v>
@@ -3947,12 +3962,12 @@
         <v>1</v>
       </c>
       <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
+      <c r="R31" s="13"/>
       <c r="S31" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T31" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U31" s="15" t="s">
         <v>102</v>
@@ -3963,9 +3978,9 @@
     </row>
     <row r="32" spans="1:22" s="4" customFormat="1">
       <c r="A32" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" s="13">
+        <v>107</v>
+      </c>
+      <c r="B32" s="14">
         <v>2</v>
       </c>
       <c r="C32" s="14">
@@ -3974,7 +3989,7 @@
       <c r="D32" s="14">
         <v>0</v>
       </c>
-      <c r="E32" s="13"/>
+      <c r="E32" s="14"/>
       <c r="F32" s="14">
         <v>0</v>
       </c>
@@ -4003,12 +4018,12 @@
         <v>1</v>
       </c>
       <c r="Q32" s="14"/>
-      <c r="R32" s="13"/>
+      <c r="R32" s="14"/>
       <c r="S32" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T32" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U32" s="15" t="s">
         <v>102</v>
@@ -4019,9 +4034,9 @@
     </row>
     <row r="33" spans="1:22" s="4" customFormat="1">
       <c r="A33" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" s="14">
+        <v>109</v>
+      </c>
+      <c r="B33" s="13">
         <v>2</v>
       </c>
       <c r="C33" s="14">
@@ -4030,7 +4045,7 @@
       <c r="D33" s="14">
         <v>0</v>
       </c>
-      <c r="E33" s="14"/>
+      <c r="E33" s="13"/>
       <c r="F33" s="14">
         <v>0</v>
       </c>
@@ -4059,12 +4074,12 @@
         <v>1</v>
       </c>
       <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
+      <c r="R33" s="13"/>
       <c r="S33" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T33" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U33" s="15" t="s">
         <v>102</v>
@@ -4074,10 +4089,10 @@
       </c>
     </row>
     <row r="34" spans="1:22" s="4" customFormat="1">
-      <c r="A34" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" s="13">
+      <c r="A34" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="14">
         <v>2</v>
       </c>
       <c r="C34" s="14">
@@ -4086,18 +4101,18 @@
       <c r="D34" s="14">
         <v>0</v>
       </c>
-      <c r="E34" s="13"/>
+      <c r="E34" s="14"/>
       <c r="F34" s="14">
         <v>0</v>
       </c>
-      <c r="G34" s="14" t="s">
-        <v>114</v>
+      <c r="G34" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
       <c r="K34" s="14">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="L34" s="14">
         <v>1</v>
@@ -4115,15 +4130,15 @@
         <v>1</v>
       </c>
       <c r="Q34" s="14"/>
-      <c r="R34" s="13"/>
+      <c r="R34" s="14"/>
       <c r="S34" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="T34" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="U34" s="14" t="s">
-        <v>116</v>
+      <c r="T34" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="U34" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="V34" s="14">
         <v>0</v>
@@ -4131,9 +4146,9 @@
     </row>
     <row r="35" spans="1:22" s="4" customFormat="1">
       <c r="A35" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="14">
+        <v>113</v>
+      </c>
+      <c r="B35" s="13">
         <v>2</v>
       </c>
       <c r="C35" s="14">
@@ -4142,7 +4157,7 @@
       <c r="D35" s="14">
         <v>0</v>
       </c>
-      <c r="E35" s="14"/>
+      <c r="E35" s="13"/>
       <c r="F35" s="14">
         <v>0</v>
       </c>
@@ -4153,7 +4168,7 @@
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
       <c r="K35" s="14">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L35" s="14">
         <v>1</v>
@@ -4171,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
+      <c r="R35" s="13"/>
       <c r="S35" s="12" t="s">
         <v>282</v>
       </c>
@@ -4187,9 +4202,9 @@
     </row>
     <row r="36" spans="1:22" s="4" customFormat="1">
       <c r="A36" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B36" s="13">
+        <v>117</v>
+      </c>
+      <c r="B36" s="14">
         <v>2</v>
       </c>
       <c r="C36" s="14">
@@ -4198,7 +4213,7 @@
       <c r="D36" s="14">
         <v>0</v>
       </c>
-      <c r="E36" s="13"/>
+      <c r="E36" s="14"/>
       <c r="F36" s="14">
         <v>0</v>
       </c>
@@ -4209,7 +4224,7 @@
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L36" s="14">
         <v>1</v>
@@ -4227,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="Q36" s="14"/>
-      <c r="R36" s="13"/>
+      <c r="R36" s="14"/>
       <c r="S36" s="12" t="s">
         <v>282</v>
       </c>
@@ -4243,9 +4258,9 @@
     </row>
     <row r="37" spans="1:22" s="4" customFormat="1">
       <c r="A37" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37" s="14">
+        <v>118</v>
+      </c>
+      <c r="B37" s="13">
         <v>2</v>
       </c>
       <c r="C37" s="14">
@@ -4254,7 +4269,7 @@
       <c r="D37" s="14">
         <v>0</v>
       </c>
-      <c r="E37" s="14"/>
+      <c r="E37" s="13"/>
       <c r="F37" s="14">
         <v>0</v>
       </c>
@@ -4265,7 +4280,7 @@
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L37" s="14">
         <v>1</v>
@@ -4283,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
+      <c r="R37" s="13"/>
       <c r="S37" s="12" t="s">
         <v>282</v>
       </c>
@@ -4299,9 +4314,9 @@
     </row>
     <row r="38" spans="1:22" s="4" customFormat="1">
       <c r="A38" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="13">
+        <v>119</v>
+      </c>
+      <c r="B38" s="14">
         <v>2</v>
       </c>
       <c r="C38" s="14">
@@ -4310,7 +4325,7 @@
       <c r="D38" s="14">
         <v>0</v>
       </c>
-      <c r="E38" s="13"/>
+      <c r="E38" s="14"/>
       <c r="F38" s="14">
         <v>0</v>
       </c>
@@ -4339,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="Q38" s="14"/>
-      <c r="R38" s="13"/>
+      <c r="R38" s="14"/>
       <c r="S38" s="12" t="s">
         <v>282</v>
       </c>
@@ -4355,9 +4370,9 @@
     </row>
     <row r="39" spans="1:22" s="4" customFormat="1">
       <c r="A39" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" s="14">
+        <v>120</v>
+      </c>
+      <c r="B39" s="13">
         <v>2</v>
       </c>
       <c r="C39" s="14">
@@ -4366,7 +4381,7 @@
       <c r="D39" s="14">
         <v>0</v>
       </c>
-      <c r="E39" s="14"/>
+      <c r="E39" s="13"/>
       <c r="F39" s="14">
         <v>0</v>
       </c>
@@ -4395,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
+      <c r="R39" s="13"/>
       <c r="S39" s="12" t="s">
         <v>282</v>
       </c>
@@ -4410,8 +4425,8 @@
       </c>
     </row>
     <row r="40" spans="1:22" s="4" customFormat="1">
-      <c r="A40" s="15" t="s">
-        <v>122</v>
+      <c r="A40" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="B40" s="14">
         <v>2</v>
@@ -4426,14 +4441,14 @@
       <c r="F40" s="14">
         <v>0</v>
       </c>
-      <c r="G40" s="15" t="s">
-        <v>123</v>
+      <c r="G40" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="L40" s="14">
         <v>1</v>
@@ -4455,11 +4470,11 @@
       <c r="S40" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="T40" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="U40" s="15" t="s">
-        <v>125</v>
+      <c r="T40" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="U40" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="V40" s="14">
         <v>0</v>
@@ -4467,9 +4482,9 @@
     </row>
     <row r="41" spans="1:22" s="4" customFormat="1">
       <c r="A41" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B41" s="13">
+        <v>122</v>
+      </c>
+      <c r="B41" s="14">
         <v>2</v>
       </c>
       <c r="C41" s="14">
@@ -4478,7 +4493,7 @@
       <c r="D41" s="14">
         <v>0</v>
       </c>
-      <c r="E41" s="13"/>
+      <c r="E41" s="14"/>
       <c r="F41" s="14">
         <v>0</v>
       </c>
@@ -4489,7 +4504,7 @@
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
       <c r="K41" s="14">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L41" s="14">
         <v>1</v>
@@ -4507,12 +4522,12 @@
         <v>1</v>
       </c>
       <c r="Q41" s="14"/>
-      <c r="R41" s="13"/>
+      <c r="R41" s="14"/>
       <c r="S41" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T41" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="U41" s="15" t="s">
         <v>125</v>
@@ -4523,9 +4538,9 @@
     </row>
     <row r="42" spans="1:22" s="4" customFormat="1">
       <c r="A42" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B42" s="14">
+        <v>126</v>
+      </c>
+      <c r="B42" s="13">
         <v>2</v>
       </c>
       <c r="C42" s="14">
@@ -4534,7 +4549,7 @@
       <c r="D42" s="14">
         <v>0</v>
       </c>
-      <c r="E42" s="14"/>
+      <c r="E42" s="13"/>
       <c r="F42" s="14">
         <v>0</v>
       </c>
@@ -4545,7 +4560,7 @@
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
       <c r="K42" s="14">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L42" s="14">
         <v>1</v>
@@ -4563,12 +4578,12 @@
         <v>1</v>
       </c>
       <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
+      <c r="R42" s="13"/>
       <c r="S42" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T42" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U42" s="15" t="s">
         <v>125</v>
@@ -4579,9 +4594,9 @@
     </row>
     <row r="43" spans="1:22" s="4" customFormat="1">
       <c r="A43" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B43" s="13">
+        <v>128</v>
+      </c>
+      <c r="B43" s="14">
         <v>2</v>
       </c>
       <c r="C43" s="14">
@@ -4590,7 +4605,7 @@
       <c r="D43" s="14">
         <v>0</v>
       </c>
-      <c r="E43" s="13"/>
+      <c r="E43" s="14"/>
       <c r="F43" s="14">
         <v>0</v>
       </c>
@@ -4601,7 +4616,7 @@
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L43" s="14">
         <v>1</v>
@@ -4619,12 +4634,12 @@
         <v>1</v>
       </c>
       <c r="Q43" s="14"/>
-      <c r="R43" s="13"/>
+      <c r="R43" s="14"/>
       <c r="S43" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T43" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U43" s="15" t="s">
         <v>125</v>
@@ -4635,9 +4650,9 @@
     </row>
     <row r="44" spans="1:22" s="4" customFormat="1">
       <c r="A44" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" s="14">
+        <v>130</v>
+      </c>
+      <c r="B44" s="13">
         <v>2</v>
       </c>
       <c r="C44" s="14">
@@ -4646,7 +4661,7 @@
       <c r="D44" s="14">
         <v>0</v>
       </c>
-      <c r="E44" s="14"/>
+      <c r="E44" s="13"/>
       <c r="F44" s="14">
         <v>0</v>
       </c>
@@ -4657,7 +4672,7 @@
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="L44" s="14">
         <v>1</v>
@@ -4675,12 +4690,12 @@
         <v>1</v>
       </c>
       <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
+      <c r="R44" s="13"/>
       <c r="S44" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T44" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U44" s="15" t="s">
         <v>125</v>
@@ -4691,9 +4706,9 @@
     </row>
     <row r="45" spans="1:22" s="4" customFormat="1">
       <c r="A45" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" s="13">
+        <v>132</v>
+      </c>
+      <c r="B45" s="14">
         <v>2</v>
       </c>
       <c r="C45" s="14">
@@ -4702,7 +4717,7 @@
       <c r="D45" s="14">
         <v>0</v>
       </c>
-      <c r="E45" s="13"/>
+      <c r="E45" s="14"/>
       <c r="F45" s="14">
         <v>0</v>
       </c>
@@ -4731,12 +4746,12 @@
         <v>1</v>
       </c>
       <c r="Q45" s="14"/>
-      <c r="R45" s="13"/>
+      <c r="R45" s="14"/>
       <c r="S45" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T45" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U45" s="15" t="s">
         <v>125</v>
@@ -4745,78 +4760,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" s="5" customFormat="1" ht="327.75">
-      <c r="A46" s="16" t="s">
+    <row r="46" spans="1:22" s="4" customFormat="1">
+      <c r="A46" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="13">
+        <v>2</v>
+      </c>
+      <c r="C46" s="14">
+        <v>0</v>
+      </c>
+      <c r="D46" s="14">
+        <v>0</v>
+      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="14">
+        <v>0</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14">
+        <v>1600</v>
+      </c>
+      <c r="L46" s="14">
+        <v>1</v>
+      </c>
+      <c r="M46" s="14">
+        <v>999</v>
+      </c>
+      <c r="N46" s="14">
+        <v>0</v>
+      </c>
+      <c r="O46" s="14">
+        <v>100</v>
+      </c>
+      <c r="P46" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="T46" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="U46" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="V46" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" s="5" customFormat="1" ht="327.75">
+      <c r="A47" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B46" s="17">
-        <v>2</v>
-      </c>
-      <c r="C46" s="17">
-        <v>7</v>
-      </c>
-      <c r="D46" s="17">
-        <v>1</v>
-      </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17">
-        <v>0</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="K46" s="17">
-        <v>0</v>
-      </c>
-      <c r="L46" s="17">
-        <v>1</v>
-      </c>
-      <c r="M46" s="17">
-        <v>1</v>
-      </c>
-      <c r="N46" s="17">
-        <v>0</v>
-      </c>
-      <c r="O46" s="17">
-        <v>100</v>
-      </c>
-      <c r="P46" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="T46" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="U46" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="V46" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" s="5" customFormat="1">
-      <c r="A47" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B47" s="18">
+      <c r="B47" s="17">
         <v>2</v>
       </c>
       <c r="C47" s="17">
         <v>7</v>
       </c>
       <c r="D47" s="17">
-        <v>10</v>
-      </c>
-      <c r="E47" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="E47" s="17"/>
       <c r="F47" s="17">
         <v>0</v>
       </c>
@@ -4825,7 +4838,9 @@
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
+      <c r="J47" s="38" t="s">
+        <v>332</v>
+      </c>
       <c r="K47" s="17">
         <v>0</v>
       </c>
@@ -4845,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="Q47" s="17"/>
-      <c r="R47" s="18"/>
+      <c r="R47" s="17"/>
       <c r="S47" s="12" t="s">
         <v>282</v>
       </c>
@@ -4861,18 +4876,18 @@
     </row>
     <row r="48" spans="1:22" s="5" customFormat="1">
       <c r="A48" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B48" s="17">
+        <v>140</v>
+      </c>
+      <c r="B48" s="18">
         <v>2</v>
       </c>
       <c r="C48" s="17">
         <v>7</v>
       </c>
       <c r="D48" s="17">
-        <v>20</v>
-      </c>
-      <c r="E48" s="17"/>
+        <v>10</v>
+      </c>
+      <c r="E48" s="18"/>
       <c r="F48" s="17">
         <v>0</v>
       </c>
@@ -4901,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
+      <c r="R48" s="18"/>
       <c r="S48" s="12" t="s">
         <v>282</v>
       </c>
@@ -4917,18 +4932,18 @@
     </row>
     <row r="49" spans="1:22" s="5" customFormat="1">
       <c r="A49" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B49" s="18">
+        <v>141</v>
+      </c>
+      <c r="B49" s="17">
         <v>2</v>
       </c>
       <c r="C49" s="17">
         <v>7</v>
       </c>
       <c r="D49" s="17">
-        <v>30</v>
-      </c>
-      <c r="E49" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="E49" s="17"/>
       <c r="F49" s="17">
         <v>0</v>
       </c>
@@ -4957,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="Q49" s="17"/>
-      <c r="R49" s="18"/>
+      <c r="R49" s="17"/>
       <c r="S49" s="12" t="s">
         <v>282</v>
       </c>
@@ -4973,18 +4988,18 @@
     </row>
     <row r="50" spans="1:22" s="5" customFormat="1">
       <c r="A50" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B50" s="17">
+        <v>142</v>
+      </c>
+      <c r="B50" s="18">
         <v>2</v>
       </c>
       <c r="C50" s="17">
         <v>7</v>
       </c>
       <c r="D50" s="17">
-        <v>35</v>
-      </c>
-      <c r="E50" s="17"/>
+        <v>30</v>
+      </c>
+      <c r="E50" s="18"/>
       <c r="F50" s="17">
         <v>0</v>
       </c>
@@ -5013,7 +5028,7 @@
         <v>1</v>
       </c>
       <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
+      <c r="R50" s="18"/>
       <c r="S50" s="12" t="s">
         <v>282</v>
       </c>
@@ -5029,18 +5044,18 @@
     </row>
     <row r="51" spans="1:22" s="5" customFormat="1">
       <c r="A51" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B51" s="18">
+        <v>143</v>
+      </c>
+      <c r="B51" s="17">
         <v>2</v>
       </c>
       <c r="C51" s="17">
         <v>7</v>
       </c>
       <c r="D51" s="17">
-        <v>40</v>
-      </c>
-      <c r="E51" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="E51" s="17"/>
       <c r="F51" s="17">
         <v>0</v>
       </c>
@@ -5069,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="Q51" s="17"/>
-      <c r="R51" s="18"/>
+      <c r="R51" s="17"/>
       <c r="S51" s="12" t="s">
         <v>282</v>
       </c>
@@ -5085,18 +5100,18 @@
     </row>
     <row r="52" spans="1:22" s="5" customFormat="1">
       <c r="A52" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B52" s="17">
+        <v>144</v>
+      </c>
+      <c r="B52" s="18">
         <v>2</v>
       </c>
       <c r="C52" s="17">
         <v>7</v>
       </c>
       <c r="D52" s="17">
-        <v>45</v>
-      </c>
-      <c r="E52" s="17"/>
+        <v>40</v>
+      </c>
+      <c r="E52" s="18"/>
       <c r="F52" s="17">
         <v>0</v>
       </c>
@@ -5125,7 +5140,7 @@
         <v>1</v>
       </c>
       <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
+      <c r="R52" s="18"/>
       <c r="S52" s="12" t="s">
         <v>282</v>
       </c>
@@ -5141,18 +5156,18 @@
     </row>
     <row r="53" spans="1:22" s="5" customFormat="1">
       <c r="A53" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" s="18">
+        <v>145</v>
+      </c>
+      <c r="B53" s="17">
         <v>2</v>
       </c>
       <c r="C53" s="17">
         <v>7</v>
       </c>
       <c r="D53" s="17">
-        <v>50</v>
-      </c>
-      <c r="E53" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="E53" s="17"/>
       <c r="F53" s="17">
         <v>0</v>
       </c>
@@ -5181,7 +5196,7 @@
         <v>1</v>
       </c>
       <c r="Q53" s="17"/>
-      <c r="R53" s="18"/>
+      <c r="R53" s="17"/>
       <c r="S53" s="12" t="s">
         <v>282</v>
       </c>
@@ -5197,18 +5212,18 @@
     </row>
     <row r="54" spans="1:22" s="5" customFormat="1">
       <c r="A54" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" s="17">
+        <v>146</v>
+      </c>
+      <c r="B54" s="18">
         <v>2</v>
       </c>
       <c r="C54" s="17">
         <v>7</v>
       </c>
       <c r="D54" s="17">
-        <v>55</v>
-      </c>
-      <c r="E54" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="E54" s="18"/>
       <c r="F54" s="17">
         <v>0</v>
       </c>
@@ -5237,7 +5252,7 @@
         <v>1</v>
       </c>
       <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
+      <c r="R54" s="18"/>
       <c r="S54" s="12" t="s">
         <v>282</v>
       </c>
@@ -5253,18 +5268,18 @@
     </row>
     <row r="55" spans="1:22" s="5" customFormat="1">
       <c r="A55" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="B55" s="18">
+        <v>147</v>
+      </c>
+      <c r="B55" s="17">
         <v>2</v>
       </c>
       <c r="C55" s="17">
         <v>7</v>
       </c>
       <c r="D55" s="17">
-        <v>60</v>
-      </c>
-      <c r="E55" s="18"/>
+        <v>55</v>
+      </c>
+      <c r="E55" s="17"/>
       <c r="F55" s="17">
         <v>0</v>
       </c>
@@ -5293,7 +5308,7 @@
         <v>1</v>
       </c>
       <c r="Q55" s="17"/>
-      <c r="R55" s="18"/>
+      <c r="R55" s="17"/>
       <c r="S55" s="12" t="s">
         <v>282</v>
       </c>
@@ -5309,23 +5324,23 @@
     </row>
     <row r="56" spans="1:22" s="5" customFormat="1">
       <c r="A56" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="B56" s="17">
+        <v>148</v>
+      </c>
+      <c r="B56" s="18">
         <v>2</v>
       </c>
       <c r="C56" s="17">
         <v>7</v>
       </c>
       <c r="D56" s="17">
-        <v>10</v>
-      </c>
-      <c r="E56" s="17"/>
+        <v>60</v>
+      </c>
+      <c r="E56" s="18"/>
       <c r="F56" s="17">
         <v>0</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
@@ -5349,15 +5364,15 @@
         <v>1</v>
       </c>
       <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
+      <c r="R56" s="18"/>
       <c r="S56" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T56" s="16" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="U56" s="16" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="V56" s="17">
         <v>0</v>
@@ -5365,18 +5380,18 @@
     </row>
     <row r="57" spans="1:22" s="5" customFormat="1">
       <c r="A57" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="B57" s="18">
+        <v>149</v>
+      </c>
+      <c r="B57" s="17">
         <v>2</v>
       </c>
       <c r="C57" s="17">
         <v>7</v>
       </c>
       <c r="D57" s="17">
-        <v>20</v>
-      </c>
-      <c r="E57" s="18"/>
+        <v>10</v>
+      </c>
+      <c r="E57" s="17"/>
       <c r="F57" s="17">
         <v>0</v>
       </c>
@@ -5405,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="Q57" s="17"/>
-      <c r="R57" s="18"/>
+      <c r="R57" s="17"/>
       <c r="S57" s="12" t="s">
         <v>282</v>
       </c>
@@ -5421,16 +5436,16 @@
     </row>
     <row r="58" spans="1:22" s="5" customFormat="1">
       <c r="A58" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="B58" s="17">
+        <v>153</v>
+      </c>
+      <c r="B58" s="18">
         <v>2</v>
       </c>
       <c r="C58" s="17">
         <v>7</v>
       </c>
       <c r="D58" s="17">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E58" s="18"/>
       <c r="F58" s="17">
@@ -5461,7 +5476,7 @@
         <v>1</v>
       </c>
       <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
+      <c r="R58" s="18"/>
       <c r="S58" s="12" t="s">
         <v>282</v>
       </c>
@@ -5477,16 +5492,16 @@
     </row>
     <row r="59" spans="1:22" s="5" customFormat="1">
       <c r="A59" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="B59" s="18">
+        <v>154</v>
+      </c>
+      <c r="B59" s="17">
         <v>2</v>
       </c>
       <c r="C59" s="17">
         <v>7</v>
       </c>
       <c r="D59" s="17">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E59" s="18"/>
       <c r="F59" s="17">
@@ -5517,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="Q59" s="17"/>
-      <c r="R59" s="18"/>
+      <c r="R59" s="17"/>
       <c r="S59" s="12" t="s">
         <v>282</v>
       </c>
@@ -5532,48 +5547,48 @@
       </c>
     </row>
     <row r="60" spans="1:22" s="5" customFormat="1">
-      <c r="A60" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="B60" s="17">
+      <c r="A60" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" s="18">
         <v>2</v>
       </c>
       <c r="C60" s="17">
         <v>7</v>
       </c>
-      <c r="D60" s="20">
-        <v>50</v>
-      </c>
-      <c r="E60" s="21"/>
-      <c r="F60" s="20">
+      <c r="D60" s="17">
+        <v>40</v>
+      </c>
+      <c r="E60" s="18"/>
+      <c r="F60" s="17">
         <v>0</v>
       </c>
       <c r="G60" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20">
-        <v>0</v>
-      </c>
-      <c r="L60" s="20">
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17">
+        <v>0</v>
+      </c>
+      <c r="L60" s="17">
         <v>1</v>
       </c>
       <c r="M60" s="17">
         <v>1</v>
       </c>
-      <c r="N60" s="20">
-        <v>0</v>
-      </c>
-      <c r="O60" s="20">
+      <c r="N60" s="17">
+        <v>0</v>
+      </c>
+      <c r="O60" s="17">
         <v>100</v>
       </c>
-      <c r="P60" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="20"/>
+      <c r="P60" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="18"/>
       <c r="S60" s="12" t="s">
         <v>282</v>
       </c>
@@ -5583,22 +5598,22 @@
       <c r="U60" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="V60" s="20">
+      <c r="V60" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:22" s="5" customFormat="1">
       <c r="A61" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B61" s="18">
+        <v>156</v>
+      </c>
+      <c r="B61" s="17">
         <v>2</v>
       </c>
       <c r="C61" s="17">
         <v>7</v>
       </c>
       <c r="D61" s="20">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E61" s="21"/>
       <c r="F61" s="20">
@@ -5643,65 +5658,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" s="6" customFormat="1">
-      <c r="A62" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B62" s="22">
-        <v>1</v>
-      </c>
-      <c r="C62" s="22">
-        <v>0</v>
-      </c>
-      <c r="D62" s="22">
-        <v>0</v>
-      </c>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22">
-        <v>1</v>
-      </c>
-      <c r="G62" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22">
-        <v>20</v>
-      </c>
-      <c r="L62" s="22">
-        <v>0</v>
-      </c>
-      <c r="M62" s="22">
-        <v>1</v>
-      </c>
-      <c r="N62" s="22">
-        <v>0</v>
-      </c>
-      <c r="O62" s="22">
-        <v>20</v>
-      </c>
-      <c r="P62" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="22"/>
-      <c r="R62" s="22"/>
+    <row r="62" spans="1:22" s="5" customFormat="1">
+      <c r="A62" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" s="18">
+        <v>2</v>
+      </c>
+      <c r="C62" s="17">
+        <v>7</v>
+      </c>
+      <c r="D62" s="20">
+        <v>60</v>
+      </c>
+      <c r="E62" s="21"/>
+      <c r="F62" s="20">
+        <v>0</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20">
+        <v>0</v>
+      </c>
+      <c r="L62" s="20">
+        <v>1</v>
+      </c>
+      <c r="M62" s="17">
+        <v>1</v>
+      </c>
+      <c r="N62" s="20">
+        <v>0</v>
+      </c>
+      <c r="O62" s="20">
+        <v>100</v>
+      </c>
+      <c r="P62" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
       <c r="S62" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="T62" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="U62" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="V62" s="22">
+      <c r="T62" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="U62" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="V62" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:22" s="6" customFormat="1">
       <c r="A63" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B63" s="22">
         <v>1</v>
@@ -5714,7 +5729,7 @@
       </c>
       <c r="E63" s="22"/>
       <c r="F63" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" s="22" t="s">
         <v>159</v>
@@ -5723,7 +5738,7 @@
       <c r="I63" s="22"/>
       <c r="J63" s="22"/>
       <c r="K63" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L63" s="22">
         <v>0</v>
@@ -5735,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P63" s="22">
         <v>1</v>
@@ -5757,7 +5772,7 @@
     </row>
     <row r="64" spans="1:22" s="6" customFormat="1">
       <c r="A64" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B64" s="22">
         <v>1</v>
@@ -5770,7 +5785,7 @@
       </c>
       <c r="E64" s="22"/>
       <c r="F64" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G64" s="22" t="s">
         <v>159</v>
@@ -5779,7 +5794,7 @@
       <c r="I64" s="22"/>
       <c r="J64" s="22"/>
       <c r="K64" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="L64" s="22">
         <v>0</v>
@@ -5791,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P64" s="22">
         <v>1</v>
@@ -5813,7 +5828,7 @@
     </row>
     <row r="65" spans="1:22" s="6" customFormat="1">
       <c r="A65" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B65" s="22">
         <v>1</v>
@@ -5826,7 +5841,7 @@
       </c>
       <c r="E65" s="22"/>
       <c r="F65" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G65" s="22" t="s">
         <v>159</v>
@@ -5835,7 +5850,7 @@
       <c r="I65" s="22"/>
       <c r="J65" s="22"/>
       <c r="K65" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="L65" s="22">
         <v>0</v>
@@ -5847,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="P65" s="22">
         <v>1</v>
@@ -5869,7 +5884,7 @@
     </row>
     <row r="66" spans="1:22" s="6" customFormat="1">
       <c r="A66" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B66" s="22">
         <v>1</v>
@@ -5882,7 +5897,7 @@
       </c>
       <c r="E66" s="22"/>
       <c r="F66" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G66" s="22" t="s">
         <v>159</v>
@@ -5891,7 +5906,7 @@
       <c r="I66" s="22"/>
       <c r="J66" s="22"/>
       <c r="K66" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="L66" s="22">
         <v>0</v>
@@ -5903,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="P66" s="22">
         <v>1</v>
@@ -5925,7 +5940,7 @@
     </row>
     <row r="67" spans="1:22" s="6" customFormat="1">
       <c r="A67" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B67" s="22">
         <v>1</v>
@@ -5938,7 +5953,7 @@
       </c>
       <c r="E67" s="22"/>
       <c r="F67" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G67" s="22" t="s">
         <v>159</v>
@@ -5947,7 +5962,7 @@
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
       <c r="K67" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L67" s="22">
         <v>0</v>
@@ -5959,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="P67" s="22">
         <v>1</v>
@@ -5981,7 +5996,7 @@
     </row>
     <row r="68" spans="1:22" s="6" customFormat="1">
       <c r="A68" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B68" s="22">
         <v>1</v>
@@ -5994,7 +6009,7 @@
       </c>
       <c r="E68" s="22"/>
       <c r="F68" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G68" s="22" t="s">
         <v>159</v>
@@ -6003,7 +6018,7 @@
       <c r="I68" s="22"/>
       <c r="J68" s="22"/>
       <c r="K68" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="L68" s="22">
         <v>0</v>
@@ -6015,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="P68" s="22">
         <v>1</v>
@@ -6037,7 +6052,7 @@
     </row>
     <row r="69" spans="1:22" s="6" customFormat="1">
       <c r="A69" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B69" s="22">
         <v>1</v>
@@ -6050,7 +6065,7 @@
       </c>
       <c r="E69" s="22"/>
       <c r="F69" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G69" s="22" t="s">
         <v>159</v>
@@ -6059,7 +6074,7 @@
       <c r="I69" s="22"/>
       <c r="J69" s="22"/>
       <c r="K69" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L69" s="22">
         <v>0</v>
@@ -6071,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="P69" s="22">
         <v>1</v>
@@ -6093,7 +6108,7 @@
     </row>
     <row r="70" spans="1:22" s="6" customFormat="1">
       <c r="A70" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B70" s="22">
         <v>1</v>
@@ -6106,7 +6121,7 @@
       </c>
       <c r="E70" s="22"/>
       <c r="F70" s="22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G70" s="22" t="s">
         <v>159</v>
@@ -6115,7 +6130,7 @@
       <c r="I70" s="22"/>
       <c r="J70" s="22"/>
       <c r="K70" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L70" s="22">
         <v>0</v>
@@ -6127,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="P70" s="22">
         <v>1</v>
@@ -6149,7 +6164,7 @@
     </row>
     <row r="71" spans="1:22" s="6" customFormat="1">
       <c r="A71" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B71" s="22">
         <v>1</v>
@@ -6162,7 +6177,7 @@
       </c>
       <c r="E71" s="22"/>
       <c r="F71" s="22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G71" s="22" t="s">
         <v>159</v>
@@ -6171,7 +6186,7 @@
       <c r="I71" s="22"/>
       <c r="J71" s="22"/>
       <c r="K71" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L71" s="22">
         <v>0</v>
@@ -6183,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="P71" s="22">
         <v>1</v>
@@ -6205,29 +6220,29 @@
     </row>
     <row r="72" spans="1:22" s="6" customFormat="1">
       <c r="A72" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B72" s="22">
         <v>1</v>
       </c>
       <c r="C72" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" s="22">
         <v>0</v>
       </c>
       <c r="E72" s="22"/>
       <c r="F72" s="22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="H72" s="22"/>
       <c r="I72" s="22"/>
       <c r="J72" s="22"/>
       <c r="K72" s="22">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="L72" s="22">
         <v>0</v>
@@ -6239,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="22">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="P72" s="22">
         <v>1</v>
@@ -6250,10 +6265,10 @@
         <v>282</v>
       </c>
       <c r="T72" s="22" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="U72" s="22" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="V72" s="22">
         <v>0</v>
@@ -6261,7 +6276,7 @@
     </row>
     <row r="73" spans="1:22" s="6" customFormat="1">
       <c r="A73" s="22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B73" s="22">
         <v>1</v>
@@ -6274,7 +6289,7 @@
       </c>
       <c r="E73" s="22"/>
       <c r="F73" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73" s="22" t="s">
         <v>172</v>
@@ -6283,7 +6298,7 @@
       <c r="I73" s="22"/>
       <c r="J73" s="22"/>
       <c r="K73" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L73" s="22">
         <v>0</v>
@@ -6295,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="O73" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P73" s="22">
         <v>1</v>
@@ -6317,7 +6332,7 @@
     </row>
     <row r="74" spans="1:22" s="6" customFormat="1">
       <c r="A74" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B74" s="22">
         <v>1</v>
@@ -6330,7 +6345,7 @@
       </c>
       <c r="E74" s="22"/>
       <c r="F74" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G74" s="22" t="s">
         <v>172</v>
@@ -6339,7 +6354,7 @@
       <c r="I74" s="22"/>
       <c r="J74" s="22"/>
       <c r="K74" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="L74" s="22">
         <v>0</v>
@@ -6351,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P74" s="22">
         <v>1</v>
@@ -6373,7 +6388,7 @@
     </row>
     <row r="75" spans="1:22" s="6" customFormat="1">
       <c r="A75" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B75" s="22">
         <v>1</v>
@@ -6386,7 +6401,7 @@
       </c>
       <c r="E75" s="22"/>
       <c r="F75" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G75" s="22" t="s">
         <v>172</v>
@@ -6395,7 +6410,7 @@
       <c r="I75" s="22"/>
       <c r="J75" s="22"/>
       <c r="K75" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="L75" s="22">
         <v>0</v>
@@ -6407,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="P75" s="22">
         <v>1</v>
@@ -6429,7 +6444,7 @@
     </row>
     <row r="76" spans="1:22" s="6" customFormat="1">
       <c r="A76" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B76" s="22">
         <v>1</v>
@@ -6442,7 +6457,7 @@
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G76" s="22" t="s">
         <v>172</v>
@@ -6451,7 +6466,7 @@
       <c r="I76" s="22"/>
       <c r="J76" s="22"/>
       <c r="K76" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="L76" s="22">
         <v>0</v>
@@ -6463,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="P76" s="22">
         <v>1</v>
@@ -6485,7 +6500,7 @@
     </row>
     <row r="77" spans="1:22" s="6" customFormat="1">
       <c r="A77" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B77" s="22">
         <v>1</v>
@@ -6498,7 +6513,7 @@
       </c>
       <c r="E77" s="22"/>
       <c r="F77" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G77" s="22" t="s">
         <v>172</v>
@@ -6507,7 +6522,7 @@
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
       <c r="K77" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L77" s="22">
         <v>0</v>
@@ -6519,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="P77" s="22">
         <v>1</v>
@@ -6541,7 +6556,7 @@
     </row>
     <row r="78" spans="1:22" s="6" customFormat="1">
       <c r="A78" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B78" s="22">
         <v>1</v>
@@ -6554,7 +6569,7 @@
       </c>
       <c r="E78" s="22"/>
       <c r="F78" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G78" s="22" t="s">
         <v>172</v>
@@ -6563,7 +6578,7 @@
       <c r="I78" s="22"/>
       <c r="J78" s="22"/>
       <c r="K78" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="L78" s="22">
         <v>0</v>
@@ -6575,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="P78" s="22">
         <v>1</v>
@@ -6597,7 +6612,7 @@
     </row>
     <row r="79" spans="1:22" s="6" customFormat="1">
       <c r="A79" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B79" s="22">
         <v>1</v>
@@ -6610,7 +6625,7 @@
       </c>
       <c r="E79" s="22"/>
       <c r="F79" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G79" s="22" t="s">
         <v>172</v>
@@ -6619,7 +6634,7 @@
       <c r="I79" s="22"/>
       <c r="J79" s="22"/>
       <c r="K79" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L79" s="22">
         <v>0</v>
@@ -6631,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="P79" s="22">
         <v>1</v>
@@ -6653,7 +6668,7 @@
     </row>
     <row r="80" spans="1:22" s="6" customFormat="1">
       <c r="A80" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B80" s="22">
         <v>1</v>
@@ -6666,7 +6681,7 @@
       </c>
       <c r="E80" s="22"/>
       <c r="F80" s="22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G80" s="22" t="s">
         <v>172</v>
@@ -6675,7 +6690,7 @@
       <c r="I80" s="22"/>
       <c r="J80" s="22"/>
       <c r="K80" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L80" s="22">
         <v>0</v>
@@ -6687,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="O80" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="P80" s="22">
         <v>1</v>
@@ -6709,7 +6724,7 @@
     </row>
     <row r="81" spans="1:22" s="6" customFormat="1">
       <c r="A81" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B81" s="22">
         <v>1</v>
@@ -6722,7 +6737,7 @@
       </c>
       <c r="E81" s="22"/>
       <c r="F81" s="22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G81" s="22" t="s">
         <v>172</v>
@@ -6731,7 +6746,7 @@
       <c r="I81" s="22"/>
       <c r="J81" s="22"/>
       <c r="K81" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L81" s="22">
         <v>0</v>
@@ -6743,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="P81" s="22">
         <v>1</v>
@@ -6765,29 +6780,29 @@
     </row>
     <row r="82" spans="1:22" s="6" customFormat="1">
       <c r="A82" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B82" s="22">
         <v>1</v>
       </c>
       <c r="C82" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D82" s="22">
         <v>0</v>
       </c>
       <c r="E82" s="22"/>
       <c r="F82" s="22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G82" s="22" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="H82" s="22"/>
       <c r="I82" s="22"/>
       <c r="J82" s="22"/>
       <c r="K82" s="22">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="L82" s="22">
         <v>0</v>
@@ -6799,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="22">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="P82" s="22">
         <v>1</v>
@@ -6810,10 +6825,10 @@
         <v>282</v>
       </c>
       <c r="T82" s="22" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="U82" s="22" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="V82" s="22">
         <v>0</v>
@@ -6821,7 +6836,7 @@
     </row>
     <row r="83" spans="1:22" s="6" customFormat="1">
       <c r="A83" s="22" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B83" s="22">
         <v>1</v>
@@ -6834,7 +6849,7 @@
       </c>
       <c r="E83" s="22"/>
       <c r="F83" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83" s="22" t="s">
         <v>185</v>
@@ -6843,7 +6858,7 @@
       <c r="I83" s="22"/>
       <c r="J83" s="22"/>
       <c r="K83" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L83" s="22">
         <v>0</v>
@@ -6855,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P83" s="22">
         <v>1</v>
@@ -6877,7 +6892,7 @@
     </row>
     <row r="84" spans="1:22" s="6" customFormat="1">
       <c r="A84" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B84" s="22">
         <v>1</v>
@@ -6890,7 +6905,7 @@
       </c>
       <c r="E84" s="22"/>
       <c r="F84" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G84" s="22" t="s">
         <v>185</v>
@@ -6899,7 +6914,7 @@
       <c r="I84" s="22"/>
       <c r="J84" s="22"/>
       <c r="K84" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="L84" s="22">
         <v>0</v>
@@ -6911,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P84" s="22">
         <v>1</v>
@@ -6933,7 +6948,7 @@
     </row>
     <row r="85" spans="1:22" s="6" customFormat="1">
       <c r="A85" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B85" s="22">
         <v>1</v>
@@ -6946,7 +6961,7 @@
       </c>
       <c r="E85" s="22"/>
       <c r="F85" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G85" s="22" t="s">
         <v>185</v>
@@ -6955,7 +6970,7 @@
       <c r="I85" s="22"/>
       <c r="J85" s="22"/>
       <c r="K85" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="L85" s="22">
         <v>0</v>
@@ -6967,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="P85" s="22">
         <v>1</v>
@@ -6989,7 +7004,7 @@
     </row>
     <row r="86" spans="1:22" s="6" customFormat="1">
       <c r="A86" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B86" s="22">
         <v>1</v>
@@ -7002,7 +7017,7 @@
       </c>
       <c r="E86" s="22"/>
       <c r="F86" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G86" s="22" t="s">
         <v>185</v>
@@ -7011,7 +7026,7 @@
       <c r="I86" s="22"/>
       <c r="J86" s="22"/>
       <c r="K86" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="L86" s="22">
         <v>0</v>
@@ -7023,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="P86" s="22">
         <v>1</v>
@@ -7045,7 +7060,7 @@
     </row>
     <row r="87" spans="1:22" s="6" customFormat="1">
       <c r="A87" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B87" s="22">
         <v>1</v>
@@ -7058,7 +7073,7 @@
       </c>
       <c r="E87" s="22"/>
       <c r="F87" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G87" s="22" t="s">
         <v>185</v>
@@ -7067,7 +7082,7 @@
       <c r="I87" s="22"/>
       <c r="J87" s="22"/>
       <c r="K87" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L87" s="22">
         <v>0</v>
@@ -7079,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="P87" s="22">
         <v>1</v>
@@ -7101,7 +7116,7 @@
     </row>
     <row r="88" spans="1:22" s="6" customFormat="1">
       <c r="A88" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B88" s="22">
         <v>1</v>
@@ -7114,7 +7129,7 @@
       </c>
       <c r="E88" s="22"/>
       <c r="F88" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G88" s="22" t="s">
         <v>185</v>
@@ -7123,7 +7138,7 @@
       <c r="I88" s="22"/>
       <c r="J88" s="22"/>
       <c r="K88" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="L88" s="22">
         <v>0</v>
@@ -7135,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="P88" s="22">
         <v>1</v>
@@ -7157,7 +7172,7 @@
     </row>
     <row r="89" spans="1:22" s="6" customFormat="1">
       <c r="A89" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B89" s="22">
         <v>1</v>
@@ -7170,7 +7185,7 @@
       </c>
       <c r="E89" s="22"/>
       <c r="F89" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G89" s="22" t="s">
         <v>185</v>
@@ -7179,7 +7194,7 @@
       <c r="I89" s="22"/>
       <c r="J89" s="22"/>
       <c r="K89" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L89" s="22">
         <v>0</v>
@@ -7191,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="P89" s="22">
         <v>1</v>
@@ -7213,7 +7228,7 @@
     </row>
     <row r="90" spans="1:22" s="6" customFormat="1">
       <c r="A90" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B90" s="22">
         <v>1</v>
@@ -7226,7 +7241,7 @@
       </c>
       <c r="E90" s="22"/>
       <c r="F90" s="22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G90" s="22" t="s">
         <v>185</v>
@@ -7235,7 +7250,7 @@
       <c r="I90" s="22"/>
       <c r="J90" s="22"/>
       <c r="K90" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L90" s="22">
         <v>0</v>
@@ -7247,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="P90" s="22">
         <v>1</v>
@@ -7269,7 +7284,7 @@
     </row>
     <row r="91" spans="1:22" s="6" customFormat="1">
       <c r="A91" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B91" s="22">
         <v>1</v>
@@ -7282,7 +7297,7 @@
       </c>
       <c r="E91" s="22"/>
       <c r="F91" s="22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G91" s="22" t="s">
         <v>185</v>
@@ -7291,7 +7306,7 @@
       <c r="I91" s="22"/>
       <c r="J91" s="22"/>
       <c r="K91" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L91" s="22">
         <v>0</v>
@@ -7303,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="P91" s="22">
         <v>1</v>
@@ -7325,29 +7340,29 @@
     </row>
     <row r="92" spans="1:22" s="6" customFormat="1">
       <c r="A92" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B92" s="22">
         <v>1</v>
       </c>
       <c r="C92" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" s="22">
         <v>0</v>
       </c>
       <c r="E92" s="22"/>
       <c r="F92" s="22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="H92" s="22"/>
       <c r="I92" s="22"/>
       <c r="J92" s="22"/>
       <c r="K92" s="22">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="L92" s="22">
         <v>0</v>
@@ -7359,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="22">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="P92" s="22">
         <v>1</v>
@@ -7370,10 +7385,10 @@
         <v>282</v>
       </c>
       <c r="T92" s="22" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="U92" s="22" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="V92" s="22">
         <v>0</v>
@@ -7381,7 +7396,7 @@
     </row>
     <row r="93" spans="1:22" s="6" customFormat="1">
       <c r="A93" s="22" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B93" s="22">
         <v>1</v>
@@ -7394,7 +7409,7 @@
       </c>
       <c r="E93" s="22"/>
       <c r="F93" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G93" s="22" t="s">
         <v>198</v>
@@ -7403,7 +7418,7 @@
       <c r="I93" s="22"/>
       <c r="J93" s="22"/>
       <c r="K93" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L93" s="22">
         <v>0</v>
@@ -7415,7 +7430,7 @@
         <v>0</v>
       </c>
       <c r="O93" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P93" s="22">
         <v>1</v>
@@ -7437,7 +7452,7 @@
     </row>
     <row r="94" spans="1:22" s="6" customFormat="1">
       <c r="A94" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B94" s="22">
         <v>1</v>
@@ -7450,7 +7465,7 @@
       </c>
       <c r="E94" s="22"/>
       <c r="F94" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G94" s="22" t="s">
         <v>198</v>
@@ -7459,7 +7474,7 @@
       <c r="I94" s="22"/>
       <c r="J94" s="22"/>
       <c r="K94" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="L94" s="22">
         <v>0</v>
@@ -7471,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P94" s="22">
         <v>1</v>
@@ -7493,7 +7508,7 @@
     </row>
     <row r="95" spans="1:22" s="6" customFormat="1">
       <c r="A95" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B95" s="22">
         <v>1</v>
@@ -7506,7 +7521,7 @@
       </c>
       <c r="E95" s="22"/>
       <c r="F95" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G95" s="22" t="s">
         <v>198</v>
@@ -7515,7 +7530,7 @@
       <c r="I95" s="22"/>
       <c r="J95" s="22"/>
       <c r="K95" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="L95" s="22">
         <v>0</v>
@@ -7527,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="P95" s="22">
         <v>1</v>
@@ -7549,7 +7564,7 @@
     </row>
     <row r="96" spans="1:22" s="6" customFormat="1">
       <c r="A96" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B96" s="22">
         <v>1</v>
@@ -7562,7 +7577,7 @@
       </c>
       <c r="E96" s="22"/>
       <c r="F96" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G96" s="22" t="s">
         <v>198</v>
@@ -7571,7 +7586,7 @@
       <c r="I96" s="22"/>
       <c r="J96" s="22"/>
       <c r="K96" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="L96" s="22">
         <v>0</v>
@@ -7583,7 +7598,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="P96" s="22">
         <v>1</v>
@@ -7605,7 +7620,7 @@
     </row>
     <row r="97" spans="1:22" s="6" customFormat="1">
       <c r="A97" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B97" s="22">
         <v>1</v>
@@ -7618,7 +7633,7 @@
       </c>
       <c r="E97" s="22"/>
       <c r="F97" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G97" s="22" t="s">
         <v>198</v>
@@ -7627,7 +7642,7 @@
       <c r="I97" s="22"/>
       <c r="J97" s="22"/>
       <c r="K97" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L97" s="22">
         <v>0</v>
@@ -7639,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="O97" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="P97" s="22">
         <v>1</v>
@@ -7661,7 +7676,7 @@
     </row>
     <row r="98" spans="1:22" s="6" customFormat="1">
       <c r="A98" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B98" s="22">
         <v>1</v>
@@ -7674,7 +7689,7 @@
       </c>
       <c r="E98" s="22"/>
       <c r="F98" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G98" s="22" t="s">
         <v>198</v>
@@ -7683,7 +7698,7 @@
       <c r="I98" s="22"/>
       <c r="J98" s="22"/>
       <c r="K98" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="L98" s="22">
         <v>0</v>
@@ -7695,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="O98" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="P98" s="22">
         <v>1</v>
@@ -7717,7 +7732,7 @@
     </row>
     <row r="99" spans="1:22" s="6" customFormat="1">
       <c r="A99" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B99" s="22">
         <v>1</v>
@@ -7730,7 +7745,7 @@
       </c>
       <c r="E99" s="22"/>
       <c r="F99" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G99" s="22" t="s">
         <v>198</v>
@@ -7739,7 +7754,7 @@
       <c r="I99" s="22"/>
       <c r="J99" s="22"/>
       <c r="K99" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L99" s="22">
         <v>0</v>
@@ -7751,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="P99" s="22">
         <v>1</v>
@@ -7773,7 +7788,7 @@
     </row>
     <row r="100" spans="1:22" s="6" customFormat="1">
       <c r="A100" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B100" s="22">
         <v>1</v>
@@ -7786,7 +7801,7 @@
       </c>
       <c r="E100" s="22"/>
       <c r="F100" s="22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G100" s="22" t="s">
         <v>198</v>
@@ -7795,7 +7810,7 @@
       <c r="I100" s="22"/>
       <c r="J100" s="22"/>
       <c r="K100" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L100" s="22">
         <v>0</v>
@@ -7807,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="O100" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="P100" s="22">
         <v>1</v>
@@ -7829,7 +7844,7 @@
     </row>
     <row r="101" spans="1:22" s="6" customFormat="1">
       <c r="A101" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B101" s="22">
         <v>1</v>
@@ -7842,7 +7857,7 @@
       </c>
       <c r="E101" s="22"/>
       <c r="F101" s="22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G101" s="22" t="s">
         <v>198</v>
@@ -7851,7 +7866,7 @@
       <c r="I101" s="22"/>
       <c r="J101" s="22"/>
       <c r="K101" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L101" s="22">
         <v>0</v>
@@ -7863,7 +7878,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="P101" s="22">
         <v>1</v>
@@ -7883,65 +7898,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:22" s="7" customFormat="1">
-      <c r="A102" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="B102" s="23">
+    <row r="102" spans="1:22" s="6" customFormat="1">
+      <c r="A102" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B102" s="22">
         <v>1</v>
       </c>
       <c r="C102" s="22">
-        <v>5</v>
-      </c>
-      <c r="D102" s="23">
-        <v>0</v>
-      </c>
-      <c r="E102" s="23"/>
-      <c r="F102" s="23">
-        <v>1</v>
-      </c>
-      <c r="G102" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="H102" s="23"/>
-      <c r="I102" s="23"/>
-      <c r="J102" s="23"/>
+        <v>4</v>
+      </c>
+      <c r="D102" s="22">
+        <v>0</v>
+      </c>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22">
+        <v>10</v>
+      </c>
+      <c r="G102" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="H102" s="22"/>
+      <c r="I102" s="22"/>
+      <c r="J102" s="22"/>
       <c r="K102" s="22">
-        <v>20</v>
-      </c>
-      <c r="L102" s="23">
+        <v>1000</v>
+      </c>
+      <c r="L102" s="22">
         <v>0</v>
       </c>
       <c r="M102" s="22">
         <v>1</v>
       </c>
-      <c r="N102" s="23">
+      <c r="N102" s="22">
         <v>0</v>
       </c>
       <c r="O102" s="22">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="P102" s="22">
         <v>1</v>
       </c>
-      <c r="Q102" s="23"/>
+      <c r="Q102" s="22"/>
       <c r="R102" s="22"/>
       <c r="S102" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="T102" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="U102" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="V102" s="23">
+      <c r="T102" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="U102" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="V102" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:22" s="7" customFormat="1">
       <c r="A103" s="23" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B103" s="23">
         <v>1</v>
@@ -7954,7 +7969,7 @@
       </c>
       <c r="E103" s="23"/>
       <c r="F103" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G103" s="23" t="s">
         <v>211</v>
@@ -7963,7 +7978,7 @@
       <c r="I103" s="23"/>
       <c r="J103" s="23"/>
       <c r="K103" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L103" s="23">
         <v>0</v>
@@ -7975,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="O103" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P103" s="22">
         <v>1</v>
@@ -7997,7 +8012,7 @@
     </row>
     <row r="104" spans="1:22" s="7" customFormat="1">
       <c r="A104" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B104" s="23">
         <v>1</v>
@@ -8010,7 +8025,7 @@
       </c>
       <c r="E104" s="23"/>
       <c r="F104" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G104" s="23" t="s">
         <v>211</v>
@@ -8019,7 +8034,7 @@
       <c r="I104" s="23"/>
       <c r="J104" s="23"/>
       <c r="K104" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="L104" s="23">
         <v>0</v>
@@ -8031,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="O104" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P104" s="22">
         <v>1</v>
@@ -8053,7 +8068,7 @@
     </row>
     <row r="105" spans="1:22" s="7" customFormat="1">
       <c r="A105" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B105" s="23">
         <v>1</v>
@@ -8066,7 +8081,7 @@
       </c>
       <c r="E105" s="23"/>
       <c r="F105" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G105" s="23" t="s">
         <v>211</v>
@@ -8075,7 +8090,7 @@
       <c r="I105" s="23"/>
       <c r="J105" s="23"/>
       <c r="K105" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="L105" s="23">
         <v>0</v>
@@ -8087,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="O105" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="P105" s="22">
         <v>1</v>
@@ -8109,7 +8124,7 @@
     </row>
     <row r="106" spans="1:22" s="7" customFormat="1">
       <c r="A106" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B106" s="23">
         <v>1</v>
@@ -8122,7 +8137,7 @@
       </c>
       <c r="E106" s="23"/>
       <c r="F106" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G106" s="23" t="s">
         <v>211</v>
@@ -8131,7 +8146,7 @@
       <c r="I106" s="23"/>
       <c r="J106" s="23"/>
       <c r="K106" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="L106" s="23">
         <v>0</v>
@@ -8143,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="O106" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="P106" s="22">
         <v>1</v>
@@ -8165,7 +8180,7 @@
     </row>
     <row r="107" spans="1:22" s="7" customFormat="1">
       <c r="A107" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B107" s="23">
         <v>1</v>
@@ -8178,7 +8193,7 @@
       </c>
       <c r="E107" s="23"/>
       <c r="F107" s="23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G107" s="23" t="s">
         <v>211</v>
@@ -8187,7 +8202,7 @@
       <c r="I107" s="23"/>
       <c r="J107" s="23"/>
       <c r="K107" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L107" s="23">
         <v>0</v>
@@ -8199,7 +8214,7 @@
         <v>0</v>
       </c>
       <c r="O107" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="P107" s="22">
         <v>1</v>
@@ -8221,7 +8236,7 @@
     </row>
     <row r="108" spans="1:22" s="7" customFormat="1">
       <c r="A108" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B108" s="23">
         <v>1</v>
@@ -8234,7 +8249,7 @@
       </c>
       <c r="E108" s="23"/>
       <c r="F108" s="23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G108" s="23" t="s">
         <v>211</v>
@@ -8243,7 +8258,7 @@
       <c r="I108" s="23"/>
       <c r="J108" s="23"/>
       <c r="K108" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="L108" s="23">
         <v>0</v>
@@ -8255,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="O108" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="P108" s="22">
         <v>1</v>
@@ -8277,7 +8292,7 @@
     </row>
     <row r="109" spans="1:22" s="7" customFormat="1">
       <c r="A109" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B109" s="23">
         <v>1</v>
@@ -8290,7 +8305,7 @@
       </c>
       <c r="E109" s="23"/>
       <c r="F109" s="23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G109" s="23" t="s">
         <v>211</v>
@@ -8299,7 +8314,7 @@
       <c r="I109" s="23"/>
       <c r="J109" s="23"/>
       <c r="K109" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L109" s="23">
         <v>0</v>
@@ -8311,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="O109" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="P109" s="22">
         <v>1</v>
@@ -8333,7 +8348,7 @@
     </row>
     <row r="110" spans="1:22" s="7" customFormat="1">
       <c r="A110" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B110" s="23">
         <v>1</v>
@@ -8346,7 +8361,7 @@
       </c>
       <c r="E110" s="23"/>
       <c r="F110" s="23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G110" s="23" t="s">
         <v>211</v>
@@ -8355,7 +8370,7 @@
       <c r="I110" s="23"/>
       <c r="J110" s="23"/>
       <c r="K110" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L110" s="23">
         <v>0</v>
@@ -8367,7 +8382,7 @@
         <v>0</v>
       </c>
       <c r="O110" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="P110" s="22">
         <v>1</v>
@@ -8389,7 +8404,7 @@
     </row>
     <row r="111" spans="1:22" s="7" customFormat="1">
       <c r="A111" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B111" s="23">
         <v>1</v>
@@ -8402,7 +8417,7 @@
       </c>
       <c r="E111" s="23"/>
       <c r="F111" s="23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G111" s="23" t="s">
         <v>211</v>
@@ -8411,7 +8426,7 @@
       <c r="I111" s="23"/>
       <c r="J111" s="23"/>
       <c r="K111" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L111" s="23">
         <v>0</v>
@@ -8423,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="O111" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="P111" s="22">
         <v>1</v>
@@ -8443,65 +8458,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:22" s="6" customFormat="1">
-      <c r="A112" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="B112" s="22">
-        <v>1</v>
-      </c>
-      <c r="C112" s="23">
-        <v>6</v>
-      </c>
-      <c r="D112" s="22">
-        <v>0</v>
-      </c>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22">
-        <v>1</v>
-      </c>
-      <c r="G112" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="H112" s="22"/>
-      <c r="I112" s="22"/>
-      <c r="J112" s="22"/>
+    <row r="112" spans="1:22" s="7" customFormat="1">
+      <c r="A112" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="23">
+        <v>1</v>
+      </c>
+      <c r="C112" s="22">
+        <v>5</v>
+      </c>
+      <c r="D112" s="23">
+        <v>0</v>
+      </c>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23">
+        <v>10</v>
+      </c>
+      <c r="G112" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="H112" s="23"/>
+      <c r="I112" s="23"/>
+      <c r="J112" s="23"/>
       <c r="K112" s="22">
-        <v>20</v>
-      </c>
-      <c r="L112" s="22">
+        <v>1000</v>
+      </c>
+      <c r="L112" s="23">
         <v>0</v>
       </c>
       <c r="M112" s="22">
         <v>1</v>
       </c>
-      <c r="N112" s="22">
+      <c r="N112" s="23">
         <v>0</v>
       </c>
       <c r="O112" s="22">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="P112" s="22">
         <v>1</v>
       </c>
-      <c r="Q112" s="22"/>
+      <c r="Q112" s="23"/>
       <c r="R112" s="22"/>
       <c r="S112" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="T112" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="U112" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="V112" s="22">
+      <c r="T112" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="U112" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="V112" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:22" s="6" customFormat="1">
       <c r="A113" s="22" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B113" s="22">
         <v>1</v>
@@ -8514,7 +8529,7 @@
       </c>
       <c r="E113" s="22"/>
       <c r="F113" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G113" s="22" t="s">
         <v>224</v>
@@ -8523,7 +8538,7 @@
       <c r="I113" s="22"/>
       <c r="J113" s="22"/>
       <c r="K113" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L113" s="22">
         <v>0</v>
@@ -8535,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="O113" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P113" s="22">
         <v>1</v>
@@ -8557,7 +8572,7 @@
     </row>
     <row r="114" spans="1:22" s="6" customFormat="1">
       <c r="A114" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B114" s="22">
         <v>1</v>
@@ -8570,7 +8585,7 @@
       </c>
       <c r="E114" s="22"/>
       <c r="F114" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G114" s="22" t="s">
         <v>224</v>
@@ -8579,7 +8594,7 @@
       <c r="I114" s="22"/>
       <c r="J114" s="22"/>
       <c r="K114" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="L114" s="22">
         <v>0</v>
@@ -8591,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="O114" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P114" s="22">
         <v>1</v>
@@ -8613,7 +8628,7 @@
     </row>
     <row r="115" spans="1:22" s="6" customFormat="1">
       <c r="A115" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B115" s="22">
         <v>1</v>
@@ -8626,7 +8641,7 @@
       </c>
       <c r="E115" s="22"/>
       <c r="F115" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G115" s="22" t="s">
         <v>224</v>
@@ -8635,7 +8650,7 @@
       <c r="I115" s="22"/>
       <c r="J115" s="22"/>
       <c r="K115" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="L115" s="22">
         <v>0</v>
@@ -8647,7 +8662,7 @@
         <v>0</v>
       </c>
       <c r="O115" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="P115" s="22">
         <v>1</v>
@@ -8669,7 +8684,7 @@
     </row>
     <row r="116" spans="1:22" s="6" customFormat="1">
       <c r="A116" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B116" s="22">
         <v>1</v>
@@ -8682,7 +8697,7 @@
       </c>
       <c r="E116" s="22"/>
       <c r="F116" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G116" s="22" t="s">
         <v>224</v>
@@ -8691,7 +8706,7 @@
       <c r="I116" s="22"/>
       <c r="J116" s="22"/>
       <c r="K116" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="L116" s="22">
         <v>0</v>
@@ -8703,7 +8718,7 @@
         <v>0</v>
       </c>
       <c r="O116" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="P116" s="22">
         <v>1</v>
@@ -8725,7 +8740,7 @@
     </row>
     <row r="117" spans="1:22" s="6" customFormat="1">
       <c r="A117" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B117" s="22">
         <v>1</v>
@@ -8738,7 +8753,7 @@
       </c>
       <c r="E117" s="22"/>
       <c r="F117" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G117" s="22" t="s">
         <v>224</v>
@@ -8747,7 +8762,7 @@
       <c r="I117" s="22"/>
       <c r="J117" s="22"/>
       <c r="K117" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L117" s="22">
         <v>0</v>
@@ -8759,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="O117" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="P117" s="22">
         <v>1</v>
@@ -8781,7 +8796,7 @@
     </row>
     <row r="118" spans="1:22" s="6" customFormat="1">
       <c r="A118" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B118" s="22">
         <v>1</v>
@@ -8794,7 +8809,7 @@
       </c>
       <c r="E118" s="22"/>
       <c r="F118" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G118" s="22" t="s">
         <v>224</v>
@@ -8803,7 +8818,7 @@
       <c r="I118" s="22"/>
       <c r="J118" s="22"/>
       <c r="K118" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="L118" s="22">
         <v>0</v>
@@ -8815,7 +8830,7 @@
         <v>0</v>
       </c>
       <c r="O118" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="P118" s="22">
         <v>1</v>
@@ -8837,7 +8852,7 @@
     </row>
     <row r="119" spans="1:22" s="6" customFormat="1">
       <c r="A119" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B119" s="22">
         <v>1</v>
@@ -8850,7 +8865,7 @@
       </c>
       <c r="E119" s="22"/>
       <c r="F119" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G119" s="22" t="s">
         <v>224</v>
@@ -8859,7 +8874,7 @@
       <c r="I119" s="22"/>
       <c r="J119" s="22"/>
       <c r="K119" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L119" s="22">
         <v>0</v>
@@ -8871,7 +8886,7 @@
         <v>0</v>
       </c>
       <c r="O119" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="P119" s="22">
         <v>1</v>
@@ -8893,7 +8908,7 @@
     </row>
     <row r="120" spans="1:22" s="6" customFormat="1">
       <c r="A120" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B120" s="22">
         <v>1</v>
@@ -8906,7 +8921,7 @@
       </c>
       <c r="E120" s="22"/>
       <c r="F120" s="22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G120" s="22" t="s">
         <v>224</v>
@@ -8915,7 +8930,7 @@
       <c r="I120" s="22"/>
       <c r="J120" s="22"/>
       <c r="K120" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L120" s="22">
         <v>0</v>
@@ -8927,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="O120" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="P120" s="22">
         <v>1</v>
@@ -8949,7 +8964,7 @@
     </row>
     <row r="121" spans="1:22" s="6" customFormat="1">
       <c r="A121" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B121" s="22">
         <v>1</v>
@@ -8962,7 +8977,7 @@
       </c>
       <c r="E121" s="22"/>
       <c r="F121" s="22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G121" s="22" t="s">
         <v>224</v>
@@ -8971,7 +8986,7 @@
       <c r="I121" s="22"/>
       <c r="J121" s="22"/>
       <c r="K121" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L121" s="22">
         <v>0</v>
@@ -8983,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="O121" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="P121" s="22">
         <v>1</v>
@@ -9005,29 +9020,29 @@
     </row>
     <row r="122" spans="1:22" s="6" customFormat="1">
       <c r="A122" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B122" s="22">
         <v>1</v>
       </c>
-      <c r="C122" s="22">
-        <v>7</v>
+      <c r="C122" s="23">
+        <v>6</v>
       </c>
       <c r="D122" s="22">
         <v>0</v>
       </c>
       <c r="E122" s="22"/>
       <c r="F122" s="22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G122" s="22" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="H122" s="22"/>
       <c r="I122" s="22"/>
       <c r="J122" s="22"/>
       <c r="K122" s="22">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="L122" s="22">
         <v>0</v>
@@ -9039,7 +9054,7 @@
         <v>0</v>
       </c>
       <c r="O122" s="22">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="P122" s="22">
         <v>1</v>
@@ -9050,10 +9065,10 @@
         <v>282</v>
       </c>
       <c r="T122" s="22" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="U122" s="22" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="V122" s="22">
         <v>0</v>
@@ -9061,7 +9076,7 @@
     </row>
     <row r="123" spans="1:22" s="6" customFormat="1">
       <c r="A123" s="22" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B123" s="22">
         <v>1</v>
@@ -9074,7 +9089,7 @@
       </c>
       <c r="E123" s="22"/>
       <c r="F123" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G123" s="22" t="s">
         <v>237</v>
@@ -9083,7 +9098,7 @@
       <c r="I123" s="22"/>
       <c r="J123" s="22"/>
       <c r="K123" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L123" s="22">
         <v>0</v>
@@ -9095,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="O123" s="22">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P123" s="22">
         <v>1</v>
@@ -9117,7 +9132,7 @@
     </row>
     <row r="124" spans="1:22" s="6" customFormat="1">
       <c r="A124" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B124" s="22">
         <v>1</v>
@@ -9130,7 +9145,7 @@
       </c>
       <c r="E124" s="22"/>
       <c r="F124" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G124" s="22" t="s">
         <v>237</v>
@@ -9139,7 +9154,7 @@
       <c r="I124" s="22"/>
       <c r="J124" s="22"/>
       <c r="K124" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="L124" s="22">
         <v>0</v>
@@ -9151,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="O124" s="22">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P124" s="22">
         <v>1</v>
@@ -9173,7 +9188,7 @@
     </row>
     <row r="125" spans="1:22" s="6" customFormat="1">
       <c r="A125" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B125" s="22">
         <v>1</v>
@@ -9186,7 +9201,7 @@
       </c>
       <c r="E125" s="22"/>
       <c r="F125" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G125" s="22" t="s">
         <v>237</v>
@@ -9195,7 +9210,7 @@
       <c r="I125" s="22"/>
       <c r="J125" s="22"/>
       <c r="K125" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="L125" s="22">
         <v>0</v>
@@ -9207,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="O125" s="22">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="P125" s="22">
         <v>1</v>
@@ -9229,7 +9244,7 @@
     </row>
     <row r="126" spans="1:22" s="6" customFormat="1">
       <c r="A126" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B126" s="22">
         <v>1</v>
@@ -9242,7 +9257,7 @@
       </c>
       <c r="E126" s="22"/>
       <c r="F126" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G126" s="22" t="s">
         <v>237</v>
@@ -9251,7 +9266,7 @@
       <c r="I126" s="22"/>
       <c r="J126" s="22"/>
       <c r="K126" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="L126" s="22">
         <v>0</v>
@@ -9263,7 +9278,7 @@
         <v>0</v>
       </c>
       <c r="O126" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="P126" s="22">
         <v>1</v>
@@ -9285,7 +9300,7 @@
     </row>
     <row r="127" spans="1:22" s="6" customFormat="1">
       <c r="A127" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B127" s="22">
         <v>1</v>
@@ -9298,7 +9313,7 @@
       </c>
       <c r="E127" s="22"/>
       <c r="F127" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G127" s="22" t="s">
         <v>237</v>
@@ -9307,7 +9322,7 @@
       <c r="I127" s="22"/>
       <c r="J127" s="22"/>
       <c r="K127" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L127" s="22">
         <v>0</v>
@@ -9319,7 +9334,7 @@
         <v>0</v>
       </c>
       <c r="O127" s="22">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="P127" s="22">
         <v>1</v>
@@ -9341,7 +9356,7 @@
     </row>
     <row r="128" spans="1:22" s="6" customFormat="1">
       <c r="A128" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B128" s="22">
         <v>1</v>
@@ -9354,7 +9369,7 @@
       </c>
       <c r="E128" s="22"/>
       <c r="F128" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G128" s="22" t="s">
         <v>237</v>
@@ -9363,7 +9378,7 @@
       <c r="I128" s="22"/>
       <c r="J128" s="22"/>
       <c r="K128" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="L128" s="22">
         <v>0</v>
@@ -9375,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="O128" s="22">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="P128" s="22">
         <v>1</v>
@@ -9397,7 +9412,7 @@
     </row>
     <row r="129" spans="1:22" s="6" customFormat="1">
       <c r="A129" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B129" s="22">
         <v>1</v>
@@ -9410,7 +9425,7 @@
       </c>
       <c r="E129" s="22"/>
       <c r="F129" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G129" s="22" t="s">
         <v>237</v>
@@ -9419,7 +9434,7 @@
       <c r="I129" s="22"/>
       <c r="J129" s="22"/>
       <c r="K129" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L129" s="22">
         <v>0</v>
@@ -9431,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="O129" s="22">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="P129" s="22">
         <v>1</v>
@@ -9453,7 +9468,7 @@
     </row>
     <row r="130" spans="1:22" s="6" customFormat="1">
       <c r="A130" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B130" s="22">
         <v>1</v>
@@ -9466,7 +9481,7 @@
       </c>
       <c r="E130" s="22"/>
       <c r="F130" s="22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G130" s="22" t="s">
         <v>237</v>
@@ -9475,7 +9490,7 @@
       <c r="I130" s="22"/>
       <c r="J130" s="22"/>
       <c r="K130" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L130" s="22">
         <v>0</v>
@@ -9487,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="O130" s="22">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="P130" s="22">
         <v>1</v>
@@ -9509,7 +9524,7 @@
     </row>
     <row r="131" spans="1:22" s="6" customFormat="1">
       <c r="A131" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B131" s="22">
         <v>1</v>
@@ -9522,7 +9537,7 @@
       </c>
       <c r="E131" s="22"/>
       <c r="F131" s="22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G131" s="22" t="s">
         <v>237</v>
@@ -9531,7 +9546,7 @@
       <c r="I131" s="22"/>
       <c r="J131" s="22"/>
       <c r="K131" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L131" s="22">
         <v>0</v>
@@ -9543,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="O131" s="22">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="P131" s="22">
         <v>1</v>
@@ -9563,130 +9578,128 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:22" s="8" customFormat="1">
-      <c r="A132" s="24" t="s">
+    <row r="132" spans="1:22" s="6" customFormat="1">
+      <c r="A132" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="B132" s="22">
+        <v>1</v>
+      </c>
+      <c r="C132" s="22">
+        <v>7</v>
+      </c>
+      <c r="D132" s="22">
+        <v>0</v>
+      </c>
+      <c r="E132" s="22"/>
+      <c r="F132" s="22">
+        <v>10</v>
+      </c>
+      <c r="G132" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="H132" s="22"/>
+      <c r="I132" s="22"/>
+      <c r="J132" s="22"/>
+      <c r="K132" s="22">
+        <v>1000</v>
+      </c>
+      <c r="L132" s="22">
+        <v>0</v>
+      </c>
+      <c r="M132" s="22">
+        <v>1</v>
+      </c>
+      <c r="N132" s="22">
+        <v>0</v>
+      </c>
+      <c r="O132" s="22">
+        <v>1000</v>
+      </c>
+      <c r="P132" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q132" s="22"/>
+      <c r="R132" s="22"/>
+      <c r="S132" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="T132" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="U132" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="V132" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" s="8" customFormat="1">
+      <c r="A133" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="B132" s="25">
+      <c r="B133" s="25">
         <v>3</v>
       </c>
-      <c r="C132" s="25">
-        <v>0</v>
-      </c>
-      <c r="D132" s="25">
-        <v>1</v>
-      </c>
-      <c r="E132" s="25"/>
-      <c r="F132" s="25">
-        <v>0</v>
-      </c>
-      <c r="G132" s="24" t="s">
+      <c r="C133" s="25">
+        <v>0</v>
+      </c>
+      <c r="D133" s="25">
+        <v>1</v>
+      </c>
+      <c r="E133" s="25"/>
+      <c r="F133" s="25">
+        <v>0</v>
+      </c>
+      <c r="G133" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="H132" s="25"/>
-      <c r="I132" s="25"/>
-      <c r="J132" s="28"/>
-      <c r="K132" s="25">
-        <v>0</v>
-      </c>
-      <c r="L132" s="25">
-        <v>0</v>
-      </c>
-      <c r="M132" s="25">
-        <v>1</v>
-      </c>
-      <c r="N132" s="25">
-        <v>0</v>
-      </c>
-      <c r="O132" s="25">
-        <v>1000</v>
-      </c>
-      <c r="P132" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q132" s="25"/>
-      <c r="R132" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="S132" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="T132" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="U132" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="V132" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:22" s="8" customFormat="1">
-      <c r="A133" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="B133" s="27">
-        <v>3</v>
-      </c>
-      <c r="C133" s="27">
-        <v>0</v>
-      </c>
-      <c r="D133" s="27">
-        <v>1</v>
-      </c>
-      <c r="E133" s="27"/>
-      <c r="F133" s="27">
-        <v>0</v>
-      </c>
-      <c r="G133" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="H133" s="27"/>
-      <c r="I133" s="27"/>
-      <c r="J133" s="29"/>
-      <c r="K133" s="27">
-        <v>0</v>
-      </c>
-      <c r="L133" s="27">
-        <v>0</v>
-      </c>
-      <c r="M133" s="27">
-        <v>1</v>
-      </c>
-      <c r="N133" s="27">
+      <c r="H133" s="25"/>
+      <c r="I133" s="25"/>
+      <c r="J133" s="28"/>
+      <c r="K133" s="25">
+        <v>0</v>
+      </c>
+      <c r="L133" s="25">
+        <v>0</v>
+      </c>
+      <c r="M133" s="25">
+        <v>1</v>
+      </c>
+      <c r="N133" s="25">
         <v>0</v>
       </c>
       <c r="O133" s="25">
         <v>1000</v>
       </c>
-      <c r="P133" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q133" s="27"/>
+      <c r="P133" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q133" s="25"/>
       <c r="R133" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S133" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="T133" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="U133" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="V133" s="27">
+      <c r="T133" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="U133" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="V133" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:22" s="8" customFormat="1">
       <c r="A134" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="B134" s="25">
+        <v>252</v>
+      </c>
+      <c r="B134" s="27">
         <v>3</v>
       </c>
-      <c r="C134" s="25">
+      <c r="C134" s="27">
         <v>0</v>
       </c>
       <c r="D134" s="27">
@@ -9697,7 +9710,7 @@
         <v>0</v>
       </c>
       <c r="G134" s="26" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
@@ -9722,16 +9735,16 @@
       </c>
       <c r="Q134" s="27"/>
       <c r="R134" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S134" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T134" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U134" s="27" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="V134" s="27">
         <v>0</v>
@@ -9739,12 +9752,12 @@
     </row>
     <row r="135" spans="1:22" s="8" customFormat="1">
       <c r="A135" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="B135" s="27">
+        <v>255</v>
+      </c>
+      <c r="B135" s="25">
         <v>3</v>
       </c>
-      <c r="C135" s="27">
+      <c r="C135" s="25">
         <v>0</v>
       </c>
       <c r="D135" s="27">
@@ -9755,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="26" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
@@ -9780,16 +9793,16 @@
       </c>
       <c r="Q135" s="27"/>
       <c r="R135" s="30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S135" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T135" s="26" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="U135" s="27" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="V135" s="27">
         <v>0</v>
@@ -9797,12 +9810,12 @@
     </row>
     <row r="136" spans="1:22" s="8" customFormat="1">
       <c r="A136" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="B136" s="25">
+        <v>258</v>
+      </c>
+      <c r="B136" s="27">
         <v>3</v>
       </c>
-      <c r="C136" s="25">
+      <c r="C136" s="27">
         <v>0</v>
       </c>
       <c r="D136" s="27">
@@ -9813,7 +9826,7 @@
         <v>0</v>
       </c>
       <c r="G136" s="26" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
@@ -9838,16 +9851,16 @@
       </c>
       <c r="Q136" s="27"/>
       <c r="R136" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S136" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T136" s="26" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="U136" s="27" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="V136" s="27">
         <v>0</v>
@@ -9855,12 +9868,12 @@
     </row>
     <row r="137" spans="1:22" s="8" customFormat="1">
       <c r="A137" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="B137" s="27">
+        <v>262</v>
+      </c>
+      <c r="B137" s="25">
         <v>3</v>
       </c>
-      <c r="C137" s="27">
+      <c r="C137" s="25">
         <v>0</v>
       </c>
       <c r="D137" s="27">
@@ -9871,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="26" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
@@ -9896,16 +9909,16 @@
       </c>
       <c r="Q137" s="27"/>
       <c r="R137" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S137" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T137" s="26" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="U137" s="27" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="V137" s="27">
         <v>0</v>
@@ -9913,12 +9926,12 @@
     </row>
     <row r="138" spans="1:22" s="8" customFormat="1">
       <c r="A138" s="26" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B138" s="27">
         <v>3</v>
       </c>
-      <c r="C138" s="25">
+      <c r="C138" s="27">
         <v>0</v>
       </c>
       <c r="D138" s="27">
@@ -9929,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="26" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
@@ -9954,16 +9967,16 @@
       </c>
       <c r="Q138" s="27"/>
       <c r="R138" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S138" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T138" s="26" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="U138" s="27" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="V138" s="27">
         <v>0</v>
@@ -9971,12 +9984,12 @@
     </row>
     <row r="139" spans="1:22" s="8" customFormat="1">
       <c r="A139" s="26" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B139" s="27">
         <v>3</v>
       </c>
-      <c r="C139" s="27">
+      <c r="C139" s="25">
         <v>0</v>
       </c>
       <c r="D139" s="27">
@@ -9987,7 +10000,7 @@
         <v>0</v>
       </c>
       <c r="G139" s="26" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
@@ -10012,16 +10025,16 @@
       </c>
       <c r="Q139" s="27"/>
       <c r="R139" s="30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S139" s="12" t="s">
         <v>282</v>
       </c>
       <c r="T139" s="26" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="U139" s="27" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="V139" s="27">
         <v>0</v>
@@ -10029,12 +10042,12 @@
     </row>
     <row r="140" spans="1:22" s="8" customFormat="1">
       <c r="A140" s="26" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B140" s="27">
         <v>3</v>
       </c>
-      <c r="C140" s="25">
+      <c r="C140" s="27">
         <v>0</v>
       </c>
       <c r="D140" s="27">
@@ -10045,7 +10058,7 @@
         <v>0</v>
       </c>
       <c r="G140" s="26" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
@@ -10070,82 +10083,82 @@
       </c>
       <c r="Q140" s="27"/>
       <c r="R140" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="S140" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="T140" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="U140" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="V140" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" s="8" customFormat="1">
+      <c r="A141" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" s="27">
+        <v>3</v>
+      </c>
+      <c r="C141" s="25">
+        <v>0</v>
+      </c>
+      <c r="D141" s="27">
+        <v>1</v>
+      </c>
+      <c r="E141" s="27"/>
+      <c r="F141" s="27">
+        <v>0</v>
+      </c>
+      <c r="G141" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="H141" s="27"/>
+      <c r="I141" s="27"/>
+      <c r="J141" s="29"/>
+      <c r="K141" s="27">
+        <v>0</v>
+      </c>
+      <c r="L141" s="27">
+        <v>0</v>
+      </c>
+      <c r="M141" s="27">
+        <v>1</v>
+      </c>
+      <c r="N141" s="27">
+        <v>0</v>
+      </c>
+      <c r="O141" s="25">
+        <v>1000</v>
+      </c>
+      <c r="P141" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q141" s="27"/>
+      <c r="R141" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="S140" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="T140" s="26" t="s">
+      <c r="S141" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="T141" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="U140" s="27" t="s">
+      <c r="U141" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="V140" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:22" s="34" customFormat="1">
-      <c r="A141" s="31" t="s">
+      <c r="V141" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" s="34" customFormat="1">
+      <c r="A142" s="31" t="s">
         <v>295</v>
-      </c>
-      <c r="B141" s="32">
-        <v>4</v>
-      </c>
-      <c r="C141" s="32">
-        <v>4</v>
-      </c>
-      <c r="D141" s="32">
-        <v>0</v>
-      </c>
-      <c r="E141" s="32"/>
-      <c r="F141" s="32">
-        <v>1</v>
-      </c>
-      <c r="G141" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="H141" s="32"/>
-      <c r="I141" s="32"/>
-      <c r="J141" s="32"/>
-      <c r="K141" s="32">
-        <v>20</v>
-      </c>
-      <c r="L141" s="32">
-        <v>0</v>
-      </c>
-      <c r="M141" s="32">
-        <v>1</v>
-      </c>
-      <c r="N141" s="32">
-        <v>0</v>
-      </c>
-      <c r="O141" s="32">
-        <v>20</v>
-      </c>
-      <c r="P141" s="32">
-        <v>1</v>
-      </c>
-      <c r="Q141" s="32"/>
-      <c r="R141" s="32" t="s">
-        <v>441</v>
-      </c>
-      <c r="S141" s="33" t="s">
-        <v>477</v>
-      </c>
-      <c r="T141" s="32" t="s">
-        <v>405</v>
-      </c>
-      <c r="U141" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="V141" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:22" s="34" customFormat="1">
-      <c r="A142" s="35" t="s">
-        <v>296</v>
       </c>
       <c r="B142" s="32">
         <v>4</v>
@@ -10158,16 +10171,16 @@
       </c>
       <c r="E142" s="32"/>
       <c r="F142" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G142" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H142" s="32"/>
       <c r="I142" s="32"/>
       <c r="J142" s="32"/>
       <c r="K142" s="32">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L142" s="32">
         <v>0</v>
@@ -10179,23 +10192,23 @@
         <v>0</v>
       </c>
       <c r="O142" s="32">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P142" s="32">
         <v>1</v>
       </c>
       <c r="Q142" s="32"/>
       <c r="R142" s="32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S142" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T142" s="32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="U142" s="32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="V142" s="32">
         <v>0</v>
@@ -10203,7 +10216,7 @@
     </row>
     <row r="143" spans="1:22" s="34" customFormat="1">
       <c r="A143" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B143" s="32">
         <v>4</v>
@@ -10216,16 +10229,16 @@
       </c>
       <c r="E143" s="32"/>
       <c r="F143" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G143" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H143" s="32"/>
       <c r="I143" s="32"/>
       <c r="J143" s="32"/>
       <c r="K143" s="32">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="L143" s="32">
         <v>0</v>
@@ -10237,23 +10250,23 @@
         <v>0</v>
       </c>
       <c r="O143" s="32">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P143" s="32">
         <v>1</v>
       </c>
       <c r="Q143" s="32"/>
       <c r="R143" s="32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="S143" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T143" s="32" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="U143" s="32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="V143" s="32">
         <v>0</v>
@@ -10261,7 +10274,7 @@
     </row>
     <row r="144" spans="1:22" s="34" customFormat="1">
       <c r="A144" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B144" s="32">
         <v>4</v>
@@ -10274,16 +10287,16 @@
       </c>
       <c r="E144" s="32"/>
       <c r="F144" s="32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G144" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H144" s="32"/>
       <c r="I144" s="32"/>
       <c r="J144" s="32"/>
       <c r="K144" s="32">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="L144" s="32">
         <v>0</v>
@@ -10295,23 +10308,23 @@
         <v>0</v>
       </c>
       <c r="O144" s="32">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="P144" s="32">
         <v>1</v>
       </c>
       <c r="Q144" s="32"/>
       <c r="R144" s="32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="S144" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T144" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="U144" s="32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="V144" s="32">
         <v>0</v>
@@ -10319,7 +10332,7 @@
     </row>
     <row r="145" spans="1:22" s="34" customFormat="1">
       <c r="A145" s="35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B145" s="32">
         <v>4</v>
@@ -10332,16 +10345,16 @@
       </c>
       <c r="E145" s="32"/>
       <c r="F145" s="32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G145" s="32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H145" s="32"/>
       <c r="I145" s="32"/>
       <c r="J145" s="32"/>
       <c r="K145" s="32">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="L145" s="32">
         <v>0</v>
@@ -10353,23 +10366,23 @@
         <v>0</v>
       </c>
       <c r="O145" s="32">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="P145" s="32">
         <v>1</v>
       </c>
       <c r="Q145" s="32"/>
       <c r="R145" s="32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S145" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T145" s="32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U145" s="32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="V145" s="32">
         <v>0</v>
@@ -10377,7 +10390,7 @@
     </row>
     <row r="146" spans="1:22" s="34" customFormat="1">
       <c r="A146" s="35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B146" s="32">
         <v>4</v>
@@ -10390,16 +10403,16 @@
       </c>
       <c r="E146" s="32"/>
       <c r="F146" s="32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G146" s="32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H146" s="32"/>
       <c r="I146" s="32"/>
       <c r="J146" s="32"/>
       <c r="K146" s="32">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L146" s="32">
         <v>0</v>
@@ -10411,23 +10424,23 @@
         <v>0</v>
       </c>
       <c r="O146" s="32">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="P146" s="32">
         <v>1</v>
       </c>
       <c r="Q146" s="32"/>
       <c r="R146" s="32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S146" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T146" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U146" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="V146" s="32">
         <v>0</v>
@@ -10435,7 +10448,7 @@
     </row>
     <row r="147" spans="1:22" s="34" customFormat="1">
       <c r="A147" s="35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B147" s="32">
         <v>4</v>
@@ -10448,16 +10461,16 @@
       </c>
       <c r="E147" s="32"/>
       <c r="F147" s="32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G147" s="32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H147" s="32"/>
       <c r="I147" s="32"/>
       <c r="J147" s="32"/>
       <c r="K147" s="32">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="L147" s="32">
         <v>0</v>
@@ -10469,23 +10482,23 @@
         <v>0</v>
       </c>
       <c r="O147" s="32">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="P147" s="32">
         <v>1</v>
       </c>
       <c r="Q147" s="32"/>
       <c r="R147" s="32" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S147" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T147" s="32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="U147" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="V147" s="32">
         <v>0</v>
@@ -10493,7 +10506,7 @@
     </row>
     <row r="148" spans="1:22" s="34" customFormat="1">
       <c r="A148" s="35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B148" s="32">
         <v>4</v>
@@ -10506,16 +10519,16 @@
       </c>
       <c r="E148" s="32"/>
       <c r="F148" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G148" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H148" s="32"/>
       <c r="I148" s="32"/>
       <c r="J148" s="32"/>
       <c r="K148" s="32">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="L148" s="32">
         <v>0</v>
@@ -10527,23 +10540,23 @@
         <v>0</v>
       </c>
       <c r="O148" s="32">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="P148" s="32">
         <v>1</v>
       </c>
       <c r="Q148" s="32"/>
       <c r="R148" s="32" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="S148" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T148" s="32" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="U148" s="32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="V148" s="32">
         <v>0</v>
@@ -10551,7 +10564,7 @@
     </row>
     <row r="149" spans="1:22" s="34" customFormat="1">
       <c r="A149" s="35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B149" s="32">
         <v>4</v>
@@ -10564,16 +10577,16 @@
       </c>
       <c r="E149" s="32"/>
       <c r="F149" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G149" s="32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H149" s="32"/>
       <c r="I149" s="32"/>
       <c r="J149" s="32"/>
       <c r="K149" s="32">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L149" s="32">
         <v>0</v>
@@ -10585,23 +10598,23 @@
         <v>0</v>
       </c>
       <c r="O149" s="32">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P149" s="32">
         <v>1</v>
       </c>
       <c r="Q149" s="32"/>
       <c r="R149" s="32" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="S149" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T149" s="32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U149" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="V149" s="32">
         <v>0</v>
@@ -10609,7 +10622,7 @@
     </row>
     <row r="150" spans="1:22" s="34" customFormat="1">
       <c r="A150" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B150" s="32">
         <v>4</v>
@@ -10622,16 +10635,16 @@
       </c>
       <c r="E150" s="32"/>
       <c r="F150" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G150" s="32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H150" s="32"/>
       <c r="I150" s="32"/>
       <c r="J150" s="32"/>
       <c r="K150" s="32">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="L150" s="32">
         <v>0</v>
@@ -10643,23 +10656,23 @@
         <v>0</v>
       </c>
       <c r="O150" s="32">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P150" s="32">
         <v>1</v>
       </c>
       <c r="Q150" s="32"/>
       <c r="R150" s="32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="S150" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T150" s="32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U150" s="32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="V150" s="32">
         <v>0</v>
@@ -10667,7 +10680,7 @@
     </row>
     <row r="151" spans="1:22" s="34" customFormat="1">
       <c r="A151" s="35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B151" s="32">
         <v>4</v>
@@ -10680,16 +10693,16 @@
       </c>
       <c r="E151" s="32"/>
       <c r="F151" s="32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G151" s="32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H151" s="32"/>
       <c r="I151" s="32"/>
       <c r="J151" s="32"/>
       <c r="K151" s="32">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="L151" s="32">
         <v>0</v>
@@ -10701,23 +10714,23 @@
         <v>0</v>
       </c>
       <c r="O151" s="32">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="P151" s="32">
         <v>1</v>
       </c>
       <c r="Q151" s="32"/>
       <c r="R151" s="32" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="S151" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T151" s="32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U151" s="32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="V151" s="32">
         <v>0</v>
@@ -10725,7 +10738,7 @@
     </row>
     <row r="152" spans="1:22" s="34" customFormat="1">
       <c r="A152" s="35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B152" s="32">
         <v>4</v>
@@ -10738,16 +10751,16 @@
       </c>
       <c r="E152" s="32"/>
       <c r="F152" s="32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G152" s="32" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H152" s="32"/>
       <c r="I152" s="32"/>
       <c r="J152" s="32"/>
       <c r="K152" s="32">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="L152" s="32">
         <v>0</v>
@@ -10759,23 +10772,23 @@
         <v>0</v>
       </c>
       <c r="O152" s="32">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="P152" s="32">
         <v>1</v>
       </c>
       <c r="Q152" s="32"/>
       <c r="R152" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="S152" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T152" s="32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="U152" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="V152" s="32">
         <v>0</v>
@@ -10783,7 +10796,7 @@
     </row>
     <row r="153" spans="1:22" s="34" customFormat="1">
       <c r="A153" s="35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B153" s="32">
         <v>4</v>
@@ -10796,16 +10809,16 @@
       </c>
       <c r="E153" s="32"/>
       <c r="F153" s="32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G153" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H153" s="32"/>
       <c r="I153" s="32"/>
       <c r="J153" s="32"/>
       <c r="K153" s="32">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L153" s="32">
         <v>0</v>
@@ -10817,23 +10830,23 @@
         <v>0</v>
       </c>
       <c r="O153" s="32">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="P153" s="32">
         <v>1</v>
       </c>
       <c r="Q153" s="32"/>
       <c r="R153" s="32" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="S153" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T153" s="32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="U153" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V153" s="32">
         <v>0</v>
@@ -10841,7 +10854,7 @@
     </row>
     <row r="154" spans="1:22" s="34" customFormat="1">
       <c r="A154" s="35" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B154" s="32">
         <v>4</v>
@@ -10854,16 +10867,16 @@
       </c>
       <c r="E154" s="32"/>
       <c r="F154" s="32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G154" s="32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H154" s="32"/>
       <c r="I154" s="32"/>
       <c r="J154" s="32"/>
       <c r="K154" s="32">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="L154" s="32">
         <v>0</v>
@@ -10875,23 +10888,23 @@
         <v>0</v>
       </c>
       <c r="O154" s="32">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="P154" s="32">
         <v>1</v>
       </c>
       <c r="Q154" s="32"/>
       <c r="R154" s="32" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="S154" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T154" s="32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U154" s="32" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V154" s="32">
         <v>0</v>
@@ -10899,7 +10912,7 @@
     </row>
     <row r="155" spans="1:22" s="34" customFormat="1">
       <c r="A155" s="35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B155" s="32">
         <v>4</v>
@@ -10912,16 +10925,16 @@
       </c>
       <c r="E155" s="32"/>
       <c r="F155" s="32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G155" s="32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H155" s="32"/>
       <c r="I155" s="32"/>
       <c r="J155" s="32"/>
       <c r="K155" s="32">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="L155" s="32">
         <v>0</v>
@@ -10933,23 +10946,23 @@
         <v>0</v>
       </c>
       <c r="O155" s="32">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="P155" s="32">
         <v>1</v>
       </c>
       <c r="Q155" s="32"/>
       <c r="R155" s="32" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="S155" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T155" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="U155" s="32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="V155" s="32">
         <v>0</v>
@@ -10957,7 +10970,7 @@
     </row>
     <row r="156" spans="1:22" s="34" customFormat="1">
       <c r="A156" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B156" s="32">
         <v>4</v>
@@ -10970,16 +10983,16 @@
       </c>
       <c r="E156" s="32"/>
       <c r="F156" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G156" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H156" s="32"/>
       <c r="I156" s="32"/>
       <c r="J156" s="32"/>
       <c r="K156" s="32">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L156" s="32">
         <v>0</v>
@@ -10991,23 +11004,23 @@
         <v>0</v>
       </c>
       <c r="O156" s="32">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P156" s="32">
         <v>1</v>
       </c>
       <c r="Q156" s="32"/>
       <c r="R156" s="32" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="S156" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T156" s="32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="U156" s="32" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="V156" s="32">
         <v>0</v>
@@ -11015,7 +11028,7 @@
     </row>
     <row r="157" spans="1:22" s="34" customFormat="1">
       <c r="A157" s="35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B157" s="32">
         <v>4</v>
@@ -11028,16 +11041,16 @@
       </c>
       <c r="E157" s="32"/>
       <c r="F157" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G157" s="32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H157" s="32"/>
       <c r="I157" s="32"/>
       <c r="J157" s="32"/>
       <c r="K157" s="32">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="L157" s="32">
         <v>0</v>
@@ -11049,23 +11062,23 @@
         <v>0</v>
       </c>
       <c r="O157" s="32">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P157" s="32">
         <v>1</v>
       </c>
       <c r="Q157" s="32"/>
       <c r="R157" s="32" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="S157" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T157" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="U157" s="32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="V157" s="32">
         <v>0</v>
@@ -11073,7 +11086,7 @@
     </row>
     <row r="158" spans="1:22" s="34" customFormat="1">
       <c r="A158" s="35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B158" s="32">
         <v>4</v>
@@ -11086,16 +11099,16 @@
       </c>
       <c r="E158" s="32"/>
       <c r="F158" s="32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G158" s="32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H158" s="32"/>
       <c r="I158" s="32"/>
       <c r="J158" s="32"/>
       <c r="K158" s="32">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="L158" s="32">
         <v>0</v>
@@ -11107,23 +11120,23 @@
         <v>0</v>
       </c>
       <c r="O158" s="32">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="P158" s="32">
         <v>1</v>
       </c>
       <c r="Q158" s="32"/>
       <c r="R158" s="32" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="S158" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T158" s="32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="U158" s="32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="V158" s="32">
         <v>0</v>
@@ -11131,7 +11144,7 @@
     </row>
     <row r="159" spans="1:22" s="34" customFormat="1">
       <c r="A159" s="35" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B159" s="32">
         <v>4</v>
@@ -11144,16 +11157,16 @@
       </c>
       <c r="E159" s="32"/>
       <c r="F159" s="32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G159" s="32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H159" s="32"/>
       <c r="I159" s="32"/>
       <c r="J159" s="32"/>
       <c r="K159" s="32">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="L159" s="32">
         <v>0</v>
@@ -11165,23 +11178,23 @@
         <v>0</v>
       </c>
       <c r="O159" s="32">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="P159" s="32">
         <v>1</v>
       </c>
       <c r="Q159" s="32"/>
       <c r="R159" s="32" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="S159" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T159" s="32" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="U159" s="32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="V159" s="32">
         <v>0</v>
@@ -11189,7 +11202,7 @@
     </row>
     <row r="160" spans="1:22" s="34" customFormat="1">
       <c r="A160" s="35" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B160" s="32">
         <v>4</v>
@@ -11202,16 +11215,16 @@
       </c>
       <c r="E160" s="32"/>
       <c r="F160" s="32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G160" s="32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H160" s="32"/>
       <c r="I160" s="32"/>
       <c r="J160" s="32"/>
       <c r="K160" s="32">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L160" s="32">
         <v>0</v>
@@ -11223,23 +11236,23 @@
         <v>0</v>
       </c>
       <c r="O160" s="32">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="P160" s="32">
         <v>1</v>
       </c>
       <c r="Q160" s="32"/>
       <c r="R160" s="32" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="S160" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T160" s="32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U160" s="32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="V160" s="32">
         <v>0</v>
@@ -11247,7 +11260,7 @@
     </row>
     <row r="161" spans="1:22" s="34" customFormat="1">
       <c r="A161" s="35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B161" s="32">
         <v>4</v>
@@ -11260,16 +11273,16 @@
       </c>
       <c r="E161" s="32"/>
       <c r="F161" s="32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G161" s="32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H161" s="32"/>
       <c r="I161" s="32"/>
       <c r="J161" s="32"/>
       <c r="K161" s="32">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="L161" s="32">
         <v>0</v>
@@ -11281,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="O161" s="32">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="P161" s="32">
         <v>1</v>
       </c>
       <c r="Q161" s="32"/>
       <c r="R161" s="32" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S161" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T161" s="32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U161" s="32" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="V161" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:22" s="36" customFormat="1">
+    <row r="162" spans="1:22" s="34" customFormat="1">
       <c r="A162" s="35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B162" s="32">
         <v>4</v>
@@ -11321,7 +11334,7 @@
         <v>7</v>
       </c>
       <c r="G162" s="32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H162" s="32"/>
       <c r="I162" s="32"/>
@@ -11346,16 +11359,16 @@
       </c>
       <c r="Q162" s="32"/>
       <c r="R162" s="32" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="S162" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T162" s="32" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U162" s="32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="V162" s="32">
         <v>0</v>
@@ -11363,7 +11376,7 @@
     </row>
     <row r="163" spans="1:22" s="36" customFormat="1">
       <c r="A163" s="35" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B163" s="32">
         <v>4</v>
@@ -11379,7 +11392,7 @@
         <v>7</v>
       </c>
       <c r="G163" s="32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H163" s="32"/>
       <c r="I163" s="32"/>
@@ -11404,16 +11417,16 @@
       </c>
       <c r="Q163" s="32"/>
       <c r="R163" s="32" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="S163" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T163" s="32" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="U163" s="32" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="V163" s="32">
         <v>0</v>
@@ -11421,7 +11434,7 @@
     </row>
     <row r="164" spans="1:22" s="36" customFormat="1">
       <c r="A164" s="35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B164" s="32">
         <v>4</v>
@@ -11437,7 +11450,7 @@
         <v>7</v>
       </c>
       <c r="G164" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H164" s="32"/>
       <c r="I164" s="32"/>
@@ -11462,16 +11475,16 @@
       </c>
       <c r="Q164" s="32"/>
       <c r="R164" s="32" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="S164" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T164" s="32" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="U164" s="32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="V164" s="32">
         <v>0</v>
@@ -11479,7 +11492,7 @@
     </row>
     <row r="165" spans="1:22" s="36" customFormat="1">
       <c r="A165" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B165" s="32">
         <v>4</v>
@@ -11495,7 +11508,7 @@
         <v>7</v>
       </c>
       <c r="G165" s="32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H165" s="32"/>
       <c r="I165" s="32"/>
@@ -11520,16 +11533,16 @@
       </c>
       <c r="Q165" s="32"/>
       <c r="R165" s="32" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="S165" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T165" s="32" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U165" s="32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="V165" s="32">
         <v>0</v>
@@ -11537,7 +11550,7 @@
     </row>
     <row r="166" spans="1:22" s="36" customFormat="1">
       <c r="A166" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B166" s="32">
         <v>4</v>
@@ -11553,7 +11566,7 @@
         <v>7</v>
       </c>
       <c r="G166" s="32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H166" s="32"/>
       <c r="I166" s="32"/>
@@ -11578,16 +11591,16 @@
       </c>
       <c r="Q166" s="32"/>
       <c r="R166" s="32" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="S166" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T166" s="32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U166" s="32" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="V166" s="32">
         <v>0</v>
@@ -11595,7 +11608,7 @@
     </row>
     <row r="167" spans="1:22" s="36" customFormat="1">
       <c r="A167" s="35" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B167" s="32">
         <v>4</v>
@@ -11611,7 +11624,7 @@
         <v>7</v>
       </c>
       <c r="G167" s="32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H167" s="32"/>
       <c r="I167" s="32"/>
@@ -11636,16 +11649,16 @@
       </c>
       <c r="Q167" s="32"/>
       <c r="R167" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="S167" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T167" s="32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="U167" s="32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="V167" s="32">
         <v>0</v>
@@ -11653,7 +11666,7 @@
     </row>
     <row r="168" spans="1:22" s="36" customFormat="1">
       <c r="A168" s="35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B168" s="32">
         <v>4</v>
@@ -11669,7 +11682,7 @@
         <v>7</v>
       </c>
       <c r="G168" s="32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H168" s="32"/>
       <c r="I168" s="32"/>
@@ -11694,16 +11707,16 @@
       </c>
       <c r="Q168" s="32"/>
       <c r="R168" s="32" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="S168" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T168" s="32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="U168" s="32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="V168" s="32">
         <v>0</v>
@@ -11711,7 +11724,7 @@
     </row>
     <row r="169" spans="1:22" s="36" customFormat="1">
       <c r="A169" s="35" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B169" s="32">
         <v>4</v>
@@ -11727,7 +11740,7 @@
         <v>7</v>
       </c>
       <c r="G169" s="32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H169" s="32"/>
       <c r="I169" s="32"/>
@@ -11752,16 +11765,16 @@
       </c>
       <c r="Q169" s="32"/>
       <c r="R169" s="32" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="S169" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T169" s="32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="U169" s="32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="V169" s="32">
         <v>0</v>
@@ -11769,7 +11782,7 @@
     </row>
     <row r="170" spans="1:22" s="36" customFormat="1">
       <c r="A170" s="35" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B170" s="32">
         <v>4</v>
@@ -11785,7 +11798,7 @@
         <v>7</v>
       </c>
       <c r="G170" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H170" s="32"/>
       <c r="I170" s="32"/>
@@ -11810,16 +11823,16 @@
       </c>
       <c r="Q170" s="32"/>
       <c r="R170" s="32" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="S170" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T170" s="32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="U170" s="32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="V170" s="32">
         <v>0</v>
@@ -11827,7 +11840,7 @@
     </row>
     <row r="171" spans="1:22" s="36" customFormat="1">
       <c r="A171" s="35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B171" s="32">
         <v>4</v>
@@ -11843,7 +11856,7 @@
         <v>7</v>
       </c>
       <c r="G171" s="32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H171" s="32"/>
       <c r="I171" s="32"/>
@@ -11868,16 +11881,16 @@
       </c>
       <c r="Q171" s="32"/>
       <c r="R171" s="32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="S171" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T171" s="32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="U171" s="32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="V171" s="32">
         <v>0</v>
@@ -11885,7 +11898,7 @@
     </row>
     <row r="172" spans="1:22" s="36" customFormat="1">
       <c r="A172" s="35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B172" s="32">
         <v>4</v>
@@ -11901,7 +11914,7 @@
         <v>7</v>
       </c>
       <c r="G172" s="32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H172" s="32"/>
       <c r="I172" s="32"/>
@@ -11926,24 +11939,24 @@
       </c>
       <c r="Q172" s="32"/>
       <c r="R172" s="32" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="S172" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T172" s="32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="U172" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="V172" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:22" s="36" customFormat="1" ht="14.65" thickBot="1">
-      <c r="A173" s="37" t="s">
-        <v>327</v>
+    <row r="173" spans="1:22" s="36" customFormat="1">
+      <c r="A173" s="35" t="s">
+        <v>326</v>
       </c>
       <c r="B173" s="32">
         <v>4</v>
@@ -11959,7 +11972,7 @@
         <v>7</v>
       </c>
       <c r="G173" s="32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H173" s="32"/>
       <c r="I173" s="32"/>
@@ -11984,24 +11997,24 @@
       </c>
       <c r="Q173" s="32"/>
       <c r="R173" s="32" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="S173" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T173" s="32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U173" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="V173" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:22" s="36" customFormat="1">
-      <c r="A174" s="35" t="s">
-        <v>328</v>
+    <row r="174" spans="1:22" s="36" customFormat="1" ht="14.65" thickBot="1">
+      <c r="A174" s="37" t="s">
+        <v>327</v>
       </c>
       <c r="B174" s="32">
         <v>4</v>
@@ -12017,7 +12030,7 @@
         <v>7</v>
       </c>
       <c r="G174" s="32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H174" s="32"/>
       <c r="I174" s="32"/>
@@ -12042,16 +12055,16 @@
       </c>
       <c r="Q174" s="32"/>
       <c r="R174" s="32" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="S174" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T174" s="32" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="U174" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="V174" s="32">
         <v>0</v>
@@ -12059,7 +12072,7 @@
     </row>
     <row r="175" spans="1:22" s="36" customFormat="1">
       <c r="A175" s="35" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B175" s="32">
         <v>4</v>
@@ -12075,7 +12088,7 @@
         <v>7</v>
       </c>
       <c r="G175" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H175" s="32"/>
       <c r="I175" s="32"/>
@@ -12100,24 +12113,24 @@
       </c>
       <c r="Q175" s="32"/>
       <c r="R175" s="32" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="S175" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T175" s="32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="U175" s="32" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V175" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:22" s="36" customFormat="1" ht="14.65" thickBot="1">
-      <c r="A176" s="37" t="s">
-        <v>330</v>
+    <row r="176" spans="1:22" s="36" customFormat="1">
+      <c r="A176" s="35" t="s">
+        <v>329</v>
       </c>
       <c r="B176" s="32">
         <v>4</v>
@@ -12133,7 +12146,7 @@
         <v>7</v>
       </c>
       <c r="G176" s="32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H176" s="32"/>
       <c r="I176" s="32"/>
@@ -12158,25 +12171,83 @@
       </c>
       <c r="Q176" s="32"/>
       <c r="R176" s="32" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S176" s="33" t="s">
         <v>477</v>
       </c>
       <c r="T176" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="U176" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="V176" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" s="36" customFormat="1" ht="14.65" thickBot="1">
+      <c r="A177" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="B177" s="32">
+        <v>4</v>
+      </c>
+      <c r="C177" s="32">
+        <v>4</v>
+      </c>
+      <c r="D177" s="32">
+        <v>0</v>
+      </c>
+      <c r="E177" s="32"/>
+      <c r="F177" s="32">
+        <v>7</v>
+      </c>
+      <c r="G177" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="H177" s="32"/>
+      <c r="I177" s="32"/>
+      <c r="J177" s="32"/>
+      <c r="K177" s="32">
+        <v>350</v>
+      </c>
+      <c r="L177" s="32">
+        <v>0</v>
+      </c>
+      <c r="M177" s="32">
+        <v>1</v>
+      </c>
+      <c r="N177" s="32">
+        <v>0</v>
+      </c>
+      <c r="O177" s="32">
+        <v>350</v>
+      </c>
+      <c r="P177" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q177" s="32"/>
+      <c r="R177" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="S177" s="33" t="s">
+        <v>477</v>
+      </c>
+      <c r="T177" s="32" t="s">
         <v>440</v>
       </c>
-      <c r="U176" s="32" t="s">
+      <c r="U177" s="32" t="s">
         <v>404</v>
       </c>
-      <c r="V176" s="32">
+      <c r="V177" s="32">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:V8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:V9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
